--- a/Unity/Assets/Config/Excel/ActivityConfig.xlsx
+++ b/Unity/Assets/Config/Excel/ActivityConfig.xlsx
@@ -148,7 +148,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="283">
   <si>
     <t>Id</t>
   </si>
@@ -609,6 +609,12 @@
     <t>1;120</t>
   </si>
   <si>
+    <t>1;130</t>
+  </si>
+  <si>
+    <t>1;140</t>
+  </si>
+  <si>
     <t>10010011;20</t>
   </si>
   <si>
@@ -775,6 +781,12 @@
   </si>
   <si>
     <t>1;1200</t>
+  </si>
+  <si>
+    <t>1;1300</t>
+  </si>
+  <si>
+    <t>1;1400</t>
   </si>
   <si>
     <t>3;500@10010041;10@10010083;20@10010087;3@10010046;1</t>
@@ -3277,7 +3289,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2">
-    <tableStyle name="MySqlDefault" count="2" xr9:uid="{E7BEF83A-E3C3-488D-8C55-CC0A19823880}">
+    <tableStyle name="MySqlDefault" count="2" xr9:uid="{F79290CB-48F1-4781-A0B6-3F83C373980F}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -3617,10 +3629,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C1:J185"/>
+  <dimension ref="C1:J189"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="G109" sqref="G109"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="G113" sqref="G113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
@@ -5076,274 +5088,270 @@
         <v>101</v>
       </c>
     </row>
-    <row r="70" ht="20.1" customHeight="1" spans="3:9">
+    <row r="70" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
       <c r="C70" s="11">
-        <v>24001</v>
+        <v>23013</v>
       </c>
       <c r="D70" s="11">
-        <v>24</v>
-      </c>
-      <c r="E70" s="13"/>
-      <c r="F70" s="12">
-        <v>5</v>
+        <v>23</v>
+      </c>
+      <c r="E70" s="11"/>
+      <c r="F70" s="11">
+        <v>13</v>
       </c>
       <c r="G70" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="H70" s="11" t="s">
+      <c r="H70" s="11"/>
+      <c r="I70" s="11" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="71" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
+      <c r="C71" s="11">
+        <v>23014</v>
+      </c>
+      <c r="D71" s="11">
+        <v>23</v>
+      </c>
+      <c r="E71" s="11"/>
+      <c r="F71" s="11">
+        <v>14</v>
+      </c>
+      <c r="G71" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="I70" s="11" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="71" ht="20.1" customHeight="1" spans="3:9">
-      <c r="C71" s="11">
-        <v>24002</v>
-      </c>
-      <c r="D71" s="11">
-        <v>24</v>
-      </c>
-      <c r="E71" s="13"/>
-      <c r="F71" s="12">
-        <v>7</v>
-      </c>
-      <c r="G71" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="H71" s="11" t="s">
-        <v>117</v>
-      </c>
+      <c r="H71" s="11"/>
       <c r="I71" s="11" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
     </row>
     <row r="72" ht="20.1" customHeight="1" spans="3:9">
       <c r="C72" s="11">
-        <v>24003</v>
+        <v>24001</v>
       </c>
       <c r="D72" s="11">
         <v>24</v>
       </c>
       <c r="E72" s="13"/>
       <c r="F72" s="12">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G72" s="11" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="H72" s="11" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="I72" s="11" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="73" ht="20.1" customHeight="1" spans="3:9">
       <c r="C73" s="11">
-        <v>24004</v>
+        <v>24002</v>
       </c>
       <c r="D73" s="11">
         <v>24</v>
       </c>
       <c r="E73" s="13"/>
       <c r="F73" s="12">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G73" s="11" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="H73" s="11" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="I73" s="11" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="74" ht="20.1" customHeight="1" spans="3:9">
       <c r="C74" s="11">
-        <v>24005</v>
+        <v>24003</v>
       </c>
       <c r="D74" s="11">
         <v>24</v>
       </c>
       <c r="E74" s="13"/>
       <c r="F74" s="12">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G74" s="11" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="H74" s="11" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="I74" s="11" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="75" ht="20.1" customHeight="1" spans="3:9">
       <c r="C75" s="11">
-        <v>24006</v>
+        <v>24004</v>
       </c>
       <c r="D75" s="11">
         <v>24</v>
       </c>
       <c r="E75" s="13"/>
       <c r="F75" s="12">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G75" s="11" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="H75" s="11" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="I75" s="11" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="76" ht="20.1" customHeight="1" spans="3:9">
       <c r="C76" s="11">
-        <v>24007</v>
+        <v>24005</v>
       </c>
       <c r="D76" s="11">
         <v>24</v>
       </c>
       <c r="E76" s="13"/>
       <c r="F76" s="12">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="G76" s="11" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H76" s="11" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="I76" s="11" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="77" ht="20.1" customHeight="1" spans="3:9">
       <c r="C77" s="11">
-        <v>24008</v>
+        <v>24006</v>
       </c>
       <c r="D77" s="11">
         <v>24</v>
       </c>
       <c r="E77" s="13"/>
       <c r="F77" s="12">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G77" s="11" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="H77" s="11" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="I77" s="11" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
     </row>
     <row r="78" ht="20.1" customHeight="1" spans="3:9">
       <c r="C78" s="11">
-        <v>24009</v>
+        <v>24007</v>
       </c>
       <c r="D78" s="11">
         <v>24</v>
       </c>
       <c r="E78" s="13"/>
       <c r="F78" s="12">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G78" s="11" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H78" s="11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I78" s="11" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
     </row>
     <row r="79" ht="20.1" customHeight="1" spans="3:9">
       <c r="C79" s="11">
-        <v>24010</v>
+        <v>24008</v>
       </c>
       <c r="D79" s="11">
         <v>24</v>
       </c>
       <c r="E79" s="13"/>
       <c r="F79" s="12">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="G79" s="11" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="H79" s="11" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="I79" s="11" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="80" ht="20.1" customHeight="1" spans="3:9">
       <c r="C80" s="11">
-        <v>24011</v>
+        <v>24009</v>
       </c>
       <c r="D80" s="11">
         <v>24</v>
       </c>
       <c r="E80" s="13"/>
       <c r="F80" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G80" s="11" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H80" s="11" t="s">
         <v>131</v>
       </c>
       <c r="I80" s="11" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="81" ht="20.1" customHeight="1" spans="3:9">
       <c r="C81" s="11">
-        <v>24012</v>
+        <v>24010</v>
       </c>
       <c r="D81" s="11">
         <v>24</v>
       </c>
       <c r="E81" s="13"/>
       <c r="F81" s="12">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="G81" s="11" t="s">
-        <v>120</v>
+        <v>134</v>
       </c>
       <c r="H81" s="11" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="I81" s="11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="82" ht="20.1" customHeight="1" spans="3:9">
       <c r="C82" s="11">
-        <v>24013</v>
+        <v>24011</v>
       </c>
       <c r="D82" s="11">
         <v>24</v>
       </c>
       <c r="E82" s="13"/>
       <c r="F82" s="12">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="G82" s="11" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="H82" s="11" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="I82" s="11" t="s">
         <v>137</v>
@@ -5351,370 +5359,374 @@
     </row>
     <row r="83" ht="20.1" customHeight="1" spans="3:9">
       <c r="C83" s="11">
-        <v>24014</v>
+        <v>24012</v>
       </c>
       <c r="D83" s="11">
         <v>24</v>
       </c>
       <c r="E83" s="13"/>
       <c r="F83" s="12">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G83" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="H83" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="I83" s="11" t="s">
         <v>138</v>
-      </c>
-      <c r="H83" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="I83" s="11" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="84" ht="20.1" customHeight="1" spans="3:9">
       <c r="C84" s="11">
-        <v>24015</v>
+        <v>24013</v>
       </c>
       <c r="D84" s="11">
         <v>24</v>
       </c>
       <c r="E84" s="13"/>
       <c r="F84" s="12">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G84" s="11" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="H84" s="11" t="s">
-        <v>142</v>
+        <v>122</v>
       </c>
       <c r="I84" s="11" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="85" ht="20.1" customHeight="1" spans="3:9">
       <c r="C85" s="11">
-        <v>24016</v>
+        <v>24014</v>
       </c>
       <c r="D85" s="11">
         <v>24</v>
       </c>
       <c r="E85" s="13"/>
       <c r="F85" s="12">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G85" s="11" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="H85" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="I85" s="11" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
     </row>
     <row r="86" ht="20.1" customHeight="1" spans="3:9">
       <c r="C86" s="11">
-        <v>24017</v>
+        <v>24015</v>
       </c>
       <c r="D86" s="11">
         <v>24</v>
       </c>
       <c r="E86" s="13"/>
       <c r="F86" s="12">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G86" s="11" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="H86" s="11" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="I86" s="11" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="87" ht="20.1" customHeight="1" spans="3:9">
       <c r="C87" s="11">
-        <v>24018</v>
+        <v>24016</v>
       </c>
       <c r="D87" s="11">
         <v>24</v>
       </c>
       <c r="E87" s="13"/>
       <c r="F87" s="12">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G87" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="H87" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="H87" s="11" t="s">
-        <v>144</v>
-      </c>
       <c r="I87" s="11" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="88" ht="20.1" customHeight="1" spans="3:9">
       <c r="C88" s="11">
-        <v>24019</v>
+        <v>24017</v>
       </c>
       <c r="D88" s="11">
         <v>24</v>
       </c>
       <c r="E88" s="13"/>
       <c r="F88" s="12">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G88" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="H88" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="I88" s="11" t="s">
         <v>145</v>
-      </c>
-      <c r="H88" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="I88" s="11" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="89" ht="20.1" customHeight="1" spans="3:9">
       <c r="C89" s="11">
-        <v>24020</v>
+        <v>24018</v>
       </c>
       <c r="D89" s="11">
         <v>24</v>
       </c>
       <c r="E89" s="13"/>
       <c r="F89" s="12">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G89" s="11" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="H89" s="11" t="s">
         <v>146</v>
       </c>
       <c r="I89" s="11" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
     </row>
     <row r="90" ht="20.1" customHeight="1" spans="3:9">
       <c r="C90" s="11">
-        <v>24021</v>
+        <v>24019</v>
       </c>
       <c r="D90" s="11">
         <v>24</v>
       </c>
       <c r="E90" s="13"/>
       <c r="F90" s="12">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G90" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="H90" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="I90" s="11" t="s">
         <v>148</v>
-      </c>
-      <c r="H90" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="I90" s="11" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="91" ht="20.1" customHeight="1" spans="3:9">
       <c r="C91" s="11">
-        <v>24022</v>
+        <v>24020</v>
       </c>
       <c r="D91" s="11">
         <v>24</v>
       </c>
       <c r="E91" s="13"/>
       <c r="F91" s="12">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G91" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H91" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="I91" s="11" t="s">
         <v>149</v>
-      </c>
-      <c r="I91" s="11" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="92" ht="20.1" customHeight="1" spans="3:9">
       <c r="C92" s="11">
-        <v>24023</v>
+        <v>24021</v>
       </c>
       <c r="D92" s="11">
         <v>24</v>
       </c>
       <c r="E92" s="13"/>
       <c r="F92" s="12">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G92" s="11" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="H92" s="11" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I92" s="11" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
     </row>
     <row r="93" ht="20.1" customHeight="1" spans="3:9">
       <c r="C93" s="11">
-        <v>24024</v>
+        <v>24022</v>
       </c>
       <c r="D93" s="11">
         <v>24</v>
       </c>
       <c r="E93" s="13"/>
       <c r="F93" s="12">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="G93" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="H93" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="H93" s="11" t="s">
-        <v>152</v>
-      </c>
       <c r="I93" s="11" t="s">
-        <v>153</v>
+        <v>131</v>
       </c>
     </row>
     <row r="94" ht="20.1" customHeight="1" spans="3:9">
       <c r="C94" s="11">
-        <v>24025</v>
+        <v>24023</v>
       </c>
       <c r="D94" s="11">
         <v>24</v>
       </c>
       <c r="E94" s="13"/>
       <c r="F94" s="12">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="G94" s="11" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="H94" s="11" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="I94" s="11" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
     </row>
     <row r="95" ht="20.1" customHeight="1" spans="3:9">
       <c r="C95" s="11">
-        <v>24026</v>
+        <v>24024</v>
       </c>
       <c r="D95" s="11">
         <v>24</v>
       </c>
       <c r="E95" s="13"/>
       <c r="F95" s="12">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="G95" s="11" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="H95" s="11" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="I95" s="11" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="96" ht="20.1" customHeight="1" spans="3:9">
       <c r="C96" s="11">
-        <v>24027</v>
+        <v>24025</v>
       </c>
       <c r="D96" s="11">
         <v>24</v>
       </c>
       <c r="E96" s="13"/>
       <c r="F96" s="12">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="G96" s="11" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="H96" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="I96" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="I96" s="11" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="97" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
+    </row>
+    <row r="97" ht="20.1" customHeight="1" spans="3:9">
       <c r="C97" s="11">
-        <v>24028</v>
+        <v>24026</v>
       </c>
       <c r="D97" s="11">
         <v>24</v>
       </c>
       <c r="E97" s="13"/>
       <c r="F97" s="12">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="G97" s="11" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="H97" s="11" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="I97" s="11" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="98" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="98" ht="20.1" customHeight="1" spans="3:9">
       <c r="C98" s="11">
-        <v>25001</v>
+        <v>24027</v>
       </c>
       <c r="D98" s="11">
-        <v>25</v>
-      </c>
-      <c r="E98" s="11"/>
-      <c r="F98" s="11">
-        <v>1</v>
+        <v>24</v>
+      </c>
+      <c r="E98" s="13"/>
+      <c r="F98" s="12">
+        <v>57</v>
       </c>
       <c r="G98" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="H98" s="11"/>
+        <v>156</v>
+      </c>
+      <c r="H98" s="11" t="s">
+        <v>159</v>
+      </c>
       <c r="I98" s="11" t="s">
-        <v>101</v>
+        <v>154</v>
       </c>
     </row>
     <row r="99" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
       <c r="C99" s="11">
-        <v>25002</v>
+        <v>24028</v>
       </c>
       <c r="D99" s="11">
-        <v>25</v>
-      </c>
-      <c r="E99" s="11"/>
-      <c r="F99" s="11">
-        <v>2</v>
+        <v>24</v>
+      </c>
+      <c r="E99" s="13"/>
+      <c r="F99" s="12">
+        <v>59</v>
       </c>
       <c r="G99" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="H99" s="11"/>
+        <v>154</v>
+      </c>
+      <c r="H99" s="11" t="s">
+        <v>160</v>
+      </c>
       <c r="I99" s="11" t="s">
-        <v>101</v>
+        <v>139</v>
       </c>
     </row>
     <row r="100" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
       <c r="C100" s="11">
-        <v>25003</v>
+        <v>25001</v>
       </c>
       <c r="D100" s="11">
         <v>25</v>
       </c>
       <c r="E100" s="11"/>
       <c r="F100" s="11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G100" s="11" t="s">
-        <v>160</v>
+        <v>110</v>
       </c>
       <c r="H100" s="11"/>
       <c r="I100" s="11" t="s">
@@ -5723,14 +5735,14 @@
     </row>
     <row r="101" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
       <c r="C101" s="11">
-        <v>25004</v>
+        <v>25002</v>
       </c>
       <c r="D101" s="11">
         <v>25</v>
       </c>
       <c r="E101" s="11"/>
       <c r="F101" s="11">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G101" s="11" t="s">
         <v>161</v>
@@ -5742,14 +5754,14 @@
     </row>
     <row r="102" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
       <c r="C102" s="11">
-        <v>25005</v>
+        <v>25003</v>
       </c>
       <c r="D102" s="11">
         <v>25</v>
       </c>
       <c r="E102" s="11"/>
       <c r="F102" s="11">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G102" s="11" t="s">
         <v>162</v>
@@ -5761,14 +5773,14 @@
     </row>
     <row r="103" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
       <c r="C103" s="11">
-        <v>25006</v>
+        <v>25004</v>
       </c>
       <c r="D103" s="11">
         <v>25</v>
       </c>
       <c r="E103" s="11"/>
       <c r="F103" s="11">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G103" s="11" t="s">
         <v>163</v>
@@ -5780,14 +5792,14 @@
     </row>
     <row r="104" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
       <c r="C104" s="11">
-        <v>25007</v>
+        <v>25005</v>
       </c>
       <c r="D104" s="11">
         <v>25</v>
       </c>
       <c r="E104" s="11"/>
       <c r="F104" s="11">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G104" s="11" t="s">
         <v>164</v>
@@ -5799,14 +5811,14 @@
     </row>
     <row r="105" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
       <c r="C105" s="11">
-        <v>25008</v>
+        <v>25006</v>
       </c>
       <c r="D105" s="11">
         <v>25</v>
       </c>
       <c r="E105" s="11"/>
       <c r="F105" s="11">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G105" s="11" t="s">
         <v>165</v>
@@ -5818,14 +5830,14 @@
     </row>
     <row r="106" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
       <c r="C106" s="11">
-        <v>25009</v>
+        <v>25007</v>
       </c>
       <c r="D106" s="11">
         <v>25</v>
       </c>
       <c r="E106" s="11"/>
       <c r="F106" s="11">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G106" s="11" t="s">
         <v>166</v>
@@ -5837,17 +5849,17 @@
     </row>
     <row r="107" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
       <c r="C107" s="11">
-        <v>25010</v>
+        <v>25008</v>
       </c>
       <c r="D107" s="11">
         <v>25</v>
       </c>
       <c r="E107" s="11"/>
       <c r="F107" s="11">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G107" s="11" t="s">
-        <v>65</v>
+        <v>167</v>
       </c>
       <c r="H107" s="11"/>
       <c r="I107" s="11" t="s">
@@ -5856,17 +5868,17 @@
     </row>
     <row r="108" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
       <c r="C108" s="11">
-        <v>25011</v>
+        <v>25009</v>
       </c>
       <c r="D108" s="11">
         <v>25</v>
       </c>
       <c r="E108" s="11"/>
       <c r="F108" s="11">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G108" s="11" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H108" s="11"/>
       <c r="I108" s="11" t="s">
@@ -5875,498 +5887,490 @@
     </row>
     <row r="109" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
       <c r="C109" s="11">
-        <v>25012</v>
+        <v>25010</v>
       </c>
       <c r="D109" s="11">
         <v>25</v>
       </c>
       <c r="E109" s="11"/>
       <c r="F109" s="11">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G109" s="11" t="s">
-        <v>168</v>
+        <v>65</v>
       </c>
       <c r="H109" s="11"/>
       <c r="I109" s="11" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="110" ht="20.1" customHeight="1" spans="3:9">
+    <row r="110" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
       <c r="C110" s="11">
+        <v>25011</v>
+      </c>
+      <c r="D110" s="11">
+        <v>25</v>
+      </c>
+      <c r="E110" s="11"/>
+      <c r="F110" s="11">
+        <v>11</v>
+      </c>
+      <c r="G110" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="H110" s="11"/>
+      <c r="I110" s="11" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="111" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
+      <c r="C111" s="11">
+        <v>25012</v>
+      </c>
+      <c r="D111" s="11">
+        <v>25</v>
+      </c>
+      <c r="E111" s="11"/>
+      <c r="F111" s="11">
+        <v>12</v>
+      </c>
+      <c r="G111" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="H111" s="11"/>
+      <c r="I111" s="11" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="112" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
+      <c r="C112" s="11">
+        <v>25013</v>
+      </c>
+      <c r="D112" s="11">
+        <v>25</v>
+      </c>
+      <c r="E112" s="11"/>
+      <c r="F112" s="11">
+        <v>13</v>
+      </c>
+      <c r="G112" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="H112" s="11"/>
+      <c r="I112" s="11" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="113" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
+      <c r="C113" s="11">
+        <v>25014</v>
+      </c>
+      <c r="D113" s="11">
+        <v>25</v>
+      </c>
+      <c r="E113" s="11"/>
+      <c r="F113" s="11">
+        <v>14</v>
+      </c>
+      <c r="G113" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="H113" s="11"/>
+      <c r="I113" s="11" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="114" ht="20.1" customHeight="1" spans="3:9">
+      <c r="C114" s="11">
         <v>30001</v>
-      </c>
-      <c r="D110" s="14">
-        <v>101</v>
-      </c>
-      <c r="E110" s="14"/>
-      <c r="F110" s="12">
-        <v>99005001</v>
-      </c>
-      <c r="G110" s="13">
-        <v>100</v>
-      </c>
-      <c r="H110" s="15" t="s">
-        <v>169</v>
-      </c>
-      <c r="I110" s="11" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="111" ht="20.1" customHeight="1" spans="3:9">
-      <c r="C111" s="11">
-        <v>30002</v>
-      </c>
-      <c r="D111" s="14">
-        <v>101</v>
-      </c>
-      <c r="E111" s="14"/>
-      <c r="F111" s="12">
-        <v>99005002</v>
-      </c>
-      <c r="G111" s="13">
-        <v>300</v>
-      </c>
-      <c r="H111" s="15" t="s">
-        <v>171</v>
-      </c>
-      <c r="I111" s="11" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="112" ht="20.1" customHeight="1" spans="3:9">
-      <c r="C112" s="11">
-        <v>30003</v>
-      </c>
-      <c r="D112" s="14">
-        <v>101</v>
-      </c>
-      <c r="E112" s="14"/>
-      <c r="F112" s="12">
-        <v>99005003</v>
-      </c>
-      <c r="G112" s="13">
-        <v>700</v>
-      </c>
-      <c r="H112" s="15" t="s">
-        <v>173</v>
-      </c>
-      <c r="I112" s="11" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="113" ht="20.1" customHeight="1" spans="3:9">
-      <c r="C113" s="11">
-        <v>30004</v>
-      </c>
-      <c r="D113" s="14">
-        <v>101</v>
-      </c>
-      <c r="E113" s="14"/>
-      <c r="F113" s="12">
-        <v>99005004</v>
-      </c>
-      <c r="G113" s="13">
-        <v>1500</v>
-      </c>
-      <c r="H113" s="15" t="s">
-        <v>175</v>
-      </c>
-      <c r="I113" s="11" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="114" ht="20.1" customHeight="1" spans="3:10">
-      <c r="C114" s="11">
-        <v>30005</v>
       </c>
       <c r="D114" s="14">
         <v>101</v>
       </c>
       <c r="E114" s="14"/>
       <c r="F114" s="12">
-        <v>99005005</v>
+        <v>99005001</v>
       </c>
       <c r="G114" s="13">
-        <v>3000</v>
+        <v>100</v>
       </c>
       <c r="H114" s="15" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="I114" s="11" t="s">
-        <v>178</v>
-      </c>
-      <c r="J114" s="12"/>
-    </row>
-    <row r="115" ht="20.1" customHeight="1" spans="3:10">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="115" ht="20.1" customHeight="1" spans="3:9">
       <c r="C115" s="11">
-        <v>30006</v>
+        <v>30002</v>
       </c>
       <c r="D115" s="14">
         <v>101</v>
       </c>
       <c r="E115" s="14"/>
       <c r="F115" s="12">
-        <v>99005006</v>
+        <v>99005002</v>
       </c>
       <c r="G115" s="13">
-        <v>5000</v>
+        <v>300</v>
       </c>
       <c r="H115" s="15" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="I115" s="11" t="s">
-        <v>180</v>
-      </c>
-      <c r="J115" s="12"/>
-    </row>
-    <row r="116" ht="20.1" customHeight="1" spans="3:10">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="116" ht="20.1" customHeight="1" spans="3:9">
       <c r="C116" s="11">
-        <v>30007</v>
+        <v>30003</v>
       </c>
       <c r="D116" s="14">
         <v>101</v>
       </c>
       <c r="E116" s="14"/>
       <c r="F116" s="12">
-        <v>99005007</v>
+        <v>99005003</v>
       </c>
       <c r="G116" s="13">
-        <v>8000</v>
+        <v>700</v>
       </c>
       <c r="H116" s="15" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="I116" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="J116" s="12"/>
-    </row>
-    <row r="117" ht="20.1" customHeight="1" spans="3:10">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="117" ht="20.1" customHeight="1" spans="3:9">
       <c r="C117" s="11">
-        <v>30008</v>
+        <v>30004</v>
       </c>
       <c r="D117" s="14">
         <v>101</v>
       </c>
       <c r="E117" s="14"/>
       <c r="F117" s="12">
-        <v>99005008</v>
+        <v>99005004</v>
       </c>
       <c r="G117" s="13">
-        <v>13000</v>
+        <v>1500</v>
       </c>
       <c r="H117" s="15" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="I117" s="11" t="s">
-        <v>184</v>
-      </c>
-      <c r="J117" s="12"/>
+        <v>180</v>
+      </c>
     </row>
     <row r="118" ht="20.1" customHeight="1" spans="3:10">
       <c r="C118" s="11">
-        <v>30009</v>
+        <v>30005</v>
       </c>
       <c r="D118" s="14">
         <v>101</v>
       </c>
       <c r="E118" s="14"/>
       <c r="F118" s="12">
-        <v>99005009</v>
+        <v>99005005</v>
       </c>
       <c r="G118" s="13">
-        <v>20000</v>
+        <v>3000</v>
       </c>
       <c r="H118" s="15" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="I118" s="11" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="J118" s="12"/>
     </row>
     <row r="119" ht="20.1" customHeight="1" spans="3:10">
       <c r="C119" s="11">
-        <v>30010</v>
+        <v>30006</v>
       </c>
       <c r="D119" s="14">
         <v>101</v>
       </c>
       <c r="E119" s="14"/>
       <c r="F119" s="12">
-        <v>99005010</v>
+        <v>99005006</v>
       </c>
       <c r="G119" s="13">
-        <v>30000</v>
+        <v>5000</v>
       </c>
       <c r="H119" s="15" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="I119" s="11" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="J119" s="12"/>
     </row>
     <row r="120" ht="20.1" customHeight="1" spans="3:10">
       <c r="C120" s="11">
-        <v>30011</v>
+        <v>30007</v>
       </c>
       <c r="D120" s="14">
         <v>101</v>
       </c>
       <c r="E120" s="14"/>
       <c r="F120" s="12">
-        <v>99005011</v>
+        <v>99005007</v>
       </c>
       <c r="G120" s="13">
-        <v>50000</v>
+        <v>8000</v>
       </c>
       <c r="H120" s="15" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="I120" s="11" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="J120" s="12"/>
     </row>
     <row r="121" ht="20.1" customHeight="1" spans="3:10">
       <c r="C121" s="11">
-        <v>30012</v>
+        <v>30008</v>
       </c>
       <c r="D121" s="14">
         <v>101</v>
       </c>
       <c r="E121" s="14"/>
       <c r="F121" s="12">
-        <v>99005012</v>
+        <v>99005008</v>
       </c>
       <c r="G121" s="13">
-        <v>75000</v>
+        <v>13000</v>
       </c>
       <c r="H121" s="15" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="I121" s="11" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="J121" s="12"/>
     </row>
     <row r="122" ht="20.1" customHeight="1" spans="3:10">
       <c r="C122" s="11">
-        <v>30013</v>
+        <v>30009</v>
       </c>
       <c r="D122" s="14">
         <v>101</v>
       </c>
       <c r="E122" s="14"/>
       <c r="F122" s="12">
-        <v>99005013</v>
+        <v>99005009</v>
       </c>
       <c r="G122" s="13">
-        <v>100000</v>
+        <v>20000</v>
       </c>
       <c r="H122" s="15" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="I122" s="11" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="J122" s="12"/>
     </row>
     <row r="123" ht="20.1" customHeight="1" spans="3:10">
       <c r="C123" s="11">
-        <v>30014</v>
+        <v>30010</v>
       </c>
       <c r="D123" s="14">
         <v>101</v>
       </c>
       <c r="E123" s="14"/>
       <c r="F123" s="12">
-        <v>99005014</v>
+        <v>99005010</v>
       </c>
       <c r="G123" s="13">
-        <v>150000</v>
+        <v>30000</v>
       </c>
       <c r="H123" s="15" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="I123" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="J123" s="16"/>
-    </row>
-    <row r="124" ht="20.1" customHeight="1" spans="3:9">
+        <v>192</v>
+      </c>
+      <c r="J123" s="12"/>
+    </row>
+    <row r="124" ht="20.1" customHeight="1" spans="3:10">
       <c r="C124" s="11">
-        <v>30015</v>
+        <v>30011</v>
       </c>
       <c r="D124" s="14">
         <v>101</v>
       </c>
       <c r="E124" s="14"/>
       <c r="F124" s="12">
-        <v>99005015</v>
+        <v>99005011</v>
       </c>
       <c r="G124" s="13">
-        <v>200000</v>
+        <v>50000</v>
       </c>
       <c r="H124" s="15" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="I124" s="11" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="125" ht="20.1" customHeight="1" spans="3:9">
+        <v>194</v>
+      </c>
+      <c r="J124" s="12"/>
+    </row>
+    <row r="125" ht="20.1" customHeight="1" spans="3:10">
       <c r="C125" s="11">
-        <v>30016</v>
+        <v>30012</v>
       </c>
       <c r="D125" s="14">
         <v>101</v>
       </c>
       <c r="E125" s="14"/>
       <c r="F125" s="12">
-        <v>99005016</v>
+        <v>99005012</v>
       </c>
       <c r="G125" s="13">
-        <v>300000</v>
+        <v>75000</v>
       </c>
       <c r="H125" s="15" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="I125" s="11" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="126" ht="20.1" customHeight="1" spans="3:9">
+        <v>196</v>
+      </c>
+      <c r="J125" s="12"/>
+    </row>
+    <row r="126" ht="20.1" customHeight="1" spans="3:10">
       <c r="C126" s="11">
-        <v>30017</v>
+        <v>30013</v>
       </c>
       <c r="D126" s="14">
         <v>101</v>
       </c>
       <c r="E126" s="14"/>
       <c r="F126" s="12">
-        <v>99005017</v>
+        <v>99005013</v>
       </c>
       <c r="G126" s="13">
-        <v>500000</v>
+        <v>100000</v>
       </c>
       <c r="H126" s="15" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="I126" s="11" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="127" ht="20.1" customHeight="1" spans="3:9">
+        <v>198</v>
+      </c>
+      <c r="J126" s="12"/>
+    </row>
+    <row r="127" ht="20.1" customHeight="1" spans="3:10">
       <c r="C127" s="11">
-        <v>30018</v>
+        <v>30014</v>
       </c>
       <c r="D127" s="14">
         <v>101</v>
       </c>
       <c r="E127" s="14"/>
       <c r="F127" s="12">
+        <v>99005014</v>
+      </c>
+      <c r="G127" s="13">
+        <v>150000</v>
+      </c>
+      <c r="H127" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="I127" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="J127" s="16"/>
+    </row>
+    <row r="128" ht="20.1" customHeight="1" spans="3:9">
+      <c r="C128" s="11">
+        <v>30015</v>
+      </c>
+      <c r="D128" s="14">
+        <v>101</v>
+      </c>
+      <c r="E128" s="14"/>
+      <c r="F128" s="12">
+        <v>99005015</v>
+      </c>
+      <c r="G128" s="13">
+        <v>200000</v>
+      </c>
+      <c r="H128" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="I128" s="11" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="129" ht="20.1" customHeight="1" spans="3:9">
+      <c r="C129" s="11">
+        <v>30016</v>
+      </c>
+      <c r="D129" s="14">
+        <v>101</v>
+      </c>
+      <c r="E129" s="14"/>
+      <c r="F129" s="12">
+        <v>99005016</v>
+      </c>
+      <c r="G129" s="13">
+        <v>300000</v>
+      </c>
+      <c r="H129" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="I129" s="11" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="130" ht="20.1" customHeight="1" spans="3:9">
+      <c r="C130" s="11">
+        <v>30017</v>
+      </c>
+      <c r="D130" s="14">
+        <v>101</v>
+      </c>
+      <c r="E130" s="14"/>
+      <c r="F130" s="12">
+        <v>99005017</v>
+      </c>
+      <c r="G130" s="13">
+        <v>500000</v>
+      </c>
+      <c r="H130" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="I130" s="11" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="131" ht="20.1" customHeight="1" spans="3:9">
+      <c r="C131" s="11">
+        <v>30018</v>
+      </c>
+      <c r="D131" s="14">
+        <v>101</v>
+      </c>
+      <c r="E131" s="14"/>
+      <c r="F131" s="12">
         <v>99005018</v>
       </c>
-      <c r="G127" s="13">
+      <c r="G131" s="13">
         <v>1000000</v>
       </c>
-      <c r="H127" s="15" t="s">
-        <v>203</v>
-      </c>
-      <c r="I127" s="11" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="128" ht="20.1" customHeight="1" spans="3:9">
-      <c r="C128" s="14">
-        <v>31001</v>
-      </c>
-      <c r="D128" s="14">
-        <v>31</v>
-      </c>
-      <c r="E128" s="14"/>
-      <c r="F128" s="14">
-        <v>0</v>
-      </c>
-      <c r="G128" s="13">
-        <v>0</v>
-      </c>
-      <c r="H128" s="15" t="s">
-        <v>205</v>
-      </c>
-      <c r="I128" s="11" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="129" ht="20.1" customHeight="1" spans="3:9">
-      <c r="C129" s="14">
-        <v>31002</v>
-      </c>
-      <c r="D129" s="14">
-        <v>31</v>
-      </c>
-      <c r="E129" s="14"/>
-      <c r="F129" s="14">
-        <v>0</v>
-      </c>
-      <c r="G129" s="13">
-        <v>0</v>
-      </c>
-      <c r="H129" s="15" t="s">
+      <c r="H131" s="15" t="s">
         <v>207</v>
       </c>
-      <c r="I129" s="11" t="s">
+      <c r="I131" s="11" t="s">
         <v>208</v>
-      </c>
-    </row>
-    <row r="130" ht="20.1" customHeight="1" spans="3:9">
-      <c r="C130" s="14">
-        <v>31003</v>
-      </c>
-      <c r="D130" s="14">
-        <v>31</v>
-      </c>
-      <c r="E130" s="14"/>
-      <c r="F130" s="14">
-        <v>0</v>
-      </c>
-      <c r="G130" s="13">
-        <v>0</v>
-      </c>
-      <c r="H130" s="15" t="s">
-        <v>209</v>
-      </c>
-      <c r="I130" s="11" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="131" ht="20.1" customHeight="1" spans="3:9">
-      <c r="C131" s="14">
-        <v>31004</v>
-      </c>
-      <c r="D131" s="14">
-        <v>31</v>
-      </c>
-      <c r="E131" s="14"/>
-      <c r="F131" s="14">
-        <v>0</v>
-      </c>
-      <c r="G131" s="13">
-        <v>0</v>
-      </c>
-      <c r="H131" s="15" t="s">
-        <v>211</v>
-      </c>
-      <c r="I131" s="11" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="132" ht="20.1" customHeight="1" spans="3:9">
       <c r="C132" s="14">
-        <v>31005</v>
+        <v>31001</v>
       </c>
       <c r="D132" s="14">
         <v>31</v>
@@ -6379,15 +6383,15 @@
         <v>0</v>
       </c>
       <c r="H132" s="15" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="I132" s="11" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="133" ht="20.1" customHeight="1" spans="3:9">
       <c r="C133" s="14">
-        <v>31006</v>
+        <v>31002</v>
       </c>
       <c r="D133" s="14">
         <v>31</v>
@@ -6400,15 +6404,15 @@
         <v>0</v>
       </c>
       <c r="H133" s="15" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="I133" s="11" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="134" ht="20.1" customHeight="1" spans="3:9">
       <c r="C134" s="14">
-        <v>31007</v>
+        <v>31003</v>
       </c>
       <c r="D134" s="14">
         <v>31</v>
@@ -6421,99 +6425,99 @@
         <v>0</v>
       </c>
       <c r="H134" s="15" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="I134" s="11" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
     </row>
     <row r="135" ht="20.1" customHeight="1" spans="3:9">
       <c r="C135" s="14">
-        <v>32001</v>
+        <v>31004</v>
       </c>
       <c r="D135" s="14">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E135" s="14"/>
       <c r="F135" s="14">
-        <v>1</v>
-      </c>
-      <c r="G135" s="13" t="s">
-        <v>219</v>
-      </c>
-      <c r="H135" s="13" t="s">
-        <v>220</v>
+        <v>0</v>
+      </c>
+      <c r="G135" s="13">
+        <v>0</v>
+      </c>
+      <c r="H135" s="15" t="s">
+        <v>215</v>
       </c>
       <c r="I135" s="11" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
     </row>
     <row r="136" ht="20.1" customHeight="1" spans="3:9">
       <c r="C136" s="14">
-        <v>32002</v>
+        <v>31005</v>
       </c>
       <c r="D136" s="14">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E136" s="14"/>
       <c r="F136" s="14">
-        <v>1</v>
-      </c>
-      <c r="G136" s="13" t="s">
-        <v>222</v>
-      </c>
-      <c r="H136" s="13" t="s">
-        <v>223</v>
+        <v>0</v>
+      </c>
+      <c r="G136" s="13">
+        <v>0</v>
+      </c>
+      <c r="H136" s="15" t="s">
+        <v>217</v>
       </c>
       <c r="I136" s="11" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="137" ht="20.1" customHeight="1" spans="3:9">
       <c r="C137" s="14">
-        <v>32003</v>
+        <v>31006</v>
       </c>
       <c r="D137" s="14">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E137" s="14"/>
       <c r="F137" s="14">
-        <v>1</v>
-      </c>
-      <c r="G137" s="13" t="s">
-        <v>224</v>
-      </c>
-      <c r="H137" s="13" t="s">
-        <v>225</v>
+        <v>0</v>
+      </c>
+      <c r="G137" s="13">
+        <v>0</v>
+      </c>
+      <c r="H137" s="15" t="s">
+        <v>219</v>
       </c>
       <c r="I137" s="11" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="138" ht="20.1" customHeight="1" spans="3:9">
       <c r="C138" s="14">
-        <v>32004</v>
+        <v>31007</v>
       </c>
       <c r="D138" s="14">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E138" s="14"/>
       <c r="F138" s="14">
-        <v>1</v>
-      </c>
-      <c r="G138" s="13" t="s">
-        <v>226</v>
-      </c>
-      <c r="H138" s="13" t="s">
-        <v>227</v>
+        <v>0</v>
+      </c>
+      <c r="G138" s="13">
+        <v>0</v>
+      </c>
+      <c r="H138" s="15" t="s">
+        <v>221</v>
       </c>
       <c r="I138" s="11" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="139" ht="20.1" customHeight="1" spans="3:9">
       <c r="C139" s="14">
-        <v>32005</v>
+        <v>32001</v>
       </c>
       <c r="D139" s="14">
         <v>32</v>
@@ -6523,18 +6527,18 @@
         <v>1</v>
       </c>
       <c r="G139" s="13" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="H139" s="13" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="I139" s="11" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
     </row>
     <row r="140" ht="20.1" customHeight="1" spans="3:9">
       <c r="C140" s="14">
-        <v>32006</v>
+        <v>32002</v>
       </c>
       <c r="D140" s="14">
         <v>32</v>
@@ -6544,18 +6548,18 @@
         <v>1</v>
       </c>
       <c r="G140" s="13" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="H140" s="13" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="I140" s="11" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
     </row>
     <row r="141" ht="20.1" customHeight="1" spans="3:9">
       <c r="C141" s="14">
-        <v>32007</v>
+        <v>32003</v>
       </c>
       <c r="D141" s="14">
         <v>32</v>
@@ -6565,18 +6569,18 @@
         <v>1</v>
       </c>
       <c r="G141" s="13" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="H141" s="13" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="I141" s="11" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
     </row>
     <row r="142" ht="20.1" customHeight="1" spans="3:9">
       <c r="C142" s="14">
-        <v>32008</v>
+        <v>32004</v>
       </c>
       <c r="D142" s="14">
         <v>32</v>
@@ -6586,401 +6590,481 @@
         <v>1</v>
       </c>
       <c r="G142" s="13" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="H142" s="13" t="s">
         <v>231</v>
       </c>
       <c r="I142" s="11" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
     </row>
     <row r="143" ht="20.1" customHeight="1" spans="3:9">
       <c r="C143" s="14">
-        <v>33001</v>
+        <v>32005</v>
       </c>
       <c r="D143" s="14">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E143" s="14"/>
-      <c r="F143" s="14" t="s">
-        <v>234</v>
-      </c>
-      <c r="G143" s="13"/>
-      <c r="H143" s="13"/>
+      <c r="F143" s="14">
+        <v>1</v>
+      </c>
+      <c r="G143" s="13" t="s">
+        <v>232</v>
+      </c>
+      <c r="H143" s="13" t="s">
+        <v>233</v>
+      </c>
       <c r="I143" s="11" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
     </row>
     <row r="144" ht="20.1" customHeight="1" spans="3:9">
       <c r="C144" s="14">
-        <v>33002</v>
+        <v>32006</v>
       </c>
       <c r="D144" s="14">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E144" s="14"/>
-      <c r="F144" s="14" t="s">
-        <v>236</v>
-      </c>
-      <c r="G144" s="13"/>
-      <c r="H144" s="13"/>
+      <c r="F144" s="14">
+        <v>1</v>
+      </c>
+      <c r="G144" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="H144" s="13" t="s">
+        <v>235</v>
+      </c>
       <c r="I144" s="11" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
     </row>
     <row r="145" ht="20.1" customHeight="1" spans="3:9">
       <c r="C145" s="14">
-        <v>33003</v>
+        <v>32007</v>
       </c>
       <c r="D145" s="14">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E145" s="14"/>
-      <c r="F145" s="14" t="s">
-        <v>238</v>
-      </c>
-      <c r="G145" s="13"/>
-      <c r="H145" s="13"/>
+      <c r="F145" s="14">
+        <v>1</v>
+      </c>
+      <c r="G145" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="H145" s="13" t="s">
+        <v>235</v>
+      </c>
       <c r="I145" s="11" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
     </row>
     <row r="146" ht="20.1" customHeight="1" spans="3:9">
       <c r="C146" s="14">
-        <v>33004</v>
+        <v>32008</v>
       </c>
       <c r="D146" s="14">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E146" s="14"/>
-      <c r="F146" s="14" t="s">
-        <v>240</v>
-      </c>
-      <c r="G146" s="13"/>
-      <c r="H146" s="13"/>
+      <c r="F146" s="14">
+        <v>1</v>
+      </c>
+      <c r="G146" s="13" t="s">
+        <v>237</v>
+      </c>
+      <c r="H146" s="13" t="s">
+        <v>235</v>
+      </c>
       <c r="I146" s="11" t="s">
-        <v>241</v>
+        <v>225</v>
       </c>
     </row>
     <row r="147" ht="20.1" customHeight="1" spans="3:9">
       <c r="C147" s="14">
-        <v>33005</v>
+        <v>33001</v>
       </c>
       <c r="D147" s="14">
         <v>33</v>
       </c>
       <c r="E147" s="14"/>
       <c r="F147" s="14" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="G147" s="13"/>
       <c r="H147" s="13"/>
       <c r="I147" s="11" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
     <row r="148" ht="20.1" customHeight="1" spans="3:9">
       <c r="C148" s="14">
-        <v>33006</v>
+        <v>33002</v>
       </c>
       <c r="D148" s="14">
         <v>33</v>
       </c>
       <c r="E148" s="14"/>
       <c r="F148" s="14" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="G148" s="13"/>
       <c r="H148" s="13"/>
       <c r="I148" s="11" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="149" ht="20.1" customHeight="1" spans="3:9">
       <c r="C149" s="14">
-        <v>33007</v>
+        <v>33003</v>
       </c>
       <c r="D149" s="14">
         <v>33</v>
       </c>
       <c r="E149" s="14"/>
       <c r="F149" s="14" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="G149" s="13"/>
       <c r="H149" s="13"/>
       <c r="I149" s="11" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
     </row>
     <row r="150" ht="20.1" customHeight="1" spans="3:9">
       <c r="C150" s="14">
-        <v>33008</v>
+        <v>33004</v>
       </c>
       <c r="D150" s="14">
         <v>33</v>
       </c>
       <c r="E150" s="14"/>
       <c r="F150" s="14" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="G150" s="13"/>
       <c r="H150" s="13"/>
       <c r="I150" s="11" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
     </row>
     <row r="151" ht="20.1" customHeight="1" spans="3:9">
       <c r="C151" s="14">
-        <v>33009</v>
+        <v>33005</v>
       </c>
       <c r="D151" s="14">
         <v>33</v>
       </c>
       <c r="E151" s="14"/>
       <c r="F151" s="14" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="G151" s="13"/>
       <c r="H151" s="13"/>
       <c r="I151" s="11" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="152" ht="20.1" customHeight="1" spans="3:9">
       <c r="C152" s="14">
-        <v>33010</v>
+        <v>33006</v>
       </c>
       <c r="D152" s="14">
         <v>33</v>
       </c>
       <c r="E152" s="14"/>
       <c r="F152" s="14" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="G152" s="13"/>
       <c r="H152" s="13"/>
       <c r="I152" s="11" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="153" ht="20.1" customHeight="1" spans="3:9">
       <c r="C153" s="14">
-        <v>33011</v>
+        <v>33007</v>
       </c>
       <c r="D153" s="14">
         <v>33</v>
       </c>
       <c r="E153" s="14"/>
       <c r="F153" s="14" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="G153" s="13"/>
       <c r="H153" s="13"/>
       <c r="I153" s="11" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="154" ht="20.1" customHeight="1" spans="3:9">
       <c r="C154" s="14">
-        <v>33012</v>
+        <v>33008</v>
       </c>
       <c r="D154" s="14">
         <v>33</v>
       </c>
       <c r="E154" s="14"/>
       <c r="F154" s="14" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G154" s="13"/>
       <c r="H154" s="13"/>
       <c r="I154" s="11" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
     </row>
     <row r="155" ht="20.1" customHeight="1" spans="3:9">
       <c r="C155" s="14">
-        <v>33013</v>
+        <v>33009</v>
       </c>
       <c r="D155" s="14">
         <v>33</v>
       </c>
       <c r="E155" s="14"/>
       <c r="F155" s="14" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="G155" s="13"/>
       <c r="H155" s="13"/>
       <c r="I155" s="11" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="156" ht="20.1" customHeight="1" spans="3:9">
       <c r="C156" s="14">
-        <v>33014</v>
+        <v>33010</v>
       </c>
       <c r="D156" s="14">
         <v>33</v>
       </c>
       <c r="E156" s="14"/>
       <c r="F156" s="14" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="G156" s="13"/>
       <c r="H156" s="13"/>
       <c r="I156" s="11" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
     </row>
     <row r="157" ht="20.1" customHeight="1" spans="3:9">
       <c r="C157" s="14">
-        <v>33015</v>
+        <v>33011</v>
       </c>
       <c r="D157" s="14">
         <v>33</v>
       </c>
       <c r="E157" s="14"/>
       <c r="F157" s="14" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="G157" s="13"/>
       <c r="H157" s="13"/>
       <c r="I157" s="11" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="158" ht="20.1" customHeight="1" spans="3:9">
       <c r="C158" s="14">
-        <v>33016</v>
+        <v>33012</v>
       </c>
       <c r="D158" s="14">
         <v>33</v>
       </c>
       <c r="E158" s="14"/>
       <c r="F158" s="14" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="G158" s="13"/>
       <c r="H158" s="13"/>
       <c r="I158" s="11" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="159" ht="20.1" customHeight="1" spans="3:9">
       <c r="C159" s="14">
-        <v>33017</v>
+        <v>33013</v>
       </c>
       <c r="D159" s="14">
         <v>33</v>
       </c>
       <c r="E159" s="14"/>
       <c r="F159" s="14" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="G159" s="13"/>
       <c r="H159" s="13"/>
       <c r="I159" s="11" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="160" ht="20.1" customHeight="1" spans="3:9">
       <c r="C160" s="14">
-        <v>33018</v>
+        <v>33014</v>
       </c>
       <c r="D160" s="14">
         <v>33</v>
       </c>
       <c r="E160" s="14"/>
       <c r="F160" s="14" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="G160" s="13"/>
       <c r="H160" s="13"/>
       <c r="I160" s="11" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="161" ht="20.1" customHeight="1" spans="3:9">
       <c r="C161" s="14">
-        <v>33019</v>
+        <v>33015</v>
       </c>
       <c r="D161" s="14">
         <v>33</v>
       </c>
       <c r="E161" s="14"/>
       <c r="F161" s="14" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="G161" s="13"/>
       <c r="H161" s="13"/>
       <c r="I161" s="11" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
     </row>
     <row r="162" ht="20.1" customHeight="1" spans="3:9">
       <c r="C162" s="14">
-        <v>33020</v>
+        <v>33016</v>
       </c>
       <c r="D162" s="14">
         <v>33</v>
       </c>
       <c r="E162" s="14"/>
       <c r="F162" s="14" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="G162" s="13"/>
       <c r="H162" s="13"/>
       <c r="I162" s="11" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
     </row>
     <row r="163" ht="20.1" customHeight="1" spans="3:9">
       <c r="C163" s="14">
-        <v>34001</v>
+        <v>33017</v>
       </c>
       <c r="D163" s="14">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E163" s="14"/>
-      <c r="F163" s="14">
-        <v>12</v>
-      </c>
-      <c r="G163" s="13" t="s">
-        <v>274</v>
-      </c>
-      <c r="H163" s="13" t="s">
-        <v>275</v>
-      </c>
+      <c r="F163" s="14" t="s">
+        <v>270</v>
+      </c>
+      <c r="G163" s="13"/>
+      <c r="H163" s="13"/>
       <c r="I163" s="11" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
     </row>
     <row r="164" ht="20.1" customHeight="1" spans="3:9">
       <c r="C164" s="14">
+        <v>33018</v>
+      </c>
+      <c r="D164" s="14">
+        <v>33</v>
+      </c>
+      <c r="E164" s="14"/>
+      <c r="F164" s="14" t="s">
+        <v>272</v>
+      </c>
+      <c r="G164" s="13"/>
+      <c r="H164" s="13"/>
+      <c r="I164" s="11" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="165" ht="20.1" customHeight="1" spans="3:9">
+      <c r="C165" s="14">
+        <v>33019</v>
+      </c>
+      <c r="D165" s="14">
+        <v>33</v>
+      </c>
+      <c r="E165" s="14"/>
+      <c r="F165" s="14" t="s">
+        <v>274</v>
+      </c>
+      <c r="G165" s="13"/>
+      <c r="H165" s="13"/>
+      <c r="I165" s="11" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="166" ht="20.1" customHeight="1" spans="3:9">
+      <c r="C166" s="14">
+        <v>33020</v>
+      </c>
+      <c r="D166" s="14">
+        <v>33</v>
+      </c>
+      <c r="E166" s="14"/>
+      <c r="F166" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="G166" s="13"/>
+      <c r="H166" s="13"/>
+      <c r="I166" s="11" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="167" ht="20.1" customHeight="1" spans="3:9">
+      <c r="C167" s="14">
+        <v>34001</v>
+      </c>
+      <c r="D167" s="14">
+        <v>34</v>
+      </c>
+      <c r="E167" s="14"/>
+      <c r="F167" s="14">
+        <v>12</v>
+      </c>
+      <c r="G167" s="13" t="s">
+        <v>278</v>
+      </c>
+      <c r="H167" s="13" t="s">
+        <v>279</v>
+      </c>
+      <c r="I167" s="11" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="168" ht="20.1" customHeight="1" spans="3:9">
+      <c r="C168" s="14">
         <v>34002</v>
       </c>
-      <c r="D164" s="14">
+      <c r="D168" s="14">
         <v>34</v>
       </c>
-      <c r="E164" s="14"/>
-      <c r="F164" s="14">
+      <c r="E168" s="14"/>
+      <c r="F168" s="14">
         <v>15</v>
       </c>
-      <c r="G164" s="13" t="s">
-        <v>277</v>
-      </c>
-      <c r="H164" s="13" t="s">
-        <v>278</v>
-      </c>
-      <c r="I164" s="11" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="165" ht="20.1" customHeight="1"/>
-    <row r="166" ht="20.1" customHeight="1"/>
-    <row r="167" ht="20.1" customHeight="1"/>
-    <row r="168" ht="20.1" customHeight="1"/>
+      <c r="G168" s="13" t="s">
+        <v>281</v>
+      </c>
+      <c r="H168" s="13" t="s">
+        <v>282</v>
+      </c>
+      <c r="I168" s="11" t="s">
+        <v>280</v>
+      </c>
+    </row>
     <row r="169" ht="20.1" customHeight="1"/>
     <row r="170" ht="20.1" customHeight="1"/>
     <row r="171" ht="20.1" customHeight="1"/>
@@ -6998,6 +7082,10 @@
     <row r="183" ht="20.1" customHeight="1"/>
     <row r="184" ht="20.1" customHeight="1"/>
     <row r="185" ht="20.1" customHeight="1"/>
+    <row r="186" ht="20.1" customHeight="1"/>
+    <row r="187" ht="20.1" customHeight="1"/>
+    <row r="188" ht="20.1" customHeight="1"/>
+    <row r="189" ht="20.1" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Unity/Assets/Config/Excel/ActivityConfig.xlsx
+++ b/Unity/Assets/Config/Excel/ActivityConfig.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitMengJing\Unity\Assets\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91318A88-C377-4006-91A4-98739D8A08FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14FE8CF4-929F-4DB8-B4D2-61C68DB7F7AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -494,73 +494,10 @@
     <t>1;200000@12000001;150@12003009;1@12003010;1</t>
   </si>
   <si>
-    <t>1;50000@10010083;10@10000101;1</t>
-  </si>
-  <si>
     <t>等级战区礼包</t>
   </si>
   <si>
-    <t>1;50000@10010083;10@10021008;3@10000122;1</t>
-  </si>
-  <si>
-    <t>1;100000@10010083;15@10022008;3@10022009;2</t>
-  </si>
-  <si>
-    <t>1;150000@10010083;20@10023008;3@10000103;1@10000123;1</t>
-  </si>
-  <si>
-    <t>1;200000@10010083;25@10023008;3@10010033;1@10023009;2</t>
-  </si>
-  <si>
-    <t>1;250000@10010083;30@10024008;3@10024009;2@10000124;1</t>
-  </si>
-  <si>
-    <t>1;300000@10010083;30@10024008;3@10024009;2@10000158;1</t>
-  </si>
-  <si>
-    <t>1;300000@10010083;30@10025008;3@10025009;2@10000125;1</t>
-  </si>
-  <si>
-    <t>1;300000@10010083;30@10025008;3@10025009;2@10000158;1</t>
-  </si>
-  <si>
-    <t>1;300000@10010083;30@10010053;1@10000158;1@10000143;2</t>
-  </si>
-  <si>
-    <t>1;300000@10010083;30@10010040;1@10000158;1@10000143;3</t>
-  </si>
-  <si>
-    <t>1;50000@10010083;10</t>
-  </si>
-  <si>
     <t>战力实力礼包</t>
-  </si>
-  <si>
-    <t>1;50000@10010083;10@10010085;50@10010046;1</t>
-  </si>
-  <si>
-    <t>1;100000@10010083;15@10010085;100@10010046;1</t>
-  </si>
-  <si>
-    <t>1;150000@10010083;20@10010085;150@10010045;1@10010046;1</t>
-  </si>
-  <si>
-    <t>1;200000@10010083;25@10010085;200@10000158;3@10010046;1</t>
-  </si>
-  <si>
-    <t>1;250000@10010083;30@10010085;300@10000143;5@10010046;1</t>
-  </si>
-  <si>
-    <t>1;300000@10010083;30@10010085;300@10000143;5@10010046;1</t>
-  </si>
-  <si>
-    <t>1;300000@10010083;30@10010085;500@10000143;5@10010046;1</t>
-  </si>
-  <si>
-    <t>1;300000@10010083;30@10010085;750@10000143;10@10010046;1</t>
-  </si>
-  <si>
-    <t>1;300000@10010083;30@10010085;1000@10000143;10@10010046;1</t>
   </si>
   <si>
     <t>1010035;3</t>
@@ -1116,6 +1053,80 @@
   </si>
   <si>
     <t>1010002;1</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>1;50000@1000018;10</t>
+  </si>
+  <si>
+    <t>1;50000@1000018;10@1010011;1</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>1;100000@1000018;15@1022008;3@1022009;2</t>
+  </si>
+  <si>
+    <t>1;50000@1000018;10@1021008;3@1010022;1</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>1;150000@1000018;20@1023008;3@1010013;1@1010023;1</t>
+  </si>
+  <si>
+    <t>1;200000@1000018;25@1023008;3@1000014;1@1023009;2</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>1;250000@1000018;30@1024008;3@1024009;2@1010024;1</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>1;300000@1000018;30@1025008;3@1025009;2@1010025;1</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>1;300000@1000018;30@1024008;3@1024009;2@1000013;1</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>1;300000@1000018;30@1025008;3@1025009;2@1000013;1</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>1;300000@1000018;30@1000020;1@1000013;1@1000022;2</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>1;300000@1000018;30@1000020;1@1000013;1@1000022;3</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>1;50000@1000018;10@1000019;50@1010038;1</t>
+  </si>
+  <si>
+    <t>1;100000@1000018;15@1000019;100@1010038;1</t>
+  </si>
+  <si>
+    <t>1;250000@1000018;30@1000019;300@1000022;5@1010038;1</t>
+  </si>
+  <si>
+    <t>1;300000@1000018;30@1000019;300@1000022;5@1010038;1</t>
+  </si>
+  <si>
+    <t>1;300000@1000018;30@1000019;500@1000022;5@1010038;1</t>
+  </si>
+  <si>
+    <t>1;300000@1000018;30@1000019;750@1000022;10@1010038;1</t>
+  </si>
+  <si>
+    <t>1;300000@1000018;30@1000019;1000@1000022;10@1010038;1</t>
+  </si>
+  <si>
+    <t>1;150000@1000018;20@1000019;150@1010030;1@1010038;1</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>1;200000@1000018;25@1000019;200@1010030;1@1010038;1</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -3086,8 +3097,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:J229"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D132" workbookViewId="0">
-      <selection activeCell="G153" sqref="G153"/>
+    <sheetView tabSelected="1" topLeftCell="D32" workbookViewId="0">
+      <selection activeCell="H53" sqref="H53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3867,11 +3878,11 @@
       <c r="G36" s="10">
         <v>3000</v>
       </c>
-      <c r="H36" s="10" t="s">
+      <c r="H36" s="18" t="s">
+        <v>264</v>
+      </c>
+      <c r="I36" s="10" t="s">
         <v>77</v>
-      </c>
-      <c r="I36" s="10" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="37" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3888,11 +3899,11 @@
       <c r="G37" s="10">
         <v>1500</v>
       </c>
-      <c r="H37" s="10" t="s">
-        <v>79</v>
+      <c r="H37" s="18" t="s">
+        <v>266</v>
       </c>
       <c r="I37" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="38" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3910,10 +3921,10 @@
         <v>1000</v>
       </c>
       <c r="H38" s="10" t="s">
-        <v>80</v>
+        <v>265</v>
       </c>
       <c r="I38" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="39" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3930,11 +3941,11 @@
       <c r="G39" s="10">
         <v>500</v>
       </c>
-      <c r="H39" s="10" t="s">
-        <v>81</v>
+      <c r="H39" s="18" t="s">
+        <v>267</v>
       </c>
       <c r="I39" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="40" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3951,11 +3962,11 @@
       <c r="G40" s="10">
         <v>300</v>
       </c>
-      <c r="H40" s="10" t="s">
-        <v>82</v>
+      <c r="H40" s="18" t="s">
+        <v>268</v>
       </c>
       <c r="I40" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="41" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3972,11 +3983,11 @@
       <c r="G41" s="10">
         <v>200</v>
       </c>
-      <c r="H41" s="10" t="s">
-        <v>83</v>
+      <c r="H41" s="18" t="s">
+        <v>269</v>
       </c>
       <c r="I41" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="42" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3993,11 +4004,11 @@
       <c r="G42" s="10">
         <v>100</v>
       </c>
-      <c r="H42" s="10" t="s">
-        <v>84</v>
+      <c r="H42" s="18" t="s">
+        <v>271</v>
       </c>
       <c r="I42" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="43" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4014,11 +4025,11 @@
       <c r="G43" s="10">
         <v>75</v>
       </c>
-      <c r="H43" s="10" t="s">
-        <v>85</v>
+      <c r="H43" s="18" t="s">
+        <v>270</v>
       </c>
       <c r="I43" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="44" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4035,11 +4046,11 @@
       <c r="G44" s="10">
         <v>50</v>
       </c>
-      <c r="H44" s="10" t="s">
-        <v>86</v>
+      <c r="H44" s="18" t="s">
+        <v>272</v>
       </c>
       <c r="I44" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="45" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4056,11 +4067,11 @@
       <c r="G45" s="10">
         <v>30</v>
       </c>
-      <c r="H45" s="10" t="s">
-        <v>87</v>
+      <c r="H45" s="18" t="s">
+        <v>273</v>
       </c>
       <c r="I45" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="46" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4077,11 +4088,11 @@
       <c r="G46" s="10">
         <v>20</v>
       </c>
-      <c r="H46" s="10" t="s">
-        <v>88</v>
+      <c r="H46" s="18" t="s">
+        <v>274</v>
       </c>
       <c r="I46" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="47" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4099,10 +4110,10 @@
         <v>3000</v>
       </c>
       <c r="H47" s="10" t="s">
-        <v>89</v>
+        <v>263</v>
       </c>
       <c r="I47" s="10" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
     </row>
     <row r="48" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4120,10 +4131,10 @@
         <v>1500</v>
       </c>
       <c r="H48" s="10" t="s">
-        <v>91</v>
+        <v>275</v>
       </c>
       <c r="I48" s="10" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
     </row>
     <row r="49" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4141,10 +4152,10 @@
         <v>1000</v>
       </c>
       <c r="H49" s="10" t="s">
-        <v>92</v>
+        <v>276</v>
       </c>
       <c r="I49" s="10" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
     </row>
     <row r="50" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4161,11 +4172,11 @@
       <c r="G50" s="10">
         <v>500</v>
       </c>
-      <c r="H50" s="10" t="s">
-        <v>93</v>
+      <c r="H50" s="18" t="s">
+        <v>282</v>
       </c>
       <c r="I50" s="10" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
     </row>
     <row r="51" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4182,11 +4193,11 @@
       <c r="G51" s="10">
         <v>300</v>
       </c>
-      <c r="H51" s="10" t="s">
-        <v>94</v>
+      <c r="H51" s="18" t="s">
+        <v>283</v>
       </c>
       <c r="I51" s="10" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
     </row>
     <row r="52" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4204,10 +4215,10 @@
         <v>200</v>
       </c>
       <c r="H52" s="10" t="s">
-        <v>95</v>
+        <v>277</v>
       </c>
       <c r="I52" s="10" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
     </row>
     <row r="53" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4225,10 +4236,10 @@
         <v>100</v>
       </c>
       <c r="H53" s="10" t="s">
-        <v>96</v>
+        <v>278</v>
       </c>
       <c r="I53" s="10" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
     </row>
     <row r="54" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4246,10 +4257,10 @@
         <v>50</v>
       </c>
       <c r="H54" s="10" t="s">
-        <v>97</v>
+        <v>279</v>
       </c>
       <c r="I54" s="10" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
     </row>
     <row r="55" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4267,10 +4278,10 @@
         <v>30</v>
       </c>
       <c r="H55" s="10" t="s">
-        <v>97</v>
+        <v>279</v>
       </c>
       <c r="I55" s="10" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
     </row>
     <row r="56" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4288,10 +4299,10 @@
         <v>20</v>
       </c>
       <c r="H56" s="10" t="s">
-        <v>98</v>
+        <v>280</v>
       </c>
       <c r="I56" s="10" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
     </row>
     <row r="57" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4309,10 +4320,10 @@
         <v>10</v>
       </c>
       <c r="H57" s="10" t="s">
-        <v>99</v>
+        <v>281</v>
       </c>
       <c r="I57" s="10" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
     </row>
     <row r="58" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4327,11 +4338,11 @@
         <v>1</v>
       </c>
       <c r="G58" s="10" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="H58" s="10"/>
       <c r="I58" s="10" t="s">
-        <v>101</v>
+        <v>80</v>
       </c>
     </row>
     <row r="59" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4346,11 +4357,11 @@
         <v>2</v>
       </c>
       <c r="G59" s="10" t="s">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="H59" s="10"/>
       <c r="I59" s="10" t="s">
-        <v>101</v>
+        <v>80</v>
       </c>
     </row>
     <row r="60" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4365,11 +4376,11 @@
         <v>3</v>
       </c>
       <c r="G60" s="10" t="s">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="H60" s="10"/>
       <c r="I60" s="10" t="s">
-        <v>101</v>
+        <v>80</v>
       </c>
     </row>
     <row r="61" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4384,11 +4395,11 @@
         <v>4</v>
       </c>
       <c r="G61" s="10" t="s">
-        <v>104</v>
+        <v>83</v>
       </c>
       <c r="H61" s="10"/>
       <c r="I61" s="10" t="s">
-        <v>101</v>
+        <v>80</v>
       </c>
     </row>
     <row r="62" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4403,11 +4414,11 @@
         <v>5</v>
       </c>
       <c r="G62" s="10" t="s">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="H62" s="10"/>
       <c r="I62" s="10" t="s">
-        <v>101</v>
+        <v>80</v>
       </c>
     </row>
     <row r="63" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4422,11 +4433,11 @@
         <v>6</v>
       </c>
       <c r="G63" s="10" t="s">
-        <v>105</v>
+        <v>84</v>
       </c>
       <c r="H63" s="10"/>
       <c r="I63" s="10" t="s">
-        <v>101</v>
+        <v>80</v>
       </c>
     </row>
     <row r="64" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4441,11 +4452,11 @@
         <v>7</v>
       </c>
       <c r="G64" s="10" t="s">
-        <v>106</v>
+        <v>85</v>
       </c>
       <c r="H64" s="10"/>
       <c r="I64" s="10" t="s">
-        <v>101</v>
+        <v>80</v>
       </c>
     </row>
     <row r="65" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4460,11 +4471,11 @@
         <v>8</v>
       </c>
       <c r="G65" s="10" t="s">
-        <v>107</v>
+        <v>86</v>
       </c>
       <c r="H65" s="10"/>
       <c r="I65" s="10" t="s">
-        <v>101</v>
+        <v>80</v>
       </c>
     </row>
     <row r="66" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4479,11 +4490,11 @@
         <v>9</v>
       </c>
       <c r="G66" s="10" t="s">
-        <v>108</v>
+        <v>87</v>
       </c>
       <c r="H66" s="10"/>
       <c r="I66" s="10" t="s">
-        <v>101</v>
+        <v>80</v>
       </c>
     </row>
     <row r="67" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4498,11 +4509,11 @@
         <v>10</v>
       </c>
       <c r="G67" s="10" t="s">
-        <v>105</v>
+        <v>84</v>
       </c>
       <c r="H67" s="10"/>
       <c r="I67" s="10" t="s">
-        <v>101</v>
+        <v>80</v>
       </c>
     </row>
     <row r="68" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4517,11 +4528,11 @@
         <v>11</v>
       </c>
       <c r="G68" s="10" t="s">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="H68" s="10"/>
       <c r="I68" s="10" t="s">
-        <v>101</v>
+        <v>80</v>
       </c>
     </row>
     <row r="69" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4536,11 +4547,11 @@
         <v>12</v>
       </c>
       <c r="G69" s="10" t="s">
-        <v>109</v>
+        <v>88</v>
       </c>
       <c r="H69" s="10"/>
       <c r="I69" s="10" t="s">
-        <v>101</v>
+        <v>80</v>
       </c>
     </row>
     <row r="70" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4555,11 +4566,11 @@
         <v>13</v>
       </c>
       <c r="G70" s="10" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
       <c r="H70" s="10"/>
       <c r="I70" s="10" t="s">
-        <v>101</v>
+        <v>80</v>
       </c>
     </row>
     <row r="71" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4574,11 +4585,11 @@
         <v>14</v>
       </c>
       <c r="G71" s="10" t="s">
-        <v>111</v>
+        <v>90</v>
       </c>
       <c r="H71" s="10"/>
       <c r="I71" s="10" t="s">
-        <v>101</v>
+        <v>80</v>
       </c>
     </row>
     <row r="72" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4593,11 +4604,11 @@
         <v>15</v>
       </c>
       <c r="G72" s="10" t="s">
-        <v>107</v>
+        <v>86</v>
       </c>
       <c r="H72" s="10"/>
       <c r="I72" s="10" t="s">
-        <v>101</v>
+        <v>80</v>
       </c>
     </row>
     <row r="73" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4612,11 +4623,11 @@
         <v>16</v>
       </c>
       <c r="G73" s="10" t="s">
-        <v>105</v>
+        <v>84</v>
       </c>
       <c r="H73" s="10"/>
       <c r="I73" s="10" t="s">
-        <v>101</v>
+        <v>80</v>
       </c>
     </row>
     <row r="74" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4631,11 +4642,11 @@
         <v>17</v>
       </c>
       <c r="G74" s="10" t="s">
-        <v>112</v>
+        <v>91</v>
       </c>
       <c r="H74" s="10"/>
       <c r="I74" s="10" t="s">
-        <v>101</v>
+        <v>80</v>
       </c>
     </row>
     <row r="75" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4650,11 +4661,11 @@
         <v>18</v>
       </c>
       <c r="G75" s="10" t="s">
-        <v>106</v>
+        <v>85</v>
       </c>
       <c r="H75" s="10"/>
       <c r="I75" s="10" t="s">
-        <v>101</v>
+        <v>80</v>
       </c>
     </row>
     <row r="76" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4669,11 +4680,11 @@
         <v>19</v>
       </c>
       <c r="G76" s="10" t="s">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="H76" s="10"/>
       <c r="I76" s="10" t="s">
-        <v>101</v>
+        <v>80</v>
       </c>
     </row>
     <row r="77" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4688,11 +4699,11 @@
         <v>20</v>
       </c>
       <c r="G77" s="10" t="s">
-        <v>111</v>
+        <v>90</v>
       </c>
       <c r="H77" s="10"/>
       <c r="I77" s="10" t="s">
-        <v>101</v>
+        <v>80</v>
       </c>
     </row>
     <row r="78" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4707,11 +4718,11 @@
         <v>21</v>
       </c>
       <c r="G78" s="10" t="s">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="H78" s="10"/>
       <c r="I78" s="10" t="s">
-        <v>101</v>
+        <v>80</v>
       </c>
     </row>
     <row r="79" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4726,11 +4737,11 @@
         <v>22</v>
       </c>
       <c r="G79" s="10" t="s">
-        <v>108</v>
+        <v>87</v>
       </c>
       <c r="H79" s="10"/>
       <c r="I79" s="10" t="s">
-        <v>101</v>
+        <v>80</v>
       </c>
     </row>
     <row r="80" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4745,11 +4756,11 @@
         <v>23</v>
       </c>
       <c r="G80" s="10" t="s">
-        <v>112</v>
+        <v>91</v>
       </c>
       <c r="H80" s="10"/>
       <c r="I80" s="10" t="s">
-        <v>101</v>
+        <v>80</v>
       </c>
     </row>
     <row r="81" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4764,11 +4775,11 @@
         <v>24</v>
       </c>
       <c r="G81" s="10" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
       <c r="H81" s="10"/>
       <c r="I81" s="10" t="s">
-        <v>101</v>
+        <v>80</v>
       </c>
     </row>
     <row r="82" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4783,11 +4794,11 @@
         <v>25</v>
       </c>
       <c r="G82" s="10" t="s">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="H82" s="10"/>
       <c r="I82" s="10" t="s">
-        <v>101</v>
+        <v>80</v>
       </c>
     </row>
     <row r="83" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4802,11 +4813,11 @@
         <v>26</v>
       </c>
       <c r="G83" s="10" t="s">
-        <v>105</v>
+        <v>84</v>
       </c>
       <c r="H83" s="10"/>
       <c r="I83" s="10" t="s">
-        <v>101</v>
+        <v>80</v>
       </c>
     </row>
     <row r="84" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4821,11 +4832,11 @@
         <v>27</v>
       </c>
       <c r="G84" s="10" t="s">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="H84" s="10"/>
       <c r="I84" s="10" t="s">
-        <v>101</v>
+        <v>80</v>
       </c>
     </row>
     <row r="85" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4840,11 +4851,11 @@
         <v>28</v>
       </c>
       <c r="G85" s="10" t="s">
-        <v>109</v>
+        <v>88</v>
       </c>
       <c r="H85" s="10"/>
       <c r="I85" s="10" t="s">
-        <v>101</v>
+        <v>80</v>
       </c>
     </row>
     <row r="86" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4859,11 +4870,11 @@
         <v>29</v>
       </c>
       <c r="G86" s="10" t="s">
-        <v>112</v>
+        <v>91</v>
       </c>
       <c r="H86" s="10"/>
       <c r="I86" s="10" t="s">
-        <v>101</v>
+        <v>80</v>
       </c>
     </row>
     <row r="87" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4878,11 +4889,11 @@
         <v>30</v>
       </c>
       <c r="G87" s="10" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="H87" s="10"/>
       <c r="I87" s="10" t="s">
-        <v>101</v>
+        <v>80</v>
       </c>
     </row>
     <row r="88" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4897,13 +4908,13 @@
         <v>5</v>
       </c>
       <c r="G88" s="10" t="s">
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="H88" s="10" t="s">
-        <v>115</v>
+        <v>94</v>
       </c>
       <c r="I88" s="10" t="s">
-        <v>116</v>
+        <v>95</v>
       </c>
     </row>
     <row r="89" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4918,13 +4929,13 @@
         <v>7</v>
       </c>
       <c r="G89" s="10" t="s">
-        <v>117</v>
+        <v>96</v>
       </c>
       <c r="H89" s="10" t="s">
-        <v>118</v>
+        <v>97</v>
       </c>
       <c r="I89" s="10" t="s">
-        <v>119</v>
+        <v>98</v>
       </c>
     </row>
     <row r="90" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4939,13 +4950,13 @@
         <v>9</v>
       </c>
       <c r="G90" s="10" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="H90" s="10" t="s">
-        <v>121</v>
+        <v>100</v>
       </c>
       <c r="I90" s="10" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
     </row>
     <row r="91" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4960,13 +4971,13 @@
         <v>11</v>
       </c>
       <c r="G91" s="10" t="s">
-        <v>123</v>
+        <v>102</v>
       </c>
       <c r="H91" s="10" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="I91" s="10" t="s">
-        <v>118</v>
+        <v>97</v>
       </c>
     </row>
     <row r="92" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4981,13 +4992,13 @@
         <v>13</v>
       </c>
       <c r="G92" s="10" t="s">
-        <v>125</v>
+        <v>104</v>
       </c>
       <c r="H92" s="10" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c r="I92" s="10" t="s">
-        <v>121</v>
+        <v>100</v>
       </c>
     </row>
     <row r="93" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5002,13 +5013,13 @@
         <v>15</v>
       </c>
       <c r="G93" s="10" t="s">
-        <v>121</v>
+        <v>100</v>
       </c>
       <c r="H93" s="10" t="s">
-        <v>119</v>
+        <v>98</v>
       </c>
       <c r="I93" s="10" t="s">
-        <v>119</v>
+        <v>98</v>
       </c>
     </row>
     <row r="94" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5023,13 +5034,13 @@
         <v>17</v>
       </c>
       <c r="G94" s="10" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="H94" s="10" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="I94" s="10" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
     </row>
     <row r="95" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5044,13 +5055,13 @@
         <v>19</v>
       </c>
       <c r="G95" s="10" t="s">
-        <v>128</v>
+        <v>107</v>
       </c>
       <c r="H95" s="10" t="s">
-        <v>129</v>
+        <v>108</v>
       </c>
       <c r="I95" s="10" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
     </row>
     <row r="96" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5065,13 +5076,13 @@
         <v>21</v>
       </c>
       <c r="G96" s="10" t="s">
-        <v>131</v>
+        <v>110</v>
       </c>
       <c r="H96" s="10" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="I96" s="10" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
     </row>
     <row r="97" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5086,13 +5097,13 @@
         <v>23</v>
       </c>
       <c r="G97" s="10" t="s">
-        <v>133</v>
+        <v>112</v>
       </c>
       <c r="H97" s="10" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="I97" s="10" t="s">
-        <v>134</v>
+        <v>113</v>
       </c>
     </row>
     <row r="98" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5107,13 +5118,13 @@
         <v>25</v>
       </c>
       <c r="G98" s="10" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="H98" s="10" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="I98" s="10" t="s">
-        <v>136</v>
+        <v>115</v>
       </c>
     </row>
     <row r="99" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5128,13 +5139,13 @@
         <v>27</v>
       </c>
       <c r="G99" s="10" t="s">
-        <v>121</v>
+        <v>100</v>
       </c>
       <c r="H99" s="10" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c r="I99" s="10" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
     </row>
     <row r="100" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5149,13 +5160,13 @@
         <v>29</v>
       </c>
       <c r="G100" s="10" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="H100" s="10" t="s">
-        <v>121</v>
+        <v>100</v>
       </c>
       <c r="I100" s="10" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
     </row>
     <row r="101" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5170,13 +5181,13 @@
         <v>31</v>
       </c>
       <c r="G101" s="10" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="H101" s="10" t="s">
-        <v>140</v>
+        <v>119</v>
       </c>
       <c r="I101" s="10" t="s">
-        <v>141</v>
+        <v>120</v>
       </c>
     </row>
     <row r="102" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5191,13 +5202,13 @@
         <v>33</v>
       </c>
       <c r="G102" s="10" t="s">
-        <v>142</v>
+        <v>121</v>
       </c>
       <c r="H102" s="10" t="s">
-        <v>143</v>
+        <v>122</v>
       </c>
       <c r="I102" s="10" t="s">
-        <v>144</v>
+        <v>123</v>
       </c>
     </row>
     <row r="103" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5212,13 +5223,13 @@
         <v>35</v>
       </c>
       <c r="G103" s="10" t="s">
-        <v>133</v>
+        <v>112</v>
       </c>
       <c r="H103" s="10" t="s">
-        <v>141</v>
+        <v>120</v>
       </c>
       <c r="I103" s="10" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
     </row>
     <row r="104" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5233,13 +5244,13 @@
         <v>37</v>
       </c>
       <c r="G104" s="10" t="s">
-        <v>140</v>
+        <v>119</v>
       </c>
       <c r="H104" s="10" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
       <c r="I104" s="10" t="s">
-        <v>144</v>
+        <v>123</v>
       </c>
     </row>
     <row r="105" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5254,13 +5265,13 @@
         <v>39</v>
       </c>
       <c r="G105" s="10" t="s">
-        <v>143</v>
+        <v>122</v>
       </c>
       <c r="H105" s="10" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="I105" s="10" t="s">
-        <v>134</v>
+        <v>113</v>
       </c>
     </row>
     <row r="106" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5275,13 +5286,13 @@
         <v>41</v>
       </c>
       <c r="G106" s="10" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
       <c r="H106" s="10" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="I106" s="10" t="s">
-        <v>147</v>
+        <v>126</v>
       </c>
     </row>
     <row r="107" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5296,13 +5307,13 @@
         <v>43</v>
       </c>
       <c r="G107" s="10" t="s">
-        <v>142</v>
+        <v>121</v>
       </c>
       <c r="H107" s="10" t="s">
-        <v>147</v>
+        <v>126</v>
       </c>
       <c r="I107" s="10" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
     </row>
     <row r="108" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5317,13 +5328,13 @@
         <v>45</v>
       </c>
       <c r="G108" s="10" t="s">
-        <v>149</v>
+        <v>128</v>
       </c>
       <c r="H108" s="10" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
       <c r="I108" s="10" t="s">
-        <v>150</v>
+        <v>129</v>
       </c>
     </row>
     <row r="109" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5338,13 +5349,13 @@
         <v>47</v>
       </c>
       <c r="G109" s="10" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="H109" s="10" t="s">
-        <v>150</v>
+        <v>129</v>
       </c>
       <c r="I109" s="10" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
     </row>
     <row r="110" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5359,13 +5370,13 @@
         <v>49</v>
       </c>
       <c r="G110" s="10" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
       <c r="H110" s="10" t="s">
-        <v>151</v>
+        <v>130</v>
       </c>
       <c r="I110" s="10" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
     </row>
     <row r="111" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5380,13 +5391,13 @@
         <v>51</v>
       </c>
       <c r="G111" s="10" t="s">
-        <v>152</v>
+        <v>131</v>
       </c>
       <c r="H111" s="10" t="s">
-        <v>153</v>
+        <v>132</v>
       </c>
       <c r="I111" s="10" t="s">
-        <v>154</v>
+        <v>133</v>
       </c>
     </row>
     <row r="112" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5401,13 +5412,13 @@
         <v>53</v>
       </c>
       <c r="G112" s="10" t="s">
-        <v>142</v>
+        <v>121</v>
       </c>
       <c r="H112" s="10" t="s">
-        <v>155</v>
+        <v>134</v>
       </c>
       <c r="I112" s="10" t="s">
-        <v>156</v>
+        <v>135</v>
       </c>
     </row>
     <row r="113" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5422,13 +5433,13 @@
         <v>55</v>
       </c>
       <c r="G113" s="10" t="s">
-        <v>157</v>
+        <v>136</v>
       </c>
       <c r="H113" s="10" t="s">
-        <v>154</v>
+        <v>133</v>
       </c>
       <c r="I113" s="10" t="s">
-        <v>158</v>
+        <v>137</v>
       </c>
     </row>
     <row r="114" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5443,13 +5454,13 @@
         <v>57</v>
       </c>
       <c r="G114" s="10" t="s">
-        <v>155</v>
+        <v>134</v>
       </c>
       <c r="H114" s="10" t="s">
-        <v>158</v>
+        <v>137</v>
       </c>
       <c r="I114" s="10" t="s">
-        <v>153</v>
+        <v>132</v>
       </c>
     </row>
     <row r="115" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5464,13 +5475,13 @@
         <v>59</v>
       </c>
       <c r="G115" s="10" t="s">
-        <v>153</v>
+        <v>132</v>
       </c>
       <c r="H115" s="10" t="s">
-        <v>159</v>
+        <v>138</v>
       </c>
       <c r="I115" s="10" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
     </row>
     <row r="116" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5485,11 +5496,11 @@
         <v>1</v>
       </c>
       <c r="G116" s="10" t="s">
-        <v>160</v>
+        <v>139</v>
       </c>
       <c r="H116" s="10"/>
       <c r="I116" s="10" t="s">
-        <v>101</v>
+        <v>80</v>
       </c>
     </row>
     <row r="117" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5504,11 +5515,11 @@
         <v>2</v>
       </c>
       <c r="G117" s="10" t="s">
-        <v>161</v>
+        <v>140</v>
       </c>
       <c r="H117" s="10"/>
       <c r="I117" s="10" t="s">
-        <v>101</v>
+        <v>80</v>
       </c>
     </row>
     <row r="118" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5523,11 +5534,11 @@
         <v>3</v>
       </c>
       <c r="G118" s="10" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
       <c r="H118" s="10"/>
       <c r="I118" s="10" t="s">
-        <v>101</v>
+        <v>80</v>
       </c>
     </row>
     <row r="119" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5542,11 +5553,11 @@
         <v>4</v>
       </c>
       <c r="G119" s="10" t="s">
-        <v>162</v>
+        <v>141</v>
       </c>
       <c r="H119" s="10"/>
       <c r="I119" s="10" t="s">
-        <v>101</v>
+        <v>80</v>
       </c>
     </row>
     <row r="120" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5561,11 +5572,11 @@
         <v>5</v>
       </c>
       <c r="G120" s="10" t="s">
-        <v>163</v>
+        <v>142</v>
       </c>
       <c r="H120" s="10"/>
       <c r="I120" s="10" t="s">
-        <v>101</v>
+        <v>80</v>
       </c>
     </row>
     <row r="121" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5580,11 +5591,11 @@
         <v>6</v>
       </c>
       <c r="G121" s="10" t="s">
-        <v>164</v>
+        <v>143</v>
       </c>
       <c r="H121" s="10"/>
       <c r="I121" s="10" t="s">
-        <v>101</v>
+        <v>80</v>
       </c>
     </row>
     <row r="122" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5599,11 +5610,11 @@
         <v>7</v>
       </c>
       <c r="G122" s="10" t="s">
-        <v>165</v>
+        <v>144</v>
       </c>
       <c r="H122" s="10"/>
       <c r="I122" s="10" t="s">
-        <v>101</v>
+        <v>80</v>
       </c>
     </row>
     <row r="123" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5618,11 +5629,11 @@
         <v>8</v>
       </c>
       <c r="G123" s="10" t="s">
-        <v>166</v>
+        <v>145</v>
       </c>
       <c r="H123" s="10"/>
       <c r="I123" s="10" t="s">
-        <v>101</v>
+        <v>80</v>
       </c>
     </row>
     <row r="124" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5637,11 +5648,11 @@
         <v>9</v>
       </c>
       <c r="G124" s="10" t="s">
-        <v>161</v>
+        <v>140</v>
       </c>
       <c r="H124" s="10"/>
       <c r="I124" s="10" t="s">
-        <v>101</v>
+        <v>80</v>
       </c>
     </row>
     <row r="125" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5656,11 +5667,11 @@
         <v>10</v>
       </c>
       <c r="G125" s="10" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
       <c r="H125" s="10"/>
       <c r="I125" s="10" t="s">
-        <v>101</v>
+        <v>80</v>
       </c>
     </row>
     <row r="126" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5675,11 +5686,11 @@
         <v>11</v>
       </c>
       <c r="G126" s="10" t="s">
-        <v>162</v>
+        <v>141</v>
       </c>
       <c r="H126" s="10"/>
       <c r="I126" s="10" t="s">
-        <v>101</v>
+        <v>80</v>
       </c>
     </row>
     <row r="127" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5694,11 +5705,11 @@
         <v>12</v>
       </c>
       <c r="G127" s="10" t="s">
-        <v>108</v>
+        <v>87</v>
       </c>
       <c r="H127" s="10"/>
       <c r="I127" s="10" t="s">
-        <v>101</v>
+        <v>80</v>
       </c>
     </row>
     <row r="128" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5713,11 +5724,11 @@
         <v>13</v>
       </c>
       <c r="G128" s="10" t="s">
-        <v>164</v>
+        <v>143</v>
       </c>
       <c r="H128" s="10"/>
       <c r="I128" s="10" t="s">
-        <v>101</v>
+        <v>80</v>
       </c>
     </row>
     <row r="129" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5732,11 +5743,11 @@
         <v>14</v>
       </c>
       <c r="G129" s="10" t="s">
-        <v>165</v>
+        <v>144</v>
       </c>
       <c r="H129" s="10"/>
       <c r="I129" s="10" t="s">
-        <v>101</v>
+        <v>80</v>
       </c>
     </row>
     <row r="130" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5751,11 +5762,11 @@
         <v>15</v>
       </c>
       <c r="G130" s="10" t="s">
-        <v>166</v>
+        <v>145</v>
       </c>
       <c r="H130" s="10"/>
       <c r="I130" s="10" t="s">
-        <v>101</v>
+        <v>80</v>
       </c>
     </row>
     <row r="131" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5770,11 +5781,11 @@
         <v>16</v>
       </c>
       <c r="G131" s="10" t="s">
-        <v>161</v>
+        <v>140</v>
       </c>
       <c r="H131" s="10"/>
       <c r="I131" s="10" t="s">
-        <v>101</v>
+        <v>80</v>
       </c>
     </row>
     <row r="132" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5789,11 +5800,11 @@
         <v>17</v>
       </c>
       <c r="G132" s="10" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
       <c r="H132" s="10"/>
       <c r="I132" s="10" t="s">
-        <v>101</v>
+        <v>80</v>
       </c>
     </row>
     <row r="133" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5808,11 +5819,11 @@
         <v>18</v>
       </c>
       <c r="G133" s="10" t="s">
-        <v>162</v>
+        <v>141</v>
       </c>
       <c r="H133" s="10"/>
       <c r="I133" s="10" t="s">
-        <v>101</v>
+        <v>80</v>
       </c>
     </row>
     <row r="134" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5827,11 +5838,11 @@
         <v>19</v>
       </c>
       <c r="G134" s="10" t="s">
-        <v>108</v>
+        <v>87</v>
       </c>
       <c r="H134" s="10"/>
       <c r="I134" s="10" t="s">
-        <v>101</v>
+        <v>80</v>
       </c>
     </row>
     <row r="135" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5846,11 +5857,11 @@
         <v>20</v>
       </c>
       <c r="G135" s="10" t="s">
-        <v>164</v>
+        <v>143</v>
       </c>
       <c r="H135" s="10"/>
       <c r="I135" s="10" t="s">
-        <v>101</v>
+        <v>80</v>
       </c>
     </row>
     <row r="136" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5865,11 +5876,11 @@
         <v>21</v>
       </c>
       <c r="G136" s="10" t="s">
-        <v>165</v>
+        <v>144</v>
       </c>
       <c r="H136" s="10"/>
       <c r="I136" s="10" t="s">
-        <v>101</v>
+        <v>80</v>
       </c>
     </row>
     <row r="137" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5884,11 +5895,11 @@
         <v>22</v>
       </c>
       <c r="G137" s="10" t="s">
-        <v>166</v>
+        <v>145</v>
       </c>
       <c r="H137" s="10"/>
       <c r="I137" s="10" t="s">
-        <v>101</v>
+        <v>80</v>
       </c>
     </row>
     <row r="138" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5903,11 +5914,11 @@
         <v>23</v>
       </c>
       <c r="G138" s="10" t="s">
-        <v>161</v>
+        <v>140</v>
       </c>
       <c r="H138" s="10"/>
       <c r="I138" s="10" t="s">
-        <v>101</v>
+        <v>80</v>
       </c>
     </row>
     <row r="139" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5922,11 +5933,11 @@
         <v>24</v>
       </c>
       <c r="G139" s="10" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
       <c r="H139" s="10"/>
       <c r="I139" s="10" t="s">
-        <v>101</v>
+        <v>80</v>
       </c>
     </row>
     <row r="140" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5941,11 +5952,11 @@
         <v>25</v>
       </c>
       <c r="G140" s="10" t="s">
-        <v>162</v>
+        <v>141</v>
       </c>
       <c r="H140" s="10"/>
       <c r="I140" s="10" t="s">
-        <v>101</v>
+        <v>80</v>
       </c>
     </row>
     <row r="141" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5960,11 +5971,11 @@
         <v>26</v>
       </c>
       <c r="G141" s="10" t="s">
-        <v>108</v>
+        <v>87</v>
       </c>
       <c r="H141" s="10"/>
       <c r="I141" s="10" t="s">
-        <v>101</v>
+        <v>80</v>
       </c>
     </row>
     <row r="142" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5979,11 +5990,11 @@
         <v>27</v>
       </c>
       <c r="G142" s="10" t="s">
-        <v>164</v>
+        <v>143</v>
       </c>
       <c r="H142" s="10"/>
       <c r="I142" s="10" t="s">
-        <v>101</v>
+        <v>80</v>
       </c>
     </row>
     <row r="143" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5998,11 +6009,11 @@
         <v>28</v>
       </c>
       <c r="G143" s="10" t="s">
-        <v>165</v>
+        <v>144</v>
       </c>
       <c r="H143" s="10"/>
       <c r="I143" s="10" t="s">
-        <v>101</v>
+        <v>80</v>
       </c>
     </row>
     <row r="144" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6017,11 +6028,11 @@
         <v>29</v>
       </c>
       <c r="G144" s="10" t="s">
-        <v>166</v>
+        <v>145</v>
       </c>
       <c r="H144" s="10"/>
       <c r="I144" s="10" t="s">
-        <v>101</v>
+        <v>80</v>
       </c>
     </row>
     <row r="145" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6036,11 +6047,11 @@
         <v>30</v>
       </c>
       <c r="G145" s="10" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="H145" s="10"/>
       <c r="I145" s="10" t="s">
-        <v>101</v>
+        <v>80</v>
       </c>
     </row>
     <row r="146" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6055,11 +6066,11 @@
         <v>5</v>
       </c>
       <c r="G146" s="18" t="s">
-        <v>280</v>
+        <v>259</v>
       </c>
       <c r="H146" s="10"/>
       <c r="I146" s="10" t="s">
-        <v>167</v>
+        <v>146</v>
       </c>
     </row>
     <row r="147" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6074,11 +6085,11 @@
         <v>12</v>
       </c>
       <c r="G147" s="18" t="s">
-        <v>281</v>
+        <v>260</v>
       </c>
       <c r="H147" s="10"/>
       <c r="I147" s="10" t="s">
-        <v>167</v>
+        <v>146</v>
       </c>
     </row>
     <row r="148" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6093,11 +6104,11 @@
         <v>18</v>
       </c>
       <c r="G148" s="18" t="s">
-        <v>282</v>
+        <v>261</v>
       </c>
       <c r="H148" s="10"/>
       <c r="I148" s="10" t="s">
-        <v>167</v>
+        <v>146</v>
       </c>
     </row>
     <row r="149" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6112,11 +6123,11 @@
         <v>28</v>
       </c>
       <c r="G149" s="10" t="s">
-        <v>168</v>
+        <v>147</v>
       </c>
       <c r="H149" s="10"/>
       <c r="I149" s="10" t="s">
-        <v>167</v>
+        <v>146</v>
       </c>
     </row>
     <row r="150" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6131,11 +6142,11 @@
         <v>5</v>
       </c>
       <c r="G150" s="18" t="s">
-        <v>282</v>
+        <v>261</v>
       </c>
       <c r="H150" s="10"/>
       <c r="I150" s="10" t="s">
-        <v>169</v>
+        <v>148</v>
       </c>
     </row>
     <row r="151" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6150,11 +6161,11 @@
         <v>12</v>
       </c>
       <c r="G151" s="18" t="s">
-        <v>282</v>
+        <v>261</v>
       </c>
       <c r="H151" s="10"/>
       <c r="I151" s="10" t="s">
-        <v>169</v>
+        <v>148</v>
       </c>
     </row>
     <row r="152" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6169,11 +6180,11 @@
         <v>18</v>
       </c>
       <c r="G152" s="18" t="s">
-        <v>283</v>
+        <v>262</v>
       </c>
       <c r="H152" s="10"/>
       <c r="I152" s="10" t="s">
-        <v>169</v>
+        <v>148</v>
       </c>
     </row>
     <row r="153" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6188,11 +6199,11 @@
         <v>28</v>
       </c>
       <c r="G153" s="18" t="s">
-        <v>283</v>
+        <v>262</v>
       </c>
       <c r="H153" s="10"/>
       <c r="I153" s="10" t="s">
-        <v>169</v>
+        <v>148</v>
       </c>
     </row>
     <row r="154" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6210,10 +6221,10 @@
         <v>100</v>
       </c>
       <c r="H154" s="14" t="s">
-        <v>170</v>
+        <v>149</v>
       </c>
       <c r="I154" s="10" t="s">
-        <v>171</v>
+        <v>150</v>
       </c>
     </row>
     <row r="155" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6231,10 +6242,10 @@
         <v>300</v>
       </c>
       <c r="H155" s="14" t="s">
-        <v>172</v>
+        <v>151</v>
       </c>
       <c r="I155" s="10" t="s">
-        <v>173</v>
+        <v>152</v>
       </c>
     </row>
     <row r="156" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6252,10 +6263,10 @@
         <v>700</v>
       </c>
       <c r="H156" s="14" t="s">
-        <v>174</v>
+        <v>153</v>
       </c>
       <c r="I156" s="10" t="s">
-        <v>175</v>
+        <v>154</v>
       </c>
     </row>
     <row r="157" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6273,10 +6284,10 @@
         <v>1500</v>
       </c>
       <c r="H157" s="14" t="s">
-        <v>176</v>
+        <v>155</v>
       </c>
       <c r="I157" s="10" t="s">
-        <v>177</v>
+        <v>156</v>
       </c>
     </row>
     <row r="158" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6294,10 +6305,10 @@
         <v>3000</v>
       </c>
       <c r="H158" s="14" t="s">
-        <v>178</v>
+        <v>157</v>
       </c>
       <c r="I158" s="10" t="s">
-        <v>179</v>
+        <v>158</v>
       </c>
       <c r="J158" s="11"/>
     </row>
@@ -6316,10 +6327,10 @@
         <v>5000</v>
       </c>
       <c r="H159" s="14" t="s">
-        <v>180</v>
+        <v>159</v>
       </c>
       <c r="I159" s="10" t="s">
-        <v>181</v>
+        <v>160</v>
       </c>
       <c r="J159" s="11"/>
     </row>
@@ -6338,10 +6349,10 @@
         <v>8000</v>
       </c>
       <c r="H160" s="14" t="s">
-        <v>182</v>
+        <v>161</v>
       </c>
       <c r="I160" s="10" t="s">
-        <v>183</v>
+        <v>162</v>
       </c>
       <c r="J160" s="11"/>
     </row>
@@ -6360,10 +6371,10 @@
         <v>13000</v>
       </c>
       <c r="H161" s="14" t="s">
-        <v>184</v>
+        <v>163</v>
       </c>
       <c r="I161" s="10" t="s">
-        <v>185</v>
+        <v>164</v>
       </c>
       <c r="J161" s="11"/>
     </row>
@@ -6382,10 +6393,10 @@
         <v>20000</v>
       </c>
       <c r="H162" s="14" t="s">
-        <v>186</v>
+        <v>165</v>
       </c>
       <c r="I162" s="10" t="s">
-        <v>187</v>
+        <v>166</v>
       </c>
       <c r="J162" s="11"/>
     </row>
@@ -6404,10 +6415,10 @@
         <v>30000</v>
       </c>
       <c r="H163" s="14" t="s">
-        <v>188</v>
+        <v>167</v>
       </c>
       <c r="I163" s="10" t="s">
-        <v>189</v>
+        <v>168</v>
       </c>
       <c r="J163" s="11"/>
     </row>
@@ -6426,10 +6437,10 @@
         <v>50000</v>
       </c>
       <c r="H164" s="14" t="s">
-        <v>190</v>
+        <v>169</v>
       </c>
       <c r="I164" s="10" t="s">
-        <v>191</v>
+        <v>170</v>
       </c>
       <c r="J164" s="11"/>
     </row>
@@ -6448,10 +6459,10 @@
         <v>75000</v>
       </c>
       <c r="H165" s="14" t="s">
-        <v>192</v>
+        <v>171</v>
       </c>
       <c r="I165" s="10" t="s">
-        <v>193</v>
+        <v>172</v>
       </c>
       <c r="J165" s="11"/>
     </row>
@@ -6470,10 +6481,10 @@
         <v>100000</v>
       </c>
       <c r="H166" s="14" t="s">
-        <v>194</v>
+        <v>173</v>
       </c>
       <c r="I166" s="10" t="s">
-        <v>195</v>
+        <v>174</v>
       </c>
       <c r="J166" s="11"/>
     </row>
@@ -6492,10 +6503,10 @@
         <v>150000</v>
       </c>
       <c r="H167" s="14" t="s">
-        <v>196</v>
+        <v>175</v>
       </c>
       <c r="I167" s="10" t="s">
-        <v>197</v>
+        <v>176</v>
       </c>
       <c r="J167" s="15"/>
     </row>
@@ -6514,10 +6525,10 @@
         <v>200000</v>
       </c>
       <c r="H168" s="14" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
       <c r="I168" s="10" t="s">
-        <v>199</v>
+        <v>178</v>
       </c>
     </row>
     <row r="169" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6535,10 +6546,10 @@
         <v>300000</v>
       </c>
       <c r="H169" s="14" t="s">
-        <v>200</v>
+        <v>179</v>
       </c>
       <c r="I169" s="10" t="s">
-        <v>201</v>
+        <v>180</v>
       </c>
     </row>
     <row r="170" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6556,10 +6567,10 @@
         <v>500000</v>
       </c>
       <c r="H170" s="14" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="I170" s="10" t="s">
-        <v>203</v>
+        <v>182</v>
       </c>
     </row>
     <row r="171" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6577,10 +6588,10 @@
         <v>1000000</v>
       </c>
       <c r="H171" s="14" t="s">
-        <v>204</v>
+        <v>183</v>
       </c>
       <c r="I171" s="10" t="s">
-        <v>205</v>
+        <v>184</v>
       </c>
     </row>
     <row r="172" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6598,10 +6609,10 @@
         <v>0</v>
       </c>
       <c r="H172" s="14" t="s">
-        <v>206</v>
+        <v>185</v>
       </c>
       <c r="I172" s="10" t="s">
-        <v>207</v>
+        <v>186</v>
       </c>
     </row>
     <row r="173" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6619,10 +6630,10 @@
         <v>0</v>
       </c>
       <c r="H173" s="14" t="s">
-        <v>208</v>
+        <v>187</v>
       </c>
       <c r="I173" s="10" t="s">
-        <v>209</v>
+        <v>188</v>
       </c>
     </row>
     <row r="174" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6640,10 +6651,10 @@
         <v>0</v>
       </c>
       <c r="H174" s="14" t="s">
-        <v>210</v>
+        <v>189</v>
       </c>
       <c r="I174" s="10" t="s">
-        <v>211</v>
+        <v>190</v>
       </c>
     </row>
     <row r="175" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6661,10 +6672,10 @@
         <v>0</v>
       </c>
       <c r="H175" s="14" t="s">
-        <v>212</v>
+        <v>191</v>
       </c>
       <c r="I175" s="10" t="s">
-        <v>213</v>
+        <v>192</v>
       </c>
     </row>
     <row r="176" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6682,10 +6693,10 @@
         <v>0</v>
       </c>
       <c r="H176" s="14" t="s">
-        <v>214</v>
+        <v>193</v>
       </c>
       <c r="I176" s="10" t="s">
-        <v>215</v>
+        <v>194</v>
       </c>
     </row>
     <row r="177" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6703,10 +6714,10 @@
         <v>0</v>
       </c>
       <c r="H177" s="14" t="s">
-        <v>216</v>
+        <v>195</v>
       </c>
       <c r="I177" s="10" t="s">
-        <v>217</v>
+        <v>196</v>
       </c>
     </row>
     <row r="178" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6724,10 +6735,10 @@
         <v>0</v>
       </c>
       <c r="H178" s="14" t="s">
-        <v>218</v>
+        <v>197</v>
       </c>
       <c r="I178" s="10" t="s">
-        <v>219</v>
+        <v>198</v>
       </c>
     </row>
     <row r="179" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6742,13 +6753,13 @@
         <v>1</v>
       </c>
       <c r="G179" s="12" t="s">
-        <v>220</v>
+        <v>199</v>
       </c>
       <c r="H179" s="12" t="s">
-        <v>221</v>
+        <v>200</v>
       </c>
       <c r="I179" s="10" t="s">
-        <v>222</v>
+        <v>201</v>
       </c>
     </row>
     <row r="180" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6763,13 +6774,13 @@
         <v>1</v>
       </c>
       <c r="G180" s="12" t="s">
-        <v>223</v>
+        <v>202</v>
       </c>
       <c r="H180" s="12" t="s">
-        <v>224</v>
+        <v>203</v>
       </c>
       <c r="I180" s="10" t="s">
-        <v>222</v>
+        <v>201</v>
       </c>
     </row>
     <row r="181" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6784,13 +6795,13 @@
         <v>1</v>
       </c>
       <c r="G181" s="12" t="s">
-        <v>225</v>
+        <v>204</v>
       </c>
       <c r="H181" s="12" t="s">
-        <v>226</v>
+        <v>205</v>
       </c>
       <c r="I181" s="10" t="s">
-        <v>222</v>
+        <v>201</v>
       </c>
     </row>
     <row r="182" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6805,13 +6816,13 @@
         <v>1</v>
       </c>
       <c r="G182" s="12" t="s">
-        <v>227</v>
+        <v>206</v>
       </c>
       <c r="H182" s="12" t="s">
-        <v>228</v>
+        <v>207</v>
       </c>
       <c r="I182" s="10" t="s">
-        <v>222</v>
+        <v>201</v>
       </c>
     </row>
     <row r="183" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6826,13 +6837,13 @@
         <v>1</v>
       </c>
       <c r="G183" s="12" t="s">
-        <v>229</v>
+        <v>208</v>
       </c>
       <c r="H183" s="12" t="s">
-        <v>230</v>
+        <v>209</v>
       </c>
       <c r="I183" s="10" t="s">
-        <v>222</v>
+        <v>201</v>
       </c>
     </row>
     <row r="184" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6847,13 +6858,13 @@
         <v>1</v>
       </c>
       <c r="G184" s="12" t="s">
-        <v>231</v>
+        <v>210</v>
       </c>
       <c r="H184" s="12" t="s">
-        <v>232</v>
+        <v>211</v>
       </c>
       <c r="I184" s="10" t="s">
-        <v>222</v>
+        <v>201</v>
       </c>
     </row>
     <row r="185" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6868,13 +6879,13 @@
         <v>1</v>
       </c>
       <c r="G185" s="12" t="s">
-        <v>233</v>
+        <v>212</v>
       </c>
       <c r="H185" s="12" t="s">
-        <v>232</v>
+        <v>211</v>
       </c>
       <c r="I185" s="10" t="s">
-        <v>222</v>
+        <v>201</v>
       </c>
     </row>
     <row r="186" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6889,13 +6900,13 @@
         <v>1</v>
       </c>
       <c r="G186" s="12" t="s">
-        <v>234</v>
+        <v>213</v>
       </c>
       <c r="H186" s="12" t="s">
-        <v>232</v>
+        <v>211</v>
       </c>
       <c r="I186" s="10" t="s">
-        <v>222</v>
+        <v>201</v>
       </c>
     </row>
     <row r="187" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6907,12 +6918,12 @@
       </c>
       <c r="E187" s="13"/>
       <c r="F187" s="13" t="s">
-        <v>235</v>
+        <v>214</v>
       </c>
       <c r="G187" s="12"/>
       <c r="H187" s="12"/>
       <c r="I187" s="10" t="s">
-        <v>236</v>
+        <v>215</v>
       </c>
     </row>
     <row r="188" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6924,12 +6935,12 @@
       </c>
       <c r="E188" s="13"/>
       <c r="F188" s="13" t="s">
-        <v>237</v>
+        <v>216</v>
       </c>
       <c r="G188" s="12"/>
       <c r="H188" s="12"/>
       <c r="I188" s="10" t="s">
-        <v>238</v>
+        <v>217</v>
       </c>
     </row>
     <row r="189" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6941,12 +6952,12 @@
       </c>
       <c r="E189" s="13"/>
       <c r="F189" s="13" t="s">
-        <v>239</v>
+        <v>218</v>
       </c>
       <c r="G189" s="12"/>
       <c r="H189" s="12"/>
       <c r="I189" s="10" t="s">
-        <v>240</v>
+        <v>219</v>
       </c>
     </row>
     <row r="190" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6958,12 +6969,12 @@
       </c>
       <c r="E190" s="13"/>
       <c r="F190" s="13" t="s">
-        <v>241</v>
+        <v>220</v>
       </c>
       <c r="G190" s="12"/>
       <c r="H190" s="12"/>
       <c r="I190" s="10" t="s">
-        <v>242</v>
+        <v>221</v>
       </c>
     </row>
     <row r="191" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6975,12 +6986,12 @@
       </c>
       <c r="E191" s="13"/>
       <c r="F191" s="13" t="s">
-        <v>243</v>
+        <v>222</v>
       </c>
       <c r="G191" s="12"/>
       <c r="H191" s="12"/>
       <c r="I191" s="10" t="s">
-        <v>244</v>
+        <v>223</v>
       </c>
     </row>
     <row r="192" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6992,12 +7003,12 @@
       </c>
       <c r="E192" s="13"/>
       <c r="F192" s="13" t="s">
-        <v>245</v>
+        <v>224</v>
       </c>
       <c r="G192" s="12"/>
       <c r="H192" s="12"/>
       <c r="I192" s="10" t="s">
-        <v>246</v>
+        <v>225</v>
       </c>
     </row>
     <row r="193" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -7009,12 +7020,12 @@
       </c>
       <c r="E193" s="13"/>
       <c r="F193" s="13" t="s">
-        <v>247</v>
+        <v>226</v>
       </c>
       <c r="G193" s="12"/>
       <c r="H193" s="12"/>
       <c r="I193" s="10" t="s">
-        <v>248</v>
+        <v>227</v>
       </c>
     </row>
     <row r="194" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -7026,12 +7037,12 @@
       </c>
       <c r="E194" s="13"/>
       <c r="F194" s="13" t="s">
-        <v>249</v>
+        <v>228</v>
       </c>
       <c r="G194" s="12"/>
       <c r="H194" s="12"/>
       <c r="I194" s="10" t="s">
-        <v>250</v>
+        <v>229</v>
       </c>
     </row>
     <row r="195" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -7043,12 +7054,12 @@
       </c>
       <c r="E195" s="13"/>
       <c r="F195" s="13" t="s">
-        <v>251</v>
+        <v>230</v>
       </c>
       <c r="G195" s="12"/>
       <c r="H195" s="12"/>
       <c r="I195" s="10" t="s">
-        <v>252</v>
+        <v>231</v>
       </c>
     </row>
     <row r="196" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -7060,12 +7071,12 @@
       </c>
       <c r="E196" s="13"/>
       <c r="F196" s="13" t="s">
-        <v>253</v>
+        <v>232</v>
       </c>
       <c r="G196" s="12"/>
       <c r="H196" s="12"/>
       <c r="I196" s="10" t="s">
-        <v>254</v>
+        <v>233</v>
       </c>
     </row>
     <row r="197" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -7077,12 +7088,12 @@
       </c>
       <c r="E197" s="13"/>
       <c r="F197" s="13" t="s">
-        <v>255</v>
+        <v>234</v>
       </c>
       <c r="G197" s="12"/>
       <c r="H197" s="12"/>
       <c r="I197" s="10" t="s">
-        <v>256</v>
+        <v>235</v>
       </c>
     </row>
     <row r="198" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -7094,12 +7105,12 @@
       </c>
       <c r="E198" s="13"/>
       <c r="F198" s="13" t="s">
-        <v>257</v>
+        <v>236</v>
       </c>
       <c r="G198" s="12"/>
       <c r="H198" s="12"/>
       <c r="I198" s="10" t="s">
-        <v>258</v>
+        <v>237</v>
       </c>
     </row>
     <row r="199" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -7111,12 +7122,12 @@
       </c>
       <c r="E199" s="13"/>
       <c r="F199" s="13" t="s">
-        <v>259</v>
+        <v>238</v>
       </c>
       <c r="G199" s="12"/>
       <c r="H199" s="12"/>
       <c r="I199" s="10" t="s">
-        <v>260</v>
+        <v>239</v>
       </c>
     </row>
     <row r="200" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -7128,12 +7139,12 @@
       </c>
       <c r="E200" s="13"/>
       <c r="F200" s="13" t="s">
-        <v>261</v>
+        <v>240</v>
       </c>
       <c r="G200" s="12"/>
       <c r="H200" s="12"/>
       <c r="I200" s="10" t="s">
-        <v>262</v>
+        <v>241</v>
       </c>
     </row>
     <row r="201" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -7145,12 +7156,12 @@
       </c>
       <c r="E201" s="13"/>
       <c r="F201" s="13" t="s">
-        <v>263</v>
+        <v>242</v>
       </c>
       <c r="G201" s="12"/>
       <c r="H201" s="12"/>
       <c r="I201" s="10" t="s">
-        <v>264</v>
+        <v>243</v>
       </c>
     </row>
     <row r="202" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -7162,12 +7173,12 @@
       </c>
       <c r="E202" s="13"/>
       <c r="F202" s="13" t="s">
-        <v>265</v>
+        <v>244</v>
       </c>
       <c r="G202" s="12"/>
       <c r="H202" s="12"/>
       <c r="I202" s="10" t="s">
-        <v>266</v>
+        <v>245</v>
       </c>
     </row>
     <row r="203" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -7179,12 +7190,12 @@
       </c>
       <c r="E203" s="13"/>
       <c r="F203" s="13" t="s">
-        <v>267</v>
+        <v>246</v>
       </c>
       <c r="G203" s="12"/>
       <c r="H203" s="12"/>
       <c r="I203" s="10" t="s">
-        <v>268</v>
+        <v>247</v>
       </c>
     </row>
     <row r="204" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -7196,12 +7207,12 @@
       </c>
       <c r="E204" s="13"/>
       <c r="F204" s="13" t="s">
-        <v>269</v>
+        <v>248</v>
       </c>
       <c r="G204" s="12"/>
       <c r="H204" s="12"/>
       <c r="I204" s="10" t="s">
-        <v>270</v>
+        <v>249</v>
       </c>
     </row>
     <row r="205" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -7213,12 +7224,12 @@
       </c>
       <c r="E205" s="13"/>
       <c r="F205" s="13" t="s">
-        <v>271</v>
+        <v>250</v>
       </c>
       <c r="G205" s="12"/>
       <c r="H205" s="12"/>
       <c r="I205" s="10" t="s">
-        <v>272</v>
+        <v>251</v>
       </c>
     </row>
     <row r="206" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -7230,12 +7241,12 @@
       </c>
       <c r="E206" s="13"/>
       <c r="F206" s="13" t="s">
-        <v>273</v>
+        <v>252</v>
       </c>
       <c r="G206" s="12"/>
       <c r="H206" s="12"/>
       <c r="I206" s="10" t="s">
-        <v>274</v>
+        <v>253</v>
       </c>
     </row>
     <row r="207" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -7250,13 +7261,13 @@
         <v>12</v>
       </c>
       <c r="G207" s="12" t="s">
-        <v>275</v>
+        <v>254</v>
       </c>
       <c r="H207" s="12" t="s">
-        <v>276</v>
+        <v>255</v>
       </c>
       <c r="I207" s="10" t="s">
-        <v>277</v>
+        <v>256</v>
       </c>
     </row>
     <row r="208" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -7271,13 +7282,13 @@
         <v>15</v>
       </c>
       <c r="G208" s="12" t="s">
-        <v>278</v>
+        <v>257</v>
       </c>
       <c r="H208" s="12" t="s">
-        <v>279</v>
+        <v>258</v>
       </c>
       <c r="I208" s="10" t="s">
-        <v>277</v>
+        <v>256</v>
       </c>
     </row>
     <row r="209" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/Unity/Assets/Config/Excel/ActivityConfig.xlsx
+++ b/Unity/Assets/Config/Excel/ActivityConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitMengJing\Unity\Assets\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14FE8CF4-929F-4DB8-B4D2-61C68DB7F7AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5665E101-6A65-433D-A271-FBD7F7F52722}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3098,7 +3098,7 @@
   <dimension ref="C1:J229"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D32" workbookViewId="0">
-      <selection activeCell="H53" sqref="H53"/>
+      <selection activeCell="G49" sqref="G49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3876,7 +3876,7 @@
         <v>15</v>
       </c>
       <c r="G36" s="10">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="H36" s="18" t="s">
         <v>264</v>
@@ -3897,7 +3897,7 @@
         <v>20</v>
       </c>
       <c r="G37" s="10">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="H37" s="18" t="s">
         <v>266</v>
@@ -3918,7 +3918,7 @@
         <v>25</v>
       </c>
       <c r="G38" s="10">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="H38" s="10" t="s">
         <v>265</v>
@@ -4104,10 +4104,10 @@
       </c>
       <c r="E47" s="10"/>
       <c r="F47" s="10">
-        <v>9000</v>
+        <v>7500</v>
       </c>
       <c r="G47" s="10">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="H47" s="10" t="s">
         <v>263</v>
@@ -4125,10 +4125,10 @@
       </c>
       <c r="E48" s="10"/>
       <c r="F48" s="10">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="G48" s="10">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="H48" s="10" t="s">
         <v>275</v>
@@ -4146,10 +4146,10 @@
       </c>
       <c r="E49" s="10"/>
       <c r="F49" s="10">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="G49" s="10">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="H49" s="10" t="s">
         <v>276</v>
@@ -4167,7 +4167,7 @@
       </c>
       <c r="E50" s="10"/>
       <c r="F50" s="10">
-        <v>28000</v>
+        <v>20000</v>
       </c>
       <c r="G50" s="10">
         <v>500</v>
@@ -4188,7 +4188,7 @@
       </c>
       <c r="E51" s="10"/>
       <c r="F51" s="10">
-        <v>36000</v>
+        <v>30000</v>
       </c>
       <c r="G51" s="10">
         <v>300</v>
@@ -4209,7 +4209,7 @@
       </c>
       <c r="E52" s="10"/>
       <c r="F52" s="10">
-        <v>45000</v>
+        <v>40000</v>
       </c>
       <c r="G52" s="10">
         <v>200</v>
@@ -4230,7 +4230,7 @@
       </c>
       <c r="E53" s="10"/>
       <c r="F53" s="10">
-        <v>60000</v>
+        <v>50000</v>
       </c>
       <c r="G53" s="10">
         <v>100</v>
@@ -4251,7 +4251,7 @@
       </c>
       <c r="E54" s="10"/>
       <c r="F54" s="10">
-        <v>75000</v>
+        <v>60000</v>
       </c>
       <c r="G54" s="10">
         <v>50</v>
@@ -4272,7 +4272,7 @@
       </c>
       <c r="E55" s="10"/>
       <c r="F55" s="10">
-        <v>90000</v>
+        <v>70000</v>
       </c>
       <c r="G55" s="10">
         <v>30</v>
@@ -4293,7 +4293,7 @@
       </c>
       <c r="E56" s="10"/>
       <c r="F56" s="10">
-        <v>105000</v>
+        <v>85000</v>
       </c>
       <c r="G56" s="10">
         <v>20</v>
@@ -4314,7 +4314,7 @@
       </c>
       <c r="E57" s="10"/>
       <c r="F57" s="10">
-        <v>120000</v>
+        <v>100000</v>
       </c>
       <c r="G57" s="10">
         <v>10</v>

--- a/Unity/Assets/Config/Excel/ActivityConfig.xlsx
+++ b/Unity/Assets/Config/Excel/ActivityConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitMengJing\Unity\Assets\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5665E101-6A65-433D-A271-FBD7F7F52722}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69901808-34FC-438C-9742-FA3CCD07BAD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -818,43 +818,22 @@
     <t>18级探险家奖励</t>
   </si>
   <si>
-    <t>10010042;1@10010099;1@10010048;1</t>
-  </si>
-  <si>
     <t>第一天</t>
   </si>
   <si>
-    <t>10000122;1@10010041;5@10010093;1@10010039;1</t>
-  </si>
-  <si>
     <t>第二天</t>
   </si>
   <si>
-    <t>10010042;2@10010083;5@10000102;1@10010026;1</t>
-  </si>
-  <si>
     <t>第三天</t>
   </si>
   <si>
-    <t>10010042;2@10010083;5@10000156;1@10010086;1</t>
-  </si>
-  <si>
     <t>第四天</t>
   </si>
   <si>
-    <t>10010093;1@10010083;5@10000124;1@10010087;1@10010039;1</t>
-  </si>
-  <si>
     <t>第五天</t>
   </si>
   <si>
-    <t>10010042;3@10010083;5@10010041;5@10010026;1@11200000;1</t>
-  </si>
-  <si>
     <t>第六天</t>
-  </si>
-  <si>
-    <t>10010042;3@10010083;5@10000103;1@10011016;1@10000143;3</t>
   </si>
   <si>
     <t>第七天</t>
@@ -1127,6 +1106,34 @@
   </si>
   <si>
     <t>1;200000@1000018;25@1000019;200@1010030;1@1010038;1</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>1010002;1</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>1010041;1</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>1010022;1</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000020;1</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>1010043;1</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000014;1</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000022;1</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -2361,7 +2368,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2411,6 +2418,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3097,8 +3107,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:J229"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D32" workbookViewId="0">
-      <selection activeCell="G49" sqref="G49"/>
+    <sheetView tabSelected="1" topLeftCell="D169" workbookViewId="0">
+      <selection activeCell="H178" sqref="H178"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3879,7 +3889,7 @@
         <v>1000</v>
       </c>
       <c r="H36" s="18" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="I36" s="10" t="s">
         <v>77</v>
@@ -3900,7 +3910,7 @@
         <v>1000</v>
       </c>
       <c r="H37" s="18" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="I37" s="10" t="s">
         <v>77</v>
@@ -3921,7 +3931,7 @@
         <v>500</v>
       </c>
       <c r="H38" s="10" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="I38" s="10" t="s">
         <v>77</v>
@@ -3942,7 +3952,7 @@
         <v>500</v>
       </c>
       <c r="H39" s="18" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="I39" s="10" t="s">
         <v>77</v>
@@ -3963,7 +3973,7 @@
         <v>300</v>
       </c>
       <c r="H40" s="18" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="I40" s="10" t="s">
         <v>77</v>
@@ -3984,7 +3994,7 @@
         <v>200</v>
       </c>
       <c r="H41" s="18" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="I41" s="10" t="s">
         <v>77</v>
@@ -4005,7 +4015,7 @@
         <v>100</v>
       </c>
       <c r="H42" s="18" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="I42" s="10" t="s">
         <v>77</v>
@@ -4026,7 +4036,7 @@
         <v>75</v>
       </c>
       <c r="H43" s="18" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="I43" s="10" t="s">
         <v>77</v>
@@ -4047,7 +4057,7 @@
         <v>50</v>
       </c>
       <c r="H44" s="18" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="I44" s="10" t="s">
         <v>77</v>
@@ -4068,7 +4078,7 @@
         <v>30</v>
       </c>
       <c r="H45" s="18" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="I45" s="10" t="s">
         <v>77</v>
@@ -4089,7 +4099,7 @@
         <v>20</v>
       </c>
       <c r="H46" s="18" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="I46" s="10" t="s">
         <v>77</v>
@@ -4110,7 +4120,7 @@
         <v>1000</v>
       </c>
       <c r="H47" s="10" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="I47" s="10" t="s">
         <v>78</v>
@@ -4131,7 +4141,7 @@
         <v>1000</v>
       </c>
       <c r="H48" s="10" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="I48" s="10" t="s">
         <v>78</v>
@@ -4152,7 +4162,7 @@
         <v>500</v>
       </c>
       <c r="H49" s="10" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="I49" s="10" t="s">
         <v>78</v>
@@ -4173,7 +4183,7 @@
         <v>500</v>
       </c>
       <c r="H50" s="18" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="I50" s="10" t="s">
         <v>78</v>
@@ -4194,7 +4204,7 @@
         <v>300</v>
       </c>
       <c r="H51" s="18" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="I51" s="10" t="s">
         <v>78</v>
@@ -4215,7 +4225,7 @@
         <v>200</v>
       </c>
       <c r="H52" s="10" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="I52" s="10" t="s">
         <v>78</v>
@@ -4236,7 +4246,7 @@
         <v>100</v>
       </c>
       <c r="H53" s="10" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="I53" s="10" t="s">
         <v>78</v>
@@ -4257,7 +4267,7 @@
         <v>50</v>
       </c>
       <c r="H54" s="10" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="I54" s="10" t="s">
         <v>78</v>
@@ -4278,7 +4288,7 @@
         <v>30</v>
       </c>
       <c r="H55" s="10" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="I55" s="10" t="s">
         <v>78</v>
@@ -4299,7 +4309,7 @@
         <v>20</v>
       </c>
       <c r="H56" s="10" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="I56" s="10" t="s">
         <v>78</v>
@@ -4320,7 +4330,7 @@
         <v>10</v>
       </c>
       <c r="H57" s="10" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="I57" s="10" t="s">
         <v>78</v>
@@ -6066,7 +6076,7 @@
         <v>5</v>
       </c>
       <c r="G146" s="18" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="H146" s="10"/>
       <c r="I146" s="10" t="s">
@@ -6085,7 +6095,7 @@
         <v>12</v>
       </c>
       <c r="G147" s="18" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="H147" s="10"/>
       <c r="I147" s="10" t="s">
@@ -6104,7 +6114,7 @@
         <v>18</v>
       </c>
       <c r="G148" s="18" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="H148" s="10"/>
       <c r="I148" s="10" t="s">
@@ -6142,7 +6152,7 @@
         <v>5</v>
       </c>
       <c r="G150" s="18" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="H150" s="10"/>
       <c r="I150" s="10" t="s">
@@ -6161,7 +6171,7 @@
         <v>12</v>
       </c>
       <c r="G151" s="18" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="H151" s="10"/>
       <c r="I151" s="10" t="s">
@@ -6180,7 +6190,7 @@
         <v>18</v>
       </c>
       <c r="G152" s="18" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="H152" s="10"/>
       <c r="I152" s="10" t="s">
@@ -6199,7 +6209,7 @@
         <v>28</v>
       </c>
       <c r="G153" s="18" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="H153" s="10"/>
       <c r="I153" s="10" t="s">
@@ -6608,11 +6618,11 @@
       <c r="G172" s="12">
         <v>0</v>
       </c>
-      <c r="H172" s="14" t="s">
+      <c r="H172" s="19" t="s">
+        <v>278</v>
+      </c>
+      <c r="I172" s="10" t="s">
         <v>185</v>
-      </c>
-      <c r="I172" s="10" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="173" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6629,11 +6639,11 @@
       <c r="G173" s="12">
         <v>0</v>
       </c>
-      <c r="H173" s="14" t="s">
-        <v>187</v>
+      <c r="H173" s="19" t="s">
+        <v>279</v>
       </c>
       <c r="I173" s="10" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="174" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6650,11 +6660,11 @@
       <c r="G174" s="12">
         <v>0</v>
       </c>
-      <c r="H174" s="14" t="s">
-        <v>189</v>
+      <c r="H174" s="19" t="s">
+        <v>280</v>
       </c>
       <c r="I174" s="10" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="175" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6671,11 +6681,11 @@
       <c r="G175" s="12">
         <v>0</v>
       </c>
-      <c r="H175" s="14" t="s">
-        <v>191</v>
+      <c r="H175" s="19" t="s">
+        <v>281</v>
       </c>
       <c r="I175" s="10" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="176" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6692,11 +6702,11 @@
       <c r="G176" s="12">
         <v>0</v>
       </c>
-      <c r="H176" s="14" t="s">
-        <v>193</v>
+      <c r="H176" s="19" t="s">
+        <v>282</v>
       </c>
       <c r="I176" s="10" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
     </row>
     <row r="177" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6713,11 +6723,11 @@
       <c r="G177" s="12">
         <v>0</v>
       </c>
-      <c r="H177" s="14" t="s">
-        <v>195</v>
+      <c r="H177" s="19" t="s">
+        <v>283</v>
       </c>
       <c r="I177" s="10" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
     </row>
     <row r="178" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6734,11 +6744,11 @@
       <c r="G178" s="12">
         <v>0</v>
       </c>
-      <c r="H178" s="14" t="s">
-        <v>197</v>
+      <c r="H178" s="19" t="s">
+        <v>277</v>
       </c>
       <c r="I178" s="10" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
     </row>
     <row r="179" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6753,13 +6763,13 @@
         <v>1</v>
       </c>
       <c r="G179" s="12" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="H179" s="12" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="I179" s="10" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
     </row>
     <row r="180" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6774,13 +6784,13 @@
         <v>1</v>
       </c>
       <c r="G180" s="12" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="H180" s="12" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="I180" s="10" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
     </row>
     <row r="181" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6795,13 +6805,13 @@
         <v>1</v>
       </c>
       <c r="G181" s="12" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="H181" s="12" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="I181" s="10" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
     </row>
     <row r="182" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6816,13 +6826,13 @@
         <v>1</v>
       </c>
       <c r="G182" s="12" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="H182" s="12" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="I182" s="10" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
     </row>
     <row r="183" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6837,13 +6847,13 @@
         <v>1</v>
       </c>
       <c r="G183" s="12" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="H183" s="12" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="I183" s="10" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
     </row>
     <row r="184" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6858,13 +6868,13 @@
         <v>1</v>
       </c>
       <c r="G184" s="12" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="H184" s="12" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="I184" s="10" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
     </row>
     <row r="185" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6879,13 +6889,13 @@
         <v>1</v>
       </c>
       <c r="G185" s="12" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="H185" s="12" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="I185" s="10" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
     </row>
     <row r="186" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6900,13 +6910,13 @@
         <v>1</v>
       </c>
       <c r="G186" s="12" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="H186" s="12" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="I186" s="10" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
     </row>
     <row r="187" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6918,12 +6928,12 @@
       </c>
       <c r="E187" s="13"/>
       <c r="F187" s="13" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="G187" s="12"/>
       <c r="H187" s="12"/>
       <c r="I187" s="10" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
     </row>
     <row r="188" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6935,12 +6945,12 @@
       </c>
       <c r="E188" s="13"/>
       <c r="F188" s="13" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="G188" s="12"/>
       <c r="H188" s="12"/>
       <c r="I188" s="10" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
     </row>
     <row r="189" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6952,12 +6962,12 @@
       </c>
       <c r="E189" s="13"/>
       <c r="F189" s="13" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="G189" s="12"/>
       <c r="H189" s="12"/>
       <c r="I189" s="10" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
     </row>
     <row r="190" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6969,12 +6979,12 @@
       </c>
       <c r="E190" s="13"/>
       <c r="F190" s="13" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="G190" s="12"/>
       <c r="H190" s="12"/>
       <c r="I190" s="10" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
     </row>
     <row r="191" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6986,12 +6996,12 @@
       </c>
       <c r="E191" s="13"/>
       <c r="F191" s="13" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="G191" s="12"/>
       <c r="H191" s="12"/>
       <c r="I191" s="10" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
     </row>
     <row r="192" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -7003,12 +7013,12 @@
       </c>
       <c r="E192" s="13"/>
       <c r="F192" s="13" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="G192" s="12"/>
       <c r="H192" s="12"/>
       <c r="I192" s="10" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
     </row>
     <row r="193" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -7020,12 +7030,12 @@
       </c>
       <c r="E193" s="13"/>
       <c r="F193" s="13" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="G193" s="12"/>
       <c r="H193" s="12"/>
       <c r="I193" s="10" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
     </row>
     <row r="194" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -7037,12 +7047,12 @@
       </c>
       <c r="E194" s="13"/>
       <c r="F194" s="13" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="G194" s="12"/>
       <c r="H194" s="12"/>
       <c r="I194" s="10" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
     </row>
     <row r="195" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -7054,12 +7064,12 @@
       </c>
       <c r="E195" s="13"/>
       <c r="F195" s="13" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="G195" s="12"/>
       <c r="H195" s="12"/>
       <c r="I195" s="10" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
     </row>
     <row r="196" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -7071,12 +7081,12 @@
       </c>
       <c r="E196" s="13"/>
       <c r="F196" s="13" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="G196" s="12"/>
       <c r="H196" s="12"/>
       <c r="I196" s="10" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
     </row>
     <row r="197" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -7088,12 +7098,12 @@
       </c>
       <c r="E197" s="13"/>
       <c r="F197" s="13" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="G197" s="12"/>
       <c r="H197" s="12"/>
       <c r="I197" s="10" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
     </row>
     <row r="198" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -7105,12 +7115,12 @@
       </c>
       <c r="E198" s="13"/>
       <c r="F198" s="13" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="G198" s="12"/>
       <c r="H198" s="12"/>
       <c r="I198" s="10" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
     </row>
     <row r="199" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -7122,12 +7132,12 @@
       </c>
       <c r="E199" s="13"/>
       <c r="F199" s="13" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="G199" s="12"/>
       <c r="H199" s="12"/>
       <c r="I199" s="10" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
     </row>
     <row r="200" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -7139,12 +7149,12 @@
       </c>
       <c r="E200" s="13"/>
       <c r="F200" s="13" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="G200" s="12"/>
       <c r="H200" s="12"/>
       <c r="I200" s="10" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
     </row>
     <row r="201" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -7156,12 +7166,12 @@
       </c>
       <c r="E201" s="13"/>
       <c r="F201" s="13" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="G201" s="12"/>
       <c r="H201" s="12"/>
       <c r="I201" s="10" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
     </row>
     <row r="202" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -7173,12 +7183,12 @@
       </c>
       <c r="E202" s="13"/>
       <c r="F202" s="13" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="G202" s="12"/>
       <c r="H202" s="12"/>
       <c r="I202" s="10" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
     </row>
     <row r="203" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -7190,12 +7200,12 @@
       </c>
       <c r="E203" s="13"/>
       <c r="F203" s="13" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="G203" s="12"/>
       <c r="H203" s="12"/>
       <c r="I203" s="10" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
     </row>
     <row r="204" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -7207,12 +7217,12 @@
       </c>
       <c r="E204" s="13"/>
       <c r="F204" s="13" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="G204" s="12"/>
       <c r="H204" s="12"/>
       <c r="I204" s="10" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
     </row>
     <row r="205" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -7224,12 +7234,12 @@
       </c>
       <c r="E205" s="13"/>
       <c r="F205" s="13" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="G205" s="12"/>
       <c r="H205" s="12"/>
       <c r="I205" s="10" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
     </row>
     <row r="206" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -7241,12 +7251,12 @@
       </c>
       <c r="E206" s="13"/>
       <c r="F206" s="13" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="G206" s="12"/>
       <c r="H206" s="12"/>
       <c r="I206" s="10" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
     </row>
     <row r="207" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -7261,13 +7271,13 @@
         <v>12</v>
       </c>
       <c r="G207" s="12" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="H207" s="12" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="I207" s="10" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
     </row>
     <row r="208" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -7282,13 +7292,13 @@
         <v>15</v>
       </c>
       <c r="G208" s="12" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="H208" s="12" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="I208" s="10" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
     </row>
     <row r="209" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/Unity/Assets/Config/Excel/ActivityConfig.xlsx
+++ b/Unity/Assets/Config/Excel/ActivityConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitMengJing\Unity\Assets\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21D09D3E-1FE5-4512-9C50-FD3627AFEF20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A86D49B-5BB4-4AB6-8594-4B38AC7644A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -141,7 +141,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="249">
   <si>
     <t>Id</t>
   </si>
@@ -605,144 +605,6 @@
     <t>1010033;1</t>
   </si>
   <si>
-    <t>10010011;20</t>
-  </si>
-  <si>
-    <t>10011009;1</t>
-  </si>
-  <si>
-    <t>10010088;5</t>
-  </si>
-  <si>
-    <t>10010042;1</t>
-  </si>
-  <si>
-    <t>10000164;1</t>
-  </si>
-  <si>
-    <t>10000121;1</t>
-  </si>
-  <si>
-    <t>10021004;20</t>
-  </si>
-  <si>
-    <t>10010046;1</t>
-  </si>
-  <si>
-    <t>10010087;1</t>
-  </si>
-  <si>
-    <t>10010091;1</t>
-  </si>
-  <si>
-    <t>10010033;1</t>
-  </si>
-  <si>
-    <t>10021008;1</t>
-  </si>
-  <si>
-    <t>10000132;10</t>
-  </si>
-  <si>
-    <t>10010089;5</t>
-  </si>
-  <si>
-    <t>10010088;2</t>
-  </si>
-  <si>
-    <t>10010041;5</t>
-  </si>
-  <si>
-    <t>10000132;20</t>
-  </si>
-  <si>
-    <t>10010083;5</t>
-  </si>
-  <si>
-    <t>10000122;1</t>
-  </si>
-  <si>
-    <t>10000131;10</t>
-  </si>
-  <si>
-    <t>10010083;10</t>
-  </si>
-  <si>
-    <t>10022008;1</t>
-  </si>
-  <si>
-    <t>10000207;1</t>
-  </si>
-  <si>
-    <t>10010085;50</t>
-  </si>
-  <si>
-    <t>10010026;1</t>
-  </si>
-  <si>
-    <t>10023001;20</t>
-  </si>
-  <si>
-    <t>10023008;1</t>
-  </si>
-  <si>
-    <t>10000123;1</t>
-  </si>
-  <si>
-    <t>10010098;3</t>
-  </si>
-  <si>
-    <t>10000102;1</t>
-  </si>
-  <si>
-    <t>10023009;1</t>
-  </si>
-  <si>
-    <t>10024008;1</t>
-  </si>
-  <si>
-    <t>10024001;20</t>
-  </si>
-  <si>
-    <t>10000124;1</t>
-  </si>
-  <si>
-    <t>10000103;1</t>
-  </si>
-  <si>
-    <t>10024010;20</t>
-  </si>
-  <si>
-    <t>10024009;1</t>
-  </si>
-  <si>
-    <t>10010085;100</t>
-  </si>
-  <si>
-    <t>10025001;20</t>
-  </si>
-  <si>
-    <t>10000104;1</t>
-  </si>
-  <si>
-    <t>10000125;1</t>
-  </si>
-  <si>
-    <t>10025008;1</t>
-  </si>
-  <si>
-    <t>10010083;20</t>
-  </si>
-  <si>
-    <t>10025010;20</t>
-  </si>
-  <si>
-    <t>10025009;1</t>
-  </si>
-  <si>
-    <t>10010099;1</t>
-  </si>
-  <si>
     <t>1010021;1</t>
   </si>
   <si>
@@ -1044,6 +906,108 @@
   </si>
   <si>
     <t>3;5000@1000018;50@1000014;1@1000022;10@1010034;30@1000027;50@1000004;3@1000002;10</t>
+  </si>
+  <si>
+    <t>1030001;20</t>
+  </si>
+  <si>
+    <t>1020001;20</t>
+  </si>
+  <si>
+    <t>1021010;20</t>
+  </si>
+  <si>
+    <t>1010011;1</t>
+  </si>
+  <si>
+    <t>1021008;1</t>
+  </si>
+  <si>
+    <t>1021009;1</t>
+  </si>
+  <si>
+    <t>1000018;2</t>
+  </si>
+  <si>
+    <t>1000026;5</t>
+  </si>
+  <si>
+    <t>1022010;20</t>
+  </si>
+  <si>
+    <t>1000027;5</t>
+  </si>
+  <si>
+    <t>1022008;1</t>
+  </si>
+  <si>
+    <t>1022009;1</t>
+  </si>
+  <si>
+    <t>1023010;20</t>
+  </si>
+  <si>
+    <t>1000019;20</t>
+  </si>
+  <si>
+    <t>1023008;1</t>
+  </si>
+  <si>
+    <t>1023009;1</t>
+  </si>
+  <si>
+    <t>1010013;1</t>
+  </si>
+  <si>
+    <t>1024010;20</t>
+  </si>
+  <si>
+    <t>1024008;1</t>
+  </si>
+  <si>
+    <t>1024009;1</t>
+  </si>
+  <si>
+    <t>1000023;5</t>
+  </si>
+  <si>
+    <t>1025010;20</t>
+  </si>
+  <si>
+    <t>1025008;1</t>
+  </si>
+  <si>
+    <t>1025009;1</t>
+  </si>
+  <si>
+    <t>1010035;5</t>
+  </si>
+  <si>
+    <t>1010023;1</t>
+  </si>
+  <si>
+    <t>1010024;1</t>
+  </si>
+  <si>
+    <t>1000001;10</t>
+  </si>
+  <si>
+    <t>1010025;1</t>
+  </si>
+  <si>
+    <t>1000027;10</t>
+  </si>
+  <si>
+    <t>1010012;1</t>
+  </si>
+  <si>
+    <t>1000031;1</t>
+  </si>
+  <si>
+    <t>1010045;1</t>
+  </si>
+  <si>
+    <t>1010015;1</t>
   </si>
 </sst>
 </file>
@@ -3026,8 +2990,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:J221"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C140" workbookViewId="0">
-      <selection activeCell="G160" sqref="G160"/>
+    <sheetView tabSelected="1" topLeftCell="D85" workbookViewId="0">
+      <selection activeCell="F92" sqref="F92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4832,18 +4796,18 @@
       <c r="D88" s="10">
         <v>24</v>
       </c>
-      <c r="E88" s="13"/>
-      <c r="F88" s="12">
+      <c r="E88" s="10"/>
+      <c r="F88" s="10">
         <v>5</v>
       </c>
       <c r="G88" s="10" t="s">
-        <v>114</v>
+        <v>215</v>
       </c>
       <c r="H88" s="10" t="s">
         <v>115</v>
       </c>
       <c r="I88" s="10" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
     </row>
     <row r="89" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4853,18 +4817,18 @@
       <c r="D89" s="10">
         <v>24</v>
       </c>
-      <c r="E89" s="13"/>
-      <c r="F89" s="12">
+      <c r="E89" s="10"/>
+      <c r="F89" s="10">
         <v>7</v>
       </c>
       <c r="G89" s="10" t="s">
-        <v>117</v>
+        <v>216</v>
       </c>
       <c r="H89" s="10" t="s">
-        <v>118</v>
+        <v>218</v>
       </c>
       <c r="I89" s="10" t="s">
-        <v>119</v>
+        <v>245</v>
       </c>
     </row>
     <row r="90" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4874,18 +4838,18 @@
       <c r="D90" s="10">
         <v>24</v>
       </c>
-      <c r="E90" s="13"/>
-      <c r="F90" s="12">
+      <c r="E90" s="10"/>
+      <c r="F90" s="10">
         <v>9</v>
       </c>
       <c r="G90" s="10" t="s">
-        <v>120</v>
+        <v>217</v>
       </c>
       <c r="H90" s="10" t="s">
-        <v>121</v>
+        <v>228</v>
       </c>
       <c r="I90" s="10" t="s">
-        <v>122</v>
+        <v>246</v>
       </c>
     </row>
     <row r="91" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4895,18 +4859,18 @@
       <c r="D91" s="10">
         <v>24</v>
       </c>
-      <c r="E91" s="13"/>
-      <c r="F91" s="12">
+      <c r="E91" s="10"/>
+      <c r="F91" s="10">
         <v>11</v>
       </c>
       <c r="G91" s="10" t="s">
-        <v>123</v>
+        <v>218</v>
       </c>
       <c r="H91" s="10" t="s">
-        <v>124</v>
+        <v>102</v>
       </c>
       <c r="I91" s="10" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="92" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4916,18 +4880,18 @@
       <c r="D92" s="10">
         <v>24</v>
       </c>
-      <c r="E92" s="13"/>
-      <c r="F92" s="12">
+      <c r="E92" s="10"/>
+      <c r="F92" s="10">
         <v>13</v>
       </c>
       <c r="G92" s="10" t="s">
-        <v>125</v>
+        <v>219</v>
       </c>
       <c r="H92" s="10" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="I92" s="10" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="93" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4937,18 +4901,18 @@
       <c r="D93" s="10">
         <v>24</v>
       </c>
-      <c r="E93" s="13"/>
-      <c r="F93" s="12">
+      <c r="E93" s="10"/>
+      <c r="F93" s="10">
         <v>15</v>
       </c>
       <c r="G93" s="10" t="s">
-        <v>121</v>
+        <v>220</v>
       </c>
       <c r="H93" s="10" t="s">
-        <v>119</v>
+        <v>235</v>
       </c>
       <c r="I93" s="10" t="s">
-        <v>119</v>
+        <v>247</v>
       </c>
     </row>
     <row r="94" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4958,18 +4922,18 @@
       <c r="D94" s="10">
         <v>24</v>
       </c>
-      <c r="E94" s="13"/>
-      <c r="F94" s="12">
+      <c r="E94" s="10"/>
+      <c r="F94" s="10">
         <v>17</v>
       </c>
       <c r="G94" s="10" t="s">
-        <v>126</v>
+        <v>221</v>
       </c>
       <c r="H94" s="10" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="I94" s="10" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
     </row>
     <row r="95" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4979,18 +4943,18 @@
       <c r="D95" s="10">
         <v>24</v>
       </c>
-      <c r="E95" s="13"/>
-      <c r="F95" s="12">
+      <c r="E95" s="10"/>
+      <c r="F95" s="10">
         <v>19</v>
       </c>
       <c r="G95" s="10" t="s">
-        <v>128</v>
+        <v>222</v>
       </c>
       <c r="H95" s="10" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="I95" s="10" t="s">
-        <v>130</v>
+        <v>246</v>
       </c>
     </row>
     <row r="96" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5000,18 +4964,18 @@
       <c r="D96" s="10">
         <v>24</v>
       </c>
-      <c r="E96" s="13"/>
-      <c r="F96" s="12">
+      <c r="E96" s="10"/>
+      <c r="F96" s="10">
         <v>21</v>
       </c>
       <c r="G96" s="10" t="s">
-        <v>131</v>
+        <v>223</v>
       </c>
       <c r="H96" s="10" t="s">
-        <v>130</v>
+        <v>239</v>
       </c>
       <c r="I96" s="10" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
     </row>
     <row r="97" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5021,18 +4985,18 @@
       <c r="D97" s="10">
         <v>24</v>
       </c>
-      <c r="E97" s="13"/>
-      <c r="F97" s="12">
+      <c r="E97" s="10"/>
+      <c r="F97" s="10">
         <v>23</v>
       </c>
       <c r="G97" s="10" t="s">
-        <v>133</v>
+        <v>224</v>
       </c>
       <c r="H97" s="10" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="I97" s="10" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
     </row>
     <row r="98" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5042,18 +5006,18 @@
       <c r="D98" s="10">
         <v>24</v>
       </c>
-      <c r="E98" s="13"/>
-      <c r="F98" s="12">
+      <c r="E98" s="10"/>
+      <c r="F98" s="10">
         <v>25</v>
       </c>
       <c r="G98" s="10" t="s">
-        <v>135</v>
+        <v>225</v>
       </c>
       <c r="H98" s="10" t="s">
-        <v>132</v>
+        <v>235</v>
       </c>
       <c r="I98" s="10" t="s">
-        <v>136</v>
+        <v>247</v>
       </c>
     </row>
     <row r="99" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5063,18 +5027,18 @@
       <c r="D99" s="10">
         <v>24</v>
       </c>
-      <c r="E99" s="13"/>
-      <c r="F99" s="12">
+      <c r="E99" s="10"/>
+      <c r="F99" s="10">
         <v>27</v>
       </c>
       <c r="G99" s="10" t="s">
-        <v>121</v>
+        <v>226</v>
       </c>
       <c r="H99" s="10" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="I99" s="10" t="s">
-        <v>137</v>
+        <v>244</v>
       </c>
     </row>
     <row r="100" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5084,18 +5048,18 @@
       <c r="D100" s="10">
         <v>24</v>
       </c>
-      <c r="E100" s="13"/>
-      <c r="F100" s="12">
+      <c r="E100" s="10"/>
+      <c r="F100" s="10">
         <v>29</v>
       </c>
       <c r="G100" s="10" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="H100" s="10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I100" s="10" t="s">
-        <v>138</v>
+        <v>231</v>
       </c>
     </row>
     <row r="101" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5105,18 +5069,18 @@
       <c r="D101" s="10">
         <v>24</v>
       </c>
-      <c r="E101" s="13"/>
-      <c r="F101" s="12">
+      <c r="E101" s="10"/>
+      <c r="F101" s="10">
         <v>31</v>
       </c>
       <c r="G101" s="10" t="s">
-        <v>139</v>
+        <v>227</v>
       </c>
       <c r="H101" s="10" t="s">
-        <v>140</v>
+        <v>102</v>
       </c>
       <c r="I101" s="10" t="s">
-        <v>141</v>
+        <v>240</v>
       </c>
     </row>
     <row r="102" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5126,18 +5090,18 @@
       <c r="D102" s="10">
         <v>24</v>
       </c>
-      <c r="E102" s="13"/>
-      <c r="F102" s="12">
+      <c r="E102" s="10"/>
+      <c r="F102" s="10">
         <v>33</v>
       </c>
       <c r="G102" s="10" t="s">
-        <v>142</v>
+        <v>228</v>
       </c>
       <c r="H102" s="10" t="s">
-        <v>143</v>
+        <v>240</v>
       </c>
       <c r="I102" s="10" t="s">
-        <v>144</v>
+        <v>246</v>
       </c>
     </row>
     <row r="103" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5147,18 +5111,18 @@
       <c r="D103" s="10">
         <v>24</v>
       </c>
-      <c r="E103" s="13"/>
-      <c r="F103" s="12">
+      <c r="E103" s="10"/>
+      <c r="F103" s="10">
         <v>35</v>
       </c>
       <c r="G103" s="10" t="s">
-        <v>133</v>
+        <v>229</v>
       </c>
       <c r="H103" s="10" t="s">
-        <v>141</v>
+        <v>239</v>
       </c>
       <c r="I103" s="10" t="s">
-        <v>130</v>
+        <v>247</v>
       </c>
     </row>
     <row r="104" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5168,18 +5132,18 @@
       <c r="D104" s="10">
         <v>24</v>
       </c>
-      <c r="E104" s="13"/>
-      <c r="F104" s="12">
+      <c r="E104" s="10"/>
+      <c r="F104" s="10">
         <v>37</v>
       </c>
       <c r="G104" s="10" t="s">
-        <v>140</v>
+        <v>230</v>
       </c>
       <c r="H104" s="10" t="s">
-        <v>137</v>
+        <v>235</v>
       </c>
       <c r="I104" s="10" t="s">
-        <v>144</v>
+        <v>116</v>
       </c>
     </row>
     <row r="105" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5189,18 +5153,18 @@
       <c r="D105" s="10">
         <v>24</v>
       </c>
-      <c r="E105" s="13"/>
-      <c r="F105" s="12">
+      <c r="E105" s="10"/>
+      <c r="F105" s="10">
         <v>39</v>
       </c>
       <c r="G105" s="10" t="s">
-        <v>143</v>
+        <v>231</v>
       </c>
       <c r="H105" s="10" t="s">
-        <v>145</v>
+        <v>108</v>
       </c>
       <c r="I105" s="10" t="s">
-        <v>134</v>
+        <v>244</v>
       </c>
     </row>
     <row r="106" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5210,18 +5174,18 @@
       <c r="D106" s="10">
         <v>24</v>
       </c>
-      <c r="E106" s="13"/>
-      <c r="F106" s="12">
+      <c r="E106" s="10"/>
+      <c r="F106" s="10">
         <v>41</v>
       </c>
       <c r="G106" s="10" t="s">
-        <v>146</v>
+        <v>232</v>
       </c>
       <c r="H106" s="10" t="s">
-        <v>130</v>
+        <v>241</v>
       </c>
       <c r="I106" s="10" t="s">
-        <v>147</v>
+        <v>241</v>
       </c>
     </row>
     <row r="107" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5231,18 +5195,18 @@
       <c r="D107" s="10">
         <v>24</v>
       </c>
-      <c r="E107" s="13"/>
-      <c r="F107" s="12">
+      <c r="E107" s="10"/>
+      <c r="F107" s="10">
         <v>43</v>
       </c>
       <c r="G107" s="10" t="s">
-        <v>142</v>
+        <v>105</v>
       </c>
       <c r="H107" s="10" t="s">
-        <v>147</v>
+        <v>102</v>
       </c>
       <c r="I107" s="10" t="s">
-        <v>148</v>
+        <v>246</v>
       </c>
     </row>
     <row r="108" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5252,18 +5216,18 @@
       <c r="D108" s="10">
         <v>24</v>
       </c>
-      <c r="E108" s="13"/>
-      <c r="F108" s="12">
+      <c r="E108" s="10"/>
+      <c r="F108" s="10">
         <v>45</v>
       </c>
       <c r="G108" s="10" t="s">
-        <v>149</v>
+        <v>233</v>
       </c>
       <c r="H108" s="10" t="s">
-        <v>148</v>
+        <v>242</v>
       </c>
       <c r="I108" s="10" t="s">
-        <v>150</v>
+        <v>247</v>
       </c>
     </row>
     <row r="109" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5273,18 +5237,18 @@
       <c r="D109" s="10">
         <v>24</v>
       </c>
-      <c r="E109" s="13"/>
-      <c r="F109" s="12">
+      <c r="E109" s="10"/>
+      <c r="F109" s="10">
         <v>47</v>
       </c>
       <c r="G109" s="10" t="s">
-        <v>145</v>
+        <v>234</v>
       </c>
       <c r="H109" s="10" t="s">
-        <v>150</v>
+        <v>224</v>
       </c>
       <c r="I109" s="10" t="s">
-        <v>130</v>
+        <v>106</v>
       </c>
     </row>
     <row r="110" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5294,18 +5258,18 @@
       <c r="D110" s="10">
         <v>24</v>
       </c>
-      <c r="E110" s="13"/>
-      <c r="F110" s="12">
+      <c r="E110" s="10"/>
+      <c r="F110" s="10">
         <v>49</v>
       </c>
       <c r="G110" s="10" t="s">
-        <v>148</v>
+        <v>235</v>
       </c>
       <c r="H110" s="10" t="s">
-        <v>151</v>
+        <v>235</v>
       </c>
       <c r="I110" s="10" t="s">
-        <v>138</v>
+        <v>244</v>
       </c>
     </row>
     <row r="111" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5315,18 +5279,18 @@
       <c r="D111" s="10">
         <v>24</v>
       </c>
-      <c r="E111" s="13"/>
-      <c r="F111" s="12">
+      <c r="E111" s="10"/>
+      <c r="F111" s="10">
         <v>51</v>
       </c>
       <c r="G111" s="10" t="s">
-        <v>152</v>
+        <v>236</v>
       </c>
       <c r="H111" s="10" t="s">
-        <v>153</v>
+        <v>243</v>
       </c>
       <c r="I111" s="10" t="s">
-        <v>154</v>
+        <v>243</v>
       </c>
     </row>
     <row r="112" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5336,18 +5300,18 @@
       <c r="D112" s="10">
         <v>24</v>
       </c>
-      <c r="E112" s="13"/>
-      <c r="F112" s="12">
+      <c r="E112" s="10"/>
+      <c r="F112" s="10">
         <v>53</v>
       </c>
       <c r="G112" s="10" t="s">
-        <v>142</v>
+        <v>102</v>
       </c>
       <c r="H112" s="10" t="s">
-        <v>155</v>
+        <v>242</v>
       </c>
       <c r="I112" s="10" t="s">
-        <v>156</v>
+        <v>116</v>
       </c>
     </row>
     <row r="113" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5357,18 +5321,18 @@
       <c r="D113" s="10">
         <v>24</v>
       </c>
-      <c r="E113" s="13"/>
-      <c r="F113" s="12">
+      <c r="E113" s="10"/>
+      <c r="F113" s="10">
         <v>55</v>
       </c>
       <c r="G113" s="10" t="s">
-        <v>157</v>
+        <v>237</v>
       </c>
       <c r="H113" s="10" t="s">
-        <v>154</v>
+        <v>102</v>
       </c>
       <c r="I113" s="10" t="s">
-        <v>158</v>
+        <v>247</v>
       </c>
     </row>
     <row r="114" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5378,18 +5342,18 @@
       <c r="D114" s="10">
         <v>24</v>
       </c>
-      <c r="E114" s="13"/>
-      <c r="F114" s="12">
+      <c r="E114" s="10"/>
+      <c r="F114" s="10">
         <v>57</v>
       </c>
       <c r="G114" s="10" t="s">
-        <v>155</v>
+        <v>238</v>
       </c>
       <c r="H114" s="10" t="s">
-        <v>158</v>
+        <v>108</v>
       </c>
       <c r="I114" s="10" t="s">
-        <v>153</v>
+        <v>246</v>
       </c>
     </row>
     <row r="115" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5399,18 +5363,18 @@
       <c r="D115" s="10">
         <v>24</v>
       </c>
-      <c r="E115" s="13"/>
-      <c r="F115" s="12">
+      <c r="E115" s="10"/>
+      <c r="F115" s="10">
         <v>59</v>
       </c>
       <c r="G115" s="10" t="s">
-        <v>153</v>
+        <v>108</v>
       </c>
       <c r="H115" s="10" t="s">
-        <v>159</v>
+        <v>244</v>
       </c>
       <c r="I115" s="10" t="s">
-        <v>138</v>
+        <v>248</v>
       </c>
     </row>
     <row r="116" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5425,7 +5389,7 @@
         <v>1</v>
       </c>
       <c r="G116" s="10" t="s">
-        <v>160</v>
+        <v>114</v>
       </c>
       <c r="H116" s="10"/>
       <c r="I116" s="10" t="s">
@@ -5444,7 +5408,7 @@
         <v>2</v>
       </c>
       <c r="G117" s="10" t="s">
-        <v>161</v>
+        <v>115</v>
       </c>
       <c r="H117" s="10"/>
       <c r="I117" s="10" t="s">
@@ -5482,7 +5446,7 @@
         <v>4</v>
       </c>
       <c r="G119" s="10" t="s">
-        <v>162</v>
+        <v>116</v>
       </c>
       <c r="H119" s="10"/>
       <c r="I119" s="10" t="s">
@@ -5501,7 +5465,7 @@
         <v>5</v>
       </c>
       <c r="G120" s="10" t="s">
-        <v>163</v>
+        <v>117</v>
       </c>
       <c r="H120" s="10"/>
       <c r="I120" s="10" t="s">
@@ -5520,7 +5484,7 @@
         <v>6</v>
       </c>
       <c r="G121" s="10" t="s">
-        <v>164</v>
+        <v>118</v>
       </c>
       <c r="H121" s="10"/>
       <c r="I121" s="10" t="s">
@@ -5539,7 +5503,7 @@
         <v>7</v>
       </c>
       <c r="G122" s="10" t="s">
-        <v>165</v>
+        <v>119</v>
       </c>
       <c r="H122" s="10"/>
       <c r="I122" s="10" t="s">
@@ -5558,7 +5522,7 @@
         <v>8</v>
       </c>
       <c r="G123" s="10" t="s">
-        <v>166</v>
+        <v>120</v>
       </c>
       <c r="H123" s="10"/>
       <c r="I123" s="10" t="s">
@@ -5577,7 +5541,7 @@
         <v>9</v>
       </c>
       <c r="G124" s="10" t="s">
-        <v>161</v>
+        <v>115</v>
       </c>
       <c r="H124" s="10"/>
       <c r="I124" s="10" t="s">
@@ -5615,7 +5579,7 @@
         <v>11</v>
       </c>
       <c r="G126" s="10" t="s">
-        <v>162</v>
+        <v>116</v>
       </c>
       <c r="H126" s="10"/>
       <c r="I126" s="10" t="s">
@@ -5653,7 +5617,7 @@
         <v>13</v>
       </c>
       <c r="G128" s="10" t="s">
-        <v>164</v>
+        <v>118</v>
       </c>
       <c r="H128" s="10"/>
       <c r="I128" s="10" t="s">
@@ -5672,7 +5636,7 @@
         <v>14</v>
       </c>
       <c r="G129" s="10" t="s">
-        <v>165</v>
+        <v>119</v>
       </c>
       <c r="H129" s="10"/>
       <c r="I129" s="10" t="s">
@@ -5691,7 +5655,7 @@
         <v>15</v>
       </c>
       <c r="G130" s="10" t="s">
-        <v>166</v>
+        <v>120</v>
       </c>
       <c r="H130" s="10"/>
       <c r="I130" s="10" t="s">
@@ -5710,7 +5674,7 @@
         <v>16</v>
       </c>
       <c r="G131" s="10" t="s">
-        <v>161</v>
+        <v>115</v>
       </c>
       <c r="H131" s="10"/>
       <c r="I131" s="10" t="s">
@@ -5748,7 +5712,7 @@
         <v>18</v>
       </c>
       <c r="G133" s="10" t="s">
-        <v>162</v>
+        <v>116</v>
       </c>
       <c r="H133" s="10"/>
       <c r="I133" s="10" t="s">
@@ -5786,7 +5750,7 @@
         <v>20</v>
       </c>
       <c r="G135" s="10" t="s">
-        <v>164</v>
+        <v>118</v>
       </c>
       <c r="H135" s="10"/>
       <c r="I135" s="10" t="s">
@@ -5805,7 +5769,7 @@
         <v>21</v>
       </c>
       <c r="G136" s="10" t="s">
-        <v>165</v>
+        <v>119</v>
       </c>
       <c r="H136" s="10"/>
       <c r="I136" s="10" t="s">
@@ -5824,7 +5788,7 @@
         <v>22</v>
       </c>
       <c r="G137" s="10" t="s">
-        <v>166</v>
+        <v>120</v>
       </c>
       <c r="H137" s="10"/>
       <c r="I137" s="10" t="s">
@@ -5843,7 +5807,7 @@
         <v>23</v>
       </c>
       <c r="G138" s="10" t="s">
-        <v>161</v>
+        <v>115</v>
       </c>
       <c r="H138" s="10"/>
       <c r="I138" s="10" t="s">
@@ -5881,7 +5845,7 @@
         <v>25</v>
       </c>
       <c r="G140" s="10" t="s">
-        <v>162</v>
+        <v>116</v>
       </c>
       <c r="H140" s="10"/>
       <c r="I140" s="10" t="s">
@@ -5919,7 +5883,7 @@
         <v>27</v>
       </c>
       <c r="G142" s="10" t="s">
-        <v>164</v>
+        <v>118</v>
       </c>
       <c r="H142" s="10"/>
       <c r="I142" s="10" t="s">
@@ -5938,7 +5902,7 @@
         <v>28</v>
       </c>
       <c r="G143" s="10" t="s">
-        <v>165</v>
+        <v>119</v>
       </c>
       <c r="H143" s="10"/>
       <c r="I143" s="10" t="s">
@@ -5957,7 +5921,7 @@
         <v>29</v>
       </c>
       <c r="G144" s="10" t="s">
-        <v>166</v>
+        <v>120</v>
       </c>
       <c r="H144" s="10"/>
       <c r="I144" s="10" t="s">
@@ -5999,7 +5963,7 @@
       </c>
       <c r="H146" s="10"/>
       <c r="I146" s="10" t="s">
-        <v>167</v>
+        <v>121</v>
       </c>
     </row>
     <row r="147" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6014,11 +5978,11 @@
         <v>12</v>
       </c>
       <c r="G147" s="11" t="s">
-        <v>162</v>
+        <v>116</v>
       </c>
       <c r="H147" s="10"/>
       <c r="I147" s="10" t="s">
-        <v>167</v>
+        <v>121</v>
       </c>
     </row>
     <row r="148" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6033,11 +5997,11 @@
         <v>18</v>
       </c>
       <c r="G148" s="11" t="s">
-        <v>168</v>
+        <v>122</v>
       </c>
       <c r="H148" s="10"/>
       <c r="I148" s="10" t="s">
-        <v>167</v>
+        <v>121</v>
       </c>
     </row>
     <row r="149" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6052,11 +6016,11 @@
         <v>28</v>
       </c>
       <c r="G149" s="10" t="s">
-        <v>169</v>
+        <v>123</v>
       </c>
       <c r="H149" s="10"/>
       <c r="I149" s="10" t="s">
-        <v>167</v>
+        <v>121</v>
       </c>
     </row>
     <row r="150" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6071,11 +6035,11 @@
         <v>5</v>
       </c>
       <c r="G150" s="11" t="s">
-        <v>168</v>
+        <v>122</v>
       </c>
       <c r="H150" s="10"/>
       <c r="I150" s="10" t="s">
-        <v>170</v>
+        <v>124</v>
       </c>
     </row>
     <row r="151" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6090,11 +6054,11 @@
         <v>12</v>
       </c>
       <c r="G151" s="11" t="s">
-        <v>168</v>
+        <v>122</v>
       </c>
       <c r="H151" s="10"/>
       <c r="I151" s="10" t="s">
-        <v>170</v>
+        <v>124</v>
       </c>
     </row>
     <row r="152" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6109,11 +6073,11 @@
         <v>18</v>
       </c>
       <c r="G152" s="11" t="s">
-        <v>171</v>
+        <v>125</v>
       </c>
       <c r="H152" s="10"/>
       <c r="I152" s="10" t="s">
-        <v>170</v>
+        <v>124</v>
       </c>
     </row>
     <row r="153" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6128,11 +6092,11 @@
         <v>28</v>
       </c>
       <c r="G153" s="11" t="s">
-        <v>171</v>
+        <v>125</v>
       </c>
       <c r="H153" s="10"/>
       <c r="I153" s="10" t="s">
-        <v>170</v>
+        <v>124</v>
       </c>
     </row>
     <row r="154" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6150,10 +6114,10 @@
         <v>100</v>
       </c>
       <c r="H154" s="19" t="s">
-        <v>251</v>
+        <v>205</v>
       </c>
       <c r="I154" s="10" t="s">
-        <v>172</v>
+        <v>126</v>
       </c>
     </row>
     <row r="155" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6171,10 +6135,10 @@
         <v>300</v>
       </c>
       <c r="H155" s="15" t="s">
-        <v>252</v>
+        <v>206</v>
       </c>
       <c r="I155" s="10" t="s">
-        <v>173</v>
+        <v>127</v>
       </c>
     </row>
     <row r="156" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6192,10 +6156,10 @@
         <v>700</v>
       </c>
       <c r="H156" s="15" t="s">
-        <v>253</v>
+        <v>207</v>
       </c>
       <c r="I156" s="10" t="s">
-        <v>174</v>
+        <v>128</v>
       </c>
     </row>
     <row r="157" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6213,10 +6177,10 @@
         <v>1500</v>
       </c>
       <c r="H157" s="15" t="s">
-        <v>254</v>
+        <v>208</v>
       </c>
       <c r="I157" s="10" t="s">
-        <v>175</v>
+        <v>129</v>
       </c>
     </row>
     <row r="158" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6234,10 +6198,10 @@
         <v>3000</v>
       </c>
       <c r="H158" s="15" t="s">
-        <v>255</v>
+        <v>209</v>
       </c>
       <c r="I158" s="10" t="s">
-        <v>176</v>
+        <v>130</v>
       </c>
       <c r="J158" s="12"/>
     </row>
@@ -6256,10 +6220,10 @@
         <v>5000</v>
       </c>
       <c r="H159" s="15" t="s">
-        <v>256</v>
+        <v>210</v>
       </c>
       <c r="I159" s="10" t="s">
-        <v>177</v>
+        <v>131</v>
       </c>
       <c r="J159" s="12"/>
     </row>
@@ -6278,10 +6242,10 @@
         <v>8000</v>
       </c>
       <c r="H160" s="15" t="s">
-        <v>257</v>
+        <v>211</v>
       </c>
       <c r="I160" s="10" t="s">
-        <v>178</v>
+        <v>132</v>
       </c>
       <c r="J160" s="12"/>
     </row>
@@ -6300,10 +6264,10 @@
         <v>13000</v>
       </c>
       <c r="H161" s="15" t="s">
-        <v>258</v>
+        <v>212</v>
       </c>
       <c r="I161" s="10" t="s">
-        <v>179</v>
+        <v>133</v>
       </c>
       <c r="J161" s="12"/>
     </row>
@@ -6322,10 +6286,10 @@
         <v>20000</v>
       </c>
       <c r="H162" s="15" t="s">
-        <v>259</v>
+        <v>213</v>
       </c>
       <c r="I162" s="10" t="s">
-        <v>180</v>
+        <v>134</v>
       </c>
       <c r="J162" s="12"/>
     </row>
@@ -6344,10 +6308,10 @@
         <v>30000</v>
       </c>
       <c r="H163" s="15" t="s">
-        <v>260</v>
+        <v>214</v>
       </c>
       <c r="I163" s="10" t="s">
-        <v>181</v>
+        <v>135</v>
       </c>
       <c r="J163" s="12"/>
     </row>
@@ -6366,10 +6330,10 @@
         <v>0</v>
       </c>
       <c r="H164" s="16" t="s">
-        <v>182</v>
+        <v>136</v>
       </c>
       <c r="I164" s="10" t="s">
-        <v>183</v>
+        <v>137</v>
       </c>
     </row>
     <row r="165" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6387,10 +6351,10 @@
         <v>0</v>
       </c>
       <c r="H165" s="16" t="s">
-        <v>184</v>
+        <v>138</v>
       </c>
       <c r="I165" s="10" t="s">
-        <v>185</v>
+        <v>139</v>
       </c>
     </row>
     <row r="166" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6411,7 +6375,7 @@
         <v>108</v>
       </c>
       <c r="I166" s="10" t="s">
-        <v>186</v>
+        <v>140</v>
       </c>
     </row>
     <row r="167" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6429,10 +6393,10 @@
         <v>0</v>
       </c>
       <c r="H167" s="16" t="s">
-        <v>166</v>
+        <v>120</v>
       </c>
       <c r="I167" s="10" t="s">
-        <v>187</v>
+        <v>141</v>
       </c>
     </row>
     <row r="168" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6453,7 +6417,7 @@
         <v>110</v>
       </c>
       <c r="I168" s="10" t="s">
-        <v>188</v>
+        <v>142</v>
       </c>
     </row>
     <row r="169" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6474,7 +6438,7 @@
         <v>109</v>
       </c>
       <c r="I169" s="10" t="s">
-        <v>189</v>
+        <v>143</v>
       </c>
     </row>
     <row r="170" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6492,10 +6456,10 @@
         <v>0</v>
       </c>
       <c r="H170" s="16" t="s">
-        <v>171</v>
+        <v>125</v>
       </c>
       <c r="I170" s="10" t="s">
-        <v>190</v>
+        <v>144</v>
       </c>
     </row>
     <row r="171" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6510,13 +6474,13 @@
         <v>1</v>
       </c>
       <c r="G171" s="13" t="s">
-        <v>191</v>
+        <v>145</v>
       </c>
       <c r="H171" s="13" t="s">
-        <v>192</v>
+        <v>146</v>
       </c>
       <c r="I171" s="10" t="s">
-        <v>193</v>
+        <v>147</v>
       </c>
     </row>
     <row r="172" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6531,13 +6495,13 @@
         <v>1</v>
       </c>
       <c r="G172" s="13" t="s">
-        <v>194</v>
+        <v>148</v>
       </c>
       <c r="H172" s="13" t="s">
-        <v>195</v>
+        <v>149</v>
       </c>
       <c r="I172" s="10" t="s">
-        <v>193</v>
+        <v>147</v>
       </c>
     </row>
     <row r="173" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6552,13 +6516,13 @@
         <v>1</v>
       </c>
       <c r="G173" s="13" t="s">
-        <v>196</v>
+        <v>150</v>
       </c>
       <c r="H173" s="13" t="s">
-        <v>197</v>
+        <v>151</v>
       </c>
       <c r="I173" s="10" t="s">
-        <v>193</v>
+        <v>147</v>
       </c>
     </row>
     <row r="174" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6573,13 +6537,13 @@
         <v>1</v>
       </c>
       <c r="G174" s="13" t="s">
-        <v>198</v>
+        <v>152</v>
       </c>
       <c r="H174" s="13" t="s">
-        <v>199</v>
+        <v>153</v>
       </c>
       <c r="I174" s="10" t="s">
-        <v>193</v>
+        <v>147</v>
       </c>
     </row>
     <row r="175" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6594,13 +6558,13 @@
         <v>1</v>
       </c>
       <c r="G175" s="13" t="s">
-        <v>200</v>
+        <v>154</v>
       </c>
       <c r="H175" s="13" t="s">
-        <v>201</v>
+        <v>155</v>
       </c>
       <c r="I175" s="10" t="s">
-        <v>193</v>
+        <v>147</v>
       </c>
     </row>
     <row r="176" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6615,13 +6579,13 @@
         <v>1</v>
       </c>
       <c r="G176" s="13" t="s">
-        <v>202</v>
+        <v>156</v>
       </c>
       <c r="H176" s="13" t="s">
-        <v>203</v>
+        <v>157</v>
       </c>
       <c r="I176" s="10" t="s">
-        <v>193</v>
+        <v>147</v>
       </c>
     </row>
     <row r="177" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6636,13 +6600,13 @@
         <v>1</v>
       </c>
       <c r="G177" s="13" t="s">
-        <v>204</v>
+        <v>158</v>
       </c>
       <c r="H177" s="13" t="s">
-        <v>203</v>
+        <v>157</v>
       </c>
       <c r="I177" s="10" t="s">
-        <v>193</v>
+        <v>147</v>
       </c>
     </row>
     <row r="178" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6657,13 +6621,13 @@
         <v>1</v>
       </c>
       <c r="G178" s="13" t="s">
-        <v>205</v>
+        <v>159</v>
       </c>
       <c r="H178" s="13" t="s">
-        <v>203</v>
+        <v>157</v>
       </c>
       <c r="I178" s="10" t="s">
-        <v>193</v>
+        <v>147</v>
       </c>
     </row>
     <row r="179" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6675,12 +6639,12 @@
       </c>
       <c r="E179" s="14"/>
       <c r="F179" s="14" t="s">
-        <v>206</v>
+        <v>160</v>
       </c>
       <c r="G179" s="13"/>
       <c r="H179" s="13"/>
       <c r="I179" s="10" t="s">
-        <v>207</v>
+        <v>161</v>
       </c>
     </row>
     <row r="180" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6692,12 +6656,12 @@
       </c>
       <c r="E180" s="14"/>
       <c r="F180" s="14" t="s">
-        <v>208</v>
+        <v>162</v>
       </c>
       <c r="G180" s="13"/>
       <c r="H180" s="13"/>
       <c r="I180" s="10" t="s">
-        <v>209</v>
+        <v>163</v>
       </c>
     </row>
     <row r="181" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6709,12 +6673,12 @@
       </c>
       <c r="E181" s="14"/>
       <c r="F181" s="14" t="s">
-        <v>210</v>
+        <v>164</v>
       </c>
       <c r="G181" s="13"/>
       <c r="H181" s="13"/>
       <c r="I181" s="10" t="s">
-        <v>211</v>
+        <v>165</v>
       </c>
     </row>
     <row r="182" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6726,12 +6690,12 @@
       </c>
       <c r="E182" s="14"/>
       <c r="F182" s="14" t="s">
-        <v>212</v>
+        <v>166</v>
       </c>
       <c r="G182" s="13"/>
       <c r="H182" s="13"/>
       <c r="I182" s="10" t="s">
-        <v>213</v>
+        <v>167</v>
       </c>
     </row>
     <row r="183" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6743,12 +6707,12 @@
       </c>
       <c r="E183" s="14"/>
       <c r="F183" s="14" t="s">
-        <v>214</v>
+        <v>168</v>
       </c>
       <c r="G183" s="13"/>
       <c r="H183" s="13"/>
       <c r="I183" s="10" t="s">
-        <v>215</v>
+        <v>169</v>
       </c>
     </row>
     <row r="184" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6760,12 +6724,12 @@
       </c>
       <c r="E184" s="14"/>
       <c r="F184" s="14" t="s">
-        <v>216</v>
+        <v>170</v>
       </c>
       <c r="G184" s="13"/>
       <c r="H184" s="13"/>
       <c r="I184" s="10" t="s">
-        <v>217</v>
+        <v>171</v>
       </c>
     </row>
     <row r="185" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6777,12 +6741,12 @@
       </c>
       <c r="E185" s="14"/>
       <c r="F185" s="14" t="s">
-        <v>218</v>
+        <v>172</v>
       </c>
       <c r="G185" s="13"/>
       <c r="H185" s="13"/>
       <c r="I185" s="10" t="s">
-        <v>219</v>
+        <v>173</v>
       </c>
     </row>
     <row r="186" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6794,12 +6758,12 @@
       </c>
       <c r="E186" s="14"/>
       <c r="F186" s="14" t="s">
-        <v>220</v>
+        <v>174</v>
       </c>
       <c r="G186" s="13"/>
       <c r="H186" s="13"/>
       <c r="I186" s="10" t="s">
-        <v>221</v>
+        <v>175</v>
       </c>
     </row>
     <row r="187" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6811,12 +6775,12 @@
       </c>
       <c r="E187" s="14"/>
       <c r="F187" s="14" t="s">
-        <v>222</v>
+        <v>176</v>
       </c>
       <c r="G187" s="13"/>
       <c r="H187" s="13"/>
       <c r="I187" s="10" t="s">
-        <v>223</v>
+        <v>177</v>
       </c>
     </row>
     <row r="188" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6828,12 +6792,12 @@
       </c>
       <c r="E188" s="14"/>
       <c r="F188" s="14" t="s">
-        <v>224</v>
+        <v>178</v>
       </c>
       <c r="G188" s="13"/>
       <c r="H188" s="13"/>
       <c r="I188" s="10" t="s">
-        <v>225</v>
+        <v>179</v>
       </c>
     </row>
     <row r="189" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6845,12 +6809,12 @@
       </c>
       <c r="E189" s="14"/>
       <c r="F189" s="14" t="s">
-        <v>226</v>
+        <v>180</v>
       </c>
       <c r="G189" s="13"/>
       <c r="H189" s="13"/>
       <c r="I189" s="10" t="s">
-        <v>227</v>
+        <v>181</v>
       </c>
     </row>
     <row r="190" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6862,12 +6826,12 @@
       </c>
       <c r="E190" s="14"/>
       <c r="F190" s="14" t="s">
-        <v>228</v>
+        <v>182</v>
       </c>
       <c r="G190" s="13"/>
       <c r="H190" s="13"/>
       <c r="I190" s="10" t="s">
-        <v>229</v>
+        <v>183</v>
       </c>
     </row>
     <row r="191" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6879,12 +6843,12 @@
       </c>
       <c r="E191" s="14"/>
       <c r="F191" s="14" t="s">
-        <v>230</v>
+        <v>184</v>
       </c>
       <c r="G191" s="13"/>
       <c r="H191" s="13"/>
       <c r="I191" s="10" t="s">
-        <v>231</v>
+        <v>185</v>
       </c>
     </row>
     <row r="192" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6896,12 +6860,12 @@
       </c>
       <c r="E192" s="14"/>
       <c r="F192" s="14" t="s">
-        <v>232</v>
+        <v>186</v>
       </c>
       <c r="G192" s="13"/>
       <c r="H192" s="13"/>
       <c r="I192" s="10" t="s">
-        <v>233</v>
+        <v>187</v>
       </c>
     </row>
     <row r="193" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6913,12 +6877,12 @@
       </c>
       <c r="E193" s="14"/>
       <c r="F193" s="14" t="s">
-        <v>234</v>
+        <v>188</v>
       </c>
       <c r="G193" s="13"/>
       <c r="H193" s="13"/>
       <c r="I193" s="10" t="s">
-        <v>235</v>
+        <v>189</v>
       </c>
     </row>
     <row r="194" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6930,12 +6894,12 @@
       </c>
       <c r="E194" s="14"/>
       <c r="F194" s="14" t="s">
-        <v>236</v>
+        <v>190</v>
       </c>
       <c r="G194" s="13"/>
       <c r="H194" s="13"/>
       <c r="I194" s="10" t="s">
-        <v>237</v>
+        <v>191</v>
       </c>
     </row>
     <row r="195" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6947,12 +6911,12 @@
       </c>
       <c r="E195" s="14"/>
       <c r="F195" s="14" t="s">
-        <v>238</v>
+        <v>192</v>
       </c>
       <c r="G195" s="13"/>
       <c r="H195" s="13"/>
       <c r="I195" s="10" t="s">
-        <v>239</v>
+        <v>193</v>
       </c>
     </row>
     <row r="196" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6964,12 +6928,12 @@
       </c>
       <c r="E196" s="14"/>
       <c r="F196" s="14" t="s">
-        <v>240</v>
+        <v>194</v>
       </c>
       <c r="G196" s="13"/>
       <c r="H196" s="13"/>
       <c r="I196" s="10" t="s">
-        <v>241</v>
+        <v>195</v>
       </c>
     </row>
     <row r="197" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6981,12 +6945,12 @@
       </c>
       <c r="E197" s="14"/>
       <c r="F197" s="14" t="s">
-        <v>242</v>
+        <v>196</v>
       </c>
       <c r="G197" s="13"/>
       <c r="H197" s="13"/>
       <c r="I197" s="10" t="s">
-        <v>243</v>
+        <v>197</v>
       </c>
     </row>
     <row r="198" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6998,12 +6962,12 @@
       </c>
       <c r="E198" s="14"/>
       <c r="F198" s="14" t="s">
-        <v>244</v>
+        <v>198</v>
       </c>
       <c r="G198" s="13"/>
       <c r="H198" s="13"/>
       <c r="I198" s="10" t="s">
-        <v>245</v>
+        <v>199</v>
       </c>
     </row>
     <row r="199" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -7018,13 +6982,13 @@
         <v>12</v>
       </c>
       <c r="G199" s="13" t="s">
-        <v>246</v>
+        <v>200</v>
       </c>
       <c r="H199" s="13" t="s">
-        <v>247</v>
+        <v>201</v>
       </c>
       <c r="I199" s="10" t="s">
-        <v>248</v>
+        <v>202</v>
       </c>
     </row>
     <row r="200" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -7039,13 +7003,13 @@
         <v>15</v>
       </c>
       <c r="G200" s="13" t="s">
-        <v>249</v>
+        <v>203</v>
       </c>
       <c r="H200" s="13" t="s">
-        <v>250</v>
+        <v>204</v>
       </c>
       <c r="I200" s="10" t="s">
-        <v>248</v>
+        <v>202</v>
       </c>
     </row>
     <row r="201" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/Unity/Assets/Config/Excel/ActivityConfig.xlsx
+++ b/Unity/Assets/Config/Excel/ActivityConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitMengJing\Unity\Assets\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A86D49B-5BB4-4AB6-8594-4B38AC7644A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54307900-4E08-433B-8D80-2FB4DF7A27C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -141,7 +141,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="233">
   <si>
     <t>Id</t>
   </si>
@@ -194,42 +194,24 @@
     <t>3;980</t>
   </si>
   <si>
-    <t>10010093;1@10010099;1@10000132;100</t>
-  </si>
-  <si>
     <t>宠物箱子</t>
   </si>
   <si>
-    <t>10010093;1@10010099;1@10000131;100</t>
-  </si>
-  <si>
     <t>Activ106</t>
   </si>
   <si>
-    <t>10010040;1@10010045;2@10010043;10</t>
-  </si>
-  <si>
     <t>金币礼包</t>
   </si>
   <si>
-    <t>10010040;1@10010041;20@10010041;20</t>
-  </si>
-  <si>
     <t>经验礼包</t>
   </si>
   <si>
     <t>Activ102</t>
   </si>
   <si>
-    <t>10010083;20@10000141;1@10000141;1</t>
-  </si>
-  <si>
     <t>洗炼礼包</t>
   </si>
   <si>
-    <t>10010083;20@10010085;1000@10000142;1</t>
-  </si>
-  <si>
     <t>晶石礼包</t>
   </si>
   <si>
@@ -237,6 +219,624 @@
   </si>
   <si>
     <t>1,19</t>
+  </si>
+  <si>
+    <t>材料礼包</t>
+  </si>
+  <si>
+    <t>20,29</t>
+  </si>
+  <si>
+    <t>30,39</t>
+  </si>
+  <si>
+    <t>40,49</t>
+  </si>
+  <si>
+    <t>50,999</t>
+  </si>
+  <si>
+    <t>Activ104</t>
+  </si>
+  <si>
+    <t>装备宝箱</t>
+  </si>
+  <si>
+    <t>1;1000</t>
+  </si>
+  <si>
+    <t>1;10000@12000001;50@12000007;1</t>
+  </si>
+  <si>
+    <t>1;2000</t>
+  </si>
+  <si>
+    <t>1;50000@12000001;50@12000003;1@12000004;10</t>
+  </si>
+  <si>
+    <t>1;5000</t>
+  </si>
+  <si>
+    <t>1;50000@12000001;100@12001009;1@12001010;1</t>
+  </si>
+  <si>
+    <t>1;7500</t>
+  </si>
+  <si>
+    <t>1;100000@12000001;100@12001009;1@12001010;1</t>
+  </si>
+  <si>
+    <t>1;10000</t>
+  </si>
+  <si>
+    <t>1;100000@12000001;150@12002010;1@12002011;1</t>
+  </si>
+  <si>
+    <t>1;20000</t>
+  </si>
+  <si>
+    <t>1;200000@12000001;150@12003009;1@12003010;1</t>
+  </si>
+  <si>
+    <t>1;50000@1000018;10@1010011;1</t>
+  </si>
+  <si>
+    <t>等级战区礼包</t>
+  </si>
+  <si>
+    <t>1;50000@1000018;10@1021008;3@1010022;1</t>
+  </si>
+  <si>
+    <t>1;100000@1000018;15@1022008;3@1022009;2</t>
+  </si>
+  <si>
+    <t>1;150000@1000018;20@1023008;3@1010013;1@1010023;1</t>
+  </si>
+  <si>
+    <t>1;200000@1000018;25@1023008;3@1000014;1@1023009;2</t>
+  </si>
+  <si>
+    <t>1;250000@1000018;30@1024008;3@1024009;2@1010024;1</t>
+  </si>
+  <si>
+    <t>1;300000@1000018;30@1024008;3@1024009;2@1000013;1</t>
+  </si>
+  <si>
+    <t>1;300000@1000018;30@1025008;3@1025009;2@1010025;1</t>
+  </si>
+  <si>
+    <t>1;300000@1000018;30@1025008;3@1025009;2@1000013;1</t>
+  </si>
+  <si>
+    <t>1;300000@1000018;30@1000020;1@1000013;1@1000022;2</t>
+  </si>
+  <si>
+    <t>1;300000@1000018;30@1000020;1@1000013;1@1000022;3</t>
+  </si>
+  <si>
+    <t>1;50000@1000018;10</t>
+  </si>
+  <si>
+    <t>战力实力礼包</t>
+  </si>
+  <si>
+    <t>1;50000@1000018;10@1000019;50@1010038;1</t>
+  </si>
+  <si>
+    <t>1;100000@1000018;15@1000019;100@1010038;1</t>
+  </si>
+  <si>
+    <t>1;150000@1000018;20@1000019;150@1010030;1@1010038;1</t>
+  </si>
+  <si>
+    <t>1;200000@1000018;25@1000019;200@1010030;1@1010038;1</t>
+  </si>
+  <si>
+    <t>1;250000@1000018;30@1000019;300@1000022;5@1010038;1</t>
+  </si>
+  <si>
+    <t>1;300000@1000018;30@1000019;300@1000022;5@1010038;1</t>
+  </si>
+  <si>
+    <t>1;300000@1000018;30@1000019;500@1000022;5@1010038;1</t>
+  </si>
+  <si>
+    <t>1;300000@1000018;30@1000019;750@1000022;10@1010038;1</t>
+  </si>
+  <si>
+    <t>1;300000@1000018;30@1000019;1000@1000022;10@1010038;1</t>
+  </si>
+  <si>
+    <t>1010035;3</t>
+  </si>
+  <si>
+    <t>签到礼包</t>
+  </si>
+  <si>
+    <t>1000018;5</t>
+  </si>
+  <si>
+    <t>1010040;1</t>
+  </si>
+  <si>
+    <t>1010036;2</t>
+  </si>
+  <si>
+    <t>1010032;1</t>
+  </si>
+  <si>
+    <t>1010014;1</t>
+  </si>
+  <si>
+    <t>1000013;1</t>
+  </si>
+  <si>
+    <t>1000020;1</t>
+  </si>
+  <si>
+    <t>1000022;1</t>
+  </si>
+  <si>
+    <t>1000014;1</t>
+  </si>
+  <si>
+    <t>1010034;5</t>
+  </si>
+  <si>
+    <t>1010036;5</t>
+  </si>
+  <si>
+    <t>1010033;1</t>
+  </si>
+  <si>
+    <t>1010021;1</t>
+  </si>
+  <si>
+    <t>1000021;1</t>
+  </si>
+  <si>
+    <t>1000018;10</t>
+  </si>
+  <si>
+    <t>1010036;10</t>
+  </si>
+  <si>
+    <t>10010048;1</t>
+  </si>
+  <si>
+    <t>1000022;2</t>
+  </si>
+  <si>
+    <t>1010043;1</t>
+  </si>
+  <si>
+    <t>累计签到奖励 免费</t>
+  </si>
+  <si>
+    <t>1010051;1</t>
+  </si>
+  <si>
+    <t>1;1200</t>
+  </si>
+  <si>
+    <t>累计签到奖励 VIP</t>
+  </si>
+  <si>
+    <t>1010002;1</t>
+  </si>
+  <si>
+    <t>1级奖励</t>
+  </si>
+  <si>
+    <t>2级奖励</t>
+  </si>
+  <si>
+    <t>3级奖励</t>
+  </si>
+  <si>
+    <t>4级奖励</t>
+  </si>
+  <si>
+    <t>5级奖励</t>
+  </si>
+  <si>
+    <t>6级奖励</t>
+  </si>
+  <si>
+    <t>7级奖励</t>
+  </si>
+  <si>
+    <t>8级奖励</t>
+  </si>
+  <si>
+    <t>9级奖励</t>
+  </si>
+  <si>
+    <t>10级奖励</t>
+  </si>
+  <si>
+    <t>1010041;1</t>
+  </si>
+  <si>
+    <t>第一天</t>
+  </si>
+  <si>
+    <t>1010022;1</t>
+  </si>
+  <si>
+    <t>第二天</t>
+  </si>
+  <si>
+    <t>第三天</t>
+  </si>
+  <si>
+    <t>第四天</t>
+  </si>
+  <si>
+    <t>第五天</t>
+  </si>
+  <si>
+    <t>第六天</t>
+  </si>
+  <si>
+    <t>第七天</t>
+  </si>
+  <si>
+    <t>10030011;1@10030012;1@10030013;1@10030014;1@10030015;1@10030016;1@10030017;1@10030018;1</t>
+  </si>
+  <si>
+    <t>3;600@10000143;3</t>
+  </si>
+  <si>
+    <t>新春活动兑换</t>
+  </si>
+  <si>
+    <t>10030011;1@10030012;1@10030015;1@10030016;1</t>
+  </si>
+  <si>
+    <t>1;200000@10000143;1</t>
+  </si>
+  <si>
+    <t>10030013;1@10030014;1@10030017;1@10030018;1</t>
+  </si>
+  <si>
+    <t>3;200@10010083;20</t>
+  </si>
+  <si>
+    <t>10030011;1@10030012;1@10030013;1@10030014;1</t>
+  </si>
+  <si>
+    <t>1;200000@10010046;1</t>
+  </si>
+  <si>
+    <t>10030015;1@10030016;1@10030017;1@10030018;1</t>
+  </si>
+  <si>
+    <t>3;200@10000132;20</t>
+  </si>
+  <si>
+    <t>10030013;1@10030016;1</t>
+  </si>
+  <si>
+    <t>1;60000</t>
+  </si>
+  <si>
+    <t>10030013;1@10030014;1</t>
+  </si>
+  <si>
+    <t>10030015;1@10030016;1</t>
+  </si>
+  <si>
+    <t>1;1</t>
+  </si>
+  <si>
+    <t>元旦节</t>
+  </si>
+  <si>
+    <t>2;9</t>
+  </si>
+  <si>
+    <t>春节</t>
+  </si>
+  <si>
+    <t>2;14</t>
+  </si>
+  <si>
+    <t>情人节</t>
+  </si>
+  <si>
+    <t>2;24</t>
+  </si>
+  <si>
+    <t>元宵节</t>
+  </si>
+  <si>
+    <t>3;8</t>
+  </si>
+  <si>
+    <t>妇女节</t>
+  </si>
+  <si>
+    <t>4;5</t>
+  </si>
+  <si>
+    <t>清明节</t>
+  </si>
+  <si>
+    <t>5;1</t>
+  </si>
+  <si>
+    <t>劳动节</t>
+  </si>
+  <si>
+    <t>5;4</t>
+  </si>
+  <si>
+    <t>青年节</t>
+  </si>
+  <si>
+    <t>6;1</t>
+  </si>
+  <si>
+    <t>儿童节</t>
+  </si>
+  <si>
+    <t>6;22</t>
+  </si>
+  <si>
+    <t>端午节</t>
+  </si>
+  <si>
+    <t>7;1</t>
+  </si>
+  <si>
+    <t>建党节</t>
+  </si>
+  <si>
+    <t>8;1</t>
+  </si>
+  <si>
+    <t>建军节</t>
+  </si>
+  <si>
+    <t>8;22</t>
+  </si>
+  <si>
+    <t>七夕节</t>
+  </si>
+  <si>
+    <t>9;10</t>
+  </si>
+  <si>
+    <t>教师节</t>
+  </si>
+  <si>
+    <t>9;29</t>
+  </si>
+  <si>
+    <t>中秋节</t>
+  </si>
+  <si>
+    <t>10;1</t>
+  </si>
+  <si>
+    <t>国庆节</t>
+  </si>
+  <si>
+    <t>10;23</t>
+  </si>
+  <si>
+    <t>重阳节</t>
+  </si>
+  <si>
+    <t>11;1</t>
+  </si>
+  <si>
+    <t>万圣节</t>
+  </si>
+  <si>
+    <t>11;23</t>
+  </si>
+  <si>
+    <t>感恩节</t>
+  </si>
+  <si>
+    <t>12;25</t>
+  </si>
+  <si>
+    <t>圣诞节</t>
+  </si>
+  <si>
+    <t>weijing666</t>
+  </si>
+  <si>
+    <t>10010091;1@10010041;2</t>
+  </si>
+  <si>
+    <t>公共序列号weijing666</t>
+  </si>
+  <si>
+    <t>weijing888</t>
+  </si>
+  <si>
+    <t>10010039;1@10010041;2@10010083;5@10010033;1</t>
+  </si>
+  <si>
+    <t>3;500@1000014;1@1000022;1@1010034;5@1010021;1@1010030;1</t>
+  </si>
+  <si>
+    <t>3;750@1000014;1@1000022;2@1010034;5@1010049;1@1010031;1</t>
+  </si>
+  <si>
+    <t>3;1000@1000014;1@1000022;3@1010034;10@1000027;20@1010002;1@1010015;1</t>
+  </si>
+  <si>
+    <t>3;1500@1000014;1@1000022;3@1010034;10@1000027;20@1010049;1@1000002;5</t>
+  </si>
+  <si>
+    <t>3;2000@1000018;30@1000014;1@1000022;4@1010034;15@1000027;30@1010049;1@1000002;5</t>
+  </si>
+  <si>
+    <t>3;2500@1000018;30@1000014;1@1000022;4@1010034;15@1000027;30@1000003;2@1000002;10</t>
+  </si>
+  <si>
+    <t>3;3000@1000018;40@1000014;1@1000022;5@1010034;20@1000027;40@1000004;2@1000002;10</t>
+  </si>
+  <si>
+    <t>3;3500@1000018;40@1000014;1@1000022;5@1010034;20@1000027;40@1010002;2@1000002;10</t>
+  </si>
+  <si>
+    <t>3;4000@1000018;50@1000014;1@1000022;10@1010034;30@1000027;50@1000003;3@1000002;10</t>
+  </si>
+  <si>
+    <t>3;5000@1000018;50@1000014;1@1000022;10@1010034;30@1000027;50@1000004;3@1000002;10</t>
+  </si>
+  <si>
+    <t>1030001;20</t>
+  </si>
+  <si>
+    <t>1020001;20</t>
+  </si>
+  <si>
+    <t>1021010;20</t>
+  </si>
+  <si>
+    <t>1010011;1</t>
+  </si>
+  <si>
+    <t>1021008;1</t>
+  </si>
+  <si>
+    <t>1021009;1</t>
+  </si>
+  <si>
+    <t>1000018;2</t>
+  </si>
+  <si>
+    <t>1000026;5</t>
+  </si>
+  <si>
+    <t>1022010;20</t>
+  </si>
+  <si>
+    <t>1000027;5</t>
+  </si>
+  <si>
+    <t>1022008;1</t>
+  </si>
+  <si>
+    <t>1022009;1</t>
+  </si>
+  <si>
+    <t>1023010;20</t>
+  </si>
+  <si>
+    <t>1000019;20</t>
+  </si>
+  <si>
+    <t>1023008;1</t>
+  </si>
+  <si>
+    <t>1023009;1</t>
+  </si>
+  <si>
+    <t>1010013;1</t>
+  </si>
+  <si>
+    <t>1024010;20</t>
+  </si>
+  <si>
+    <t>1024008;1</t>
+  </si>
+  <si>
+    <t>1024009;1</t>
+  </si>
+  <si>
+    <t>1000023;5</t>
+  </si>
+  <si>
+    <t>1025010;20</t>
+  </si>
+  <si>
+    <t>1025008;1</t>
+  </si>
+  <si>
+    <t>1025009;1</t>
+  </si>
+  <si>
+    <t>1010035;5</t>
+  </si>
+  <si>
+    <t>1010023;1</t>
+  </si>
+  <si>
+    <t>1010024;1</t>
+  </si>
+  <si>
+    <t>1000001;10</t>
+  </si>
+  <si>
+    <t>1010025;1</t>
+  </si>
+  <si>
+    <t>1000027;10</t>
+  </si>
+  <si>
+    <t>1010012;1</t>
+  </si>
+  <si>
+    <t>1000031;1</t>
+  </si>
+  <si>
+    <t>1010045;1</t>
+  </si>
+  <si>
+    <t>1010015;1</t>
+  </si>
+  <si>
+    <t>1000027;30@1000025;30@1000028;30</t>
+  </si>
+  <si>
+    <t>1010030;1@1010036;10@1010035;10</t>
+  </si>
+  <si>
+    <t>1010034;10@1010034;10@1010034;10</t>
+  </si>
+  <si>
+    <t>1000018;50@1010051;1@1010034;5</t>
+  </si>
+  <si>
+    <t>1000019;200@1010043;1@1010034;5</t>
+  </si>
+  <si>
+    <t>1021009;5@1021008;5@1021010;200</t>
+  </si>
+  <si>
+    <t>1022009;5@1022008;5@1022010;200</t>
+  </si>
+  <si>
+    <t>1023009;5@1023008;5@1023010;200</t>
+  </si>
+  <si>
+    <t>1024009;5@1024008;5@1024010;200</t>
+  </si>
+  <si>
+    <t>1025009;5@1025008;5@1025010;200</t>
+  </si>
+  <si>
+    <t>1010021;1@1010051;1@1010034;5</t>
+  </si>
+  <si>
+    <t>1010022;1@1010051;1@1010034;5</t>
+  </si>
+  <si>
+    <t>1010023;1@1010051;1@1010034;5</t>
+  </si>
+  <si>
+    <t>1010024;1@1010051;1@1010034;5</t>
+  </si>
+  <si>
+    <t>1010025;1@1010051;1@1010034;5</t>
   </si>
   <si>
     <r>
@@ -244,777 +844,19 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>3;480</t>
-    </r>
-  </si>
-  <si>
-    <t>10021010;500@10021008;10@10021009;5</t>
-  </si>
-  <si>
-    <t>材料礼包</t>
-  </si>
-  <si>
-    <t>20,29</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>10022010;500@10022008;10</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>@10022009;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>5</t>
-    </r>
-  </si>
-  <si>
-    <t>30,39</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>10023010;500@10023008;10</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>@10023009;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>5</t>
-    </r>
-  </si>
-  <si>
-    <t>40,49</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>10024010;500@10024008;10</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>@10024009;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>5</t>
-    </r>
-  </si>
-  <si>
-    <t>50,999</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>10025010;500@10025008;10</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>@10025009;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>5</t>
-    </r>
-  </si>
-  <si>
-    <t>Activ104</t>
-  </si>
-  <si>
-    <t>10010042;5@10000121;2@10000143;3</t>
-  </si>
-  <si>
-    <t>装备宝箱</t>
-  </si>
-  <si>
-    <t>10010042;5@10000122;2@10000143;3</t>
-  </si>
-  <si>
-    <t>10010042;5@10000123;2@10000143;4</t>
-  </si>
-  <si>
-    <t>10010042;5@10000124;2@10000143;4</t>
-  </si>
-  <si>
-    <t>10010042;5@10000125;2@10000143;5</t>
-  </si>
-  <si>
-    <t>Activ105</t>
-  </si>
-  <si>
-    <t>1,29</t>
-  </si>
-  <si>
-    <t>10010042;5@10010087;1@10000101;5</t>
-  </si>
-  <si>
-    <t>宝石箱子</t>
-  </si>
-  <si>
-    <t>10010042;5@10010087;1@10000102;5</t>
-  </si>
-  <si>
-    <t>10010042;5@10010087;1@10000103;5</t>
-  </si>
-  <si>
-    <t>10010042;5@10010087;1@10000104;5</t>
-  </si>
-  <si>
-    <t>10010051;2@10010052;1@10010037;50</t>
-  </si>
-  <si>
-    <t>生肖礼包</t>
-  </si>
-  <si>
-    <t>10000157;10@10010043;5@10010046;1</t>
-  </si>
-  <si>
-    <t>传承礼包</t>
-  </si>
-  <si>
-    <t>10000150;1@10010040;1@10010045;1</t>
-  </si>
-  <si>
-    <t>深渊礼包</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>3;980</t>
     </r>
-  </si>
-  <si>
-    <t>10000143;3@10000152;3@10020001;500</t>
-  </si>
-  <si>
-    <t>1;1000</t>
-  </si>
-  <si>
-    <t>1;10000@12000001;50@12000007;1</t>
-  </si>
-  <si>
-    <t>1;2000</t>
-  </si>
-  <si>
-    <t>1;50000@12000001;50@12000003;1@12000004;10</t>
-  </si>
-  <si>
-    <t>1;5000</t>
-  </si>
-  <si>
-    <t>1;50000@12000001;100@12001009;1@12001010;1</t>
-  </si>
-  <si>
-    <t>1;7500</t>
-  </si>
-  <si>
-    <t>1;100000@12000001;100@12001009;1@12001010;1</t>
-  </si>
-  <si>
-    <t>1;10000</t>
-  </si>
-  <si>
-    <t>1;100000@12000001;150@12002010;1@12002011;1</t>
-  </si>
-  <si>
-    <t>1;20000</t>
-  </si>
-  <si>
-    <t>1;200000@12000001;150@12003009;1@12003010;1</t>
-  </si>
-  <si>
-    <t>1;50000@1000018;10@1010011;1</t>
-  </si>
-  <si>
-    <t>等级战区礼包</t>
-  </si>
-  <si>
-    <t>1;50000@1000018;10@1021008;3@1010022;1</t>
-  </si>
-  <si>
-    <t>1;100000@1000018;15@1022008;3@1022009;2</t>
-  </si>
-  <si>
-    <t>1;150000@1000018;20@1023008;3@1010013;1@1010023;1</t>
-  </si>
-  <si>
-    <t>1;200000@1000018;25@1023008;3@1000014;1@1023009;2</t>
-  </si>
-  <si>
-    <t>1;250000@1000018;30@1024008;3@1024009;2@1010024;1</t>
-  </si>
-  <si>
-    <t>1;300000@1000018;30@1024008;3@1024009;2@1000013;1</t>
-  </si>
-  <si>
-    <t>1;300000@1000018;30@1025008;3@1025009;2@1010025;1</t>
-  </si>
-  <si>
-    <t>1;300000@1000018;30@1025008;3@1025009;2@1000013;1</t>
-  </si>
-  <si>
-    <t>1;300000@1000018;30@1000020;1@1000013;1@1000022;2</t>
-  </si>
-  <si>
-    <t>1;300000@1000018;30@1000020;1@1000013;1@1000022;3</t>
-  </si>
-  <si>
-    <t>1;50000@1000018;10</t>
-  </si>
-  <si>
-    <t>战力实力礼包</t>
-  </si>
-  <si>
-    <t>1;50000@1000018;10@1000019;50@1010038;1</t>
-  </si>
-  <si>
-    <t>1;100000@1000018;15@1000019;100@1010038;1</t>
-  </si>
-  <si>
-    <t>1;150000@1000018;20@1000019;150@1010030;1@1010038;1</t>
-  </si>
-  <si>
-    <t>1;200000@1000018;25@1000019;200@1010030;1@1010038;1</t>
-  </si>
-  <si>
-    <t>1;250000@1000018;30@1000019;300@1000022;5@1010038;1</t>
-  </si>
-  <si>
-    <t>1;300000@1000018;30@1000019;300@1000022;5@1010038;1</t>
-  </si>
-  <si>
-    <t>1;300000@1000018;30@1000019;500@1000022;5@1010038;1</t>
-  </si>
-  <si>
-    <t>1;300000@1000018;30@1000019;750@1000022;10@1010038;1</t>
-  </si>
-  <si>
-    <t>1;300000@1000018;30@1000019;1000@1000022;10@1010038;1</t>
-  </si>
-  <si>
-    <t>1010035;3</t>
-  </si>
-  <si>
-    <t>签到礼包</t>
-  </si>
-  <si>
-    <t>1000018;5</t>
-  </si>
-  <si>
-    <t>1010040;1</t>
-  </si>
-  <si>
-    <t>1010036;2</t>
-  </si>
-  <si>
-    <t>1010032;1</t>
-  </si>
-  <si>
-    <t>1010014;1</t>
-  </si>
-  <si>
-    <t>1000013;1</t>
-  </si>
-  <si>
-    <t>1000020;1</t>
-  </si>
-  <si>
-    <t>1000022;1</t>
-  </si>
-  <si>
-    <t>1000014;1</t>
-  </si>
-  <si>
-    <t>1010034;5</t>
-  </si>
-  <si>
-    <t>1010036;5</t>
-  </si>
-  <si>
-    <t>1010033;1</t>
-  </si>
-  <si>
-    <t>1010021;1</t>
-  </si>
-  <si>
-    <t>1000021;1</t>
-  </si>
-  <si>
-    <t>1000018;10</t>
-  </si>
-  <si>
-    <t>1010036;10</t>
-  </si>
-  <si>
-    <t>10010048;1</t>
-  </si>
-  <si>
-    <t>1000022;2</t>
-  </si>
-  <si>
-    <t>1010043;1</t>
-  </si>
-  <si>
-    <t>累计签到奖励 免费</t>
-  </si>
-  <si>
-    <t>1010051;1</t>
-  </si>
-  <si>
-    <t>1;1200</t>
-  </si>
-  <si>
-    <t>累计签到奖励 VIP</t>
-  </si>
-  <si>
-    <t>1010002;1</t>
-  </si>
-  <si>
-    <t>1级奖励</t>
-  </si>
-  <si>
-    <t>2级奖励</t>
-  </si>
-  <si>
-    <t>3级奖励</t>
-  </si>
-  <si>
-    <t>4级奖励</t>
-  </si>
-  <si>
-    <t>5级奖励</t>
-  </si>
-  <si>
-    <t>6级奖励</t>
-  </si>
-  <si>
-    <t>7级奖励</t>
-  </si>
-  <si>
-    <t>8级奖励</t>
-  </si>
-  <si>
-    <t>9级奖励</t>
-  </si>
-  <si>
-    <t>10级奖励</t>
-  </si>
-  <si>
-    <t>1010041;1</t>
-  </si>
-  <si>
-    <t>第一天</t>
-  </si>
-  <si>
-    <t>1010022;1</t>
-  </si>
-  <si>
-    <t>第二天</t>
-  </si>
-  <si>
-    <t>第三天</t>
-  </si>
-  <si>
-    <t>第四天</t>
-  </si>
-  <si>
-    <t>第五天</t>
-  </si>
-  <si>
-    <t>第六天</t>
-  </si>
-  <si>
-    <t>第七天</t>
-  </si>
-  <si>
-    <t>10030011;1@10030012;1@10030013;1@10030014;1@10030015;1@10030016;1@10030017;1@10030018;1</t>
-  </si>
-  <si>
-    <t>3;600@10000143;3</t>
-  </si>
-  <si>
-    <t>新春活动兑换</t>
-  </si>
-  <si>
-    <t>10030011;1@10030012;1@10030015;1@10030016;1</t>
-  </si>
-  <si>
-    <t>1;200000@10000143;1</t>
-  </si>
-  <si>
-    <t>10030013;1@10030014;1@10030017;1@10030018;1</t>
-  </si>
-  <si>
-    <t>3;200@10010083;20</t>
-  </si>
-  <si>
-    <t>10030011;1@10030012;1@10030013;1@10030014;1</t>
-  </si>
-  <si>
-    <t>1;200000@10010046;1</t>
-  </si>
-  <si>
-    <t>10030015;1@10030016;1@10030017;1@10030018;1</t>
-  </si>
-  <si>
-    <t>3;200@10000132;20</t>
-  </si>
-  <si>
-    <t>10030013;1@10030016;1</t>
-  </si>
-  <si>
-    <t>1;60000</t>
-  </si>
-  <si>
-    <t>10030013;1@10030014;1</t>
-  </si>
-  <si>
-    <t>10030015;1@10030016;1</t>
-  </si>
-  <si>
-    <t>1;1</t>
-  </si>
-  <si>
-    <t>元旦节</t>
-  </si>
-  <si>
-    <t>2;9</t>
-  </si>
-  <si>
-    <t>春节</t>
-  </si>
-  <si>
-    <t>2;14</t>
-  </si>
-  <si>
-    <t>情人节</t>
-  </si>
-  <si>
-    <t>2;24</t>
-  </si>
-  <si>
-    <t>元宵节</t>
-  </si>
-  <si>
-    <t>3;8</t>
-  </si>
-  <si>
-    <t>妇女节</t>
-  </si>
-  <si>
-    <t>4;5</t>
-  </si>
-  <si>
-    <t>清明节</t>
-  </si>
-  <si>
-    <t>5;1</t>
-  </si>
-  <si>
-    <t>劳动节</t>
-  </si>
-  <si>
-    <t>5;4</t>
-  </si>
-  <si>
-    <t>青年节</t>
-  </si>
-  <si>
-    <t>6;1</t>
-  </si>
-  <si>
-    <t>儿童节</t>
-  </si>
-  <si>
-    <t>6;22</t>
-  </si>
-  <si>
-    <t>端午节</t>
-  </si>
-  <si>
-    <t>7;1</t>
-  </si>
-  <si>
-    <t>建党节</t>
-  </si>
-  <si>
-    <t>8;1</t>
-  </si>
-  <si>
-    <t>建军节</t>
-  </si>
-  <si>
-    <t>8;22</t>
-  </si>
-  <si>
-    <t>七夕节</t>
-  </si>
-  <si>
-    <t>9;10</t>
-  </si>
-  <si>
-    <t>教师节</t>
-  </si>
-  <si>
-    <t>9;29</t>
-  </si>
-  <si>
-    <t>中秋节</t>
-  </si>
-  <si>
-    <t>10;1</t>
-  </si>
-  <si>
-    <t>国庆节</t>
-  </si>
-  <si>
-    <t>10;23</t>
-  </si>
-  <si>
-    <t>重阳节</t>
-  </si>
-  <si>
-    <t>11;1</t>
-  </si>
-  <si>
-    <t>万圣节</t>
-  </si>
-  <si>
-    <t>11;23</t>
-  </si>
-  <si>
-    <t>感恩节</t>
-  </si>
-  <si>
-    <t>12;25</t>
-  </si>
-  <si>
-    <t>圣诞节</t>
-  </si>
-  <si>
-    <t>weijing666</t>
-  </si>
-  <si>
-    <t>10010091;1@10010041;2</t>
-  </si>
-  <si>
-    <t>公共序列号weijing666</t>
-  </si>
-  <si>
-    <t>weijing888</t>
-  </si>
-  <si>
-    <t>10010039;1@10010041;2@10010083;5@10010033;1</t>
-  </si>
-  <si>
-    <t>3;500@1000014;1@1000022;1@1010034;5@1010021;1@1010030;1</t>
-  </si>
-  <si>
-    <t>3;750@1000014;1@1000022;2@1010034;5@1010049;1@1010031;1</t>
-  </si>
-  <si>
-    <t>3;1000@1000014;1@1000022;3@1010034;10@1000027;20@1010002;1@1010015;1</t>
-  </si>
-  <si>
-    <t>3;1500@1000014;1@1000022;3@1010034;10@1000027;20@1010049;1@1000002;5</t>
-  </si>
-  <si>
-    <t>3;2000@1000018;30@1000014;1@1000022;4@1010034;15@1000027;30@1010049;1@1000002;5</t>
-  </si>
-  <si>
-    <t>3;2500@1000018;30@1000014;1@1000022;4@1010034;15@1000027;30@1000003;2@1000002;10</t>
-  </si>
-  <si>
-    <t>3;3000@1000018;40@1000014;1@1000022;5@1010034;20@1000027;40@1000004;2@1000002;10</t>
-  </si>
-  <si>
-    <t>3;3500@1000018;40@1000014;1@1000022;5@1010034;20@1000027;40@1010002;2@1000002;10</t>
-  </si>
-  <si>
-    <t>3;4000@1000018;50@1000014;1@1000022;10@1010034;30@1000027;50@1000003;3@1000002;10</t>
-  </si>
-  <si>
-    <t>3;5000@1000018;50@1000014;1@1000022;10@1010034;30@1000027;50@1000004;3@1000002;10</t>
-  </si>
-  <si>
-    <t>1030001;20</t>
-  </si>
-  <si>
-    <t>1020001;20</t>
-  </si>
-  <si>
-    <t>1021010;20</t>
-  </si>
-  <si>
-    <t>1010011;1</t>
-  </si>
-  <si>
-    <t>1021008;1</t>
-  </si>
-  <si>
-    <t>1021009;1</t>
-  </si>
-  <si>
-    <t>1000018;2</t>
-  </si>
-  <si>
-    <t>1000026;5</t>
-  </si>
-  <si>
-    <t>1022010;20</t>
-  </si>
-  <si>
-    <t>1000027;5</t>
-  </si>
-  <si>
-    <t>1022008;1</t>
-  </si>
-  <si>
-    <t>1022009;1</t>
-  </si>
-  <si>
-    <t>1023010;20</t>
-  </si>
-  <si>
-    <t>1000019;20</t>
-  </si>
-  <si>
-    <t>1023008;1</t>
-  </si>
-  <si>
-    <t>1023009;1</t>
-  </si>
-  <si>
-    <t>1010013;1</t>
-  </si>
-  <si>
-    <t>1024010;20</t>
-  </si>
-  <si>
-    <t>1024008;1</t>
-  </si>
-  <si>
-    <t>1024009;1</t>
-  </si>
-  <si>
-    <t>1000023;5</t>
-  </si>
-  <si>
-    <t>1025010;20</t>
-  </si>
-  <si>
-    <t>1025008;1</t>
-  </si>
-  <si>
-    <t>1025009;1</t>
-  </si>
-  <si>
-    <t>1010035;5</t>
-  </si>
-  <si>
-    <t>1010023;1</t>
-  </si>
-  <si>
-    <t>1010024;1</t>
-  </si>
-  <si>
-    <t>1000001;10</t>
-  </si>
-  <si>
-    <t>1010025;1</t>
-  </si>
-  <si>
-    <t>1000027;10</t>
-  </si>
-  <si>
-    <t>1010012;1</t>
-  </si>
-  <si>
-    <t>1000031;1</t>
-  </si>
-  <si>
-    <t>1010045;1</t>
-  </si>
-  <si>
-    <t>1010015;1</t>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1095,6 +937,13 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="18">
@@ -2249,7 +2098,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2304,6 +2153,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="4" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2691,7 +2546,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表1" displayName="表1" ref="C3:G29" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表1" displayName="表1" ref="C3:G20" totalsRowShown="0">
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Id"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="活动类型"/>
@@ -2988,10 +2843,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C1:J221"/>
+  <dimension ref="C1:J212"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D85" workbookViewId="0">
-      <selection activeCell="F92" sqref="F92"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3089,22 +2944,22 @@
       <c r="G6" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="H6" s="8" t="s">
+      <c r="H6" s="20" t="s">
+        <v>217</v>
+      </c>
+      <c r="I6" s="12" t="s">
         <v>17</v>
-      </c>
-      <c r="I6" s="12" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="7" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C7" s="6">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="D7" s="6">
         <v>2</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F7" s="7">
         <v>1999</v>
@@ -3113,21 +2968,21 @@
         <v>16</v>
       </c>
       <c r="H7" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="I7" s="12" t="s">
         <v>19</v>
-      </c>
-      <c r="I7" s="12" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="8" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C8" s="6">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="D8" s="6">
         <v>2</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F8" s="7">
         <v>1999</v>
@@ -3136,21 +2991,21 @@
         <v>16</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>21</v>
+        <v>219</v>
       </c>
       <c r="I8" s="12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C9" s="6">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="D9" s="6">
         <v>2</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F9" s="7">
         <v>1999</v>
@@ -3159,21 +3014,21 @@
         <v>16</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>23</v>
+        <v>220</v>
       </c>
       <c r="I9" s="12" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C10" s="6">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="D10" s="6">
         <v>2</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F10" s="7">
         <v>1999</v>
@@ -3182,3857 +3037,3650 @@
         <v>16</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>26</v>
+        <v>221</v>
       </c>
       <c r="I10" s="12" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C11" s="6">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="D11" s="6">
         <v>2</v>
       </c>
       <c r="E11" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="F11" s="7">
-        <v>1999</v>
-      </c>
-      <c r="G11" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="H11" s="8" t="s">
-        <v>28</v>
+      <c r="G11" s="21" t="s">
+        <v>232</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>222</v>
       </c>
       <c r="I11" s="12" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C12" s="6">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="D12" s="6">
         <v>2</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="F12" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="G12" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="H12" s="9" t="s">
-        <v>33</v>
+        <v>27</v>
+      </c>
+      <c r="G12" s="21" t="s">
+        <v>232</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>223</v>
       </c>
       <c r="I12" s="12" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C13" s="6">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="D13" s="6">
         <v>2</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="F13" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="G13" s="17" t="s">
-        <v>32</v>
+        <v>28</v>
+      </c>
+      <c r="G13" s="21" t="s">
+        <v>232</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>36</v>
+        <v>224</v>
       </c>
       <c r="I13" s="12" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C14" s="6">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="D14" s="6">
         <v>2</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="F14" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="G14" s="17" t="s">
-        <v>32</v>
+        <v>29</v>
+      </c>
+      <c r="G14" s="21" t="s">
+        <v>232</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>38</v>
+        <v>225</v>
       </c>
       <c r="I14" s="12" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C15" s="6">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="D15" s="6">
         <v>2</v>
       </c>
       <c r="E15" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F15" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="F15" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="G15" s="17" t="s">
-        <v>32</v>
+      <c r="G15" s="21" t="s">
+        <v>232</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>40</v>
+        <v>226</v>
       </c>
       <c r="I15" s="12" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C16" s="6">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="D16" s="6">
         <v>2</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F16" s="18" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="G16" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="I16" s="12" t="s">
         <v>32</v>
-      </c>
-      <c r="H16" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="I16" s="12" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="17" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C17" s="6">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="D17" s="6">
         <v>2</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="F17" s="18" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G17" s="17" t="s">
         <v>16</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>44</v>
+        <v>228</v>
       </c>
       <c r="I17" s="12" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C18" s="6">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="D18" s="6">
         <v>2</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="F18" s="18" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="G18" s="17" t="s">
         <v>16</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>46</v>
+        <v>229</v>
       </c>
       <c r="I18" s="12" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C19" s="6">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="D19" s="6">
         <v>2</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="F19" s="18" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G19" s="17" t="s">
         <v>16</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>47</v>
+        <v>230</v>
       </c>
       <c r="I19" s="12" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C20" s="6">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="D20" s="6">
         <v>2</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="F20" s="18" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G20" s="17" t="s">
         <v>16</v>
       </c>
       <c r="H20" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="I20" s="12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C21" s="10">
+        <v>10001</v>
+      </c>
+      <c r="D21" s="10">
+        <v>3</v>
+      </c>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10">
+        <v>5</v>
+      </c>
+      <c r="G21" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="H21" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="I21" s="10" t="str">
+        <f>F21&amp;"级礼包"</f>
+        <v>5级礼包</v>
+      </c>
+    </row>
+    <row r="22" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C22" s="10">
+        <v>10002</v>
+      </c>
+      <c r="D22" s="10">
+        <v>3</v>
+      </c>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10">
+        <v>10</v>
+      </c>
+      <c r="G22" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="I22" s="10" t="str">
+        <f t="shared" ref="I22:I26" si="0">F22&amp;"级礼包"</f>
+        <v>10级礼包</v>
+      </c>
+    </row>
+    <row r="23" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C23" s="10">
+        <v>10003</v>
+      </c>
+      <c r="D23" s="10">
+        <v>3</v>
+      </c>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10">
+        <v>15</v>
+      </c>
+      <c r="G23" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="H23" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="I23" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>15级礼包</v>
+      </c>
+    </row>
+    <row r="24" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C24" s="10">
+        <v>10004</v>
+      </c>
+      <c r="D24" s="10">
+        <v>3</v>
+      </c>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10">
+        <v>20</v>
+      </c>
+      <c r="G24" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="H24" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="I24" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>20级礼包</v>
+      </c>
+    </row>
+    <row r="25" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C25" s="10">
+        <v>10005</v>
+      </c>
+      <c r="D25" s="10">
+        <v>3</v>
+      </c>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10">
+        <v>25</v>
+      </c>
+      <c r="G25" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="H25" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="I25" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>25级礼包</v>
+      </c>
+    </row>
+    <row r="26" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C26" s="10">
+        <v>10006</v>
+      </c>
+      <c r="D26" s="10">
+        <v>3</v>
+      </c>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10">
+        <v>30</v>
+      </c>
+      <c r="G26" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="H26" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="I26" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>30级礼包</v>
+      </c>
+    </row>
+    <row r="27" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C27" s="10">
+        <v>21001</v>
+      </c>
+      <c r="D27" s="10">
+        <v>21</v>
+      </c>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10">
+        <v>15</v>
+      </c>
+      <c r="G27" s="10">
+        <v>1000</v>
+      </c>
+      <c r="H27" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="I27" s="10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="28" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C28" s="10">
+        <v>21002</v>
+      </c>
+      <c r="D28" s="10">
+        <v>21</v>
+      </c>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10">
+        <v>20</v>
+      </c>
+      <c r="G28" s="10">
+        <v>1000</v>
+      </c>
+      <c r="H28" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" s="10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="29" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C29" s="10">
+        <v>21003</v>
+      </c>
+      <c r="D29" s="10">
+        <v>21</v>
+      </c>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10">
+        <v>25</v>
+      </c>
+      <c r="G29" s="10">
+        <v>500</v>
+      </c>
+      <c r="H29" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="I20" s="12" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="21" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C21" s="6">
-        <v>2016</v>
-      </c>
-      <c r="D21" s="6">
-        <v>2</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="F21" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="G21" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="H21" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="I21" s="12" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="22" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C22" s="6">
-        <v>2017</v>
-      </c>
-      <c r="D22" s="6">
-        <v>2</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="F22" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="G22" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="H22" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="I22" s="12" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="23" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C23" s="6">
-        <v>2018</v>
-      </c>
-      <c r="D23" s="6">
-        <v>2</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="F23" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="G23" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="H23" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="I23" s="12" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="24" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C24" s="6">
-        <v>2019</v>
-      </c>
-      <c r="D24" s="6">
-        <v>2</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="F24" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="G24" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="H24" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="I24" s="12" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="25" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C25" s="6">
-        <v>2020</v>
-      </c>
-      <c r="D25" s="6">
-        <v>2</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="F25" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="G25" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="H25" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="I25" s="12" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="26" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C26" s="6">
-        <v>2021</v>
-      </c>
-      <c r="D26" s="6">
-        <v>2</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="F26" s="7">
-        <v>1999</v>
-      </c>
-      <c r="G26" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="H26" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="I26" s="12" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="27" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C27" s="6">
-        <v>2022</v>
-      </c>
-      <c r="D27" s="6">
-        <v>2</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="F27" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="G27" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="H27" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="I27" s="12" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="28" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C28" s="6">
-        <v>2023</v>
-      </c>
-      <c r="D28" s="6">
-        <v>2</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="F28" s="7">
-        <v>1999</v>
-      </c>
-      <c r="G28" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="H28" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="I28" s="12" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="29" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C29" s="6">
-        <v>2024</v>
-      </c>
-      <c r="D29" s="6">
-        <v>2</v>
-      </c>
-      <c r="E29" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="F29" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="G29" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="H29" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="I29" s="12" t="s">
-        <v>34</v>
+      <c r="I29" s="10" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="30" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C30" s="10">
-        <v>10001</v>
+        <v>21004</v>
       </c>
       <c r="D30" s="10">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="E30" s="10"/>
       <c r="F30" s="10">
-        <v>5</v>
-      </c>
-      <c r="G30" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="H30" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="I30" s="10" t="str">
-        <f>F30&amp;"级礼包"</f>
-        <v>5级礼包</v>
+        <v>30</v>
+      </c>
+      <c r="G30" s="10">
+        <v>500</v>
+      </c>
+      <c r="H30" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="I30" s="10" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="31" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C31" s="10">
-        <v>10002</v>
+        <v>21005</v>
       </c>
       <c r="D31" s="10">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="E31" s="10"/>
       <c r="F31" s="10">
-        <v>10</v>
-      </c>
-      <c r="G31" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="H31" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="I31" s="10" t="str">
-        <f t="shared" ref="I31:I35" si="0">F31&amp;"级礼包"</f>
-        <v>10级礼包</v>
+        <v>35</v>
+      </c>
+      <c r="G31" s="10">
+        <v>300</v>
+      </c>
+      <c r="H31" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="I31" s="10" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="32" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C32" s="10">
-        <v>10003</v>
+        <v>21006</v>
       </c>
       <c r="D32" s="10">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="E32" s="10"/>
       <c r="F32" s="10">
-        <v>15</v>
-      </c>
-      <c r="G32" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="H32" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="I32" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>15级礼包</v>
+        <v>40</v>
+      </c>
+      <c r="G32" s="10">
+        <v>200</v>
+      </c>
+      <c r="H32" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="I32" s="10" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="33" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C33" s="10">
-        <v>10004</v>
+        <v>21007</v>
       </c>
       <c r="D33" s="10">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="E33" s="10"/>
       <c r="F33" s="10">
-        <v>20</v>
-      </c>
-      <c r="G33" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="H33" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="I33" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>20级礼包</v>
+        <v>45</v>
+      </c>
+      <c r="G33" s="10">
+        <v>100</v>
+      </c>
+      <c r="H33" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="I33" s="10" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="34" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C34" s="10">
-        <v>10005</v>
+        <v>21008</v>
       </c>
       <c r="D34" s="10">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="E34" s="10"/>
       <c r="F34" s="10">
-        <v>25</v>
-      </c>
-      <c r="G34" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="H34" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="I34" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>25级礼包</v>
+        <v>50</v>
+      </c>
+      <c r="G34" s="10">
+        <v>75</v>
+      </c>
+      <c r="H34" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="I34" s="10" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="35" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C35" s="10">
-        <v>10006</v>
+        <v>21009</v>
       </c>
       <c r="D35" s="10">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="E35" s="10"/>
       <c r="F35" s="10">
-        <v>30</v>
-      </c>
-      <c r="G35" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="H35" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="I35" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>30级礼包</v>
+        <v>55</v>
+      </c>
+      <c r="G35" s="10">
+        <v>50</v>
+      </c>
+      <c r="H35" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="I35" s="10" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="36" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C36" s="10">
-        <v>21001</v>
+        <v>21010</v>
       </c>
       <c r="D36" s="10">
         <v>21</v>
       </c>
       <c r="E36" s="10"/>
       <c r="F36" s="10">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="G36" s="10">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="H36" s="11" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="I36" s="10" t="s">
-        <v>78</v>
+        <v>46</v>
       </c>
     </row>
     <row r="37" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C37" s="10">
-        <v>21002</v>
+        <v>21011</v>
       </c>
       <c r="D37" s="10">
         <v>21</v>
       </c>
       <c r="E37" s="10"/>
       <c r="F37" s="10">
+        <v>65</v>
+      </c>
+      <c r="G37" s="10">
         <v>20</v>
       </c>
-      <c r="G37" s="10">
-        <v>1000</v>
-      </c>
       <c r="H37" s="11" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="I37" s="10" t="s">
-        <v>78</v>
+        <v>46</v>
       </c>
     </row>
     <row r="38" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C38" s="10">
-        <v>21003</v>
+        <v>22001</v>
       </c>
       <c r="D38" s="10">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E38" s="10"/>
       <c r="F38" s="10">
-        <v>25</v>
+        <v>7500</v>
       </c>
       <c r="G38" s="10">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="H38" s="10" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="I38" s="10" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
     </row>
     <row r="39" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C39" s="10">
-        <v>21004</v>
+        <v>22002</v>
       </c>
       <c r="D39" s="10">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E39" s="10"/>
       <c r="F39" s="10">
-        <v>30</v>
+        <v>10000</v>
       </c>
       <c r="G39" s="10">
-        <v>500</v>
-      </c>
-      <c r="H39" s="11" t="s">
-        <v>81</v>
+        <v>1000</v>
+      </c>
+      <c r="H39" s="10" t="s">
+        <v>59</v>
       </c>
       <c r="I39" s="10" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
     </row>
     <row r="40" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C40" s="10">
-        <v>21005</v>
+        <v>22003</v>
       </c>
       <c r="D40" s="10">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E40" s="10"/>
       <c r="F40" s="10">
-        <v>35</v>
+        <v>15000</v>
       </c>
       <c r="G40" s="10">
-        <v>300</v>
-      </c>
-      <c r="H40" s="11" t="s">
-        <v>82</v>
+        <v>500</v>
+      </c>
+      <c r="H40" s="10" t="s">
+        <v>60</v>
       </c>
       <c r="I40" s="10" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
     </row>
     <row r="41" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C41" s="10">
-        <v>21006</v>
+        <v>22004</v>
       </c>
       <c r="D41" s="10">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E41" s="10"/>
       <c r="F41" s="10">
-        <v>40</v>
+        <v>20000</v>
       </c>
       <c r="G41" s="10">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="H41" s="11" t="s">
-        <v>83</v>
+        <v>61</v>
       </c>
       <c r="I41" s="10" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
     </row>
     <row r="42" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C42" s="10">
-        <v>21007</v>
+        <v>22005</v>
       </c>
       <c r="D42" s="10">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E42" s="10"/>
       <c r="F42" s="10">
-        <v>45</v>
+        <v>30000</v>
       </c>
       <c r="G42" s="10">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="H42" s="11" t="s">
-        <v>84</v>
+        <v>62</v>
       </c>
       <c r="I42" s="10" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
     </row>
     <row r="43" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C43" s="10">
-        <v>21008</v>
+        <v>22006</v>
       </c>
       <c r="D43" s="10">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E43" s="10"/>
       <c r="F43" s="10">
-        <v>50</v>
+        <v>40000</v>
       </c>
       <c r="G43" s="10">
-        <v>75</v>
-      </c>
-      <c r="H43" s="11" t="s">
-        <v>85</v>
+        <v>200</v>
+      </c>
+      <c r="H43" s="10" t="s">
+        <v>63</v>
       </c>
       <c r="I43" s="10" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
     </row>
     <row r="44" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C44" s="10">
-        <v>21009</v>
+        <v>22007</v>
       </c>
       <c r="D44" s="10">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E44" s="10"/>
       <c r="F44" s="10">
-        <v>55</v>
+        <v>50000</v>
       </c>
       <c r="G44" s="10">
-        <v>50</v>
-      </c>
-      <c r="H44" s="11" t="s">
-        <v>86</v>
+        <v>100</v>
+      </c>
+      <c r="H44" s="10" t="s">
+        <v>64</v>
       </c>
       <c r="I44" s="10" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
     </row>
     <row r="45" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C45" s="10">
-        <v>21010</v>
+        <v>22008</v>
       </c>
       <c r="D45" s="10">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E45" s="10"/>
       <c r="F45" s="10">
-        <v>60</v>
+        <v>60000</v>
       </c>
       <c r="G45" s="10">
-        <v>30</v>
-      </c>
-      <c r="H45" s="11" t="s">
-        <v>87</v>
+        <v>50</v>
+      </c>
+      <c r="H45" s="10" t="s">
+        <v>65</v>
       </c>
       <c r="I45" s="10" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
     </row>
     <row r="46" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C46" s="10">
-        <v>21011</v>
+        <v>22009</v>
       </c>
       <c r="D46" s="10">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E46" s="10"/>
       <c r="F46" s="10">
+        <v>70000</v>
+      </c>
+      <c r="G46" s="10">
+        <v>30</v>
+      </c>
+      <c r="H46" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="G46" s="10">
-        <v>20</v>
-      </c>
-      <c r="H46" s="11" t="s">
-        <v>88</v>
-      </c>
       <c r="I46" s="10" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
     </row>
     <row r="47" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C47" s="10">
-        <v>22001</v>
+        <v>22010</v>
       </c>
       <c r="D47" s="10">
         <v>22</v>
       </c>
       <c r="E47" s="10"/>
       <c r="F47" s="10">
-        <v>7500</v>
+        <v>85000</v>
       </c>
       <c r="G47" s="10">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="H47" s="10" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="I47" s="10" t="s">
-        <v>90</v>
+        <v>58</v>
       </c>
     </row>
     <row r="48" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C48" s="10">
-        <v>22002</v>
+        <v>22011</v>
       </c>
       <c r="D48" s="10">
         <v>22</v>
       </c>
       <c r="E48" s="10"/>
       <c r="F48" s="10">
-        <v>10000</v>
+        <v>100000</v>
       </c>
       <c r="G48" s="10">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="H48" s="10" t="s">
-        <v>91</v>
+        <v>67</v>
       </c>
       <c r="I48" s="10" t="s">
-        <v>90</v>
+        <v>58</v>
       </c>
     </row>
     <row r="49" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C49" s="10">
-        <v>22003</v>
+        <v>23001</v>
       </c>
       <c r="D49" s="10">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E49" s="10"/>
       <c r="F49" s="10">
-        <v>15000</v>
-      </c>
-      <c r="G49" s="10">
-        <v>500</v>
-      </c>
-      <c r="H49" s="10" t="s">
-        <v>92</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="G49" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="H49" s="10"/>
       <c r="I49" s="10" t="s">
-        <v>90</v>
+        <v>69</v>
       </c>
     </row>
     <row r="50" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C50" s="10">
-        <v>22004</v>
+        <v>23002</v>
       </c>
       <c r="D50" s="10">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E50" s="10"/>
       <c r="F50" s="10">
-        <v>20000</v>
-      </c>
-      <c r="G50" s="10">
-        <v>500</v>
-      </c>
-      <c r="H50" s="11" t="s">
-        <v>93</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="G50" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="H50" s="10"/>
       <c r="I50" s="10" t="s">
-        <v>90</v>
+        <v>69</v>
       </c>
     </row>
     <row r="51" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C51" s="10">
-        <v>22005</v>
+        <v>23003</v>
       </c>
       <c r="D51" s="10">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E51" s="10"/>
       <c r="F51" s="10">
-        <v>30000</v>
-      </c>
-      <c r="G51" s="10">
-        <v>300</v>
-      </c>
-      <c r="H51" s="11" t="s">
-        <v>94</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="G51" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="H51" s="10"/>
       <c r="I51" s="10" t="s">
-        <v>90</v>
+        <v>69</v>
       </c>
     </row>
     <row r="52" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C52" s="10">
-        <v>22006</v>
+        <v>23004</v>
       </c>
       <c r="D52" s="10">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E52" s="10"/>
       <c r="F52" s="10">
-        <v>40000</v>
-      </c>
-      <c r="G52" s="10">
-        <v>200</v>
-      </c>
-      <c r="H52" s="10" t="s">
-        <v>95</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="G52" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="H52" s="10"/>
       <c r="I52" s="10" t="s">
-        <v>90</v>
+        <v>69</v>
       </c>
     </row>
     <row r="53" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C53" s="10">
-        <v>22007</v>
+        <v>23005</v>
       </c>
       <c r="D53" s="10">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E53" s="10"/>
       <c r="F53" s="10">
-        <v>50000</v>
-      </c>
-      <c r="G53" s="10">
-        <v>100</v>
-      </c>
-      <c r="H53" s="10" t="s">
-        <v>96</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="G53" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="H53" s="10"/>
       <c r="I53" s="10" t="s">
-        <v>90</v>
+        <v>69</v>
       </c>
     </row>
     <row r="54" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C54" s="10">
-        <v>22008</v>
+        <v>23006</v>
       </c>
       <c r="D54" s="10">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E54" s="10"/>
       <c r="F54" s="10">
-        <v>60000</v>
-      </c>
-      <c r="G54" s="10">
-        <v>50</v>
-      </c>
-      <c r="H54" s="10" t="s">
-        <v>97</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="G54" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="H54" s="10"/>
       <c r="I54" s="10" t="s">
-        <v>90</v>
+        <v>69</v>
       </c>
     </row>
     <row r="55" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C55" s="10">
-        <v>22009</v>
+        <v>23007</v>
       </c>
       <c r="D55" s="10">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E55" s="10"/>
       <c r="F55" s="10">
-        <v>70000</v>
-      </c>
-      <c r="G55" s="10">
-        <v>30</v>
-      </c>
-      <c r="H55" s="10" t="s">
-        <v>97</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="G55" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="H55" s="10"/>
       <c r="I55" s="10" t="s">
-        <v>90</v>
+        <v>69</v>
       </c>
     </row>
     <row r="56" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C56" s="10">
-        <v>22010</v>
+        <v>23008</v>
       </c>
       <c r="D56" s="10">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E56" s="10"/>
       <c r="F56" s="10">
-        <v>85000</v>
-      </c>
-      <c r="G56" s="10">
-        <v>20</v>
-      </c>
-      <c r="H56" s="10" t="s">
-        <v>98</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="G56" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="H56" s="10"/>
       <c r="I56" s="10" t="s">
-        <v>90</v>
+        <v>69</v>
       </c>
     </row>
     <row r="57" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C57" s="10">
-        <v>22011</v>
+        <v>23009</v>
       </c>
       <c r="D57" s="10">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E57" s="10"/>
       <c r="F57" s="10">
-        <v>100000</v>
-      </c>
-      <c r="G57" s="10">
-        <v>10</v>
-      </c>
-      <c r="H57" s="10" t="s">
-        <v>99</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="G57" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="H57" s="10"/>
       <c r="I57" s="10" t="s">
-        <v>90</v>
+        <v>69</v>
       </c>
     </row>
     <row r="58" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C58" s="10">
-        <v>23001</v>
+        <v>23010</v>
       </c>
       <c r="D58" s="10">
         <v>23</v>
       </c>
       <c r="E58" s="10"/>
       <c r="F58" s="10">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G58" s="10" t="s">
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="H58" s="10"/>
       <c r="I58" s="10" t="s">
-        <v>101</v>
+        <v>69</v>
       </c>
     </row>
     <row r="59" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C59" s="10">
-        <v>23002</v>
+        <v>23011</v>
       </c>
       <c r="D59" s="10">
         <v>23</v>
       </c>
       <c r="E59" s="10"/>
       <c r="F59" s="10">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="G59" s="10" t="s">
-        <v>102</v>
+        <v>70</v>
       </c>
       <c r="H59" s="10"/>
       <c r="I59" s="10" t="s">
-        <v>101</v>
+        <v>69</v>
       </c>
     </row>
     <row r="60" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C60" s="10">
-        <v>23003</v>
+        <v>23012</v>
       </c>
       <c r="D60" s="10">
         <v>23</v>
       </c>
       <c r="E60" s="10"/>
       <c r="F60" s="10">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="G60" s="10" t="s">
-        <v>103</v>
+        <v>77</v>
       </c>
       <c r="H60" s="10"/>
       <c r="I60" s="10" t="s">
-        <v>101</v>
+        <v>69</v>
       </c>
     </row>
     <row r="61" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C61" s="10">
-        <v>23004</v>
+        <v>23013</v>
       </c>
       <c r="D61" s="10">
         <v>23</v>
       </c>
       <c r="E61" s="10"/>
       <c r="F61" s="10">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="G61" s="10" t="s">
-        <v>104</v>
+        <v>78</v>
       </c>
       <c r="H61" s="10"/>
       <c r="I61" s="10" t="s">
-        <v>101</v>
+        <v>69</v>
       </c>
     </row>
     <row r="62" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C62" s="10">
-        <v>23005</v>
+        <v>23014</v>
       </c>
       <c r="D62" s="10">
         <v>23</v>
       </c>
       <c r="E62" s="10"/>
       <c r="F62" s="10">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="G62" s="10" t="s">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="H62" s="10"/>
       <c r="I62" s="10" t="s">
-        <v>101</v>
+        <v>69</v>
       </c>
     </row>
     <row r="63" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C63" s="10">
-        <v>23006</v>
+        <v>23015</v>
       </c>
       <c r="D63" s="10">
         <v>23</v>
       </c>
       <c r="E63" s="10"/>
       <c r="F63" s="10">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="G63" s="10" t="s">
-        <v>105</v>
+        <v>75</v>
       </c>
       <c r="H63" s="10"/>
       <c r="I63" s="10" t="s">
-        <v>101</v>
+        <v>69</v>
       </c>
     </row>
     <row r="64" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C64" s="10">
-        <v>23007</v>
+        <v>23016</v>
       </c>
       <c r="D64" s="10">
         <v>23</v>
       </c>
       <c r="E64" s="10"/>
       <c r="F64" s="10">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="G64" s="10" t="s">
-        <v>106</v>
+        <v>73</v>
       </c>
       <c r="H64" s="10"/>
       <c r="I64" s="10" t="s">
-        <v>101</v>
+        <v>69</v>
       </c>
     </row>
     <row r="65" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C65" s="10">
-        <v>23008</v>
+        <v>23017</v>
       </c>
       <c r="D65" s="10">
         <v>23</v>
       </c>
       <c r="E65" s="10"/>
       <c r="F65" s="10">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="G65" s="10" t="s">
-        <v>107</v>
+        <v>80</v>
       </c>
       <c r="H65" s="10"/>
       <c r="I65" s="10" t="s">
-        <v>101</v>
+        <v>69</v>
       </c>
     </row>
     <row r="66" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C66" s="10">
-        <v>23009</v>
+        <v>23018</v>
       </c>
       <c r="D66" s="10">
         <v>23</v>
       </c>
       <c r="E66" s="10"/>
       <c r="F66" s="10">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="G66" s="10" t="s">
-        <v>108</v>
+        <v>74</v>
       </c>
       <c r="H66" s="10"/>
       <c r="I66" s="10" t="s">
-        <v>101</v>
+        <v>69</v>
       </c>
     </row>
     <row r="67" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C67" s="10">
-        <v>23010</v>
+        <v>23019</v>
       </c>
       <c r="D67" s="10">
         <v>23</v>
       </c>
       <c r="E67" s="10"/>
       <c r="F67" s="10">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G67" s="10" t="s">
-        <v>105</v>
+        <v>70</v>
       </c>
       <c r="H67" s="10"/>
       <c r="I67" s="10" t="s">
-        <v>101</v>
+        <v>69</v>
       </c>
     </row>
     <row r="68" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C68" s="10">
-        <v>23011</v>
+        <v>23020</v>
       </c>
       <c r="D68" s="10">
         <v>23</v>
       </c>
       <c r="E68" s="10"/>
       <c r="F68" s="10">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G68" s="10" t="s">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="H68" s="10"/>
       <c r="I68" s="10" t="s">
-        <v>101</v>
+        <v>69</v>
       </c>
     </row>
     <row r="69" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C69" s="10">
-        <v>23012</v>
+        <v>23021</v>
       </c>
       <c r="D69" s="10">
         <v>23</v>
       </c>
       <c r="E69" s="10"/>
       <c r="F69" s="10">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="G69" s="10" t="s">
-        <v>109</v>
+        <v>71</v>
       </c>
       <c r="H69" s="10"/>
       <c r="I69" s="10" t="s">
-        <v>101</v>
+        <v>69</v>
       </c>
     </row>
     <row r="70" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C70" s="10">
-        <v>23013</v>
+        <v>23022</v>
       </c>
       <c r="D70" s="10">
         <v>23</v>
       </c>
       <c r="E70" s="10"/>
       <c r="F70" s="10">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="G70" s="10" t="s">
-        <v>110</v>
+        <v>76</v>
       </c>
       <c r="H70" s="10"/>
       <c r="I70" s="10" t="s">
-        <v>101</v>
+        <v>69</v>
       </c>
     </row>
     <row r="71" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C71" s="10">
-        <v>23014</v>
+        <v>23023</v>
       </c>
       <c r="D71" s="10">
         <v>23</v>
       </c>
       <c r="E71" s="10"/>
       <c r="F71" s="10">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="G71" s="10" t="s">
-        <v>111</v>
+        <v>80</v>
       </c>
       <c r="H71" s="10"/>
       <c r="I71" s="10" t="s">
-        <v>101</v>
+        <v>69</v>
       </c>
     </row>
     <row r="72" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C72" s="10">
-        <v>23015</v>
+        <v>23024</v>
       </c>
       <c r="D72" s="10">
         <v>23</v>
       </c>
       <c r="E72" s="10"/>
       <c r="F72" s="10">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="G72" s="10" t="s">
-        <v>107</v>
+        <v>78</v>
       </c>
       <c r="H72" s="10"/>
       <c r="I72" s="10" t="s">
-        <v>101</v>
+        <v>69</v>
       </c>
     </row>
     <row r="73" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C73" s="10">
-        <v>23016</v>
+        <v>23025</v>
       </c>
       <c r="D73" s="10">
         <v>23</v>
       </c>
       <c r="E73" s="10"/>
       <c r="F73" s="10">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="G73" s="10" t="s">
-        <v>105</v>
+        <v>71</v>
       </c>
       <c r="H73" s="10"/>
       <c r="I73" s="10" t="s">
-        <v>101</v>
+        <v>69</v>
       </c>
     </row>
     <row r="74" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C74" s="10">
-        <v>23017</v>
+        <v>23026</v>
       </c>
       <c r="D74" s="10">
         <v>23</v>
       </c>
       <c r="E74" s="10"/>
       <c r="F74" s="10">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="G74" s="10" t="s">
-        <v>112</v>
+        <v>73</v>
       </c>
       <c r="H74" s="10"/>
       <c r="I74" s="10" t="s">
-        <v>101</v>
+        <v>69</v>
       </c>
     </row>
     <row r="75" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C75" s="10">
-        <v>23018</v>
+        <v>23027</v>
       </c>
       <c r="D75" s="10">
         <v>23</v>
       </c>
       <c r="E75" s="10"/>
       <c r="F75" s="10">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="G75" s="10" t="s">
-        <v>106</v>
+        <v>70</v>
       </c>
       <c r="H75" s="10"/>
       <c r="I75" s="10" t="s">
-        <v>101</v>
+        <v>69</v>
       </c>
     </row>
     <row r="76" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C76" s="10">
-        <v>23019</v>
+        <v>23028</v>
       </c>
       <c r="D76" s="10">
         <v>23</v>
       </c>
       <c r="E76" s="10"/>
       <c r="F76" s="10">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="G76" s="10" t="s">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="H76" s="10"/>
       <c r="I76" s="10" t="s">
-        <v>101</v>
+        <v>69</v>
       </c>
     </row>
     <row r="77" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C77" s="10">
-        <v>23020</v>
+        <v>23029</v>
       </c>
       <c r="D77" s="10">
         <v>23</v>
       </c>
       <c r="E77" s="10"/>
       <c r="F77" s="10">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="G77" s="10" t="s">
-        <v>111</v>
+        <v>80</v>
       </c>
       <c r="H77" s="10"/>
       <c r="I77" s="10" t="s">
-        <v>101</v>
+        <v>69</v>
       </c>
     </row>
     <row r="78" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C78" s="10">
-        <v>23021</v>
+        <v>23030</v>
       </c>
       <c r="D78" s="10">
         <v>23</v>
       </c>
       <c r="E78" s="10"/>
       <c r="F78" s="10">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G78" s="10" t="s">
-        <v>103</v>
+        <v>81</v>
       </c>
       <c r="H78" s="10"/>
       <c r="I78" s="10" t="s">
-        <v>101</v>
+        <v>69</v>
       </c>
     </row>
     <row r="79" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C79" s="10">
-        <v>23022</v>
+        <v>24001</v>
       </c>
       <c r="D79" s="10">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E79" s="10"/>
       <c r="F79" s="10">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="G79" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="H79" s="10"/>
+        <v>183</v>
+      </c>
+      <c r="H79" s="10" t="s">
+        <v>83</v>
+      </c>
       <c r="I79" s="10" t="s">
-        <v>101</v>
+        <v>78</v>
       </c>
     </row>
     <row r="80" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C80" s="10">
-        <v>23023</v>
+        <v>24002</v>
       </c>
       <c r="D80" s="10">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E80" s="10"/>
       <c r="F80" s="10">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="G80" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="H80" s="10"/>
+        <v>184</v>
+      </c>
+      <c r="H80" s="10" t="s">
+        <v>186</v>
+      </c>
       <c r="I80" s="10" t="s">
-        <v>101</v>
+        <v>213</v>
       </c>
     </row>
     <row r="81" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C81" s="10">
-        <v>23024</v>
+        <v>24003</v>
       </c>
       <c r="D81" s="10">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E81" s="10"/>
       <c r="F81" s="10">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="G81" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="H81" s="10"/>
+        <v>185</v>
+      </c>
+      <c r="H81" s="10" t="s">
+        <v>196</v>
+      </c>
       <c r="I81" s="10" t="s">
-        <v>101</v>
+        <v>214</v>
       </c>
     </row>
     <row r="82" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C82" s="10">
-        <v>23025</v>
+        <v>24004</v>
       </c>
       <c r="D82" s="10">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E82" s="10"/>
       <c r="F82" s="10">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="G82" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="H82" s="10"/>
+        <v>186</v>
+      </c>
+      <c r="H82" s="10" t="s">
+        <v>70</v>
+      </c>
       <c r="I82" s="10" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
     </row>
     <row r="83" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C83" s="10">
-        <v>23026</v>
+        <v>24005</v>
       </c>
       <c r="D83" s="10">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E83" s="10"/>
       <c r="F83" s="10">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="G83" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="H83" s="10"/>
+        <v>187</v>
+      </c>
+      <c r="H83" s="10" t="s">
+        <v>73</v>
+      </c>
       <c r="I83" s="10" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
     </row>
     <row r="84" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C84" s="10">
-        <v>23027</v>
+        <v>24006</v>
       </c>
       <c r="D84" s="10">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E84" s="10"/>
       <c r="F84" s="10">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="G84" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="H84" s="10"/>
+        <v>188</v>
+      </c>
+      <c r="H84" s="10" t="s">
+        <v>203</v>
+      </c>
       <c r="I84" s="10" t="s">
-        <v>101</v>
+        <v>215</v>
       </c>
     </row>
     <row r="85" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C85" s="10">
-        <v>23028</v>
+        <v>24007</v>
       </c>
       <c r="D85" s="10">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E85" s="10"/>
       <c r="F85" s="10">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="G85" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="H85" s="10"/>
+        <v>189</v>
+      </c>
+      <c r="H85" s="10" t="s">
+        <v>76</v>
+      </c>
       <c r="I85" s="10" t="s">
-        <v>101</v>
+        <v>78</v>
       </c>
     </row>
     <row r="86" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C86" s="10">
-        <v>23029</v>
+        <v>24008</v>
       </c>
       <c r="D86" s="10">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E86" s="10"/>
       <c r="F86" s="10">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="G86" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="H86" s="10"/>
+        <v>190</v>
+      </c>
+      <c r="H86" s="10" t="s">
+        <v>70</v>
+      </c>
       <c r="I86" s="10" t="s">
-        <v>101</v>
+        <v>214</v>
       </c>
     </row>
     <row r="87" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C87" s="10">
-        <v>23030</v>
+        <v>24009</v>
       </c>
       <c r="D87" s="10">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E87" s="10"/>
       <c r="F87" s="10">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="G87" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="H87" s="10"/>
+        <v>191</v>
+      </c>
+      <c r="H87" s="10" t="s">
+        <v>207</v>
+      </c>
       <c r="I87" s="10" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
     </row>
     <row r="88" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C88" s="10">
-        <v>24001</v>
+        <v>24010</v>
       </c>
       <c r="D88" s="10">
         <v>24</v>
       </c>
       <c r="E88" s="10"/>
       <c r="F88" s="10">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="G88" s="10" t="s">
-        <v>215</v>
+        <v>192</v>
       </c>
       <c r="H88" s="10" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="I88" s="10" t="s">
-        <v>110</v>
+        <v>84</v>
       </c>
     </row>
     <row r="89" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C89" s="10">
-        <v>24002</v>
+        <v>24011</v>
       </c>
       <c r="D89" s="10">
         <v>24</v>
       </c>
       <c r="E89" s="10"/>
       <c r="F89" s="10">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="G89" s="10" t="s">
-        <v>216</v>
+        <v>193</v>
       </c>
       <c r="H89" s="10" t="s">
-        <v>218</v>
+        <v>203</v>
       </c>
       <c r="I89" s="10" t="s">
-        <v>245</v>
+        <v>215</v>
       </c>
     </row>
     <row r="90" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C90" s="10">
-        <v>24003</v>
+        <v>24012</v>
       </c>
       <c r="D90" s="10">
         <v>24</v>
       </c>
       <c r="E90" s="10"/>
       <c r="F90" s="10">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="G90" s="10" t="s">
-        <v>217</v>
+        <v>194</v>
       </c>
       <c r="H90" s="10" t="s">
-        <v>228</v>
+        <v>76</v>
       </c>
       <c r="I90" s="10" t="s">
-        <v>246</v>
+        <v>212</v>
       </c>
     </row>
     <row r="91" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C91" s="10">
-        <v>24004</v>
+        <v>24013</v>
       </c>
       <c r="D91" s="10">
         <v>24</v>
       </c>
       <c r="E91" s="10"/>
       <c r="F91" s="10">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="G91" s="10" t="s">
-        <v>218</v>
+        <v>76</v>
       </c>
       <c r="H91" s="10" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="I91" s="10" t="s">
-        <v>114</v>
+        <v>199</v>
       </c>
     </row>
     <row r="92" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C92" s="10">
-        <v>24005</v>
+        <v>24014</v>
       </c>
       <c r="D92" s="10">
         <v>24</v>
       </c>
       <c r="E92" s="10"/>
       <c r="F92" s="10">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="G92" s="10" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="H92" s="10" t="s">
-        <v>105</v>
+        <v>70</v>
       </c>
       <c r="I92" s="10" t="s">
-        <v>116</v>
+        <v>208</v>
       </c>
     </row>
     <row r="93" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C93" s="10">
-        <v>24006</v>
+        <v>24015</v>
       </c>
       <c r="D93" s="10">
         <v>24</v>
       </c>
       <c r="E93" s="10"/>
       <c r="F93" s="10">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="G93" s="10" t="s">
-        <v>220</v>
+        <v>196</v>
       </c>
       <c r="H93" s="10" t="s">
-        <v>235</v>
+        <v>208</v>
       </c>
       <c r="I93" s="10" t="s">
-        <v>247</v>
+        <v>214</v>
       </c>
     </row>
     <row r="94" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C94" s="10">
-        <v>24007</v>
+        <v>24016</v>
       </c>
       <c r="D94" s="10">
         <v>24</v>
       </c>
       <c r="E94" s="10"/>
       <c r="F94" s="10">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="G94" s="10" t="s">
-        <v>221</v>
+        <v>197</v>
       </c>
       <c r="H94" s="10" t="s">
-        <v>108</v>
+        <v>207</v>
       </c>
       <c r="I94" s="10" t="s">
-        <v>110</v>
+        <v>215</v>
       </c>
     </row>
     <row r="95" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C95" s="10">
-        <v>24008</v>
+        <v>24017</v>
       </c>
       <c r="D95" s="10">
         <v>24</v>
       </c>
       <c r="E95" s="10"/>
       <c r="F95" s="10">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="G95" s="10" t="s">
-        <v>222</v>
+        <v>198</v>
       </c>
       <c r="H95" s="10" t="s">
-        <v>102</v>
+        <v>203</v>
       </c>
       <c r="I95" s="10" t="s">
-        <v>246</v>
+        <v>84</v>
       </c>
     </row>
     <row r="96" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C96" s="10">
-        <v>24009</v>
+        <v>24018</v>
       </c>
       <c r="D96" s="10">
         <v>24</v>
       </c>
       <c r="E96" s="10"/>
       <c r="F96" s="10">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="G96" s="10" t="s">
-        <v>223</v>
+        <v>199</v>
       </c>
       <c r="H96" s="10" t="s">
-        <v>239</v>
+        <v>76</v>
       </c>
       <c r="I96" s="10" t="s">
-        <v>138</v>
+        <v>212</v>
       </c>
     </row>
     <row r="97" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C97" s="10">
-        <v>24010</v>
+        <v>24019</v>
       </c>
       <c r="D97" s="10">
         <v>24</v>
       </c>
       <c r="E97" s="10"/>
       <c r="F97" s="10">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="G97" s="10" t="s">
-        <v>224</v>
+        <v>200</v>
       </c>
       <c r="H97" s="10" t="s">
-        <v>138</v>
+        <v>209</v>
       </c>
       <c r="I97" s="10" t="s">
-        <v>116</v>
+        <v>209</v>
       </c>
     </row>
     <row r="98" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C98" s="10">
-        <v>24011</v>
+        <v>24020</v>
       </c>
       <c r="D98" s="10">
         <v>24</v>
       </c>
       <c r="E98" s="10"/>
       <c r="F98" s="10">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="G98" s="10" t="s">
-        <v>225</v>
+        <v>73</v>
       </c>
       <c r="H98" s="10" t="s">
-        <v>235</v>
+        <v>70</v>
       </c>
       <c r="I98" s="10" t="s">
-        <v>247</v>
+        <v>214</v>
       </c>
     </row>
     <row r="99" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C99" s="10">
-        <v>24012</v>
+        <v>24021</v>
       </c>
       <c r="D99" s="10">
         <v>24</v>
       </c>
       <c r="E99" s="10"/>
       <c r="F99" s="10">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="G99" s="10" t="s">
-        <v>226</v>
+        <v>201</v>
       </c>
       <c r="H99" s="10" t="s">
-        <v>108</v>
+        <v>210</v>
       </c>
       <c r="I99" s="10" t="s">
-        <v>244</v>
+        <v>215</v>
       </c>
     </row>
     <row r="100" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C100" s="10">
-        <v>24013</v>
+        <v>24022</v>
       </c>
       <c r="D100" s="10">
         <v>24</v>
       </c>
       <c r="E100" s="10"/>
       <c r="F100" s="10">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="G100" s="10" t="s">
-        <v>108</v>
+        <v>202</v>
       </c>
       <c r="H100" s="10" t="s">
-        <v>120</v>
+        <v>192</v>
       </c>
       <c r="I100" s="10" t="s">
-        <v>231</v>
+        <v>74</v>
       </c>
     </row>
     <row r="101" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C101" s="10">
-        <v>24014</v>
+        <v>24023</v>
       </c>
       <c r="D101" s="10">
         <v>24</v>
       </c>
       <c r="E101" s="10"/>
       <c r="F101" s="10">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="G101" s="10" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
       <c r="H101" s="10" t="s">
-        <v>102</v>
+        <v>203</v>
       </c>
       <c r="I101" s="10" t="s">
-        <v>240</v>
+        <v>212</v>
       </c>
     </row>
     <row r="102" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C102" s="10">
-        <v>24015</v>
+        <v>24024</v>
       </c>
       <c r="D102" s="10">
         <v>24</v>
       </c>
       <c r="E102" s="10"/>
       <c r="F102" s="10">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="G102" s="10" t="s">
-        <v>228</v>
+        <v>204</v>
       </c>
       <c r="H102" s="10" t="s">
-        <v>240</v>
+        <v>211</v>
       </c>
       <c r="I102" s="10" t="s">
-        <v>246</v>
+        <v>211</v>
       </c>
     </row>
     <row r="103" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C103" s="10">
-        <v>24016</v>
+        <v>24025</v>
       </c>
       <c r="D103" s="10">
         <v>24</v>
       </c>
       <c r="E103" s="10"/>
       <c r="F103" s="10">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="G103" s="10" t="s">
-        <v>229</v>
+        <v>70</v>
       </c>
       <c r="H103" s="10" t="s">
-        <v>239</v>
+        <v>210</v>
       </c>
       <c r="I103" s="10" t="s">
-        <v>247</v>
+        <v>84</v>
       </c>
     </row>
     <row r="104" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C104" s="10">
-        <v>24017</v>
+        <v>24026</v>
       </c>
       <c r="D104" s="10">
         <v>24</v>
       </c>
       <c r="E104" s="10"/>
       <c r="F104" s="10">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="G104" s="10" t="s">
-        <v>230</v>
+        <v>205</v>
       </c>
       <c r="H104" s="10" t="s">
-        <v>235</v>
+        <v>70</v>
       </c>
       <c r="I104" s="10" t="s">
-        <v>116</v>
+        <v>215</v>
       </c>
     </row>
     <row r="105" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C105" s="10">
-        <v>24018</v>
+        <v>24027</v>
       </c>
       <c r="D105" s="10">
         <v>24</v>
       </c>
       <c r="E105" s="10"/>
       <c r="F105" s="10">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="G105" s="10" t="s">
-        <v>231</v>
+        <v>206</v>
       </c>
       <c r="H105" s="10" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
       <c r="I105" s="10" t="s">
-        <v>244</v>
+        <v>214</v>
       </c>
     </row>
     <row r="106" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C106" s="10">
-        <v>24019</v>
+        <v>24028</v>
       </c>
       <c r="D106" s="10">
         <v>24</v>
       </c>
       <c r="E106" s="10"/>
       <c r="F106" s="10">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="G106" s="10" t="s">
-        <v>232</v>
+        <v>76</v>
       </c>
       <c r="H106" s="10" t="s">
-        <v>241</v>
+        <v>212</v>
       </c>
       <c r="I106" s="10" t="s">
-        <v>241</v>
+        <v>216</v>
       </c>
     </row>
     <row r="107" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C107" s="10">
-        <v>24020</v>
+        <v>25001</v>
       </c>
       <c r="D107" s="10">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E107" s="10"/>
       <c r="F107" s="10">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="G107" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="H107" s="10" t="s">
-        <v>102</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="H107" s="10"/>
       <c r="I107" s="10" t="s">
-        <v>246</v>
+        <v>69</v>
       </c>
     </row>
     <row r="108" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C108" s="10">
-        <v>24021</v>
+        <v>25002</v>
       </c>
       <c r="D108" s="10">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E108" s="10"/>
       <c r="F108" s="10">
-        <v>45</v>
+        <v>2</v>
       </c>
       <c r="G108" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="H108" s="10" t="s">
-        <v>242</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="H108" s="10"/>
       <c r="I108" s="10" t="s">
-        <v>247</v>
+        <v>69</v>
       </c>
     </row>
     <row r="109" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C109" s="10">
-        <v>24022</v>
+        <v>25003</v>
       </c>
       <c r="D109" s="10">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E109" s="10"/>
       <c r="F109" s="10">
-        <v>47</v>
+        <v>3</v>
       </c>
       <c r="G109" s="10" t="s">
-        <v>234</v>
-      </c>
-      <c r="H109" s="10" t="s">
-        <v>224</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="H109" s="10"/>
       <c r="I109" s="10" t="s">
-        <v>106</v>
+        <v>69</v>
       </c>
     </row>
     <row r="110" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C110" s="10">
-        <v>24023</v>
+        <v>25004</v>
       </c>
       <c r="D110" s="10">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E110" s="10"/>
       <c r="F110" s="10">
-        <v>49</v>
+        <v>4</v>
       </c>
       <c r="G110" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="H110" s="10" t="s">
-        <v>235</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="H110" s="10"/>
       <c r="I110" s="10" t="s">
-        <v>244</v>
+        <v>69</v>
       </c>
     </row>
     <row r="111" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C111" s="10">
-        <v>24024</v>
+        <v>25005</v>
       </c>
       <c r="D111" s="10">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E111" s="10"/>
       <c r="F111" s="10">
-        <v>51</v>
+        <v>5</v>
       </c>
       <c r="G111" s="10" t="s">
-        <v>236</v>
-      </c>
-      <c r="H111" s="10" t="s">
-        <v>243</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="H111" s="10"/>
       <c r="I111" s="10" t="s">
-        <v>243</v>
+        <v>69</v>
       </c>
     </row>
     <row r="112" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C112" s="10">
-        <v>24025</v>
+        <v>25006</v>
       </c>
       <c r="D112" s="10">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E112" s="10"/>
       <c r="F112" s="10">
-        <v>53</v>
+        <v>6</v>
       </c>
       <c r="G112" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="H112" s="10" t="s">
-        <v>242</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="H112" s="10"/>
       <c r="I112" s="10" t="s">
-        <v>116</v>
+        <v>69</v>
       </c>
     </row>
     <row r="113" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C113" s="10">
-        <v>24026</v>
+        <v>25007</v>
       </c>
       <c r="D113" s="10">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E113" s="10"/>
       <c r="F113" s="10">
-        <v>55</v>
+        <v>7</v>
       </c>
       <c r="G113" s="10" t="s">
-        <v>237</v>
-      </c>
-      <c r="H113" s="10" t="s">
-        <v>102</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="H113" s="10"/>
       <c r="I113" s="10" t="s">
-        <v>247</v>
+        <v>69</v>
       </c>
     </row>
     <row r="114" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C114" s="10">
-        <v>24027</v>
+        <v>25008</v>
       </c>
       <c r="D114" s="10">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E114" s="10"/>
       <c r="F114" s="10">
-        <v>57</v>
+        <v>8</v>
       </c>
       <c r="G114" s="10" t="s">
-        <v>238</v>
-      </c>
-      <c r="H114" s="10" t="s">
-        <v>108</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="H114" s="10"/>
       <c r="I114" s="10" t="s">
-        <v>246</v>
+        <v>69</v>
       </c>
     </row>
     <row r="115" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C115" s="10">
-        <v>24028</v>
+        <v>25009</v>
       </c>
       <c r="D115" s="10">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E115" s="10"/>
       <c r="F115" s="10">
-        <v>59</v>
+        <v>9</v>
       </c>
       <c r="G115" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="H115" s="10" t="s">
-        <v>244</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="H115" s="10"/>
       <c r="I115" s="10" t="s">
-        <v>248</v>
+        <v>69</v>
       </c>
     </row>
     <row r="116" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C116" s="10">
-        <v>25001</v>
+        <v>25010</v>
       </c>
       <c r="D116" s="10">
         <v>25</v>
       </c>
       <c r="E116" s="10"/>
       <c r="F116" s="10">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G116" s="10" t="s">
-        <v>114</v>
+        <v>78</v>
       </c>
       <c r="H116" s="10"/>
       <c r="I116" s="10" t="s">
-        <v>101</v>
+        <v>69</v>
       </c>
     </row>
     <row r="117" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C117" s="10">
-        <v>25002</v>
+        <v>25011</v>
       </c>
       <c r="D117" s="10">
         <v>25</v>
       </c>
       <c r="E117" s="10"/>
       <c r="F117" s="10">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="G117" s="10" t="s">
-        <v>115</v>
+        <v>84</v>
       </c>
       <c r="H117" s="10"/>
       <c r="I117" s="10" t="s">
-        <v>101</v>
+        <v>69</v>
       </c>
     </row>
     <row r="118" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C118" s="10">
-        <v>25003</v>
+        <v>25012</v>
       </c>
       <c r="D118" s="10">
         <v>25</v>
       </c>
       <c r="E118" s="10"/>
       <c r="F118" s="10">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="G118" s="10" t="s">
-        <v>110</v>
+        <v>76</v>
       </c>
       <c r="H118" s="10"/>
       <c r="I118" s="10" t="s">
-        <v>101</v>
+        <v>69</v>
       </c>
     </row>
     <row r="119" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C119" s="10">
-        <v>25004</v>
+        <v>25013</v>
       </c>
       <c r="D119" s="10">
         <v>25</v>
       </c>
       <c r="E119" s="10"/>
       <c r="F119" s="10">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="G119" s="10" t="s">
-        <v>116</v>
+        <v>86</v>
       </c>
       <c r="H119" s="10"/>
       <c r="I119" s="10" t="s">
-        <v>101</v>
+        <v>69</v>
       </c>
     </row>
     <row r="120" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C120" s="10">
-        <v>25005</v>
+        <v>25014</v>
       </c>
       <c r="D120" s="10">
         <v>25</v>
       </c>
       <c r="E120" s="10"/>
       <c r="F120" s="10">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="G120" s="10" t="s">
-        <v>117</v>
+        <v>87</v>
       </c>
       <c r="H120" s="10"/>
       <c r="I120" s="10" t="s">
-        <v>101</v>
+        <v>69</v>
       </c>
     </row>
     <row r="121" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C121" s="10">
-        <v>25006</v>
+        <v>25015</v>
       </c>
       <c r="D121" s="10">
         <v>25</v>
       </c>
       <c r="E121" s="10"/>
       <c r="F121" s="10">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="G121" s="10" t="s">
-        <v>118</v>
+        <v>88</v>
       </c>
       <c r="H121" s="10"/>
       <c r="I121" s="10" t="s">
-        <v>101</v>
+        <v>69</v>
       </c>
     </row>
     <row r="122" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C122" s="10">
-        <v>25007</v>
+        <v>25016</v>
       </c>
       <c r="D122" s="10">
         <v>25</v>
       </c>
       <c r="E122" s="10"/>
       <c r="F122" s="10">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="G122" s="10" t="s">
-        <v>119</v>
+        <v>83</v>
       </c>
       <c r="H122" s="10"/>
       <c r="I122" s="10" t="s">
-        <v>101</v>
+        <v>69</v>
       </c>
     </row>
     <row r="123" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C123" s="10">
-        <v>25008</v>
+        <v>25017</v>
       </c>
       <c r="D123" s="10">
         <v>25</v>
       </c>
       <c r="E123" s="10"/>
       <c r="F123" s="10">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="G123" s="10" t="s">
-        <v>120</v>
+        <v>78</v>
       </c>
       <c r="H123" s="10"/>
       <c r="I123" s="10" t="s">
-        <v>101</v>
+        <v>69</v>
       </c>
     </row>
     <row r="124" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C124" s="10">
-        <v>25009</v>
+        <v>25018</v>
       </c>
       <c r="D124" s="10">
         <v>25</v>
       </c>
       <c r="E124" s="10"/>
       <c r="F124" s="10">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="G124" s="10" t="s">
-        <v>115</v>
+        <v>84</v>
       </c>
       <c r="H124" s="10"/>
       <c r="I124" s="10" t="s">
-        <v>101</v>
+        <v>69</v>
       </c>
     </row>
     <row r="125" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C125" s="10">
-        <v>25010</v>
+        <v>25019</v>
       </c>
       <c r="D125" s="10">
         <v>25</v>
       </c>
       <c r="E125" s="10"/>
       <c r="F125" s="10">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G125" s="10" t="s">
-        <v>110</v>
+        <v>76</v>
       </c>
       <c r="H125" s="10"/>
       <c r="I125" s="10" t="s">
-        <v>101</v>
+        <v>69</v>
       </c>
     </row>
     <row r="126" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C126" s="10">
-        <v>25011</v>
+        <v>25020</v>
       </c>
       <c r="D126" s="10">
         <v>25</v>
       </c>
       <c r="E126" s="10"/>
       <c r="F126" s="10">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G126" s="10" t="s">
-        <v>116</v>
+        <v>86</v>
       </c>
       <c r="H126" s="10"/>
       <c r="I126" s="10" t="s">
-        <v>101</v>
+        <v>69</v>
       </c>
     </row>
     <row r="127" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C127" s="10">
-        <v>25012</v>
+        <v>25021</v>
       </c>
       <c r="D127" s="10">
         <v>25</v>
       </c>
       <c r="E127" s="10"/>
       <c r="F127" s="10">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="G127" s="10" t="s">
-        <v>108</v>
+        <v>87</v>
       </c>
       <c r="H127" s="10"/>
       <c r="I127" s="10" t="s">
-        <v>101</v>
+        <v>69</v>
       </c>
     </row>
     <row r="128" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C128" s="10">
-        <v>25013</v>
+        <v>25022</v>
       </c>
       <c r="D128" s="10">
         <v>25</v>
       </c>
       <c r="E128" s="10"/>
       <c r="F128" s="10">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="G128" s="10" t="s">
-        <v>118</v>
+        <v>88</v>
       </c>
       <c r="H128" s="10"/>
       <c r="I128" s="10" t="s">
-        <v>101</v>
+        <v>69</v>
       </c>
     </row>
     <row r="129" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C129" s="10">
-        <v>25014</v>
+        <v>25023</v>
       </c>
       <c r="D129" s="10">
         <v>25</v>
       </c>
       <c r="E129" s="10"/>
       <c r="F129" s="10">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="G129" s="10" t="s">
-        <v>119</v>
+        <v>83</v>
       </c>
       <c r="H129" s="10"/>
       <c r="I129" s="10" t="s">
-        <v>101</v>
+        <v>69</v>
       </c>
     </row>
     <row r="130" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C130" s="10">
-        <v>25015</v>
+        <v>25024</v>
       </c>
       <c r="D130" s="10">
         <v>25</v>
       </c>
       <c r="E130" s="10"/>
       <c r="F130" s="10">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="G130" s="10" t="s">
-        <v>120</v>
+        <v>78</v>
       </c>
       <c r="H130" s="10"/>
       <c r="I130" s="10" t="s">
-        <v>101</v>
+        <v>69</v>
       </c>
     </row>
     <row r="131" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C131" s="10">
-        <v>25016</v>
+        <v>25025</v>
       </c>
       <c r="D131" s="10">
         <v>25</v>
       </c>
       <c r="E131" s="10"/>
       <c r="F131" s="10">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="G131" s="10" t="s">
-        <v>115</v>
+        <v>84</v>
       </c>
       <c r="H131" s="10"/>
       <c r="I131" s="10" t="s">
-        <v>101</v>
+        <v>69</v>
       </c>
     </row>
     <row r="132" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C132" s="10">
-        <v>25017</v>
+        <v>25026</v>
       </c>
       <c r="D132" s="10">
         <v>25</v>
       </c>
       <c r="E132" s="10"/>
       <c r="F132" s="10">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="G132" s="10" t="s">
-        <v>110</v>
+        <v>76</v>
       </c>
       <c r="H132" s="10"/>
       <c r="I132" s="10" t="s">
-        <v>101</v>
+        <v>69</v>
       </c>
     </row>
     <row r="133" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C133" s="10">
-        <v>25018</v>
+        <v>25027</v>
       </c>
       <c r="D133" s="10">
         <v>25</v>
       </c>
       <c r="E133" s="10"/>
       <c r="F133" s="10">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="G133" s="10" t="s">
-        <v>116</v>
+        <v>86</v>
       </c>
       <c r="H133" s="10"/>
       <c r="I133" s="10" t="s">
-        <v>101</v>
+        <v>69</v>
       </c>
     </row>
     <row r="134" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C134" s="10">
-        <v>25019</v>
+        <v>25028</v>
       </c>
       <c r="D134" s="10">
         <v>25</v>
       </c>
       <c r="E134" s="10"/>
       <c r="F134" s="10">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="G134" s="10" t="s">
-        <v>108</v>
+        <v>87</v>
       </c>
       <c r="H134" s="10"/>
       <c r="I134" s="10" t="s">
-        <v>101</v>
+        <v>69</v>
       </c>
     </row>
     <row r="135" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C135" s="10">
-        <v>25020</v>
+        <v>25029</v>
       </c>
       <c r="D135" s="10">
         <v>25</v>
       </c>
       <c r="E135" s="10"/>
       <c r="F135" s="10">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="G135" s="10" t="s">
-        <v>118</v>
+        <v>88</v>
       </c>
       <c r="H135" s="10"/>
       <c r="I135" s="10" t="s">
-        <v>101</v>
+        <v>69</v>
       </c>
     </row>
     <row r="136" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C136" s="10">
-        <v>25021</v>
+        <v>25030</v>
       </c>
       <c r="D136" s="10">
         <v>25</v>
       </c>
       <c r="E136" s="10"/>
       <c r="F136" s="10">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G136" s="10" t="s">
-        <v>119</v>
+        <v>81</v>
       </c>
       <c r="H136" s="10"/>
       <c r="I136" s="10" t="s">
-        <v>101</v>
+        <v>69</v>
       </c>
     </row>
     <row r="137" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C137" s="10">
-        <v>25022</v>
+        <v>26001</v>
       </c>
       <c r="D137" s="10">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E137" s="10"/>
       <c r="F137" s="10">
-        <v>22</v>
-      </c>
-      <c r="G137" s="10" t="s">
-        <v>120</v>
+        <v>5</v>
+      </c>
+      <c r="G137" s="11" t="s">
+        <v>76</v>
       </c>
       <c r="H137" s="10"/>
       <c r="I137" s="10" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
     </row>
     <row r="138" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C138" s="10">
-        <v>25023</v>
+        <v>26002</v>
       </c>
       <c r="D138" s="10">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E138" s="10"/>
       <c r="F138" s="10">
-        <v>23</v>
-      </c>
-      <c r="G138" s="10" t="s">
-        <v>115</v>
+        <v>12</v>
+      </c>
+      <c r="G138" s="11" t="s">
+        <v>84</v>
       </c>
       <c r="H138" s="10"/>
       <c r="I138" s="10" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
     </row>
     <row r="139" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C139" s="10">
-        <v>25024</v>
+        <v>26003</v>
       </c>
       <c r="D139" s="10">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E139" s="10"/>
       <c r="F139" s="10">
-        <v>24</v>
-      </c>
-      <c r="G139" s="10" t="s">
-        <v>110</v>
+        <v>18</v>
+      </c>
+      <c r="G139" s="11" t="s">
+        <v>90</v>
       </c>
       <c r="H139" s="10"/>
       <c r="I139" s="10" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
     </row>
     <row r="140" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C140" s="10">
-        <v>25025</v>
+        <v>26004</v>
       </c>
       <c r="D140" s="10">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E140" s="10"/>
       <c r="F140" s="10">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G140" s="10" t="s">
-        <v>116</v>
+        <v>91</v>
       </c>
       <c r="H140" s="10"/>
       <c r="I140" s="10" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
     </row>
     <row r="141" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C141" s="10">
-        <v>25026</v>
+        <v>27001</v>
       </c>
       <c r="D141" s="10">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E141" s="10"/>
       <c r="F141" s="10">
-        <v>26</v>
-      </c>
-      <c r="G141" s="10" t="s">
-        <v>108</v>
+        <v>5</v>
+      </c>
+      <c r="G141" s="11" t="s">
+        <v>90</v>
       </c>
       <c r="H141" s="10"/>
       <c r="I141" s="10" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
     </row>
     <row r="142" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C142" s="10">
-        <v>25027</v>
+        <v>27002</v>
       </c>
       <c r="D142" s="10">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E142" s="10"/>
       <c r="F142" s="10">
-        <v>27</v>
-      </c>
-      <c r="G142" s="10" t="s">
-        <v>118</v>
+        <v>12</v>
+      </c>
+      <c r="G142" s="11" t="s">
+        <v>90</v>
       </c>
       <c r="H142" s="10"/>
       <c r="I142" s="10" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
     </row>
     <row r="143" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C143" s="10">
-        <v>25028</v>
+        <v>27003</v>
       </c>
       <c r="D143" s="10">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E143" s="10"/>
       <c r="F143" s="10">
-        <v>28</v>
-      </c>
-      <c r="G143" s="10" t="s">
-        <v>119</v>
+        <v>18</v>
+      </c>
+      <c r="G143" s="11" t="s">
+        <v>93</v>
       </c>
       <c r="H143" s="10"/>
       <c r="I143" s="10" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
     </row>
     <row r="144" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C144" s="10">
-        <v>25029</v>
+        <v>27004</v>
       </c>
       <c r="D144" s="10">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E144" s="10"/>
       <c r="F144" s="10">
-        <v>29</v>
-      </c>
-      <c r="G144" s="10" t="s">
-        <v>120</v>
+        <v>28</v>
+      </c>
+      <c r="G144" s="11" t="s">
+        <v>93</v>
       </c>
       <c r="H144" s="10"/>
       <c r="I144" s="10" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
     </row>
     <row r="145" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C145" s="10">
-        <v>25030</v>
-      </c>
-      <c r="D145" s="10">
-        <v>25</v>
-      </c>
-      <c r="E145" s="10"/>
+        <v>30001</v>
+      </c>
+      <c r="D145" s="14">
+        <v>101</v>
+      </c>
+      <c r="E145" s="14"/>
       <c r="F145" s="10">
-        <v>30</v>
-      </c>
-      <c r="G145" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="H145" s="10"/>
+        <v>99005001</v>
+      </c>
+      <c r="G145" s="13">
+        <v>100</v>
+      </c>
+      <c r="H145" s="19" t="s">
+        <v>173</v>
+      </c>
       <c r="I145" s="10" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
     </row>
     <row r="146" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C146" s="10">
-        <v>26001</v>
-      </c>
-      <c r="D146" s="10">
-        <v>26</v>
-      </c>
-      <c r="E146" s="10"/>
+        <v>30002</v>
+      </c>
+      <c r="D146" s="14">
+        <v>101</v>
+      </c>
+      <c r="E146" s="14"/>
       <c r="F146" s="10">
-        <v>5</v>
-      </c>
-      <c r="G146" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="H146" s="10"/>
+        <v>99005002</v>
+      </c>
+      <c r="G146" s="13">
+        <v>300</v>
+      </c>
+      <c r="H146" s="15" t="s">
+        <v>174</v>
+      </c>
       <c r="I146" s="10" t="s">
-        <v>121</v>
+        <v>95</v>
       </c>
     </row>
     <row r="147" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C147" s="10">
-        <v>26002</v>
-      </c>
-      <c r="D147" s="10">
-        <v>26</v>
-      </c>
-      <c r="E147" s="10"/>
+        <v>30003</v>
+      </c>
+      <c r="D147" s="14">
+        <v>101</v>
+      </c>
+      <c r="E147" s="14"/>
       <c r="F147" s="10">
-        <v>12</v>
-      </c>
-      <c r="G147" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="H147" s="10"/>
+        <v>99005003</v>
+      </c>
+      <c r="G147" s="13">
+        <v>700</v>
+      </c>
+      <c r="H147" s="15" t="s">
+        <v>175</v>
+      </c>
       <c r="I147" s="10" t="s">
-        <v>121</v>
+        <v>96</v>
       </c>
     </row>
     <row r="148" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C148" s="10">
-        <v>26003</v>
-      </c>
-      <c r="D148" s="10">
-        <v>26</v>
-      </c>
-      <c r="E148" s="10"/>
+        <v>30004</v>
+      </c>
+      <c r="D148" s="14">
+        <v>101</v>
+      </c>
+      <c r="E148" s="14"/>
       <c r="F148" s="10">
-        <v>18</v>
-      </c>
-      <c r="G148" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="H148" s="10"/>
+        <v>99005004</v>
+      </c>
+      <c r="G148" s="13">
+        <v>1500</v>
+      </c>
+      <c r="H148" s="15" t="s">
+        <v>176</v>
+      </c>
       <c r="I148" s="10" t="s">
-        <v>121</v>
+        <v>97</v>
       </c>
     </row>
     <row r="149" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C149" s="10">
-        <v>26004</v>
-      </c>
-      <c r="D149" s="10">
-        <v>26</v>
-      </c>
-      <c r="E149" s="10"/>
+        <v>30005</v>
+      </c>
+      <c r="D149" s="14">
+        <v>101</v>
+      </c>
+      <c r="E149" s="14"/>
       <c r="F149" s="10">
-        <v>28</v>
-      </c>
-      <c r="G149" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="H149" s="10"/>
+        <v>99005005</v>
+      </c>
+      <c r="G149" s="13">
+        <v>3000</v>
+      </c>
+      <c r="H149" s="15" t="s">
+        <v>177</v>
+      </c>
       <c r="I149" s="10" t="s">
-        <v>121</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="J149" s="12"/>
     </row>
     <row r="150" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C150" s="10">
-        <v>27001</v>
-      </c>
-      <c r="D150" s="10">
-        <v>27</v>
-      </c>
-      <c r="E150" s="10"/>
+        <v>30006</v>
+      </c>
+      <c r="D150" s="14">
+        <v>101</v>
+      </c>
+      <c r="E150" s="14"/>
       <c r="F150" s="10">
-        <v>5</v>
-      </c>
-      <c r="G150" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="H150" s="10"/>
+        <v>99005006</v>
+      </c>
+      <c r="G150" s="13">
+        <v>5000</v>
+      </c>
+      <c r="H150" s="15" t="s">
+        <v>178</v>
+      </c>
       <c r="I150" s="10" t="s">
-        <v>124</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="J150" s="12"/>
     </row>
     <row r="151" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C151" s="10">
-        <v>27002</v>
-      </c>
-      <c r="D151" s="10">
-        <v>27</v>
-      </c>
-      <c r="E151" s="10"/>
+        <v>30007</v>
+      </c>
+      <c r="D151" s="14">
+        <v>101</v>
+      </c>
+      <c r="E151" s="14"/>
       <c r="F151" s="10">
-        <v>12</v>
-      </c>
-      <c r="G151" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="H151" s="10"/>
+        <v>99005007</v>
+      </c>
+      <c r="G151" s="13">
+        <v>8000</v>
+      </c>
+      <c r="H151" s="15" t="s">
+        <v>179</v>
+      </c>
       <c r="I151" s="10" t="s">
-        <v>124</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="J151" s="12"/>
     </row>
     <row r="152" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C152" s="10">
-        <v>27003</v>
-      </c>
-      <c r="D152" s="10">
-        <v>27</v>
-      </c>
-      <c r="E152" s="10"/>
+        <v>30008</v>
+      </c>
+      <c r="D152" s="14">
+        <v>101</v>
+      </c>
+      <c r="E152" s="14"/>
       <c r="F152" s="10">
-        <v>18</v>
-      </c>
-      <c r="G152" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="H152" s="10"/>
+        <v>99005008</v>
+      </c>
+      <c r="G152" s="13">
+        <v>13000</v>
+      </c>
+      <c r="H152" s="15" t="s">
+        <v>180</v>
+      </c>
       <c r="I152" s="10" t="s">
-        <v>124</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="J152" s="12"/>
     </row>
     <row r="153" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C153" s="10">
-        <v>27004</v>
-      </c>
-      <c r="D153" s="10">
-        <v>27</v>
-      </c>
-      <c r="E153" s="10"/>
+        <v>30009</v>
+      </c>
+      <c r="D153" s="14">
+        <v>101</v>
+      </c>
+      <c r="E153" s="14"/>
       <c r="F153" s="10">
-        <v>28</v>
-      </c>
-      <c r="G153" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="H153" s="10"/>
+        <v>99005009</v>
+      </c>
+      <c r="G153" s="13">
+        <v>20000</v>
+      </c>
+      <c r="H153" s="15" t="s">
+        <v>181</v>
+      </c>
       <c r="I153" s="10" t="s">
-        <v>124</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="J153" s="12"/>
     </row>
     <row r="154" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C154" s="10">
-        <v>30001</v>
+        <v>30010</v>
       </c>
       <c r="D154" s="14">
         <v>101</v>
       </c>
       <c r="E154" s="14"/>
       <c r="F154" s="10">
-        <v>99005001</v>
+        <v>99005010</v>
       </c>
       <c r="G154" s="13">
-        <v>100</v>
-      </c>
-      <c r="H154" s="19" t="s">
-        <v>205</v>
+        <v>30000</v>
+      </c>
+      <c r="H154" s="15" t="s">
+        <v>182</v>
       </c>
       <c r="I154" s="10" t="s">
-        <v>126</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="J154" s="12"/>
     </row>
     <row r="155" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C155" s="10">
-        <v>30002</v>
+      <c r="C155" s="14">
+        <v>31001</v>
       </c>
       <c r="D155" s="14">
-        <v>101</v>
+        <v>31</v>
       </c>
       <c r="E155" s="14"/>
-      <c r="F155" s="10">
-        <v>99005002</v>
+      <c r="F155" s="14">
+        <v>0</v>
       </c>
       <c r="G155" s="13">
-        <v>300</v>
-      </c>
-      <c r="H155" s="15" t="s">
-        <v>206</v>
+        <v>0</v>
+      </c>
+      <c r="H155" s="16" t="s">
+        <v>104</v>
       </c>
       <c r="I155" s="10" t="s">
-        <v>127</v>
+        <v>105</v>
       </c>
     </row>
     <row r="156" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C156" s="10">
-        <v>30003</v>
+      <c r="C156" s="14">
+        <v>31002</v>
       </c>
       <c r="D156" s="14">
-        <v>101</v>
+        <v>31</v>
       </c>
       <c r="E156" s="14"/>
-      <c r="F156" s="10">
-        <v>99005003</v>
+      <c r="F156" s="14">
+        <v>0</v>
       </c>
       <c r="G156" s="13">
-        <v>700</v>
-      </c>
-      <c r="H156" s="15" t="s">
-        <v>207</v>
+        <v>0</v>
+      </c>
+      <c r="H156" s="16" t="s">
+        <v>106</v>
       </c>
       <c r="I156" s="10" t="s">
-        <v>128</v>
+        <v>107</v>
       </c>
     </row>
     <row r="157" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C157" s="10">
-        <v>30004</v>
+      <c r="C157" s="14">
+        <v>31003</v>
       </c>
       <c r="D157" s="14">
-        <v>101</v>
+        <v>31</v>
       </c>
       <c r="E157" s="14"/>
-      <c r="F157" s="10">
-        <v>99005004</v>
+      <c r="F157" s="14">
+        <v>0</v>
       </c>
       <c r="G157" s="13">
-        <v>1500</v>
-      </c>
-      <c r="H157" s="15" t="s">
-        <v>208</v>
+        <v>0</v>
+      </c>
+      <c r="H157" s="16" t="s">
+        <v>76</v>
       </c>
       <c r="I157" s="10" t="s">
-        <v>129</v>
+        <v>108</v>
       </c>
     </row>
     <row r="158" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C158" s="10">
-        <v>30005</v>
+      <c r="C158" s="14">
+        <v>31004</v>
       </c>
       <c r="D158" s="14">
-        <v>101</v>
+        <v>31</v>
       </c>
       <c r="E158" s="14"/>
-      <c r="F158" s="10">
-        <v>99005005</v>
+      <c r="F158" s="14">
+        <v>0</v>
       </c>
       <c r="G158" s="13">
-        <v>3000</v>
-      </c>
-      <c r="H158" s="15" t="s">
-        <v>209</v>
+        <v>0</v>
+      </c>
+      <c r="H158" s="16" t="s">
+        <v>88</v>
       </c>
       <c r="I158" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="J158" s="12"/>
+        <v>109</v>
+      </c>
     </row>
     <row r="159" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C159" s="10">
-        <v>30006</v>
+      <c r="C159" s="14">
+        <v>31005</v>
       </c>
       <c r="D159" s="14">
-        <v>101</v>
+        <v>31</v>
       </c>
       <c r="E159" s="14"/>
-      <c r="F159" s="10">
-        <v>99005006</v>
+      <c r="F159" s="14">
+        <v>0</v>
       </c>
       <c r="G159" s="13">
-        <v>5000</v>
-      </c>
-      <c r="H159" s="15" t="s">
-        <v>210</v>
+        <v>0</v>
+      </c>
+      <c r="H159" s="16" t="s">
+        <v>78</v>
       </c>
       <c r="I159" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="J159" s="12"/>
+        <v>110</v>
+      </c>
     </row>
     <row r="160" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C160" s="10">
-        <v>30007</v>
+      <c r="C160" s="14">
+        <v>31006</v>
       </c>
       <c r="D160" s="14">
-        <v>101</v>
+        <v>31</v>
       </c>
       <c r="E160" s="14"/>
-      <c r="F160" s="10">
-        <v>99005007</v>
+      <c r="F160" s="14">
+        <v>0</v>
       </c>
       <c r="G160" s="13">
-        <v>8000</v>
-      </c>
-      <c r="H160" s="15" t="s">
-        <v>211</v>
+        <v>0</v>
+      </c>
+      <c r="H160" s="16" t="s">
+        <v>77</v>
       </c>
       <c r="I160" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="J160" s="12"/>
-    </row>
-    <row r="161" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C161" s="10">
-        <v>30008</v>
+        <v>111</v>
+      </c>
+    </row>
+    <row r="161" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C161" s="14">
+        <v>31007</v>
       </c>
       <c r="D161" s="14">
-        <v>101</v>
+        <v>31</v>
       </c>
       <c r="E161" s="14"/>
-      <c r="F161" s="10">
-        <v>99005008</v>
+      <c r="F161" s="14">
+        <v>0</v>
       </c>
       <c r="G161" s="13">
-        <v>13000</v>
-      </c>
-      <c r="H161" s="15" t="s">
-        <v>212</v>
+        <v>0</v>
+      </c>
+      <c r="H161" s="16" t="s">
+        <v>93</v>
       </c>
       <c r="I161" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="J161" s="12"/>
-    </row>
-    <row r="162" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C162" s="10">
-        <v>30009</v>
+        <v>112</v>
+      </c>
+    </row>
+    <row r="162" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C162" s="14">
+        <v>32001</v>
       </c>
       <c r="D162" s="14">
-        <v>101</v>
+        <v>32</v>
       </c>
       <c r="E162" s="14"/>
-      <c r="F162" s="10">
-        <v>99005009</v>
-      </c>
-      <c r="G162" s="13">
-        <v>20000</v>
-      </c>
-      <c r="H162" s="15" t="s">
-        <v>213</v>
+      <c r="F162" s="14">
+        <v>1</v>
+      </c>
+      <c r="G162" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="H162" s="13" t="s">
+        <v>114</v>
       </c>
       <c r="I162" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="J162" s="12"/>
-    </row>
-    <row r="163" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C163" s="10">
-        <v>30010</v>
+        <v>115</v>
+      </c>
+    </row>
+    <row r="163" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C163" s="14">
+        <v>32002</v>
       </c>
       <c r="D163" s="14">
-        <v>101</v>
+        <v>32</v>
       </c>
       <c r="E163" s="14"/>
-      <c r="F163" s="10">
-        <v>99005010</v>
-      </c>
-      <c r="G163" s="13">
-        <v>30000</v>
-      </c>
-      <c r="H163" s="15" t="s">
-        <v>214</v>
+      <c r="F163" s="14">
+        <v>1</v>
+      </c>
+      <c r="G163" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="H163" s="13" t="s">
+        <v>117</v>
       </c>
       <c r="I163" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="J163" s="12"/>
-    </row>
-    <row r="164" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="164" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C164" s="14">
-        <v>31001</v>
+        <v>32003</v>
       </c>
       <c r="D164" s="14">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E164" s="14"/>
       <c r="F164" s="14">
-        <v>0</v>
-      </c>
-      <c r="G164" s="13">
-        <v>0</v>
-      </c>
-      <c r="H164" s="16" t="s">
-        <v>136</v>
+        <v>1</v>
+      </c>
+      <c r="G164" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="H164" s="13" t="s">
+        <v>119</v>
       </c>
       <c r="I164" s="10" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="165" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="165" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C165" s="14">
-        <v>31002</v>
+        <v>32004</v>
       </c>
       <c r="D165" s="14">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E165" s="14"/>
       <c r="F165" s="14">
-        <v>0</v>
-      </c>
-      <c r="G165" s="13">
-        <v>0</v>
-      </c>
-      <c r="H165" s="16" t="s">
-        <v>138</v>
+        <v>1</v>
+      </c>
+      <c r="G165" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="H165" s="13" t="s">
+        <v>121</v>
       </c>
       <c r="I165" s="10" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="166" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="166" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C166" s="14">
-        <v>31003</v>
+        <v>32005</v>
       </c>
       <c r="D166" s="14">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E166" s="14"/>
       <c r="F166" s="14">
-        <v>0</v>
-      </c>
-      <c r="G166" s="13">
-        <v>0</v>
-      </c>
-      <c r="H166" s="16" t="s">
-        <v>108</v>
+        <v>1</v>
+      </c>
+      <c r="G166" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="H166" s="13" t="s">
+        <v>123</v>
       </c>
       <c r="I166" s="10" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="167" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="167" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C167" s="14">
-        <v>31004</v>
+        <v>32006</v>
       </c>
       <c r="D167" s="14">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E167" s="14"/>
       <c r="F167" s="14">
-        <v>0</v>
-      </c>
-      <c r="G167" s="13">
-        <v>0</v>
-      </c>
-      <c r="H167" s="16" t="s">
-        <v>120</v>
+        <v>1</v>
+      </c>
+      <c r="G167" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="H167" s="13" t="s">
+        <v>125</v>
       </c>
       <c r="I167" s="10" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="168" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="168" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C168" s="14">
-        <v>31005</v>
+        <v>32007</v>
       </c>
       <c r="D168" s="14">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E168" s="14"/>
       <c r="F168" s="14">
-        <v>0</v>
-      </c>
-      <c r="G168" s="13">
-        <v>0</v>
-      </c>
-      <c r="H168" s="16" t="s">
-        <v>110</v>
+        <v>1</v>
+      </c>
+      <c r="G168" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="H168" s="13" t="s">
+        <v>125</v>
       </c>
       <c r="I168" s="10" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="169" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="169" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C169" s="14">
-        <v>31006</v>
+        <v>32008</v>
       </c>
       <c r="D169" s="14">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E169" s="14"/>
       <c r="F169" s="14">
-        <v>0</v>
-      </c>
-      <c r="G169" s="13">
-        <v>0</v>
-      </c>
-      <c r="H169" s="16" t="s">
-        <v>109</v>
+        <v>1</v>
+      </c>
+      <c r="G169" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="H169" s="13" t="s">
+        <v>125</v>
       </c>
       <c r="I169" s="10" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="170" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="170" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C170" s="14">
-        <v>31007</v>
+        <v>33001</v>
       </c>
       <c r="D170" s="14">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E170" s="14"/>
-      <c r="F170" s="14">
-        <v>0</v>
-      </c>
-      <c r="G170" s="13">
-        <v>0</v>
-      </c>
-      <c r="H170" s="16" t="s">
-        <v>125</v>
-      </c>
+      <c r="F170" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="G170" s="13"/>
+      <c r="H170" s="13"/>
       <c r="I170" s="10" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="171" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="171" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C171" s="14">
-        <v>32001</v>
+        <v>33002</v>
       </c>
       <c r="D171" s="14">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E171" s="14"/>
-      <c r="F171" s="14">
-        <v>1</v>
-      </c>
-      <c r="G171" s="13" t="s">
-        <v>145</v>
-      </c>
-      <c r="H171" s="13" t="s">
-        <v>146</v>
-      </c>
+      <c r="F171" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="G171" s="13"/>
+      <c r="H171" s="13"/>
       <c r="I171" s="10" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="172" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="172" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C172" s="14">
-        <v>32002</v>
+        <v>33003</v>
       </c>
       <c r="D172" s="14">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E172" s="14"/>
-      <c r="F172" s="14">
-        <v>1</v>
-      </c>
-      <c r="G172" s="13" t="s">
-        <v>148</v>
-      </c>
-      <c r="H172" s="13" t="s">
-        <v>149</v>
-      </c>
+      <c r="F172" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="G172" s="13"/>
+      <c r="H172" s="13"/>
       <c r="I172" s="10" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="173" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="173" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C173" s="14">
-        <v>32003</v>
+        <v>33004</v>
       </c>
       <c r="D173" s="14">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E173" s="14"/>
-      <c r="F173" s="14">
-        <v>1</v>
-      </c>
-      <c r="G173" s="13" t="s">
-        <v>150</v>
-      </c>
-      <c r="H173" s="13" t="s">
-        <v>151</v>
-      </c>
+      <c r="F173" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="G173" s="13"/>
+      <c r="H173" s="13"/>
       <c r="I173" s="10" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="174" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="174" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C174" s="14">
-        <v>32004</v>
+        <v>33005</v>
       </c>
       <c r="D174" s="14">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E174" s="14"/>
-      <c r="F174" s="14">
-        <v>1</v>
-      </c>
-      <c r="G174" s="13" t="s">
-        <v>152</v>
-      </c>
-      <c r="H174" s="13" t="s">
-        <v>153</v>
-      </c>
+      <c r="F174" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="G174" s="13"/>
+      <c r="H174" s="13"/>
       <c r="I174" s="10" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="175" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="175" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C175" s="14">
-        <v>32005</v>
+        <v>33006</v>
       </c>
       <c r="D175" s="14">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E175" s="14"/>
-      <c r="F175" s="14">
-        <v>1</v>
-      </c>
-      <c r="G175" s="13" t="s">
-        <v>154</v>
-      </c>
-      <c r="H175" s="13" t="s">
-        <v>155</v>
-      </c>
+      <c r="F175" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="G175" s="13"/>
+      <c r="H175" s="13"/>
       <c r="I175" s="10" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="176" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="176" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C176" s="14">
-        <v>32006</v>
+        <v>33007</v>
       </c>
       <c r="D176" s="14">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E176" s="14"/>
-      <c r="F176" s="14">
-        <v>1</v>
-      </c>
-      <c r="G176" s="13" t="s">
-        <v>156</v>
-      </c>
-      <c r="H176" s="13" t="s">
-        <v>157</v>
-      </c>
+      <c r="F176" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="G176" s="13"/>
+      <c r="H176" s="13"/>
       <c r="I176" s="10" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
     </row>
     <row r="177" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C177" s="14">
-        <v>32007</v>
+        <v>33008</v>
       </c>
       <c r="D177" s="14">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E177" s="14"/>
-      <c r="F177" s="14">
-        <v>1</v>
-      </c>
-      <c r="G177" s="13" t="s">
-        <v>158</v>
-      </c>
-      <c r="H177" s="13" t="s">
-        <v>157</v>
-      </c>
+      <c r="F177" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="G177" s="13"/>
+      <c r="H177" s="13"/>
       <c r="I177" s="10" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="178" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C178" s="14">
-        <v>32008</v>
+        <v>33009</v>
       </c>
       <c r="D178" s="14">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E178" s="14"/>
-      <c r="F178" s="14">
-        <v>1</v>
-      </c>
-      <c r="G178" s="13" t="s">
-        <v>159</v>
-      </c>
-      <c r="H178" s="13" t="s">
-        <v>157</v>
-      </c>
+      <c r="F178" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="G178" s="13"/>
+      <c r="H178" s="13"/>
       <c r="I178" s="10" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="179" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C179" s="14">
-        <v>33001</v>
+        <v>33010</v>
       </c>
       <c r="D179" s="14">
         <v>33</v>
       </c>
       <c r="E179" s="14"/>
       <c r="F179" s="14" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="G179" s="13"/>
       <c r="H179" s="13"/>
       <c r="I179" s="10" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
     </row>
     <row r="180" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C180" s="14">
-        <v>33002</v>
+        <v>33011</v>
       </c>
       <c r="D180" s="14">
         <v>33</v>
       </c>
       <c r="E180" s="14"/>
       <c r="F180" s="14" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="G180" s="13"/>
       <c r="H180" s="13"/>
       <c r="I180" s="10" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
     </row>
     <row r="181" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C181" s="14">
-        <v>33003</v>
+        <v>33012</v>
       </c>
       <c r="D181" s="14">
         <v>33</v>
       </c>
       <c r="E181" s="14"/>
       <c r="F181" s="14" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="G181" s="13"/>
       <c r="H181" s="13"/>
       <c r="I181" s="10" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
     </row>
     <row r="182" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C182" s="14">
-        <v>33004</v>
+        <v>33013</v>
       </c>
       <c r="D182" s="14">
         <v>33</v>
       </c>
       <c r="E182" s="14"/>
       <c r="F182" s="14" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="G182" s="13"/>
       <c r="H182" s="13"/>
       <c r="I182" s="10" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
     </row>
     <row r="183" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C183" s="14">
-        <v>33005</v>
+        <v>33014</v>
       </c>
       <c r="D183" s="14">
         <v>33</v>
       </c>
       <c r="E183" s="14"/>
       <c r="F183" s="14" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="G183" s="13"/>
       <c r="H183" s="13"/>
       <c r="I183" s="10" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
     </row>
     <row r="184" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C184" s="14">
-        <v>33006</v>
+        <v>33015</v>
       </c>
       <c r="D184" s="14">
         <v>33</v>
       </c>
       <c r="E184" s="14"/>
       <c r="F184" s="14" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="G184" s="13"/>
       <c r="H184" s="13"/>
       <c r="I184" s="10" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
     </row>
     <row r="185" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C185" s="14">
-        <v>33007</v>
+        <v>33016</v>
       </c>
       <c r="D185" s="14">
         <v>33</v>
       </c>
       <c r="E185" s="14"/>
       <c r="F185" s="14" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
       <c r="G185" s="13"/>
       <c r="H185" s="13"/>
       <c r="I185" s="10" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
     </row>
     <row r="186" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C186" s="14">
-        <v>33008</v>
+        <v>33017</v>
       </c>
       <c r="D186" s="14">
         <v>33</v>
       </c>
       <c r="E186" s="14"/>
       <c r="F186" s="14" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="G186" s="13"/>
       <c r="H186" s="13"/>
       <c r="I186" s="10" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
     </row>
     <row r="187" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C187" s="14">
-        <v>33009</v>
+        <v>33018</v>
       </c>
       <c r="D187" s="14">
         <v>33</v>
       </c>
       <c r="E187" s="14"/>
       <c r="F187" s="14" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="G187" s="13"/>
       <c r="H187" s="13"/>
       <c r="I187" s="10" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
     </row>
     <row r="188" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C188" s="14">
-        <v>33010</v>
+        <v>33019</v>
       </c>
       <c r="D188" s="14">
         <v>33</v>
       </c>
       <c r="E188" s="14"/>
       <c r="F188" s="14" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
       <c r="G188" s="13"/>
       <c r="H188" s="13"/>
       <c r="I188" s="10" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
     </row>
     <row r="189" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C189" s="14">
-        <v>33011</v>
+        <v>33020</v>
       </c>
       <c r="D189" s="14">
         <v>33</v>
       </c>
       <c r="E189" s="14"/>
       <c r="F189" s="14" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
       <c r="G189" s="13"/>
       <c r="H189" s="13"/>
       <c r="I189" s="10" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
     </row>
     <row r="190" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C190" s="14">
-        <v>33012</v>
+        <v>34001</v>
       </c>
       <c r="D190" s="14">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E190" s="14"/>
-      <c r="F190" s="14" t="s">
-        <v>182</v>
-      </c>
-      <c r="G190" s="13"/>
-      <c r="H190" s="13"/>
+      <c r="F190" s="14">
+        <v>12</v>
+      </c>
+      <c r="G190" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="H190" s="13" t="s">
+        <v>169</v>
+      </c>
       <c r="I190" s="10" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
     </row>
     <row r="191" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C191" s="14">
-        <v>33013</v>
+        <v>34002</v>
       </c>
       <c r="D191" s="14">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E191" s="14"/>
-      <c r="F191" s="14" t="s">
-        <v>184</v>
-      </c>
-      <c r="G191" s="13"/>
-      <c r="H191" s="13"/>
+      <c r="F191" s="14">
+        <v>15</v>
+      </c>
+      <c r="G191" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="H191" s="13" t="s">
+        <v>172</v>
+      </c>
       <c r="I191" s="10" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="192" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C192" s="14">
-        <v>33014</v>
-      </c>
-      <c r="D192" s="14">
-        <v>33</v>
-      </c>
-      <c r="E192" s="14"/>
-      <c r="F192" s="14" t="s">
-        <v>186</v>
-      </c>
-      <c r="G192" s="13"/>
-      <c r="H192" s="13"/>
-      <c r="I192" s="10" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="193" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C193" s="14">
-        <v>33015</v>
-      </c>
-      <c r="D193" s="14">
-        <v>33</v>
-      </c>
-      <c r="E193" s="14"/>
-      <c r="F193" s="14" t="s">
-        <v>188</v>
-      </c>
-      <c r="G193" s="13"/>
-      <c r="H193" s="13"/>
-      <c r="I193" s="10" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="194" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C194" s="14">
-        <v>33016</v>
-      </c>
-      <c r="D194" s="14">
-        <v>33</v>
-      </c>
-      <c r="E194" s="14"/>
-      <c r="F194" s="14" t="s">
-        <v>190</v>
-      </c>
-      <c r="G194" s="13"/>
-      <c r="H194" s="13"/>
-      <c r="I194" s="10" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="195" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C195" s="14">
-        <v>33017</v>
-      </c>
-      <c r="D195" s="14">
-        <v>33</v>
-      </c>
-      <c r="E195" s="14"/>
-      <c r="F195" s="14" t="s">
-        <v>192</v>
-      </c>
-      <c r="G195" s="13"/>
-      <c r="H195" s="13"/>
-      <c r="I195" s="10" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="196" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C196" s="14">
-        <v>33018</v>
-      </c>
-      <c r="D196" s="14">
-        <v>33</v>
-      </c>
-      <c r="E196" s="14"/>
-      <c r="F196" s="14" t="s">
-        <v>194</v>
-      </c>
-      <c r="G196" s="13"/>
-      <c r="H196" s="13"/>
-      <c r="I196" s="10" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="197" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C197" s="14">
-        <v>33019</v>
-      </c>
-      <c r="D197" s="14">
-        <v>33</v>
-      </c>
-      <c r="E197" s="14"/>
-      <c r="F197" s="14" t="s">
-        <v>196</v>
-      </c>
-      <c r="G197" s="13"/>
-      <c r="H197" s="13"/>
-      <c r="I197" s="10" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="198" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C198" s="14">
-        <v>33020</v>
-      </c>
-      <c r="D198" s="14">
-        <v>33</v>
-      </c>
-      <c r="E198" s="14"/>
-      <c r="F198" s="14" t="s">
-        <v>198</v>
-      </c>
-      <c r="G198" s="13"/>
-      <c r="H198" s="13"/>
-      <c r="I198" s="10" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="199" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C199" s="14">
-        <v>34001</v>
-      </c>
-      <c r="D199" s="14">
-        <v>34</v>
-      </c>
-      <c r="E199" s="14"/>
-      <c r="F199" s="14">
-        <v>12</v>
-      </c>
-      <c r="G199" s="13" t="s">
-        <v>200</v>
-      </c>
-      <c r="H199" s="13" t="s">
-        <v>201</v>
-      </c>
-      <c r="I199" s="10" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="200" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C200" s="14">
-        <v>34002</v>
-      </c>
-      <c r="D200" s="14">
-        <v>34</v>
-      </c>
-      <c r="E200" s="14"/>
-      <c r="F200" s="14">
-        <v>15</v>
-      </c>
-      <c r="G200" s="13" t="s">
-        <v>203</v>
-      </c>
-      <c r="H200" s="13" t="s">
-        <v>204</v>
-      </c>
-      <c r="I200" s="10" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="201" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="202" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="203" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="204" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="205" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="206" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="207" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="208" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+        <v>170</v>
+      </c>
+    </row>
+    <row r="192" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="193" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="194" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="195" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="196" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="197" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="198" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="199" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="200" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="201" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="202" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="203" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="204" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="205" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="206" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="207" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="208" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="209" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="210" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="211" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="212" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="213" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="214" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="215" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="216" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="217" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="218" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="219" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="220" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="221" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Unity/Assets/Config/Excel/ActivityConfig.xlsx
+++ b/Unity/Assets/Config/Excel/ActivityConfig.xlsx
@@ -3457,7 +3457,7 @@
   <sheetPr/>
   <dimension ref="C1:J212"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E177" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A174" workbookViewId="0">
       <selection activeCell="I205" sqref="I205"/>
     </sheetView>
   </sheetViews>

--- a/Unity/Assets/Config/Excel/ActivityConfig.xlsx
+++ b/Unity/Assets/Config/Excel/ActivityConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitMengJing\Unity\Assets\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0A8DD36-68BF-4168-976C-DF780633C327}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9259B3C1-1A6F-42D9-B5A2-A0330DF2A496}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -857,9 +857,6 @@
     <t>1;50000@1000018;10@1000019;50@1000021;1</t>
   </si>
   <si>
-    <t>10000141;1@10000164;1@10000158;1</t>
-  </si>
-  <si>
     <t>1;150000@1000018;20@1000019;100@3;1000@1000014;1</t>
   </si>
   <si>
@@ -880,6 +877,10 @@
   </si>
   <si>
     <t>3;2500@1010102;1@1000014;1@1000022;4@1010034;15@1000027;30@1000003;2@1000002;10</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>1;100000@1000018;15@1000019;50@1000021;1@1000020;1</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -2874,8 +2875,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:J212"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D141" workbookViewId="0">
-      <selection activeCell="H151" sqref="H151"/>
+    <sheetView tabSelected="1" topLeftCell="E185" workbookViewId="0">
+      <selection activeCell="G194" sqref="G194"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5897,7 +5898,7 @@
         <v>5000</v>
       </c>
       <c r="H150" s="16" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="I150" s="11" t="s">
         <v>155</v>
@@ -5985,7 +5986,7 @@
         <v>30000</v>
       </c>
       <c r="H154" s="20" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I154" s="11" t="s">
         <v>162</v>
@@ -6718,7 +6719,7 @@
         <v>30</v>
       </c>
       <c r="G193" s="14" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="H193" s="14"/>
       <c r="I193" s="11"/>
@@ -6735,7 +6736,7 @@
         <v>50</v>
       </c>
       <c r="G194" s="14" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H194" s="14"/>
       <c r="I194" s="11"/>
@@ -6752,7 +6753,7 @@
         <v>98</v>
       </c>
       <c r="G195" s="14" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H195" s="14"/>
       <c r="I195" s="11"/>
@@ -6769,7 +6770,7 @@
         <v>198</v>
       </c>
       <c r="G196" s="14" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H196" s="14"/>
       <c r="I196" s="11"/>
@@ -6786,7 +6787,7 @@
         <v>298</v>
       </c>
       <c r="G197" s="14" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H197" s="14"/>
       <c r="I197" s="11"/>
@@ -6803,7 +6804,7 @@
         <v>488</v>
       </c>
       <c r="G198" s="14" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H198" s="14"/>
       <c r="I198" s="11"/>
@@ -6820,7 +6821,7 @@
         <v>648</v>
       </c>
       <c r="G199" s="14" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H199" s="14"/>
       <c r="I199" s="11"/>

--- a/Unity/Assets/Config/Excel/ActivityConfig.xlsx
+++ b/Unity/Assets/Config/Excel/ActivityConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitMengJing\Unity\Assets\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9259B3C1-1A6F-42D9-B5A2-A0330DF2A496}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E036234-2F98-48C3-BD0E-5D72FFA49F59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -150,7 +150,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="244">
   <si>
     <t>Id</t>
   </si>
@@ -584,12 +584,6 @@
     <t>累计签到奖励 免费</t>
   </si>
   <si>
-    <t>1010051;1</t>
-  </si>
-  <si>
-    <t>1;1200</t>
-  </si>
-  <si>
     <t>累计签到奖励 VIP</t>
   </si>
   <si>
@@ -881,6 +875,30 @@
   </si>
   <si>
     <t>1;100000@1000018;15@1000019;50@1000021;1@1000020;1</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000018;5</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000027;10</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000035;1</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>1010002;1</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>1010051;1</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>1010030;1</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -2875,8 +2893,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:J212"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E185" workbookViewId="0">
-      <selection activeCell="G194" sqref="G194"/>
+    <sheetView tabSelected="1" topLeftCell="E127" workbookViewId="0">
+      <selection activeCell="G141" sqref="G141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5637,7 +5655,7 @@
         <v>5</v>
       </c>
       <c r="G137" s="11" t="s">
-        <v>92</v>
+        <v>238</v>
       </c>
       <c r="H137" s="11"/>
       <c r="I137" s="11" t="s">
@@ -5656,7 +5674,7 @@
         <v>12</v>
       </c>
       <c r="G138" s="11" t="s">
-        <v>108</v>
+        <v>239</v>
       </c>
       <c r="H138" s="11"/>
       <c r="I138" s="11" t="s">
@@ -5675,7 +5693,7 @@
         <v>18</v>
       </c>
       <c r="G139" s="11" t="s">
-        <v>141</v>
+        <v>243</v>
       </c>
       <c r="H139" s="11"/>
       <c r="I139" s="11" t="s">
@@ -5694,7 +5712,7 @@
         <v>28</v>
       </c>
       <c r="G140" s="11" t="s">
-        <v>142</v>
+        <v>240</v>
       </c>
       <c r="H140" s="11"/>
       <c r="I140" s="11" t="s">
@@ -5713,11 +5731,11 @@
         <v>5</v>
       </c>
       <c r="G141" s="11" t="s">
-        <v>141</v>
+        <v>240</v>
       </c>
       <c r="H141" s="11"/>
       <c r="I141" s="11" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="142" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5732,11 +5750,11 @@
         <v>12</v>
       </c>
       <c r="G142" s="11" t="s">
-        <v>141</v>
+        <v>241</v>
       </c>
       <c r="H142" s="11"/>
       <c r="I142" s="11" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="143" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5751,11 +5769,11 @@
         <v>18</v>
       </c>
       <c r="G143" s="11" t="s">
-        <v>144</v>
+        <v>242</v>
       </c>
       <c r="H143" s="11"/>
       <c r="I143" s="11" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="144" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5769,12 +5787,10 @@
       <c r="F144" s="11">
         <v>28</v>
       </c>
-      <c r="G144" s="11" t="s">
-        <v>144</v>
-      </c>
+      <c r="G144" s="11"/>
       <c r="H144" s="11"/>
       <c r="I144" s="11" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="145" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5792,10 +5808,10 @@
         <v>100</v>
       </c>
       <c r="H145" s="15" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="I145" s="11" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="146" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5813,10 +5829,10 @@
         <v>300</v>
       </c>
       <c r="H146" s="16" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="I146" s="11" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="147" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5834,10 +5850,10 @@
         <v>700</v>
       </c>
       <c r="H147" s="16" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="I147" s="11" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="148" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5855,10 +5871,10 @@
         <v>1500</v>
       </c>
       <c r="H148" s="16" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="I148" s="11" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="149" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5876,10 +5892,10 @@
         <v>3000</v>
       </c>
       <c r="H149" s="16" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="I149" s="11" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="J149" s="12"/>
     </row>
@@ -5898,10 +5914,10 @@
         <v>5000</v>
       </c>
       <c r="H150" s="16" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="I150" s="11" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="J150" s="12"/>
     </row>
@@ -5920,10 +5936,10 @@
         <v>8000</v>
       </c>
       <c r="H151" s="16" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="I151" s="11" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="J151" s="12"/>
     </row>
@@ -5942,10 +5958,10 @@
         <v>13000</v>
       </c>
       <c r="H152" s="16" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="I152" s="11" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="J152" s="12"/>
     </row>
@@ -5964,10 +5980,10 @@
         <v>20000</v>
       </c>
       <c r="H153" s="16" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="I153" s="11" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="J153" s="12"/>
     </row>
@@ -5986,10 +6002,10 @@
         <v>30000</v>
       </c>
       <c r="H154" s="20" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="I154" s="11" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="J154" s="12"/>
     </row>
@@ -6008,10 +6024,10 @@
         <v>0</v>
       </c>
       <c r="H155" s="16" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="I155" s="11" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="156" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6032,7 +6048,7 @@
         <v>116</v>
       </c>
       <c r="I156" s="11" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="157" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6053,7 +6069,7 @@
         <v>92</v>
       </c>
       <c r="I157" s="11" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="158" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6074,7 +6090,7 @@
         <v>121</v>
       </c>
       <c r="I158" s="11" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="159" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6095,7 +6111,7 @@
         <v>94</v>
       </c>
       <c r="I159" s="11" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="160" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6116,7 +6132,7 @@
         <v>93</v>
       </c>
       <c r="I160" s="11" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="161" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6134,10 +6150,10 @@
         <v>0</v>
       </c>
       <c r="H161" s="16" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="I161" s="11" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="162" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6152,13 +6168,13 @@
         <v>1</v>
       </c>
       <c r="G162" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="H162" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="I162" s="11" t="s">
         <v>171</v>
-      </c>
-      <c r="H162" s="14" t="s">
-        <v>172</v>
-      </c>
-      <c r="I162" s="11" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="163" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6173,13 +6189,13 @@
         <v>1</v>
       </c>
       <c r="G163" s="14" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H163" s="14" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="I163" s="11" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="164" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6194,13 +6210,13 @@
         <v>1</v>
       </c>
       <c r="G164" s="14" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="H164" s="14" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="I164" s="11" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="165" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6215,13 +6231,13 @@
         <v>1</v>
       </c>
       <c r="G165" s="14" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H165" s="14" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="I165" s="11" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="166" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6236,13 +6252,13 @@
         <v>1</v>
       </c>
       <c r="G166" s="14" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="H166" s="14" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="I166" s="11" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="167" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6257,13 +6273,13 @@
         <v>1</v>
       </c>
       <c r="G167" s="14" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H167" s="14" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="I167" s="11" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="168" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6278,13 +6294,13 @@
         <v>1</v>
       </c>
       <c r="G168" s="14" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="H168" s="14" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="I168" s="11" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="169" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6299,13 +6315,13 @@
         <v>1</v>
       </c>
       <c r="G169" s="14" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="H169" s="14" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="I169" s="11" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="170" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6317,12 +6333,12 @@
       </c>
       <c r="E170" s="13"/>
       <c r="F170" s="13" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G170" s="14"/>
       <c r="H170" s="14"/>
       <c r="I170" s="11" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="171" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6334,12 +6350,12 @@
       </c>
       <c r="E171" s="13"/>
       <c r="F171" s="13" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G171" s="14"/>
       <c r="H171" s="14"/>
       <c r="I171" s="11" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="172" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6351,12 +6367,12 @@
       </c>
       <c r="E172" s="13"/>
       <c r="F172" s="13" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G172" s="14"/>
       <c r="H172" s="14"/>
       <c r="I172" s="11" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="173" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6368,12 +6384,12 @@
       </c>
       <c r="E173" s="13"/>
       <c r="F173" s="13" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G173" s="14"/>
       <c r="H173" s="14"/>
       <c r="I173" s="11" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="174" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6385,12 +6401,12 @@
       </c>
       <c r="E174" s="13"/>
       <c r="F174" s="13" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G174" s="14"/>
       <c r="H174" s="14"/>
       <c r="I174" s="11" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="175" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6402,12 +6418,12 @@
       </c>
       <c r="E175" s="13"/>
       <c r="F175" s="13" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G175" s="14"/>
       <c r="H175" s="14"/>
       <c r="I175" s="11" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="176" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6419,12 +6435,12 @@
       </c>
       <c r="E176" s="13"/>
       <c r="F176" s="13" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G176" s="14"/>
       <c r="H176" s="14"/>
       <c r="I176" s="11" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="177" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6436,12 +6452,12 @@
       </c>
       <c r="E177" s="13"/>
       <c r="F177" s="13" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G177" s="14"/>
       <c r="H177" s="14"/>
       <c r="I177" s="11" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="178" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6453,12 +6469,12 @@
       </c>
       <c r="E178" s="13"/>
       <c r="F178" s="13" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G178" s="14"/>
       <c r="H178" s="14"/>
       <c r="I178" s="11" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="179" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6470,12 +6486,12 @@
       </c>
       <c r="E179" s="13"/>
       <c r="F179" s="13" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G179" s="14"/>
       <c r="H179" s="14"/>
       <c r="I179" s="11" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="180" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6487,12 +6503,12 @@
       </c>
       <c r="E180" s="13"/>
       <c r="F180" s="13" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G180" s="14"/>
       <c r="H180" s="14"/>
       <c r="I180" s="11" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="181" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6504,12 +6520,12 @@
       </c>
       <c r="E181" s="13"/>
       <c r="F181" s="13" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G181" s="14"/>
       <c r="H181" s="14"/>
       <c r="I181" s="11" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="182" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6521,12 +6537,12 @@
       </c>
       <c r="E182" s="13"/>
       <c r="F182" s="13" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G182" s="14"/>
       <c r="H182" s="14"/>
       <c r="I182" s="11" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="183" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6538,12 +6554,12 @@
       </c>
       <c r="E183" s="13"/>
       <c r="F183" s="13" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G183" s="14"/>
       <c r="H183" s="14"/>
       <c r="I183" s="11" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="184" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6555,12 +6571,12 @@
       </c>
       <c r="E184" s="13"/>
       <c r="F184" s="13" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G184" s="14"/>
       <c r="H184" s="14"/>
       <c r="I184" s="11" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="185" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6572,12 +6588,12 @@
       </c>
       <c r="E185" s="13"/>
       <c r="F185" s="13" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G185" s="14"/>
       <c r="H185" s="14"/>
       <c r="I185" s="11" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="186" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6589,12 +6605,12 @@
       </c>
       <c r="E186" s="13"/>
       <c r="F186" s="13" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G186" s="14"/>
       <c r="H186" s="14"/>
       <c r="I186" s="11" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="187" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6606,12 +6622,12 @@
       </c>
       <c r="E187" s="13"/>
       <c r="F187" s="13" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G187" s="14"/>
       <c r="H187" s="14"/>
       <c r="I187" s="11" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="188" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6623,12 +6639,12 @@
       </c>
       <c r="E188" s="13"/>
       <c r="F188" s="13" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G188" s="14"/>
       <c r="H188" s="14"/>
       <c r="I188" s="11" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="189" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6640,12 +6656,12 @@
       </c>
       <c r="E189" s="13"/>
       <c r="F189" s="13" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G189" s="14"/>
       <c r="H189" s="14"/>
       <c r="I189" s="11" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="190" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6660,13 +6676,13 @@
         <v>12</v>
       </c>
       <c r="G190" s="14" t="s">
+        <v>224</v>
+      </c>
+      <c r="H190" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="I190" s="11" t="s">
         <v>226</v>
-      </c>
-      <c r="H190" s="14" t="s">
-        <v>227</v>
-      </c>
-      <c r="I190" s="11" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="191" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6681,13 +6697,13 @@
         <v>15</v>
       </c>
       <c r="G191" s="14" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="H191" s="14" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="I191" s="11" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="192" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6702,7 +6718,7 @@
         <v>6</v>
       </c>
       <c r="G192" s="14" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="H192" s="14"/>
       <c r="I192" s="11"/>
@@ -6719,7 +6735,7 @@
         <v>30</v>
       </c>
       <c r="G193" s="14" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="H193" s="14"/>
       <c r="I193" s="11"/>
@@ -6736,7 +6752,7 @@
         <v>50</v>
       </c>
       <c r="G194" s="14" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="H194" s="14"/>
       <c r="I194" s="11"/>
@@ -6753,7 +6769,7 @@
         <v>98</v>
       </c>
       <c r="G195" s="14" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="H195" s="14"/>
       <c r="I195" s="11"/>
@@ -6770,7 +6786,7 @@
         <v>198</v>
       </c>
       <c r="G196" s="14" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="H196" s="14"/>
       <c r="I196" s="11"/>
@@ -6787,7 +6803,7 @@
         <v>298</v>
       </c>
       <c r="G197" s="14" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="H197" s="14"/>
       <c r="I197" s="11"/>
@@ -6804,7 +6820,7 @@
         <v>488</v>
       </c>
       <c r="G198" s="14" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="H198" s="14"/>
       <c r="I198" s="11"/>
@@ -6821,7 +6837,7 @@
         <v>648</v>
       </c>
       <c r="G199" s="14" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="H199" s="14"/>
       <c r="I199" s="11"/>

--- a/Unity/Assets/Config/Excel/ActivityConfig.xlsx
+++ b/Unity/Assets/Config/Excel/ActivityConfig.xlsx
@@ -1,31 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28623"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitMengJing\Unity\Assets\Config\Excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E036234-2F98-48C3-BD0E-5D72FFA49F59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28800" windowHeight="12795"/>
   </bookViews>
   <sheets>
     <sheet name="ActivityProto" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="D3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="D3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -33,7 +40,6 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者:</t>
@@ -43,7 +49,6 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -55,7 +60,6 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>1.签到活动</t>
@@ -65,7 +69,6 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -79,7 +82,6 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>2.每日特惠</t>
@@ -89,7 +91,6 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -105,7 +106,6 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">3.等级礼包
@@ -116,7 +116,6 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Par_1表示购买等级
@@ -142,15 +141,15 @@
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" name="Item_Template" type="4" refreshedVersion="2" background="1" saveData="1">
-    <webPr xml="1" sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="D:\SVN_Work\S_数据表\XML映射模版\Item_Template.xml" htmlTables="1" htmlFormat="all"/>
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <connection id="1" name="Item_Template" type="4" background="1" refreshedVersion="2" saveData="1">
+    <webPr parsePre="1" consecutive="1" xl2000="1" sourceData="1" xml="1" url="D:\SVN_Work\S_数据表\XML映射模版\Item_Template.xml" htmlFormat="all" htmlTables="1"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="241">
   <si>
     <t>Id</t>
   </si>
@@ -250,7 +249,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>3;980</t>
@@ -584,12 +582,21 @@
     <t>累计签到奖励 免费</t>
   </si>
   <si>
+    <t>1010030;1</t>
+  </si>
+  <si>
+    <t>1000035;1</t>
+  </si>
+  <si>
     <t>累计签到奖励 VIP</t>
   </si>
   <si>
     <t>1010002;1</t>
   </si>
   <si>
+    <t>1010051;1</t>
+  </si>
+  <si>
     <t>3;500@1000014;1@1000022;1@1010034;5@1010021;1@1010030;1</t>
   </si>
   <si>
@@ -620,6 +627,9 @@
     <t>5级奖励</t>
   </si>
   <si>
+    <t>3;2500@1010102;1@1000014;1@1000022;4@1010034;15@1000027;30@1000003;2@1000002;10</t>
+  </si>
+  <si>
     <t>6级奖励</t>
   </si>
   <si>
@@ -641,6 +651,9 @@
     <t>9级奖励</t>
   </si>
   <si>
+    <t>3;5000@1010104;1@1000014;1@1000022;10@1010034;30@1000027;50@1000004;3@1000002;10</t>
+  </si>
+  <si>
     <t>10级奖励</t>
   </si>
   <si>
@@ -851,6 +864,9 @@
     <t>1;50000@1000018;10@1000019;50@1000021;1</t>
   </si>
   <si>
+    <t>1;100000@1000018;15@1000019;50@1000021;1@1000020;1</t>
+  </si>
+  <si>
     <t>1;150000@1000018;20@1000019;100@3;1000@1000014;1</t>
   </si>
   <si>
@@ -864,49 +880,19 @@
   </si>
   <si>
     <t>1;1000000@1000018;40@1000019;200@3;3000@1010015;1</t>
-  </si>
-  <si>
-    <t>3;5000@1010104;1@1000014;1@1000022;10@1010034;30@1000027;50@1000004;3@1000002;10</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>3;2500@1010102;1@1000014;1@1000022;4@1010034;15@1000027;30@1000003;2@1000002;10</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>1;100000@1000018;15@1000019;50@1000021;1@1000020;1</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>1000018;5</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>1000027;10</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>1000035;1</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>1010002;1</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>1010051;1</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>1010030;1</t>
-    <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="12" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -918,14 +904,12 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="0"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -933,7 +917,6 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -941,22 +924,156 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -964,40 +1081,23 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Tahoma"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="18">
+  <fills count="49">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1012,85 +1112,271 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14963225196081423"/>
+        <fgColor theme="0" tint="-0.149632251960814"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14966277047029022"/>
+        <fgColor theme="0" tint="-0.14966277047029"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79964598529007846"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79964598529007846"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79964598529007846"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79964598529007846"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79964598529007846"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79964598529007846"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810485"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999389629810485"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799645985290078"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799645985290078"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799645985290078"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799645985290078"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799645985290078"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799645985290078"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1101,7 +1387,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -1198,7 +1484,7 @@
         <color theme="1" tint="0.499984740745262"/>
       </top>
       <bottom style="thin">
-        <color theme="4" tint="0.39967040009765925"/>
+        <color theme="4" tint="0.399670400097659"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1217,939 +1503,1166 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="313">
+  <cellStyleXfs count="361">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="48" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="48" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="48" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="48" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="48" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="48" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="48" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="48" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="48" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="48" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="48" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="48" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="48" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="48" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="48" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="48" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="48" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="48" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="48" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="48" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2170,15 +2683,15 @@
     <xf numFmtId="3" fontId="3" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="3" fontId="3" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="4" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2191,344 +2704,383 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="4" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="3" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="4" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="313">
-    <cellStyle name="20% - 强调文字颜色 1 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 2 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 2 3" xfId="4" xr:uid="{00000000-0005-0000-0000-000034000000}"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 3" xfId="5" xr:uid="{00000000-0005-0000-0000-000035000000}"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 3 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000036000000}"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 4" xfId="7" xr:uid="{00000000-0005-0000-0000-000037000000}"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 4 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 5" xfId="9" xr:uid="{00000000-0005-0000-0000-000039000000}"/>
-    <cellStyle name="20% - 强调文字颜色 1 2 6" xfId="10" xr:uid="{00000000-0005-0000-0000-00003A000000}"/>
-    <cellStyle name="20% - 强调文字颜色 1 3" xfId="11" xr:uid="{00000000-0005-0000-0000-00003B000000}"/>
-    <cellStyle name="20% - 强调文字颜色 1 3 2" xfId="12" xr:uid="{00000000-0005-0000-0000-00003C000000}"/>
-    <cellStyle name="20% - 强调文字颜色 1 3 3" xfId="13" xr:uid="{00000000-0005-0000-0000-00003D000000}"/>
-    <cellStyle name="20% - 强调文字颜色 1 4" xfId="14" xr:uid="{00000000-0005-0000-0000-00003E000000}"/>
-    <cellStyle name="20% - 强调文字颜色 1 4 2" xfId="15" xr:uid="{00000000-0005-0000-0000-00003F000000}"/>
-    <cellStyle name="20% - 强调文字颜色 1 5" xfId="16" xr:uid="{00000000-0005-0000-0000-000040000000}"/>
-    <cellStyle name="20% - 强调文字颜色 1 5 2" xfId="17" xr:uid="{00000000-0005-0000-0000-000041000000}"/>
-    <cellStyle name="20% - 强调文字颜色 1 6" xfId="18" xr:uid="{00000000-0005-0000-0000-000042000000}"/>
-    <cellStyle name="20% - 强调文字颜色 1 7" xfId="19" xr:uid="{00000000-0005-0000-0000-000043000000}"/>
-    <cellStyle name="20% - 强调文字颜色 2 2" xfId="20" xr:uid="{00000000-0005-0000-0000-000044000000}"/>
-    <cellStyle name="20% - 强调文字颜色 2 2 2" xfId="21" xr:uid="{00000000-0005-0000-0000-000045000000}"/>
-    <cellStyle name="20% - 强调文字颜色 2 2 2 2" xfId="22" xr:uid="{00000000-0005-0000-0000-000046000000}"/>
-    <cellStyle name="20% - 强调文字颜色 2 2 2 3" xfId="23" xr:uid="{00000000-0005-0000-0000-000047000000}"/>
-    <cellStyle name="20% - 强调文字颜色 2 2 3" xfId="24" xr:uid="{00000000-0005-0000-0000-000048000000}"/>
-    <cellStyle name="20% - 强调文字颜色 2 2 3 2" xfId="25" xr:uid="{00000000-0005-0000-0000-000049000000}"/>
-    <cellStyle name="20% - 强调文字颜色 2 2 4" xfId="26" xr:uid="{00000000-0005-0000-0000-00004A000000}"/>
-    <cellStyle name="20% - 强调文字颜色 2 2 4 2" xfId="27" xr:uid="{00000000-0005-0000-0000-00004B000000}"/>
-    <cellStyle name="20% - 强调文字颜色 2 2 5" xfId="28" xr:uid="{00000000-0005-0000-0000-00004C000000}"/>
-    <cellStyle name="20% - 强调文字颜色 2 2 6" xfId="29" xr:uid="{00000000-0005-0000-0000-00004D000000}"/>
-    <cellStyle name="20% - 强调文字颜色 2 3" xfId="30" xr:uid="{00000000-0005-0000-0000-00004E000000}"/>
-    <cellStyle name="20% - 强调文字颜色 2 3 2" xfId="31" xr:uid="{00000000-0005-0000-0000-00004F000000}"/>
-    <cellStyle name="20% - 强调文字颜色 2 3 3" xfId="32" xr:uid="{00000000-0005-0000-0000-000050000000}"/>
-    <cellStyle name="20% - 强调文字颜色 2 4" xfId="33" xr:uid="{00000000-0005-0000-0000-000051000000}"/>
-    <cellStyle name="20% - 强调文字颜色 2 4 2" xfId="34" xr:uid="{00000000-0005-0000-0000-000052000000}"/>
-    <cellStyle name="20% - 强调文字颜色 2 5" xfId="35" xr:uid="{00000000-0005-0000-0000-000053000000}"/>
-    <cellStyle name="20% - 强调文字颜色 2 5 2" xfId="36" xr:uid="{00000000-0005-0000-0000-000054000000}"/>
-    <cellStyle name="20% - 强调文字颜色 2 6" xfId="37" xr:uid="{00000000-0005-0000-0000-000055000000}"/>
-    <cellStyle name="20% - 强调文字颜色 2 7" xfId="38" xr:uid="{00000000-0005-0000-0000-000056000000}"/>
-    <cellStyle name="20% - 强调文字颜色 3 2" xfId="39" xr:uid="{00000000-0005-0000-0000-000057000000}"/>
-    <cellStyle name="20% - 强调文字颜色 3 2 2" xfId="40" xr:uid="{00000000-0005-0000-0000-000058000000}"/>
-    <cellStyle name="20% - 强调文字颜色 3 2 2 2" xfId="41" xr:uid="{00000000-0005-0000-0000-000059000000}"/>
-    <cellStyle name="20% - 强调文字颜色 3 2 2 3" xfId="42" xr:uid="{00000000-0005-0000-0000-00005A000000}"/>
-    <cellStyle name="20% - 强调文字颜色 3 2 3" xfId="43" xr:uid="{00000000-0005-0000-0000-00005B000000}"/>
-    <cellStyle name="20% - 强调文字颜色 3 2 3 2" xfId="44" xr:uid="{00000000-0005-0000-0000-00005C000000}"/>
-    <cellStyle name="20% - 强调文字颜色 3 2 4" xfId="45" xr:uid="{00000000-0005-0000-0000-00005D000000}"/>
-    <cellStyle name="20% - 强调文字颜色 3 2 4 2" xfId="46" xr:uid="{00000000-0005-0000-0000-00005E000000}"/>
-    <cellStyle name="20% - 强调文字颜色 3 2 5" xfId="47" xr:uid="{00000000-0005-0000-0000-00005F000000}"/>
-    <cellStyle name="20% - 强调文字颜色 3 2 6" xfId="48" xr:uid="{00000000-0005-0000-0000-000060000000}"/>
-    <cellStyle name="20% - 强调文字颜色 3 3" xfId="49" xr:uid="{00000000-0005-0000-0000-000061000000}"/>
-    <cellStyle name="20% - 强调文字颜色 3 3 2" xfId="50" xr:uid="{00000000-0005-0000-0000-000062000000}"/>
-    <cellStyle name="20% - 强调文字颜色 3 3 3" xfId="51" xr:uid="{00000000-0005-0000-0000-000063000000}"/>
-    <cellStyle name="20% - 强调文字颜色 3 4" xfId="52" xr:uid="{00000000-0005-0000-0000-000064000000}"/>
-    <cellStyle name="20% - 强调文字颜色 3 4 2" xfId="53" xr:uid="{00000000-0005-0000-0000-000065000000}"/>
-    <cellStyle name="20% - 强调文字颜色 3 5" xfId="54" xr:uid="{00000000-0005-0000-0000-000066000000}"/>
-    <cellStyle name="20% - 强调文字颜色 3 5 2" xfId="55" xr:uid="{00000000-0005-0000-0000-000067000000}"/>
-    <cellStyle name="20% - 强调文字颜色 3 6" xfId="56" xr:uid="{00000000-0005-0000-0000-000068000000}"/>
-    <cellStyle name="20% - 强调文字颜色 3 7" xfId="57" xr:uid="{00000000-0005-0000-0000-000069000000}"/>
-    <cellStyle name="20% - 强调文字颜色 4 2" xfId="58" xr:uid="{00000000-0005-0000-0000-00006A000000}"/>
-    <cellStyle name="20% - 强调文字颜色 4 2 2" xfId="59" xr:uid="{00000000-0005-0000-0000-00006B000000}"/>
-    <cellStyle name="20% - 强调文字颜色 4 2 2 2" xfId="60" xr:uid="{00000000-0005-0000-0000-00006C000000}"/>
-    <cellStyle name="20% - 强调文字颜色 4 2 2 3" xfId="61" xr:uid="{00000000-0005-0000-0000-00006D000000}"/>
-    <cellStyle name="20% - 强调文字颜色 4 2 3" xfId="62" xr:uid="{00000000-0005-0000-0000-00006E000000}"/>
-    <cellStyle name="20% - 强调文字颜色 4 2 3 2" xfId="63" xr:uid="{00000000-0005-0000-0000-00006F000000}"/>
-    <cellStyle name="20% - 强调文字颜色 4 2 4" xfId="64" xr:uid="{00000000-0005-0000-0000-000070000000}"/>
-    <cellStyle name="20% - 强调文字颜色 4 2 4 2" xfId="65" xr:uid="{00000000-0005-0000-0000-000071000000}"/>
-    <cellStyle name="20% - 强调文字颜色 4 2 5" xfId="66" xr:uid="{00000000-0005-0000-0000-000072000000}"/>
-    <cellStyle name="20% - 强调文字颜色 4 2 6" xfId="67" xr:uid="{00000000-0005-0000-0000-000073000000}"/>
-    <cellStyle name="20% - 强调文字颜色 4 3" xfId="68" xr:uid="{00000000-0005-0000-0000-000074000000}"/>
-    <cellStyle name="20% - 强调文字颜色 4 3 2" xfId="69" xr:uid="{00000000-0005-0000-0000-000075000000}"/>
-    <cellStyle name="20% - 强调文字颜色 4 3 3" xfId="70" xr:uid="{00000000-0005-0000-0000-000076000000}"/>
-    <cellStyle name="20% - 强调文字颜色 4 4" xfId="71" xr:uid="{00000000-0005-0000-0000-000077000000}"/>
-    <cellStyle name="20% - 强调文字颜色 4 4 2" xfId="72" xr:uid="{00000000-0005-0000-0000-000078000000}"/>
-    <cellStyle name="20% - 强调文字颜色 4 5" xfId="73" xr:uid="{00000000-0005-0000-0000-000079000000}"/>
-    <cellStyle name="20% - 强调文字颜色 4 5 2" xfId="74" xr:uid="{00000000-0005-0000-0000-00007A000000}"/>
-    <cellStyle name="20% - 强调文字颜色 4 6" xfId="75" xr:uid="{00000000-0005-0000-0000-00007B000000}"/>
-    <cellStyle name="20% - 强调文字颜色 4 7" xfId="76" xr:uid="{00000000-0005-0000-0000-00007C000000}"/>
-    <cellStyle name="20% - 强调文字颜色 5 2" xfId="77" xr:uid="{00000000-0005-0000-0000-00007D000000}"/>
-    <cellStyle name="20% - 强调文字颜色 5 2 2" xfId="78" xr:uid="{00000000-0005-0000-0000-00007E000000}"/>
-    <cellStyle name="20% - 强调文字颜色 5 2 2 2" xfId="79" xr:uid="{00000000-0005-0000-0000-00007F000000}"/>
-    <cellStyle name="20% - 强调文字颜色 5 2 2 3" xfId="80" xr:uid="{00000000-0005-0000-0000-000080000000}"/>
-    <cellStyle name="20% - 强调文字颜色 5 2 3" xfId="81" xr:uid="{00000000-0005-0000-0000-000081000000}"/>
-    <cellStyle name="20% - 强调文字颜色 5 2 3 2" xfId="82" xr:uid="{00000000-0005-0000-0000-000082000000}"/>
-    <cellStyle name="20% - 强调文字颜色 5 2 4" xfId="83" xr:uid="{00000000-0005-0000-0000-000083000000}"/>
-    <cellStyle name="20% - 强调文字颜色 5 2 4 2" xfId="84" xr:uid="{00000000-0005-0000-0000-000084000000}"/>
-    <cellStyle name="20% - 强调文字颜色 5 2 5" xfId="85" xr:uid="{00000000-0005-0000-0000-000085000000}"/>
-    <cellStyle name="20% - 强调文字颜色 5 2 6" xfId="86" xr:uid="{00000000-0005-0000-0000-000086000000}"/>
-    <cellStyle name="20% - 强调文字颜色 5 3" xfId="87" xr:uid="{00000000-0005-0000-0000-000087000000}"/>
-    <cellStyle name="20% - 强调文字颜色 5 3 2" xfId="88" xr:uid="{00000000-0005-0000-0000-000088000000}"/>
-    <cellStyle name="20% - 强调文字颜色 5 3 3" xfId="89" xr:uid="{00000000-0005-0000-0000-000089000000}"/>
-    <cellStyle name="20% - 强调文字颜色 5 4" xfId="90" xr:uid="{00000000-0005-0000-0000-00008A000000}"/>
-    <cellStyle name="20% - 强调文字颜色 5 4 2" xfId="91" xr:uid="{00000000-0005-0000-0000-00008B000000}"/>
-    <cellStyle name="20% - 强调文字颜色 5 5" xfId="92" xr:uid="{00000000-0005-0000-0000-00008C000000}"/>
-    <cellStyle name="20% - 强调文字颜色 5 5 2" xfId="93" xr:uid="{00000000-0005-0000-0000-00008D000000}"/>
-    <cellStyle name="20% - 强调文字颜色 5 6" xfId="94" xr:uid="{00000000-0005-0000-0000-00008E000000}"/>
-    <cellStyle name="20% - 强调文字颜色 5 7" xfId="95" xr:uid="{00000000-0005-0000-0000-00008F000000}"/>
-    <cellStyle name="20% - 强调文字颜色 6 2" xfId="96" xr:uid="{00000000-0005-0000-0000-000090000000}"/>
-    <cellStyle name="20% - 强调文字颜色 6 2 2" xfId="97" xr:uid="{00000000-0005-0000-0000-000091000000}"/>
-    <cellStyle name="20% - 强调文字颜色 6 2 2 2" xfId="98" xr:uid="{00000000-0005-0000-0000-000092000000}"/>
-    <cellStyle name="20% - 强调文字颜色 6 2 2 3" xfId="99" xr:uid="{00000000-0005-0000-0000-000093000000}"/>
-    <cellStyle name="20% - 强调文字颜色 6 2 3" xfId="100" xr:uid="{00000000-0005-0000-0000-000094000000}"/>
-    <cellStyle name="20% - 强调文字颜色 6 2 3 2" xfId="101" xr:uid="{00000000-0005-0000-0000-000095000000}"/>
-    <cellStyle name="20% - 强调文字颜色 6 2 4" xfId="102" xr:uid="{00000000-0005-0000-0000-000096000000}"/>
-    <cellStyle name="20% - 强调文字颜色 6 2 4 2" xfId="103" xr:uid="{00000000-0005-0000-0000-000097000000}"/>
-    <cellStyle name="20% - 强调文字颜色 6 2 5" xfId="104" xr:uid="{00000000-0005-0000-0000-000098000000}"/>
-    <cellStyle name="20% - 强调文字颜色 6 2 6" xfId="105" xr:uid="{00000000-0005-0000-0000-000099000000}"/>
-    <cellStyle name="20% - 强调文字颜色 6 3" xfId="106" xr:uid="{00000000-0005-0000-0000-00009A000000}"/>
-    <cellStyle name="20% - 强调文字颜色 6 3 2" xfId="107" xr:uid="{00000000-0005-0000-0000-00009B000000}"/>
-    <cellStyle name="20% - 强调文字颜色 6 3 3" xfId="108" xr:uid="{00000000-0005-0000-0000-00009C000000}"/>
-    <cellStyle name="20% - 强调文字颜色 6 4" xfId="109" xr:uid="{00000000-0005-0000-0000-00009D000000}"/>
-    <cellStyle name="20% - 强调文字颜色 6 4 2" xfId="110" xr:uid="{00000000-0005-0000-0000-00009E000000}"/>
-    <cellStyle name="20% - 强调文字颜色 6 5" xfId="111" xr:uid="{00000000-0005-0000-0000-00009F000000}"/>
-    <cellStyle name="20% - 强调文字颜色 6 5 2" xfId="112" xr:uid="{00000000-0005-0000-0000-0000A0000000}"/>
-    <cellStyle name="20% - 强调文字颜色 6 6" xfId="113" xr:uid="{00000000-0005-0000-0000-0000A1000000}"/>
-    <cellStyle name="20% - 强调文字颜色 6 7" xfId="114" xr:uid="{00000000-0005-0000-0000-0000A2000000}"/>
-    <cellStyle name="40% - 强调文字颜色 1 2" xfId="115" xr:uid="{00000000-0005-0000-0000-0000A3000000}"/>
-    <cellStyle name="40% - 强调文字颜色 1 2 2" xfId="116" xr:uid="{00000000-0005-0000-0000-0000A4000000}"/>
-    <cellStyle name="40% - 强调文字颜色 1 2 2 2" xfId="117" xr:uid="{00000000-0005-0000-0000-0000A5000000}"/>
-    <cellStyle name="40% - 强调文字颜色 1 2 2 3" xfId="118" xr:uid="{00000000-0005-0000-0000-0000A6000000}"/>
-    <cellStyle name="40% - 强调文字颜色 1 2 3" xfId="119" xr:uid="{00000000-0005-0000-0000-0000A7000000}"/>
-    <cellStyle name="40% - 强调文字颜色 1 2 3 2" xfId="120" xr:uid="{00000000-0005-0000-0000-0000A8000000}"/>
-    <cellStyle name="40% - 强调文字颜色 1 2 4" xfId="121" xr:uid="{00000000-0005-0000-0000-0000A9000000}"/>
-    <cellStyle name="40% - 强调文字颜色 1 2 4 2" xfId="122" xr:uid="{00000000-0005-0000-0000-0000AA000000}"/>
-    <cellStyle name="40% - 强调文字颜色 1 2 5" xfId="123" xr:uid="{00000000-0005-0000-0000-0000AB000000}"/>
-    <cellStyle name="40% - 强调文字颜色 1 2 6" xfId="124" xr:uid="{00000000-0005-0000-0000-0000AC000000}"/>
-    <cellStyle name="40% - 强调文字颜色 1 3" xfId="125" xr:uid="{00000000-0005-0000-0000-0000AD000000}"/>
-    <cellStyle name="40% - 强调文字颜色 1 3 2" xfId="126" xr:uid="{00000000-0005-0000-0000-0000AE000000}"/>
-    <cellStyle name="40% - 强调文字颜色 1 3 3" xfId="127" xr:uid="{00000000-0005-0000-0000-0000AF000000}"/>
-    <cellStyle name="40% - 强调文字颜色 1 4" xfId="128" xr:uid="{00000000-0005-0000-0000-0000B0000000}"/>
-    <cellStyle name="40% - 强调文字颜色 1 4 2" xfId="129" xr:uid="{00000000-0005-0000-0000-0000B1000000}"/>
-    <cellStyle name="40% - 强调文字颜色 1 5" xfId="130" xr:uid="{00000000-0005-0000-0000-0000B2000000}"/>
-    <cellStyle name="40% - 强调文字颜色 1 5 2" xfId="131" xr:uid="{00000000-0005-0000-0000-0000B3000000}"/>
-    <cellStyle name="40% - 强调文字颜色 1 6" xfId="132" xr:uid="{00000000-0005-0000-0000-0000B4000000}"/>
-    <cellStyle name="40% - 强调文字颜色 1 7" xfId="133" xr:uid="{00000000-0005-0000-0000-0000B5000000}"/>
-    <cellStyle name="40% - 强调文字颜色 2 2" xfId="134" xr:uid="{00000000-0005-0000-0000-0000B6000000}"/>
-    <cellStyle name="40% - 强调文字颜色 2 2 2" xfId="135" xr:uid="{00000000-0005-0000-0000-0000B7000000}"/>
-    <cellStyle name="40% - 强调文字颜色 2 2 2 2" xfId="136" xr:uid="{00000000-0005-0000-0000-0000B8000000}"/>
-    <cellStyle name="40% - 强调文字颜色 2 2 2 3" xfId="137" xr:uid="{00000000-0005-0000-0000-0000B9000000}"/>
-    <cellStyle name="40% - 强调文字颜色 2 2 3" xfId="138" xr:uid="{00000000-0005-0000-0000-0000BA000000}"/>
-    <cellStyle name="40% - 强调文字颜色 2 2 3 2" xfId="139" xr:uid="{00000000-0005-0000-0000-0000BB000000}"/>
-    <cellStyle name="40% - 强调文字颜色 2 2 4" xfId="140" xr:uid="{00000000-0005-0000-0000-0000BC000000}"/>
-    <cellStyle name="40% - 强调文字颜色 2 2 4 2" xfId="141" xr:uid="{00000000-0005-0000-0000-0000BD000000}"/>
-    <cellStyle name="40% - 强调文字颜色 2 2 5" xfId="142" xr:uid="{00000000-0005-0000-0000-0000BE000000}"/>
-    <cellStyle name="40% - 强调文字颜色 2 2 6" xfId="143" xr:uid="{00000000-0005-0000-0000-0000BF000000}"/>
-    <cellStyle name="40% - 强调文字颜色 2 3" xfId="144" xr:uid="{00000000-0005-0000-0000-0000C0000000}"/>
-    <cellStyle name="40% - 强调文字颜色 2 3 2" xfId="145" xr:uid="{00000000-0005-0000-0000-0000C1000000}"/>
-    <cellStyle name="40% - 强调文字颜色 2 3 3" xfId="146" xr:uid="{00000000-0005-0000-0000-0000C2000000}"/>
-    <cellStyle name="40% - 强调文字颜色 2 4" xfId="147" xr:uid="{00000000-0005-0000-0000-0000C3000000}"/>
-    <cellStyle name="40% - 强调文字颜色 2 4 2" xfId="148" xr:uid="{00000000-0005-0000-0000-0000C4000000}"/>
-    <cellStyle name="40% - 强调文字颜色 2 5" xfId="149" xr:uid="{00000000-0005-0000-0000-0000C5000000}"/>
-    <cellStyle name="40% - 强调文字颜色 2 5 2" xfId="150" xr:uid="{00000000-0005-0000-0000-0000C6000000}"/>
-    <cellStyle name="40% - 强调文字颜色 2 6" xfId="151" xr:uid="{00000000-0005-0000-0000-0000C7000000}"/>
-    <cellStyle name="40% - 强调文字颜色 2 7" xfId="152" xr:uid="{00000000-0005-0000-0000-0000C8000000}"/>
-    <cellStyle name="40% - 强调文字颜色 3 2" xfId="153" xr:uid="{00000000-0005-0000-0000-0000C9000000}"/>
-    <cellStyle name="40% - 强调文字颜色 3 2 2" xfId="154" xr:uid="{00000000-0005-0000-0000-0000CA000000}"/>
-    <cellStyle name="40% - 强调文字颜色 3 2 2 2" xfId="155" xr:uid="{00000000-0005-0000-0000-0000CB000000}"/>
-    <cellStyle name="40% - 强调文字颜色 3 2 2 3" xfId="156" xr:uid="{00000000-0005-0000-0000-0000CC000000}"/>
-    <cellStyle name="40% - 强调文字颜色 3 2 3" xfId="157" xr:uid="{00000000-0005-0000-0000-0000CD000000}"/>
-    <cellStyle name="40% - 强调文字颜色 3 2 3 2" xfId="158" xr:uid="{00000000-0005-0000-0000-0000CE000000}"/>
-    <cellStyle name="40% - 强调文字颜色 3 2 4" xfId="159" xr:uid="{00000000-0005-0000-0000-0000CF000000}"/>
-    <cellStyle name="40% - 强调文字颜色 3 2 4 2" xfId="160" xr:uid="{00000000-0005-0000-0000-0000D0000000}"/>
-    <cellStyle name="40% - 强调文字颜色 3 2 5" xfId="161" xr:uid="{00000000-0005-0000-0000-0000D1000000}"/>
-    <cellStyle name="40% - 强调文字颜色 3 2 6" xfId="162" xr:uid="{00000000-0005-0000-0000-0000D2000000}"/>
-    <cellStyle name="40% - 强调文字颜色 3 3" xfId="163" xr:uid="{00000000-0005-0000-0000-0000D3000000}"/>
-    <cellStyle name="40% - 强调文字颜色 3 3 2" xfId="164" xr:uid="{00000000-0005-0000-0000-0000D4000000}"/>
-    <cellStyle name="40% - 强调文字颜色 3 3 3" xfId="165" xr:uid="{00000000-0005-0000-0000-0000D5000000}"/>
-    <cellStyle name="40% - 强调文字颜色 3 4" xfId="166" xr:uid="{00000000-0005-0000-0000-0000D6000000}"/>
-    <cellStyle name="40% - 强调文字颜色 3 4 2" xfId="167" xr:uid="{00000000-0005-0000-0000-0000D7000000}"/>
-    <cellStyle name="40% - 强调文字颜色 3 5" xfId="168" xr:uid="{00000000-0005-0000-0000-0000D8000000}"/>
-    <cellStyle name="40% - 强调文字颜色 3 5 2" xfId="169" xr:uid="{00000000-0005-0000-0000-0000D9000000}"/>
-    <cellStyle name="40% - 强调文字颜色 3 6" xfId="170" xr:uid="{00000000-0005-0000-0000-0000DA000000}"/>
-    <cellStyle name="40% - 强调文字颜色 3 7" xfId="171" xr:uid="{00000000-0005-0000-0000-0000DB000000}"/>
-    <cellStyle name="40% - 强调文字颜色 4 2" xfId="172" xr:uid="{00000000-0005-0000-0000-0000DC000000}"/>
-    <cellStyle name="40% - 强调文字颜色 4 2 2" xfId="173" xr:uid="{00000000-0005-0000-0000-0000DD000000}"/>
-    <cellStyle name="40% - 强调文字颜色 4 2 2 2" xfId="174" xr:uid="{00000000-0005-0000-0000-0000DE000000}"/>
-    <cellStyle name="40% - 强调文字颜色 4 2 2 3" xfId="175" xr:uid="{00000000-0005-0000-0000-0000DF000000}"/>
-    <cellStyle name="40% - 强调文字颜色 4 2 3" xfId="176" xr:uid="{00000000-0005-0000-0000-0000E0000000}"/>
-    <cellStyle name="40% - 强调文字颜色 4 2 3 2" xfId="177" xr:uid="{00000000-0005-0000-0000-0000E1000000}"/>
-    <cellStyle name="40% - 强调文字颜色 4 2 4" xfId="178" xr:uid="{00000000-0005-0000-0000-0000E2000000}"/>
-    <cellStyle name="40% - 强调文字颜色 4 2 4 2" xfId="179" xr:uid="{00000000-0005-0000-0000-0000E3000000}"/>
-    <cellStyle name="40% - 强调文字颜色 4 2 5" xfId="180" xr:uid="{00000000-0005-0000-0000-0000E4000000}"/>
-    <cellStyle name="40% - 强调文字颜色 4 2 6" xfId="181" xr:uid="{00000000-0005-0000-0000-0000E5000000}"/>
-    <cellStyle name="40% - 强调文字颜色 4 3" xfId="182" xr:uid="{00000000-0005-0000-0000-0000E6000000}"/>
-    <cellStyle name="40% - 强调文字颜色 4 3 2" xfId="183" xr:uid="{00000000-0005-0000-0000-0000E7000000}"/>
-    <cellStyle name="40% - 强调文字颜色 4 3 3" xfId="184" xr:uid="{00000000-0005-0000-0000-0000E8000000}"/>
-    <cellStyle name="40% - 强调文字颜色 4 4" xfId="185" xr:uid="{00000000-0005-0000-0000-0000E9000000}"/>
-    <cellStyle name="40% - 强调文字颜色 4 4 2" xfId="186" xr:uid="{00000000-0005-0000-0000-0000EA000000}"/>
-    <cellStyle name="40% - 强调文字颜色 4 5" xfId="187" xr:uid="{00000000-0005-0000-0000-0000EB000000}"/>
-    <cellStyle name="40% - 强调文字颜色 4 5 2" xfId="188" xr:uid="{00000000-0005-0000-0000-0000EC000000}"/>
-    <cellStyle name="40% - 强调文字颜色 4 6" xfId="189" xr:uid="{00000000-0005-0000-0000-0000ED000000}"/>
-    <cellStyle name="40% - 强调文字颜色 4 7" xfId="190" xr:uid="{00000000-0005-0000-0000-0000EE000000}"/>
-    <cellStyle name="40% - 强调文字颜色 5 2" xfId="191" xr:uid="{00000000-0005-0000-0000-0000EF000000}"/>
-    <cellStyle name="40% - 强调文字颜色 5 2 2" xfId="192" xr:uid="{00000000-0005-0000-0000-0000F0000000}"/>
-    <cellStyle name="40% - 强调文字颜色 5 2 2 2" xfId="193" xr:uid="{00000000-0005-0000-0000-0000F1000000}"/>
-    <cellStyle name="40% - 强调文字颜色 5 2 2 3" xfId="194" xr:uid="{00000000-0005-0000-0000-0000F2000000}"/>
-    <cellStyle name="40% - 强调文字颜色 5 2 3" xfId="195" xr:uid="{00000000-0005-0000-0000-0000F3000000}"/>
-    <cellStyle name="40% - 强调文字颜色 5 2 3 2" xfId="196" xr:uid="{00000000-0005-0000-0000-0000F4000000}"/>
-    <cellStyle name="40% - 强调文字颜色 5 2 4" xfId="197" xr:uid="{00000000-0005-0000-0000-0000F5000000}"/>
-    <cellStyle name="40% - 强调文字颜色 5 2 4 2" xfId="198" xr:uid="{00000000-0005-0000-0000-0000F6000000}"/>
-    <cellStyle name="40% - 强调文字颜色 5 2 5" xfId="199" xr:uid="{00000000-0005-0000-0000-0000F7000000}"/>
-    <cellStyle name="40% - 强调文字颜色 5 2 6" xfId="200" xr:uid="{00000000-0005-0000-0000-0000F8000000}"/>
-    <cellStyle name="40% - 强调文字颜色 5 3" xfId="201" xr:uid="{00000000-0005-0000-0000-0000F9000000}"/>
-    <cellStyle name="40% - 强调文字颜色 5 3 2" xfId="202" xr:uid="{00000000-0005-0000-0000-0000FA000000}"/>
-    <cellStyle name="40% - 强调文字颜色 5 3 3" xfId="203" xr:uid="{00000000-0005-0000-0000-0000FB000000}"/>
-    <cellStyle name="40% - 强调文字颜色 5 4" xfId="204" xr:uid="{00000000-0005-0000-0000-0000FC000000}"/>
-    <cellStyle name="40% - 强调文字颜色 5 4 2" xfId="205" xr:uid="{00000000-0005-0000-0000-0000FD000000}"/>
-    <cellStyle name="40% - 强调文字颜色 5 5" xfId="206" xr:uid="{00000000-0005-0000-0000-0000FE000000}"/>
-    <cellStyle name="40% - 强调文字颜色 5 5 2" xfId="207" xr:uid="{00000000-0005-0000-0000-0000FF000000}"/>
-    <cellStyle name="40% - 强调文字颜色 5 6" xfId="208" xr:uid="{00000000-0005-0000-0000-000000010000}"/>
-    <cellStyle name="40% - 强调文字颜色 5 7" xfId="209" xr:uid="{00000000-0005-0000-0000-000001010000}"/>
-    <cellStyle name="40% - 强调文字颜色 6 2" xfId="210" xr:uid="{00000000-0005-0000-0000-000002010000}"/>
-    <cellStyle name="40% - 强调文字颜色 6 2 2" xfId="211" xr:uid="{00000000-0005-0000-0000-000003010000}"/>
-    <cellStyle name="40% - 强调文字颜色 6 2 2 2" xfId="212" xr:uid="{00000000-0005-0000-0000-000004010000}"/>
-    <cellStyle name="40% - 强调文字颜色 6 2 2 3" xfId="213" xr:uid="{00000000-0005-0000-0000-000005010000}"/>
-    <cellStyle name="40% - 强调文字颜色 6 2 3" xfId="214" xr:uid="{00000000-0005-0000-0000-000006010000}"/>
-    <cellStyle name="40% - 强调文字颜色 6 2 3 2" xfId="215" xr:uid="{00000000-0005-0000-0000-000007010000}"/>
-    <cellStyle name="40% - 强调文字颜色 6 2 4" xfId="216" xr:uid="{00000000-0005-0000-0000-000008010000}"/>
-    <cellStyle name="40% - 强调文字颜色 6 2 4 2" xfId="217" xr:uid="{00000000-0005-0000-0000-000009010000}"/>
-    <cellStyle name="40% - 强调文字颜色 6 2 5" xfId="218" xr:uid="{00000000-0005-0000-0000-00000A010000}"/>
-    <cellStyle name="40% - 强调文字颜色 6 2 6" xfId="219" xr:uid="{00000000-0005-0000-0000-00000B010000}"/>
-    <cellStyle name="40% - 强调文字颜色 6 3" xfId="220" xr:uid="{00000000-0005-0000-0000-00000C010000}"/>
-    <cellStyle name="40% - 强调文字颜色 6 3 2" xfId="221" xr:uid="{00000000-0005-0000-0000-00000D010000}"/>
-    <cellStyle name="40% - 强调文字颜色 6 3 3" xfId="222" xr:uid="{00000000-0005-0000-0000-00000E010000}"/>
-    <cellStyle name="40% - 强调文字颜色 6 4" xfId="223" xr:uid="{00000000-0005-0000-0000-00000F010000}"/>
-    <cellStyle name="40% - 强调文字颜色 6 4 2" xfId="224" xr:uid="{00000000-0005-0000-0000-000010010000}"/>
-    <cellStyle name="40% - 强调文字颜色 6 5" xfId="225" xr:uid="{00000000-0005-0000-0000-000011010000}"/>
-    <cellStyle name="40% - 强调文字颜色 6 5 2" xfId="226" xr:uid="{00000000-0005-0000-0000-000012010000}"/>
-    <cellStyle name="40% - 强调文字颜色 6 6" xfId="227" xr:uid="{00000000-0005-0000-0000-000013010000}"/>
-    <cellStyle name="40% - 强调文字颜色 6 7" xfId="228" xr:uid="{00000000-0005-0000-0000-000014010000}"/>
+  <cellStyles count="361">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="229" xr:uid="{00000000-0005-0000-0000-000015010000}"/>
-    <cellStyle name="常规 2 2" xfId="230" xr:uid="{00000000-0005-0000-0000-000016010000}"/>
-    <cellStyle name="常规 2 3" xfId="231" xr:uid="{00000000-0005-0000-0000-000017010000}"/>
-    <cellStyle name="常规 2 3 2" xfId="232" xr:uid="{00000000-0005-0000-0000-000018010000}"/>
-    <cellStyle name="常规 2 3 2 2" xfId="233" xr:uid="{00000000-0005-0000-0000-000019010000}"/>
-    <cellStyle name="常规 2 3 2 2 2" xfId="234" xr:uid="{00000000-0005-0000-0000-00001A010000}"/>
-    <cellStyle name="常规 2 3 2 2 2 2" xfId="235" xr:uid="{00000000-0005-0000-0000-00001B010000}"/>
-    <cellStyle name="常规 2 3 2 2 2 3" xfId="236" xr:uid="{00000000-0005-0000-0000-00001C010000}"/>
-    <cellStyle name="常规 2 3 2 2 3" xfId="237" xr:uid="{00000000-0005-0000-0000-00001D010000}"/>
-    <cellStyle name="常规 2 3 2 2 3 2" xfId="238" xr:uid="{00000000-0005-0000-0000-00001E010000}"/>
-    <cellStyle name="常规 2 3 2 2 4" xfId="239" xr:uid="{00000000-0005-0000-0000-00001F010000}"/>
-    <cellStyle name="常规 2 3 2 2 4 2" xfId="240" xr:uid="{00000000-0005-0000-0000-000020010000}"/>
-    <cellStyle name="常规 2 3 2 2 5" xfId="241" xr:uid="{00000000-0005-0000-0000-000021010000}"/>
-    <cellStyle name="常规 2 3 2 2 6" xfId="242" xr:uid="{00000000-0005-0000-0000-000022010000}"/>
-    <cellStyle name="常规 2 3 2 3" xfId="243" xr:uid="{00000000-0005-0000-0000-000023010000}"/>
-    <cellStyle name="常规 2 3 2 3 2" xfId="244" xr:uid="{00000000-0005-0000-0000-000024010000}"/>
-    <cellStyle name="常规 2 3 2 3 3" xfId="245" xr:uid="{00000000-0005-0000-0000-000025010000}"/>
-    <cellStyle name="常规 2 3 2 4" xfId="246" xr:uid="{00000000-0005-0000-0000-000026010000}"/>
-    <cellStyle name="常规 2 3 2 4 2" xfId="247" xr:uid="{00000000-0005-0000-0000-000027010000}"/>
-    <cellStyle name="常规 2 3 2 5" xfId="248" xr:uid="{00000000-0005-0000-0000-000028010000}"/>
-    <cellStyle name="常规 2 3 2 5 2" xfId="249" xr:uid="{00000000-0005-0000-0000-000029010000}"/>
-    <cellStyle name="常规 2 3 2 6" xfId="250" xr:uid="{00000000-0005-0000-0000-00002A010000}"/>
-    <cellStyle name="常规 2 3 2 7" xfId="251" xr:uid="{00000000-0005-0000-0000-00002B010000}"/>
-    <cellStyle name="常规 2 3 3" xfId="252" xr:uid="{00000000-0005-0000-0000-00002C010000}"/>
-    <cellStyle name="常规 2 3 3 2" xfId="253" xr:uid="{00000000-0005-0000-0000-00002D010000}"/>
-    <cellStyle name="常规 2 3 3 2 2" xfId="254" xr:uid="{00000000-0005-0000-0000-00002E010000}"/>
-    <cellStyle name="常规 2 3 3 2 3" xfId="255" xr:uid="{00000000-0005-0000-0000-00002F010000}"/>
-    <cellStyle name="常规 2 3 3 3" xfId="256" xr:uid="{00000000-0005-0000-0000-000030010000}"/>
-    <cellStyle name="常规 2 3 3 3 2" xfId="257" xr:uid="{00000000-0005-0000-0000-000031010000}"/>
-    <cellStyle name="常规 2 3 3 4" xfId="258" xr:uid="{00000000-0005-0000-0000-000032010000}"/>
-    <cellStyle name="常规 2 3 3 4 2" xfId="259" xr:uid="{00000000-0005-0000-0000-000033010000}"/>
-    <cellStyle name="常规 2 3 3 5" xfId="260" xr:uid="{00000000-0005-0000-0000-000034010000}"/>
-    <cellStyle name="常规 2 3 3 6" xfId="261" xr:uid="{00000000-0005-0000-0000-000035010000}"/>
-    <cellStyle name="常规 2 3 4" xfId="262" xr:uid="{00000000-0005-0000-0000-000036010000}"/>
-    <cellStyle name="常规 2 3 4 2" xfId="263" xr:uid="{00000000-0005-0000-0000-000037010000}"/>
-    <cellStyle name="常规 2 3 4 3" xfId="264" xr:uid="{00000000-0005-0000-0000-000038010000}"/>
-    <cellStyle name="常规 2 3 5" xfId="265" xr:uid="{00000000-0005-0000-0000-000039010000}"/>
-    <cellStyle name="常规 2 3 5 2" xfId="266" xr:uid="{00000000-0005-0000-0000-00003A010000}"/>
-    <cellStyle name="常规 2 3 6" xfId="267" xr:uid="{00000000-0005-0000-0000-00003B010000}"/>
-    <cellStyle name="常规 2 3 6 2" xfId="268" xr:uid="{00000000-0005-0000-0000-00003C010000}"/>
-    <cellStyle name="常规 2 3 7" xfId="269" xr:uid="{00000000-0005-0000-0000-00003D010000}"/>
-    <cellStyle name="常规 2 3 8" xfId="270" xr:uid="{00000000-0005-0000-0000-00003E010000}"/>
-    <cellStyle name="常规 3" xfId="271" xr:uid="{00000000-0005-0000-0000-00003F010000}"/>
-    <cellStyle name="常规 4" xfId="272" xr:uid="{00000000-0005-0000-0000-000040010000}"/>
-    <cellStyle name="常规 5" xfId="273" xr:uid="{00000000-0005-0000-0000-000041010000}"/>
-    <cellStyle name="常规 5 2" xfId="274" xr:uid="{00000000-0005-0000-0000-000042010000}"/>
-    <cellStyle name="常规 5 2 2" xfId="275" xr:uid="{00000000-0005-0000-0000-000043010000}"/>
-    <cellStyle name="常规 5 2 2 2" xfId="276" xr:uid="{00000000-0005-0000-0000-000044010000}"/>
-    <cellStyle name="常规 5 2 2 3" xfId="277" xr:uid="{00000000-0005-0000-0000-000045010000}"/>
-    <cellStyle name="常规 5 2 3" xfId="278" xr:uid="{00000000-0005-0000-0000-000046010000}"/>
-    <cellStyle name="常规 5 2 3 2" xfId="279" xr:uid="{00000000-0005-0000-0000-000047010000}"/>
-    <cellStyle name="常规 5 2 4" xfId="280" xr:uid="{00000000-0005-0000-0000-000048010000}"/>
-    <cellStyle name="常规 5 2 4 2" xfId="281" xr:uid="{00000000-0005-0000-0000-000049010000}"/>
-    <cellStyle name="常规 5 2 5" xfId="282" xr:uid="{00000000-0005-0000-0000-00004A010000}"/>
-    <cellStyle name="常规 5 2 6" xfId="283" xr:uid="{00000000-0005-0000-0000-00004B010000}"/>
-    <cellStyle name="常规 5 3" xfId="284" xr:uid="{00000000-0005-0000-0000-00004C010000}"/>
-    <cellStyle name="常规 5 3 2" xfId="285" xr:uid="{00000000-0005-0000-0000-00004D010000}"/>
-    <cellStyle name="常规 5 3 3" xfId="286" xr:uid="{00000000-0005-0000-0000-00004E010000}"/>
-    <cellStyle name="常规 5 4" xfId="287" xr:uid="{00000000-0005-0000-0000-00004F010000}"/>
-    <cellStyle name="常规 5 4 2" xfId="288" xr:uid="{00000000-0005-0000-0000-000050010000}"/>
-    <cellStyle name="常规 5 5" xfId="289" xr:uid="{00000000-0005-0000-0000-000051010000}"/>
-    <cellStyle name="常规 5 5 2" xfId="290" xr:uid="{00000000-0005-0000-0000-000052010000}"/>
-    <cellStyle name="常规 5 6" xfId="291" xr:uid="{00000000-0005-0000-0000-000053010000}"/>
-    <cellStyle name="常规 5 7" xfId="292" xr:uid="{00000000-0005-0000-0000-000054010000}"/>
-    <cellStyle name="注释 2" xfId="293" xr:uid="{00000000-0005-0000-0000-000055010000}"/>
-    <cellStyle name="注释 2 2" xfId="294" xr:uid="{00000000-0005-0000-0000-000056010000}"/>
-    <cellStyle name="注释 2 2 2" xfId="295" xr:uid="{00000000-0005-0000-0000-000057010000}"/>
-    <cellStyle name="注释 2 2 2 2" xfId="296" xr:uid="{00000000-0005-0000-0000-000058010000}"/>
-    <cellStyle name="注释 2 2 2 3" xfId="297" xr:uid="{00000000-0005-0000-0000-000059010000}"/>
-    <cellStyle name="注释 2 2 3" xfId="298" xr:uid="{00000000-0005-0000-0000-00005A010000}"/>
-    <cellStyle name="注释 2 2 3 2" xfId="299" xr:uid="{00000000-0005-0000-0000-00005B010000}"/>
-    <cellStyle name="注释 2 2 4" xfId="300" xr:uid="{00000000-0005-0000-0000-00005C010000}"/>
-    <cellStyle name="注释 2 2 4 2" xfId="301" xr:uid="{00000000-0005-0000-0000-00005D010000}"/>
-    <cellStyle name="注释 2 2 5" xfId="302" xr:uid="{00000000-0005-0000-0000-00005E010000}"/>
-    <cellStyle name="注释 2 2 6" xfId="303" xr:uid="{00000000-0005-0000-0000-00005F010000}"/>
-    <cellStyle name="注释 2 3" xfId="304" xr:uid="{00000000-0005-0000-0000-000060010000}"/>
-    <cellStyle name="注释 2 3 2" xfId="305" xr:uid="{00000000-0005-0000-0000-000061010000}"/>
-    <cellStyle name="注释 2 3 3" xfId="306" xr:uid="{00000000-0005-0000-0000-000062010000}"/>
-    <cellStyle name="注释 2 4" xfId="307" xr:uid="{00000000-0005-0000-0000-000063010000}"/>
-    <cellStyle name="注释 2 4 2" xfId="308" xr:uid="{00000000-0005-0000-0000-000064010000}"/>
-    <cellStyle name="注释 2 5" xfId="309" xr:uid="{00000000-0005-0000-0000-000065010000}"/>
-    <cellStyle name="注释 2 5 2" xfId="310" xr:uid="{00000000-0005-0000-0000-000066010000}"/>
-    <cellStyle name="注释 2 6" xfId="311" xr:uid="{00000000-0005-0000-0000-000067010000}"/>
-    <cellStyle name="注释 2 7" xfId="312" xr:uid="{00000000-0005-0000-0000-000068010000}"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 1 2" xfId="49"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 2" xfId="50"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 2 2" xfId="51"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 2 3" xfId="52"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 3" xfId="53"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 3 2" xfId="54"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 4" xfId="55"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 4 2" xfId="56"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 5" xfId="57"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 6" xfId="58"/>
+    <cellStyle name="20% - 强调文字颜色 1 3" xfId="59"/>
+    <cellStyle name="20% - 强调文字颜色 1 3 2" xfId="60"/>
+    <cellStyle name="20% - 强调文字颜色 1 3 3" xfId="61"/>
+    <cellStyle name="20% - 强调文字颜色 1 4" xfId="62"/>
+    <cellStyle name="20% - 强调文字颜色 1 4 2" xfId="63"/>
+    <cellStyle name="20% - 强调文字颜色 1 5" xfId="64"/>
+    <cellStyle name="20% - 强调文字颜色 1 5 2" xfId="65"/>
+    <cellStyle name="20% - 强调文字颜色 1 6" xfId="66"/>
+    <cellStyle name="20% - 强调文字颜色 1 7" xfId="67"/>
+    <cellStyle name="20% - 强调文字颜色 2 2" xfId="68"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 2" xfId="69"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 2 2" xfId="70"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 2 3" xfId="71"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 3" xfId="72"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 3 2" xfId="73"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 4" xfId="74"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 4 2" xfId="75"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 5" xfId="76"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 6" xfId="77"/>
+    <cellStyle name="20% - 强调文字颜色 2 3" xfId="78"/>
+    <cellStyle name="20% - 强调文字颜色 2 3 2" xfId="79"/>
+    <cellStyle name="20% - 强调文字颜色 2 3 3" xfId="80"/>
+    <cellStyle name="20% - 强调文字颜色 2 4" xfId="81"/>
+    <cellStyle name="20% - 强调文字颜色 2 4 2" xfId="82"/>
+    <cellStyle name="20% - 强调文字颜色 2 5" xfId="83"/>
+    <cellStyle name="20% - 强调文字颜色 2 5 2" xfId="84"/>
+    <cellStyle name="20% - 强调文字颜色 2 6" xfId="85"/>
+    <cellStyle name="20% - 强调文字颜色 2 7" xfId="86"/>
+    <cellStyle name="20% - 强调文字颜色 3 2" xfId="87"/>
+    <cellStyle name="20% - 强调文字颜色 3 2 2" xfId="88"/>
+    <cellStyle name="20% - 强调文字颜色 3 2 2 2" xfId="89"/>
+    <cellStyle name="20% - 强调文字颜色 3 2 2 3" xfId="90"/>
+    <cellStyle name="20% - 强调文字颜色 3 2 3" xfId="91"/>
+    <cellStyle name="20% - 强调文字颜色 3 2 3 2" xfId="92"/>
+    <cellStyle name="20% - 强调文字颜色 3 2 4" xfId="93"/>
+    <cellStyle name="20% - 强调文字颜色 3 2 4 2" xfId="94"/>
+    <cellStyle name="20% - 强调文字颜色 3 2 5" xfId="95"/>
+    <cellStyle name="20% - 强调文字颜色 3 2 6" xfId="96"/>
+    <cellStyle name="20% - 强调文字颜色 3 3" xfId="97"/>
+    <cellStyle name="20% - 强调文字颜色 3 3 2" xfId="98"/>
+    <cellStyle name="20% - 强调文字颜色 3 3 3" xfId="99"/>
+    <cellStyle name="20% - 强调文字颜色 3 4" xfId="100"/>
+    <cellStyle name="20% - 强调文字颜色 3 4 2" xfId="101"/>
+    <cellStyle name="20% - 强调文字颜色 3 5" xfId="102"/>
+    <cellStyle name="20% - 强调文字颜色 3 5 2" xfId="103"/>
+    <cellStyle name="20% - 强调文字颜色 3 6" xfId="104"/>
+    <cellStyle name="20% - 强调文字颜色 3 7" xfId="105"/>
+    <cellStyle name="20% - 强调文字颜色 4 2" xfId="106"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 2" xfId="107"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 2 2" xfId="108"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 2 3" xfId="109"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 3" xfId="110"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 3 2" xfId="111"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 4" xfId="112"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 4 2" xfId="113"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 5" xfId="114"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 6" xfId="115"/>
+    <cellStyle name="20% - 强调文字颜色 4 3" xfId="116"/>
+    <cellStyle name="20% - 强调文字颜色 4 3 2" xfId="117"/>
+    <cellStyle name="20% - 强调文字颜色 4 3 3" xfId="118"/>
+    <cellStyle name="20% - 强调文字颜色 4 4" xfId="119"/>
+    <cellStyle name="20% - 强调文字颜色 4 4 2" xfId="120"/>
+    <cellStyle name="20% - 强调文字颜色 4 5" xfId="121"/>
+    <cellStyle name="20% - 强调文字颜色 4 5 2" xfId="122"/>
+    <cellStyle name="20% - 强调文字颜色 4 6" xfId="123"/>
+    <cellStyle name="20% - 强调文字颜色 4 7" xfId="124"/>
+    <cellStyle name="20% - 强调文字颜色 5 2" xfId="125"/>
+    <cellStyle name="20% - 强调文字颜色 5 2 2" xfId="126"/>
+    <cellStyle name="20% - 强调文字颜色 5 2 2 2" xfId="127"/>
+    <cellStyle name="20% - 强调文字颜色 5 2 2 3" xfId="128"/>
+    <cellStyle name="20% - 强调文字颜色 5 2 3" xfId="129"/>
+    <cellStyle name="20% - 强调文字颜色 5 2 3 2" xfId="130"/>
+    <cellStyle name="20% - 强调文字颜色 5 2 4" xfId="131"/>
+    <cellStyle name="20% - 强调文字颜色 5 2 4 2" xfId="132"/>
+    <cellStyle name="20% - 强调文字颜色 5 2 5" xfId="133"/>
+    <cellStyle name="20% - 强调文字颜色 5 2 6" xfId="134"/>
+    <cellStyle name="20% - 强调文字颜色 5 3" xfId="135"/>
+    <cellStyle name="20% - 强调文字颜色 5 3 2" xfId="136"/>
+    <cellStyle name="20% - 强调文字颜色 5 3 3" xfId="137"/>
+    <cellStyle name="20% - 强调文字颜色 5 4" xfId="138"/>
+    <cellStyle name="20% - 强调文字颜色 5 4 2" xfId="139"/>
+    <cellStyle name="20% - 强调文字颜色 5 5" xfId="140"/>
+    <cellStyle name="20% - 强调文字颜色 5 5 2" xfId="141"/>
+    <cellStyle name="20% - 强调文字颜色 5 6" xfId="142"/>
+    <cellStyle name="20% - 强调文字颜色 5 7" xfId="143"/>
+    <cellStyle name="20% - 强调文字颜色 6 2" xfId="144"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 2" xfId="145"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 2 2" xfId="146"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 2 3" xfId="147"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 3" xfId="148"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 3 2" xfId="149"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 4" xfId="150"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 4 2" xfId="151"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 5" xfId="152"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 6" xfId="153"/>
+    <cellStyle name="20% - 强调文字颜色 6 3" xfId="154"/>
+    <cellStyle name="20% - 强调文字颜色 6 3 2" xfId="155"/>
+    <cellStyle name="20% - 强调文字颜色 6 3 3" xfId="156"/>
+    <cellStyle name="20% - 强调文字颜色 6 4" xfId="157"/>
+    <cellStyle name="20% - 强调文字颜色 6 4 2" xfId="158"/>
+    <cellStyle name="20% - 强调文字颜色 6 5" xfId="159"/>
+    <cellStyle name="20% - 强调文字颜色 6 5 2" xfId="160"/>
+    <cellStyle name="20% - 强调文字颜色 6 6" xfId="161"/>
+    <cellStyle name="20% - 强调文字颜色 6 7" xfId="162"/>
+    <cellStyle name="40% - 强调文字颜色 1 2" xfId="163"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 2" xfId="164"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 2 2" xfId="165"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 2 3" xfId="166"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 3" xfId="167"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 3 2" xfId="168"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 4" xfId="169"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 4 2" xfId="170"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 5" xfId="171"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 6" xfId="172"/>
+    <cellStyle name="40% - 强调文字颜色 1 3" xfId="173"/>
+    <cellStyle name="40% - 强调文字颜色 1 3 2" xfId="174"/>
+    <cellStyle name="40% - 强调文字颜色 1 3 3" xfId="175"/>
+    <cellStyle name="40% - 强调文字颜色 1 4" xfId="176"/>
+    <cellStyle name="40% - 强调文字颜色 1 4 2" xfId="177"/>
+    <cellStyle name="40% - 强调文字颜色 1 5" xfId="178"/>
+    <cellStyle name="40% - 强调文字颜色 1 5 2" xfId="179"/>
+    <cellStyle name="40% - 强调文字颜色 1 6" xfId="180"/>
+    <cellStyle name="40% - 强调文字颜色 1 7" xfId="181"/>
+    <cellStyle name="40% - 强调文字颜色 2 2" xfId="182"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 2" xfId="183"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 2 2" xfId="184"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 2 3" xfId="185"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 3" xfId="186"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 3 2" xfId="187"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 4" xfId="188"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 4 2" xfId="189"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 5" xfId="190"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 6" xfId="191"/>
+    <cellStyle name="40% - 强调文字颜色 2 3" xfId="192"/>
+    <cellStyle name="40% - 强调文字颜色 2 3 2" xfId="193"/>
+    <cellStyle name="40% - 强调文字颜色 2 3 3" xfId="194"/>
+    <cellStyle name="40% - 强调文字颜色 2 4" xfId="195"/>
+    <cellStyle name="40% - 强调文字颜色 2 4 2" xfId="196"/>
+    <cellStyle name="40% - 强调文字颜色 2 5" xfId="197"/>
+    <cellStyle name="40% - 强调文字颜色 2 5 2" xfId="198"/>
+    <cellStyle name="40% - 强调文字颜色 2 6" xfId="199"/>
+    <cellStyle name="40% - 强调文字颜色 2 7" xfId="200"/>
+    <cellStyle name="40% - 强调文字颜色 3 2" xfId="201"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 2" xfId="202"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 2 2" xfId="203"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 2 3" xfId="204"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 3" xfId="205"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 3 2" xfId="206"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 4" xfId="207"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 4 2" xfId="208"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 5" xfId="209"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 6" xfId="210"/>
+    <cellStyle name="40% - 强调文字颜色 3 3" xfId="211"/>
+    <cellStyle name="40% - 强调文字颜色 3 3 2" xfId="212"/>
+    <cellStyle name="40% - 强调文字颜色 3 3 3" xfId="213"/>
+    <cellStyle name="40% - 强调文字颜色 3 4" xfId="214"/>
+    <cellStyle name="40% - 强调文字颜色 3 4 2" xfId="215"/>
+    <cellStyle name="40% - 强调文字颜色 3 5" xfId="216"/>
+    <cellStyle name="40% - 强调文字颜色 3 5 2" xfId="217"/>
+    <cellStyle name="40% - 强调文字颜色 3 6" xfId="218"/>
+    <cellStyle name="40% - 强调文字颜色 3 7" xfId="219"/>
+    <cellStyle name="40% - 强调文字颜色 4 2" xfId="220"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 2" xfId="221"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 2 2" xfId="222"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 2 3" xfId="223"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 3" xfId="224"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 3 2" xfId="225"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 4" xfId="226"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 4 2" xfId="227"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 5" xfId="228"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 6" xfId="229"/>
+    <cellStyle name="40% - 强调文字颜色 4 3" xfId="230"/>
+    <cellStyle name="40% - 强调文字颜色 4 3 2" xfId="231"/>
+    <cellStyle name="40% - 强调文字颜色 4 3 3" xfId="232"/>
+    <cellStyle name="40% - 强调文字颜色 4 4" xfId="233"/>
+    <cellStyle name="40% - 强调文字颜色 4 4 2" xfId="234"/>
+    <cellStyle name="40% - 强调文字颜色 4 5" xfId="235"/>
+    <cellStyle name="40% - 强调文字颜色 4 5 2" xfId="236"/>
+    <cellStyle name="40% - 强调文字颜色 4 6" xfId="237"/>
+    <cellStyle name="40% - 强调文字颜色 4 7" xfId="238"/>
+    <cellStyle name="40% - 强调文字颜色 5 2" xfId="239"/>
+    <cellStyle name="40% - 强调文字颜色 5 2 2" xfId="240"/>
+    <cellStyle name="40% - 强调文字颜色 5 2 2 2" xfId="241"/>
+    <cellStyle name="40% - 强调文字颜色 5 2 2 3" xfId="242"/>
+    <cellStyle name="40% - 强调文字颜色 5 2 3" xfId="243"/>
+    <cellStyle name="40% - 强调文字颜色 5 2 3 2" xfId="244"/>
+    <cellStyle name="40% - 强调文字颜色 5 2 4" xfId="245"/>
+    <cellStyle name="40% - 强调文字颜色 5 2 4 2" xfId="246"/>
+    <cellStyle name="40% - 强调文字颜色 5 2 5" xfId="247"/>
+    <cellStyle name="40% - 强调文字颜色 5 2 6" xfId="248"/>
+    <cellStyle name="40% - 强调文字颜色 5 3" xfId="249"/>
+    <cellStyle name="40% - 强调文字颜色 5 3 2" xfId="250"/>
+    <cellStyle name="40% - 强调文字颜色 5 3 3" xfId="251"/>
+    <cellStyle name="40% - 强调文字颜色 5 4" xfId="252"/>
+    <cellStyle name="40% - 强调文字颜色 5 4 2" xfId="253"/>
+    <cellStyle name="40% - 强调文字颜色 5 5" xfId="254"/>
+    <cellStyle name="40% - 强调文字颜色 5 5 2" xfId="255"/>
+    <cellStyle name="40% - 强调文字颜色 5 6" xfId="256"/>
+    <cellStyle name="40% - 强调文字颜色 5 7" xfId="257"/>
+    <cellStyle name="40% - 强调文字颜色 6 2" xfId="258"/>
+    <cellStyle name="40% - 强调文字颜色 6 2 2" xfId="259"/>
+    <cellStyle name="40% - 强调文字颜色 6 2 2 2" xfId="260"/>
+    <cellStyle name="40% - 强调文字颜色 6 2 2 3" xfId="261"/>
+    <cellStyle name="40% - 强调文字颜色 6 2 3" xfId="262"/>
+    <cellStyle name="40% - 强调文字颜色 6 2 3 2" xfId="263"/>
+    <cellStyle name="40% - 强调文字颜色 6 2 4" xfId="264"/>
+    <cellStyle name="40% - 强调文字颜色 6 2 4 2" xfId="265"/>
+    <cellStyle name="40% - 强调文字颜色 6 2 5" xfId="266"/>
+    <cellStyle name="40% - 强调文字颜色 6 2 6" xfId="267"/>
+    <cellStyle name="40% - 强调文字颜色 6 3" xfId="268"/>
+    <cellStyle name="40% - 强调文字颜色 6 3 2" xfId="269"/>
+    <cellStyle name="40% - 强调文字颜色 6 3 3" xfId="270"/>
+    <cellStyle name="40% - 强调文字颜色 6 4" xfId="271"/>
+    <cellStyle name="40% - 强调文字颜色 6 4 2" xfId="272"/>
+    <cellStyle name="40% - 强调文字颜色 6 5" xfId="273"/>
+    <cellStyle name="40% - 强调文字颜色 6 5 2" xfId="274"/>
+    <cellStyle name="40% - 强调文字颜色 6 6" xfId="275"/>
+    <cellStyle name="40% - 强调文字颜色 6 7" xfId="276"/>
+    <cellStyle name="常规 2" xfId="277"/>
+    <cellStyle name="常规 2 2" xfId="278"/>
+    <cellStyle name="常规 2 3" xfId="279"/>
+    <cellStyle name="常规 2 3 2" xfId="280"/>
+    <cellStyle name="常规 2 3 2 2" xfId="281"/>
+    <cellStyle name="常规 2 3 2 2 2" xfId="282"/>
+    <cellStyle name="常规 2 3 2 2 2 2" xfId="283"/>
+    <cellStyle name="常规 2 3 2 2 2 3" xfId="284"/>
+    <cellStyle name="常规 2 3 2 2 3" xfId="285"/>
+    <cellStyle name="常规 2 3 2 2 3 2" xfId="286"/>
+    <cellStyle name="常规 2 3 2 2 4" xfId="287"/>
+    <cellStyle name="常规 2 3 2 2 4 2" xfId="288"/>
+    <cellStyle name="常规 2 3 2 2 5" xfId="289"/>
+    <cellStyle name="常规 2 3 2 2 6" xfId="290"/>
+    <cellStyle name="常规 2 3 2 3" xfId="291"/>
+    <cellStyle name="常规 2 3 2 3 2" xfId="292"/>
+    <cellStyle name="常规 2 3 2 3 3" xfId="293"/>
+    <cellStyle name="常规 2 3 2 4" xfId="294"/>
+    <cellStyle name="常规 2 3 2 4 2" xfId="295"/>
+    <cellStyle name="常规 2 3 2 5" xfId="296"/>
+    <cellStyle name="常规 2 3 2 5 2" xfId="297"/>
+    <cellStyle name="常规 2 3 2 6" xfId="298"/>
+    <cellStyle name="常规 2 3 2 7" xfId="299"/>
+    <cellStyle name="常规 2 3 3" xfId="300"/>
+    <cellStyle name="常规 2 3 3 2" xfId="301"/>
+    <cellStyle name="常规 2 3 3 2 2" xfId="302"/>
+    <cellStyle name="常规 2 3 3 2 3" xfId="303"/>
+    <cellStyle name="常规 2 3 3 3" xfId="304"/>
+    <cellStyle name="常规 2 3 3 3 2" xfId="305"/>
+    <cellStyle name="常规 2 3 3 4" xfId="306"/>
+    <cellStyle name="常规 2 3 3 4 2" xfId="307"/>
+    <cellStyle name="常规 2 3 3 5" xfId="308"/>
+    <cellStyle name="常规 2 3 3 6" xfId="309"/>
+    <cellStyle name="常规 2 3 4" xfId="310"/>
+    <cellStyle name="常规 2 3 4 2" xfId="311"/>
+    <cellStyle name="常规 2 3 4 3" xfId="312"/>
+    <cellStyle name="常规 2 3 5" xfId="313"/>
+    <cellStyle name="常规 2 3 5 2" xfId="314"/>
+    <cellStyle name="常规 2 3 6" xfId="315"/>
+    <cellStyle name="常规 2 3 6 2" xfId="316"/>
+    <cellStyle name="常规 2 3 7" xfId="317"/>
+    <cellStyle name="常规 2 3 8" xfId="318"/>
+    <cellStyle name="常规 3" xfId="319"/>
+    <cellStyle name="常规 4" xfId="320"/>
+    <cellStyle name="常规 5" xfId="321"/>
+    <cellStyle name="常规 5 2" xfId="322"/>
+    <cellStyle name="常规 5 2 2" xfId="323"/>
+    <cellStyle name="常规 5 2 2 2" xfId="324"/>
+    <cellStyle name="常规 5 2 2 3" xfId="325"/>
+    <cellStyle name="常规 5 2 3" xfId="326"/>
+    <cellStyle name="常规 5 2 3 2" xfId="327"/>
+    <cellStyle name="常规 5 2 4" xfId="328"/>
+    <cellStyle name="常规 5 2 4 2" xfId="329"/>
+    <cellStyle name="常规 5 2 5" xfId="330"/>
+    <cellStyle name="常规 5 2 6" xfId="331"/>
+    <cellStyle name="常规 5 3" xfId="332"/>
+    <cellStyle name="常规 5 3 2" xfId="333"/>
+    <cellStyle name="常规 5 3 3" xfId="334"/>
+    <cellStyle name="常规 5 4" xfId="335"/>
+    <cellStyle name="常规 5 4 2" xfId="336"/>
+    <cellStyle name="常规 5 5" xfId="337"/>
+    <cellStyle name="常规 5 5 2" xfId="338"/>
+    <cellStyle name="常规 5 6" xfId="339"/>
+    <cellStyle name="常规 5 7" xfId="340"/>
+    <cellStyle name="注释 2" xfId="341"/>
+    <cellStyle name="注释 2 2" xfId="342"/>
+    <cellStyle name="注释 2 2 2" xfId="343"/>
+    <cellStyle name="注释 2 2 2 2" xfId="344"/>
+    <cellStyle name="注释 2 2 2 3" xfId="345"/>
+    <cellStyle name="注释 2 2 3" xfId="346"/>
+    <cellStyle name="注释 2 2 3 2" xfId="347"/>
+    <cellStyle name="注释 2 2 4" xfId="348"/>
+    <cellStyle name="注释 2 2 4 2" xfId="349"/>
+    <cellStyle name="注释 2 2 5" xfId="350"/>
+    <cellStyle name="注释 2 2 6" xfId="351"/>
+    <cellStyle name="注释 2 3" xfId="352"/>
+    <cellStyle name="注释 2 3 2" xfId="353"/>
+    <cellStyle name="注释 2 3 3" xfId="354"/>
+    <cellStyle name="注释 2 4" xfId="355"/>
+    <cellStyle name="注释 2 4 2" xfId="356"/>
+    <cellStyle name="注释 2 5" xfId="357"/>
+    <cellStyle name="注释 2 5 2" xfId="358"/>
+    <cellStyle name="注释 2 6" xfId="359"/>
+    <cellStyle name="注释 2 7" xfId="360"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
       <font>
-        <b/>
+        <b val="1"/>
         <i val="0"/>
       </font>
       <fill>
@@ -2548,7 +3100,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2">
-    <tableStyle name="MySqlDefault" count="2" xr9:uid="{B61CA06B-6200-42F0-B88D-9B5F6612B264}">
+    <tableStyle name="MySqlDefault" count="2" xr9:uid="{243A4A57-CEDF-43F2-8B0C-BB73FDC2F7D9}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -2556,9 +3108,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2588,19 +3137,19 @@
     </xsd:schema>
   </Schema>
   <Map ID="1" Name="DateArea_映射" RootElement="DateArea" SchemaID="Schema1" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true">
-    <DataBinding FileBinding="true" ConnectionID="1" DataBindingLoadMode="1"/>
+    <DataBinding ConnectionID="1" FileBinding="true" DataBindingLoadMode="1"/>
   </Map>
 </MapInfo>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表1" displayName="表1" ref="C3:G20" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="C3:G20" totalsRowShown="0">
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Id"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="活动类型"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Icon显示"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="参数_1"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="参数_2"/>
+    <tableColumn id="1" name="Id"/>
+    <tableColumn id="2" name="活动类型"/>
+    <tableColumn id="3" name="Icon显示"/>
+    <tableColumn id="4" name="参数_1"/>
+    <tableColumn id="5" name="参数_2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2885,19 +3434,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="C1:J212"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E127" workbookViewId="0">
-      <selection activeCell="G141" sqref="G141"/>
+    <sheetView tabSelected="1" topLeftCell="E125" workbookViewId="0">
+      <selection activeCell="E145" sqref="E145"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
     <col min="3" max="5" width="21.625" customWidth="1"/>
     <col min="6" max="6" width="26.125" customWidth="1"/>
@@ -2906,8 +3455,8 @@
     <col min="9" max="9" width="40.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:9" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" s="1" customFormat="1" ht="14.25"/>
+    <row r="3" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
       <c r="C3" s="3" t="s">
         <v>0</v>
       </c>
@@ -2930,7 +3479,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
       <c r="C4" s="3" t="s">
         <v>0</v>
       </c>
@@ -2953,7 +3502,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
       <c r="C5" s="3" t="s">
         <v>13</v>
       </c>
@@ -2976,7 +3525,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
       <c r="C6" s="6">
         <v>2001</v>
       </c>
@@ -2989,17 +3538,17 @@
       <c r="F6" s="7">
         <v>1999</v>
       </c>
-      <c r="G6" s="17" t="s">
+      <c r="G6" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="H6" s="8" t="s">
+      <c r="H6" s="9" t="s">
         <v>17</v>
       </c>
       <c r="I6" s="12" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
       <c r="C7" s="6">
         <v>2003</v>
       </c>
@@ -3012,7 +3561,7 @@
       <c r="F7" s="7">
         <v>1999</v>
       </c>
-      <c r="G7" s="17" t="s">
+      <c r="G7" s="16" t="s">
         <v>16</v>
       </c>
       <c r="H7" s="9" t="s">
@@ -3022,7 +3571,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
       <c r="C8" s="6">
         <v>2004</v>
       </c>
@@ -3035,7 +3584,7 @@
       <c r="F8" s="7">
         <v>1999</v>
       </c>
-      <c r="G8" s="17" t="s">
+      <c r="G8" s="16" t="s">
         <v>16</v>
       </c>
       <c r="H8" s="9" t="s">
@@ -3045,7 +3594,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
       <c r="C9" s="6">
         <v>2005</v>
       </c>
@@ -3058,7 +3607,7 @@
       <c r="F9" s="7">
         <v>1999</v>
       </c>
-      <c r="G9" s="17" t="s">
+      <c r="G9" s="16" t="s">
         <v>16</v>
       </c>
       <c r="H9" s="9" t="s">
@@ -3068,7 +3617,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
       <c r="C10" s="6">
         <v>2006</v>
       </c>
@@ -3081,7 +3630,7 @@
       <c r="F10" s="7">
         <v>1999</v>
       </c>
-      <c r="G10" s="17" t="s">
+      <c r="G10" s="16" t="s">
         <v>16</v>
       </c>
       <c r="H10" s="9" t="s">
@@ -3091,7 +3640,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
       <c r="C11" s="6">
         <v>2007</v>
       </c>
@@ -3101,10 +3650,10 @@
       <c r="E11" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="F11" s="18" t="s">
+      <c r="F11" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="G11" s="19" t="s">
+      <c r="G11" s="16" t="s">
         <v>31</v>
       </c>
       <c r="H11" s="10" t="s">
@@ -3114,7 +3663,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
       <c r="C12" s="6">
         <v>2008</v>
       </c>
@@ -3124,10 +3673,10 @@
       <c r="E12" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="F12" s="18" t="s">
+      <c r="F12" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="G12" s="19" t="s">
+      <c r="G12" s="16" t="s">
         <v>31</v>
       </c>
       <c r="H12" s="9" t="s">
@@ -3137,7 +3686,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
       <c r="C13" s="6">
         <v>2009</v>
       </c>
@@ -3147,10 +3696,10 @@
       <c r="E13" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="F13" s="18" t="s">
+      <c r="F13" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="G13" s="19" t="s">
+      <c r="G13" s="16" t="s">
         <v>31</v>
       </c>
       <c r="H13" s="9" t="s">
@@ -3160,7 +3709,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
       <c r="C14" s="6">
         <v>2010</v>
       </c>
@@ -3170,10 +3719,10 @@
       <c r="E14" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="F14" s="18" t="s">
+      <c r="F14" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="G14" s="19" t="s">
+      <c r="G14" s="16" t="s">
         <v>31</v>
       </c>
       <c r="H14" s="9" t="s">
@@ -3183,7 +3732,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
       <c r="C15" s="6">
         <v>2011</v>
       </c>
@@ -3193,10 +3742,10 @@
       <c r="E15" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="F15" s="18" t="s">
+      <c r="F15" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="G15" s="19" t="s">
+      <c r="G15" s="16" t="s">
         <v>31</v>
       </c>
       <c r="H15" s="9" t="s">
@@ -3206,7 +3755,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
       <c r="C16" s="6">
         <v>2012</v>
       </c>
@@ -3216,10 +3765,10 @@
       <c r="E16" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="F16" s="18" t="s">
+      <c r="F16" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="G16" s="17" t="s">
+      <c r="G16" s="16" t="s">
         <v>16</v>
       </c>
       <c r="H16" s="9" t="s">
@@ -3229,7 +3778,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
       <c r="C17" s="6">
         <v>2013</v>
       </c>
@@ -3239,10 +3788,10 @@
       <c r="E17" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="F17" s="18" t="s">
+      <c r="F17" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="G17" s="17" t="s">
+      <c r="G17" s="16" t="s">
         <v>16</v>
       </c>
       <c r="H17" s="9" t="s">
@@ -3252,7 +3801,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
       <c r="C18" s="6">
         <v>2014</v>
       </c>
@@ -3262,10 +3811,10 @@
       <c r="E18" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="F18" s="18" t="s">
+      <c r="F18" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="G18" s="17" t="s">
+      <c r="G18" s="16" t="s">
         <v>16</v>
       </c>
       <c r="H18" s="9" t="s">
@@ -3275,7 +3824,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
       <c r="C19" s="6">
         <v>2015</v>
       </c>
@@ -3285,10 +3834,10 @@
       <c r="E19" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="F19" s="18" t="s">
+      <c r="F19" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="G19" s="17" t="s">
+      <c r="G19" s="16" t="s">
         <v>16</v>
       </c>
       <c r="H19" s="9" t="s">
@@ -3298,7 +3847,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="3:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:9">
       <c r="C20" s="6">
         <v>2016</v>
       </c>
@@ -3308,10 +3857,10 @@
       <c r="E20" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="F20" s="18" t="s">
+      <c r="F20" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="G20" s="17" t="s">
+      <c r="G20" s="16" t="s">
         <v>16</v>
       </c>
       <c r="H20" s="9" t="s">
@@ -3321,7 +3870,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" ht="20.1" customHeight="1" spans="3:9">
       <c r="C21" s="11">
         <v>10001</v>
       </c>
@@ -3332,7 +3881,7 @@
       <c r="F21" s="11">
         <v>5</v>
       </c>
-      <c r="G21" s="17" t="s">
+      <c r="G21" s="16" t="s">
         <v>49</v>
       </c>
       <c r="H21" s="9" t="s">
@@ -3343,7 +3892,7 @@
         <v>5级礼包</v>
       </c>
     </row>
-    <row r="22" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" ht="20.1" customHeight="1" spans="3:9">
       <c r="C22" s="11">
         <v>10002</v>
       </c>
@@ -3354,7 +3903,7 @@
       <c r="F22" s="11">
         <v>10</v>
       </c>
-      <c r="G22" s="17" t="s">
+      <c r="G22" s="16" t="s">
         <v>51</v>
       </c>
       <c r="H22" s="9" t="s">
@@ -3365,7 +3914,7 @@
         <v>10级礼包</v>
       </c>
     </row>
-    <row r="23" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" ht="20.1" customHeight="1" spans="3:9">
       <c r="C23" s="11">
         <v>10003</v>
       </c>
@@ -3376,7 +3925,7 @@
       <c r="F23" s="11">
         <v>15</v>
       </c>
-      <c r="G23" s="17" t="s">
+      <c r="G23" s="16" t="s">
         <v>53</v>
       </c>
       <c r="H23" s="9" t="s">
@@ -3387,7 +3936,7 @@
         <v>15级礼包</v>
       </c>
     </row>
-    <row r="24" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" ht="20.1" customHeight="1" spans="3:9">
       <c r="C24" s="11">
         <v>10004</v>
       </c>
@@ -3398,7 +3947,7 @@
       <c r="F24" s="11">
         <v>20</v>
       </c>
-      <c r="G24" s="17" t="s">
+      <c r="G24" s="16" t="s">
         <v>55</v>
       </c>
       <c r="H24" s="9" t="s">
@@ -3409,7 +3958,7 @@
         <v>20级礼包</v>
       </c>
     </row>
-    <row r="25" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" ht="20.1" customHeight="1" spans="3:9">
       <c r="C25" s="11">
         <v>10005</v>
       </c>
@@ -3420,7 +3969,7 @@
       <c r="F25" s="11">
         <v>25</v>
       </c>
-      <c r="G25" s="17" t="s">
+      <c r="G25" s="16" t="s">
         <v>57</v>
       </c>
       <c r="H25" s="9" t="s">
@@ -3431,7 +3980,7 @@
         <v>25级礼包</v>
       </c>
     </row>
-    <row r="26" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" ht="20.1" customHeight="1" spans="3:9">
       <c r="C26" s="11">
         <v>10006</v>
       </c>
@@ -3453,7 +4002,7 @@
         <v>30级礼包</v>
       </c>
     </row>
-    <row r="27" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" ht="20.1" customHeight="1" spans="3:9">
       <c r="C27" s="11">
         <v>21001</v>
       </c>
@@ -3474,7 +4023,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="28" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" ht="20.1" customHeight="1" spans="3:9">
       <c r="C28" s="11">
         <v>21002</v>
       </c>
@@ -3495,7 +4044,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="29" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" ht="20.1" customHeight="1" spans="3:9">
       <c r="C29" s="11">
         <v>21003</v>
       </c>
@@ -3516,7 +4065,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="30" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" ht="20.1" customHeight="1" spans="3:9">
       <c r="C30" s="11">
         <v>21004</v>
       </c>
@@ -3537,7 +4086,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="31" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" ht="20.1" customHeight="1" spans="3:9">
       <c r="C31" s="11">
         <v>21005</v>
       </c>
@@ -3558,7 +4107,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="32" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" ht="20.1" customHeight="1" spans="3:9">
       <c r="C32" s="11">
         <v>21006</v>
       </c>
@@ -3579,7 +4128,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="33" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" ht="20.1" customHeight="1" spans="3:9">
       <c r="C33" s="11">
         <v>21007</v>
       </c>
@@ -3600,7 +4149,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="34" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" ht="20.1" customHeight="1" spans="3:9">
       <c r="C34" s="11">
         <v>21008</v>
       </c>
@@ -3621,7 +4170,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="35" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" ht="20.1" customHeight="1" spans="3:9">
       <c r="C35" s="11">
         <v>21009</v>
       </c>
@@ -3642,7 +4191,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="36" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" ht="20.1" customHeight="1" spans="3:9">
       <c r="C36" s="11">
         <v>21010</v>
       </c>
@@ -3663,7 +4212,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="37" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" ht="20.1" customHeight="1" spans="3:9">
       <c r="C37" s="11">
         <v>21011</v>
       </c>
@@ -3684,7 +4233,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="38" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" ht="20.1" customHeight="1" spans="3:9">
       <c r="C38" s="11">
         <v>22001</v>
       </c>
@@ -3705,7 +4254,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="39" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" ht="20.1" customHeight="1" spans="3:9">
       <c r="C39" s="11">
         <v>22002</v>
       </c>
@@ -3726,7 +4275,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="40" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" ht="20.1" customHeight="1" spans="3:9">
       <c r="C40" s="11">
         <v>22003</v>
       </c>
@@ -3747,7 +4296,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="41" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" ht="20.1" customHeight="1" spans="3:9">
       <c r="C41" s="11">
         <v>22004</v>
       </c>
@@ -3768,7 +4317,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="42" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" ht="20.1" customHeight="1" spans="3:9">
       <c r="C42" s="11">
         <v>22005</v>
       </c>
@@ -3789,7 +4338,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="43" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" ht="20.1" customHeight="1" spans="3:9">
       <c r="C43" s="11">
         <v>22006</v>
       </c>
@@ -3810,7 +4359,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="44" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" ht="20.1" customHeight="1" spans="3:9">
       <c r="C44" s="11">
         <v>22007</v>
       </c>
@@ -3831,7 +4380,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="45" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" ht="20.1" customHeight="1" spans="3:9">
       <c r="C45" s="11">
         <v>22008</v>
       </c>
@@ -3852,7 +4401,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="46" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" ht="20.1" customHeight="1" spans="3:9">
       <c r="C46" s="11">
         <v>22009</v>
       </c>
@@ -3873,7 +4422,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="47" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" ht="20.1" customHeight="1" spans="3:9">
       <c r="C47" s="11">
         <v>22010</v>
       </c>
@@ -3894,7 +4443,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="48" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" ht="20.1" customHeight="1" spans="3:9">
       <c r="C48" s="11">
         <v>22011</v>
       </c>
@@ -3915,7 +4464,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="49" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" ht="20.1" customHeight="1" spans="3:9">
       <c r="C49" s="11">
         <v>23001</v>
       </c>
@@ -3934,7 +4483,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="50" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" ht="20.1" customHeight="1" spans="3:9">
       <c r="C50" s="11">
         <v>23002</v>
       </c>
@@ -3953,7 +4502,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="51" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" ht="20.1" customHeight="1" spans="3:9">
       <c r="C51" s="11">
         <v>23003</v>
       </c>
@@ -3972,7 +4521,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="52" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" ht="20.1" customHeight="1" spans="3:9">
       <c r="C52" s="11">
         <v>23004</v>
       </c>
@@ -3991,7 +4540,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="53" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" ht="20.1" customHeight="1" spans="3:9">
       <c r="C53" s="11">
         <v>23005</v>
       </c>
@@ -4010,7 +4559,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="54" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" ht="20.1" customHeight="1" spans="3:9">
       <c r="C54" s="11">
         <v>23006</v>
       </c>
@@ -4029,7 +4578,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="55" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" ht="20.1" customHeight="1" spans="3:9">
       <c r="C55" s="11">
         <v>23007</v>
       </c>
@@ -4048,7 +4597,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="56" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="56" ht="20.1" customHeight="1" spans="3:9">
       <c r="C56" s="11">
         <v>23008</v>
       </c>
@@ -4067,7 +4616,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="57" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" ht="20.1" customHeight="1" spans="3:9">
       <c r="C57" s="11">
         <v>23009</v>
       </c>
@@ -4086,7 +4635,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="58" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" ht="20.1" customHeight="1" spans="3:9">
       <c r="C58" s="11">
         <v>23010</v>
       </c>
@@ -4105,7 +4654,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="59" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" ht="20.1" customHeight="1" spans="3:9">
       <c r="C59" s="11">
         <v>23011</v>
       </c>
@@ -4124,7 +4673,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="60" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="60" ht="20.1" customHeight="1" spans="3:9">
       <c r="C60" s="11">
         <v>23012</v>
       </c>
@@ -4143,7 +4692,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="61" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" ht="20.1" customHeight="1" spans="3:9">
       <c r="C61" s="11">
         <v>23013</v>
       </c>
@@ -4162,7 +4711,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="62" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="62" ht="20.1" customHeight="1" spans="3:9">
       <c r="C62" s="11">
         <v>23014</v>
       </c>
@@ -4181,7 +4730,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="63" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="63" ht="20.1" customHeight="1" spans="3:9">
       <c r="C63" s="11">
         <v>23015</v>
       </c>
@@ -4200,7 +4749,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="64" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="64" ht="20.1" customHeight="1" spans="3:9">
       <c r="C64" s="11">
         <v>23016</v>
       </c>
@@ -4219,7 +4768,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="65" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="65" ht="20.1" customHeight="1" spans="3:9">
       <c r="C65" s="11">
         <v>23017</v>
       </c>
@@ -4238,7 +4787,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="66" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="66" ht="20.1" customHeight="1" spans="3:9">
       <c r="C66" s="11">
         <v>23018</v>
       </c>
@@ -4257,7 +4806,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="67" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="67" ht="20.1" customHeight="1" spans="3:9">
       <c r="C67" s="11">
         <v>23019</v>
       </c>
@@ -4276,7 +4825,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="68" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="68" ht="20.1" customHeight="1" spans="3:9">
       <c r="C68" s="11">
         <v>23020</v>
       </c>
@@ -4295,7 +4844,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="69" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="69" ht="20.1" customHeight="1" spans="3:9">
       <c r="C69" s="11">
         <v>23021</v>
       </c>
@@ -4314,7 +4863,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="70" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="70" ht="20.1" customHeight="1" spans="3:9">
       <c r="C70" s="11">
         <v>23022</v>
       </c>
@@ -4333,7 +4882,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="71" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="71" ht="20.1" customHeight="1" spans="3:9">
       <c r="C71" s="11">
         <v>23023</v>
       </c>
@@ -4352,7 +4901,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="72" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="72" ht="20.1" customHeight="1" spans="3:9">
       <c r="C72" s="11">
         <v>23024</v>
       </c>
@@ -4371,7 +4920,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="73" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="73" ht="20.1" customHeight="1" spans="3:9">
       <c r="C73" s="11">
         <v>23025</v>
       </c>
@@ -4390,7 +4939,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="74" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="74" ht="20.1" customHeight="1" spans="3:9">
       <c r="C74" s="11">
         <v>23026</v>
       </c>
@@ -4409,7 +4958,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="75" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="75" ht="20.1" customHeight="1" spans="3:9">
       <c r="C75" s="11">
         <v>23027</v>
       </c>
@@ -4428,7 +4977,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="76" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="76" ht="20.1" customHeight="1" spans="3:9">
       <c r="C76" s="11">
         <v>23028</v>
       </c>
@@ -4447,7 +4996,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="77" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="77" ht="20.1" customHeight="1" spans="3:9">
       <c r="C77" s="11">
         <v>23029</v>
       </c>
@@ -4466,7 +5015,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="78" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="78" ht="20.1" customHeight="1" spans="3:9">
       <c r="C78" s="11">
         <v>23030</v>
       </c>
@@ -4485,7 +5034,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="79" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="79" ht="20.1" customHeight="1" spans="3:9">
       <c r="C79" s="11">
         <v>24001</v>
       </c>
@@ -4506,7 +5055,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="80" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="80" ht="20.1" customHeight="1" spans="3:9">
       <c r="C80" s="11">
         <v>24002</v>
       </c>
@@ -4527,7 +5076,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="81" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="81" ht="20.1" customHeight="1" spans="3:9">
       <c r="C81" s="11">
         <v>24003</v>
       </c>
@@ -4548,7 +5097,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="82" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="82" ht="20.1" customHeight="1" spans="3:9">
       <c r="C82" s="11">
         <v>24004</v>
       </c>
@@ -4569,7 +5118,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="83" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="83" ht="20.1" customHeight="1" spans="3:9">
       <c r="C83" s="11">
         <v>24005</v>
       </c>
@@ -4590,7 +5139,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="84" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="84" ht="20.1" customHeight="1" spans="3:9">
       <c r="C84" s="11">
         <v>24006</v>
       </c>
@@ -4611,7 +5160,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="85" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="85" ht="20.1" customHeight="1" spans="3:9">
       <c r="C85" s="11">
         <v>24007</v>
       </c>
@@ -4632,7 +5181,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="86" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="86" ht="20.1" customHeight="1" spans="3:9">
       <c r="C86" s="11">
         <v>24008</v>
       </c>
@@ -4653,7 +5202,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="87" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="87" ht="20.1" customHeight="1" spans="3:9">
       <c r="C87" s="11">
         <v>24009</v>
       </c>
@@ -4674,7 +5223,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="88" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="88" ht="20.1" customHeight="1" spans="3:9">
       <c r="C88" s="11">
         <v>24010</v>
       </c>
@@ -4695,7 +5244,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="89" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="89" ht="20.1" customHeight="1" spans="3:9">
       <c r="C89" s="11">
         <v>24011</v>
       </c>
@@ -4716,7 +5265,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="90" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="90" ht="20.1" customHeight="1" spans="3:9">
       <c r="C90" s="11">
         <v>24012</v>
       </c>
@@ -4737,7 +5286,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="91" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="91" ht="20.1" customHeight="1" spans="3:9">
       <c r="C91" s="11">
         <v>24013</v>
       </c>
@@ -4758,7 +5307,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="92" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="92" ht="20.1" customHeight="1" spans="3:9">
       <c r="C92" s="11">
         <v>24014</v>
       </c>
@@ -4779,7 +5328,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="93" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="93" ht="20.1" customHeight="1" spans="3:9">
       <c r="C93" s="11">
         <v>24015</v>
       </c>
@@ -4800,7 +5349,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="94" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="94" ht="20.1" customHeight="1" spans="3:9">
       <c r="C94" s="11">
         <v>24016</v>
       </c>
@@ -4821,7 +5370,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="95" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="95" ht="20.1" customHeight="1" spans="3:9">
       <c r="C95" s="11">
         <v>24017</v>
       </c>
@@ -4842,7 +5391,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="96" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="96" ht="20.1" customHeight="1" spans="3:9">
       <c r="C96" s="11">
         <v>24018</v>
       </c>
@@ -4863,7 +5412,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="97" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="97" ht="20.1" customHeight="1" spans="3:9">
       <c r="C97" s="11">
         <v>24019</v>
       </c>
@@ -4884,7 +5433,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="98" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="98" ht="20.1" customHeight="1" spans="3:9">
       <c r="C98" s="11">
         <v>24020</v>
       </c>
@@ -4905,7 +5454,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="99" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="99" ht="20.1" customHeight="1" spans="3:9">
       <c r="C99" s="11">
         <v>24021</v>
       </c>
@@ -4926,7 +5475,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="100" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="100" ht="20.1" customHeight="1" spans="3:9">
       <c r="C100" s="11">
         <v>24022</v>
       </c>
@@ -4947,7 +5496,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="101" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="101" ht="20.1" customHeight="1" spans="3:9">
       <c r="C101" s="11">
         <v>24023</v>
       </c>
@@ -4968,7 +5517,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="102" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="102" ht="20.1" customHeight="1" spans="3:9">
       <c r="C102" s="11">
         <v>24024</v>
       </c>
@@ -4989,7 +5538,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="103" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="103" ht="20.1" customHeight="1" spans="3:9">
       <c r="C103" s="11">
         <v>24025</v>
       </c>
@@ -5010,7 +5559,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="104" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="104" ht="20.1" customHeight="1" spans="3:9">
       <c r="C104" s="11">
         <v>24026</v>
       </c>
@@ -5031,7 +5580,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="105" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="105" ht="20.1" customHeight="1" spans="3:9">
       <c r="C105" s="11">
         <v>24027</v>
       </c>
@@ -5052,7 +5601,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="106" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="106" ht="20.1" customHeight="1" spans="3:9">
       <c r="C106" s="11">
         <v>24028</v>
       </c>
@@ -5073,7 +5622,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="107" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="107" ht="20.1" customHeight="1" spans="3:9">
       <c r="C107" s="11">
         <v>25001</v>
       </c>
@@ -5092,7 +5641,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="108" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="108" ht="20.1" customHeight="1" spans="3:9">
       <c r="C108" s="11">
         <v>25002</v>
       </c>
@@ -5111,7 +5660,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="109" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="109" ht="20.1" customHeight="1" spans="3:9">
       <c r="C109" s="11">
         <v>25003</v>
       </c>
@@ -5130,7 +5679,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="110" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="110" ht="20.1" customHeight="1" spans="3:9">
       <c r="C110" s="11">
         <v>25004</v>
       </c>
@@ -5149,7 +5698,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="111" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="111" ht="20.1" customHeight="1" spans="3:9">
       <c r="C111" s="11">
         <v>25005</v>
       </c>
@@ -5168,7 +5717,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="112" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="112" ht="20.1" customHeight="1" spans="3:9">
       <c r="C112" s="11">
         <v>25006</v>
       </c>
@@ -5187,7 +5736,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="113" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="113" ht="20.1" customHeight="1" spans="3:9">
       <c r="C113" s="11">
         <v>25007</v>
       </c>
@@ -5206,7 +5755,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="114" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="114" ht="20.1" customHeight="1" spans="3:9">
       <c r="C114" s="11">
         <v>25008</v>
       </c>
@@ -5225,7 +5774,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="115" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="115" ht="20.1" customHeight="1" spans="3:9">
       <c r="C115" s="11">
         <v>25009</v>
       </c>
@@ -5244,7 +5793,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="116" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="116" ht="20.1" customHeight="1" spans="3:9">
       <c r="C116" s="11">
         <v>25010</v>
       </c>
@@ -5263,7 +5812,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="117" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="117" ht="20.1" customHeight="1" spans="3:9">
       <c r="C117" s="11">
         <v>25011</v>
       </c>
@@ -5282,7 +5831,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="118" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="118" ht="20.1" customHeight="1" spans="3:9">
       <c r="C118" s="11">
         <v>25012</v>
       </c>
@@ -5301,7 +5850,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="119" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="119" ht="20.1" customHeight="1" spans="3:9">
       <c r="C119" s="11">
         <v>25013</v>
       </c>
@@ -5320,7 +5869,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="120" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="120" ht="20.1" customHeight="1" spans="3:9">
       <c r="C120" s="11">
         <v>25014</v>
       </c>
@@ -5339,7 +5888,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="121" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="121" ht="20.1" customHeight="1" spans="3:9">
       <c r="C121" s="11">
         <v>25015</v>
       </c>
@@ -5358,7 +5907,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="122" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="122" ht="20.1" customHeight="1" spans="3:9">
       <c r="C122" s="11">
         <v>25016</v>
       </c>
@@ -5377,7 +5926,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="123" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="123" ht="20.1" customHeight="1" spans="3:9">
       <c r="C123" s="11">
         <v>25017</v>
       </c>
@@ -5396,7 +5945,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="124" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="124" ht="20.1" customHeight="1" spans="3:9">
       <c r="C124" s="11">
         <v>25018</v>
       </c>
@@ -5415,7 +5964,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="125" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="125" ht="20.1" customHeight="1" spans="3:9">
       <c r="C125" s="11">
         <v>25019</v>
       </c>
@@ -5434,7 +5983,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="126" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="126" ht="20.1" customHeight="1" spans="3:9">
       <c r="C126" s="11">
         <v>25020</v>
       </c>
@@ -5453,7 +6002,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="127" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="127" ht="20.1" customHeight="1" spans="3:9">
       <c r="C127" s="11">
         <v>25021</v>
       </c>
@@ -5472,7 +6021,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="128" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="128" ht="20.1" customHeight="1" spans="3:9">
       <c r="C128" s="11">
         <v>25022</v>
       </c>
@@ -5491,7 +6040,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="129" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="129" ht="20.1" customHeight="1" spans="3:9">
       <c r="C129" s="11">
         <v>25023</v>
       </c>
@@ -5510,7 +6059,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="130" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="130" ht="20.1" customHeight="1" spans="3:9">
       <c r="C130" s="11">
         <v>25024</v>
       </c>
@@ -5529,7 +6078,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="131" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="131" ht="20.1" customHeight="1" spans="3:9">
       <c r="C131" s="11">
         <v>25025</v>
       </c>
@@ -5548,7 +6097,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="132" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="132" ht="20.1" customHeight="1" spans="3:9">
       <c r="C132" s="11">
         <v>25026</v>
       </c>
@@ -5567,7 +6116,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="133" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="133" ht="20.1" customHeight="1" spans="3:9">
       <c r="C133" s="11">
         <v>25027</v>
       </c>
@@ -5586,7 +6135,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="134" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="134" ht="20.1" customHeight="1" spans="3:9">
       <c r="C134" s="11">
         <v>25028</v>
       </c>
@@ -5605,7 +6154,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="135" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="135" ht="20.1" customHeight="1" spans="3:9">
       <c r="C135" s="11">
         <v>25029</v>
       </c>
@@ -5624,7 +6173,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="136" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="136" ht="20.1" customHeight="1" spans="3:9">
       <c r="C136" s="11">
         <v>25030</v>
       </c>
@@ -5643,7 +6192,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="137" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="137" ht="20.1" customHeight="1" spans="3:9">
       <c r="C137" s="11">
         <v>26001</v>
       </c>
@@ -5655,14 +6204,14 @@
         <v>5</v>
       </c>
       <c r="G137" s="11" t="s">
-        <v>238</v>
+        <v>86</v>
       </c>
       <c r="H137" s="11"/>
       <c r="I137" s="11" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="138" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="138" ht="20.1" customHeight="1" spans="3:9">
       <c r="C138" s="11">
         <v>26002</v>
       </c>
@@ -5674,14 +6223,14 @@
         <v>12</v>
       </c>
       <c r="G138" s="11" t="s">
-        <v>239</v>
+        <v>120</v>
       </c>
       <c r="H138" s="11"/>
       <c r="I138" s="11" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="139" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="139" ht="20.1" customHeight="1" spans="3:9">
       <c r="C139" s="11">
         <v>26003</v>
       </c>
@@ -5693,14 +6242,14 @@
         <v>18</v>
       </c>
       <c r="G139" s="11" t="s">
-        <v>243</v>
+        <v>141</v>
       </c>
       <c r="H139" s="11"/>
       <c r="I139" s="11" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="140" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="140" ht="20.1" customHeight="1" spans="3:9">
       <c r="C140" s="11">
         <v>26004</v>
       </c>
@@ -5712,14 +6261,14 @@
         <v>28</v>
       </c>
       <c r="G140" s="11" t="s">
-        <v>240</v>
+        <v>142</v>
       </c>
       <c r="H140" s="11"/>
       <c r="I140" s="11" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="141" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="141" ht="20.1" customHeight="1" spans="3:9">
       <c r="C141" s="11">
         <v>27001</v>
       </c>
@@ -5731,14 +6280,14 @@
         <v>5</v>
       </c>
       <c r="G141" s="11" t="s">
-        <v>240</v>
+        <v>142</v>
       </c>
       <c r="H141" s="11"/>
       <c r="I141" s="11" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="142" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="142" ht="20.1" customHeight="1" spans="3:9">
       <c r="C142" s="11">
         <v>27002</v>
       </c>
@@ -5750,14 +6299,14 @@
         <v>12</v>
       </c>
       <c r="G142" s="11" t="s">
-        <v>241</v>
+        <v>144</v>
       </c>
       <c r="H142" s="11"/>
       <c r="I142" s="11" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="143" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="143" ht="20.1" customHeight="1" spans="3:9">
       <c r="C143" s="11">
         <v>27003</v>
       </c>
@@ -5769,14 +6318,14 @@
         <v>18</v>
       </c>
       <c r="G143" s="11" t="s">
-        <v>242</v>
+        <v>145</v>
       </c>
       <c r="H143" s="11"/>
       <c r="I143" s="11" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="144" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="144" ht="20.1" customHeight="1" spans="3:9">
       <c r="C144" s="11">
         <v>27004</v>
       </c>
@@ -5787,13 +6336,15 @@
       <c r="F144" s="11">
         <v>28</v>
       </c>
-      <c r="G144" s="11"/>
+      <c r="G144" s="11" t="s">
+        <v>145</v>
+      </c>
       <c r="H144" s="11"/>
       <c r="I144" s="11" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="145" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="145" ht="20.1" customHeight="1" spans="3:9">
       <c r="C145" s="11">
         <v>30001</v>
       </c>
@@ -5808,13 +6359,13 @@
         <v>100</v>
       </c>
       <c r="H145" s="15" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="I145" s="11" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="146" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="146" ht="20.1" customHeight="1" spans="3:9">
       <c r="C146" s="11">
         <v>30002</v>
       </c>
@@ -5828,14 +6379,14 @@
       <c r="G146" s="14">
         <v>300</v>
       </c>
-      <c r="H146" s="16" t="s">
-        <v>145</v>
+      <c r="H146" s="15" t="s">
+        <v>148</v>
       </c>
       <c r="I146" s="11" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="147" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="147" ht="20.1" customHeight="1" spans="3:9">
       <c r="C147" s="11">
         <v>30003</v>
       </c>
@@ -5849,14 +6400,14 @@
       <c r="G147" s="14">
         <v>700</v>
       </c>
-      <c r="H147" s="16" t="s">
-        <v>147</v>
+      <c r="H147" s="15" t="s">
+        <v>150</v>
       </c>
       <c r="I147" s="11" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="148" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="148" ht="20.1" customHeight="1" spans="3:9">
       <c r="C148" s="11">
         <v>30004</v>
       </c>
@@ -5870,14 +6421,14 @@
       <c r="G148" s="14">
         <v>1500</v>
       </c>
-      <c r="H148" s="16" t="s">
-        <v>149</v>
+      <c r="H148" s="15" t="s">
+        <v>152</v>
       </c>
       <c r="I148" s="11" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="149" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="149" ht="20.1" customHeight="1" spans="3:10">
       <c r="C149" s="11">
         <v>30005</v>
       </c>
@@ -5891,15 +6442,15 @@
       <c r="G149" s="14">
         <v>3000</v>
       </c>
-      <c r="H149" s="16" t="s">
-        <v>151</v>
+      <c r="H149" s="15" t="s">
+        <v>154</v>
       </c>
       <c r="I149" s="11" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="J149" s="12"/>
     </row>
-    <row r="150" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="150" ht="20.1" customHeight="1" spans="3:10">
       <c r="C150" s="11">
         <v>30006</v>
       </c>
@@ -5913,15 +6464,15 @@
       <c r="G150" s="14">
         <v>5000</v>
       </c>
-      <c r="H150" s="16" t="s">
-        <v>236</v>
+      <c r="H150" s="15" t="s">
+        <v>156</v>
       </c>
       <c r="I150" s="11" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="J150" s="12"/>
     </row>
-    <row r="151" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="151" ht="20.1" customHeight="1" spans="3:10">
       <c r="C151" s="11">
         <v>30007</v>
       </c>
@@ -5935,15 +6486,15 @@
       <c r="G151" s="14">
         <v>8000</v>
       </c>
-      <c r="H151" s="16" t="s">
-        <v>154</v>
+      <c r="H151" s="15" t="s">
+        <v>158</v>
       </c>
       <c r="I151" s="11" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="J151" s="12"/>
     </row>
-    <row r="152" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="152" ht="20.1" customHeight="1" spans="3:10">
       <c r="C152" s="11">
         <v>30008</v>
       </c>
@@ -5957,15 +6508,15 @@
       <c r="G152" s="14">
         <v>13000</v>
       </c>
-      <c r="H152" s="16" t="s">
-        <v>156</v>
+      <c r="H152" s="15" t="s">
+        <v>160</v>
       </c>
       <c r="I152" s="11" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="J152" s="12"/>
     </row>
-    <row r="153" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="153" ht="20.1" customHeight="1" spans="3:10">
       <c r="C153" s="11">
         <v>30009</v>
       </c>
@@ -5979,15 +6530,15 @@
       <c r="G153" s="14">
         <v>20000</v>
       </c>
-      <c r="H153" s="16" t="s">
-        <v>158</v>
+      <c r="H153" s="15" t="s">
+        <v>162</v>
       </c>
       <c r="I153" s="11" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="J153" s="12"/>
     </row>
-    <row r="154" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="154" ht="20.1" customHeight="1" spans="3:10">
       <c r="C154" s="11">
         <v>30010</v>
       </c>
@@ -6001,15 +6552,15 @@
       <c r="G154" s="14">
         <v>30000</v>
       </c>
-      <c r="H154" s="20" t="s">
-        <v>235</v>
+      <c r="H154" s="15" t="s">
+        <v>164</v>
       </c>
       <c r="I154" s="11" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="J154" s="12"/>
     </row>
-    <row r="155" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="155" ht="20.1" customHeight="1" spans="3:9">
       <c r="C155" s="13">
         <v>31001</v>
       </c>
@@ -6023,14 +6574,14 @@
       <c r="G155" s="14">
         <v>0</v>
       </c>
-      <c r="H155" s="16" t="s">
-        <v>161</v>
+      <c r="H155" s="15" t="s">
+        <v>166</v>
       </c>
       <c r="I155" s="11" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="156" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="156" ht="20.1" customHeight="1" spans="3:9">
       <c r="C156" s="13">
         <v>31002</v>
       </c>
@@ -6044,14 +6595,14 @@
       <c r="G156" s="14">
         <v>0</v>
       </c>
-      <c r="H156" s="16" t="s">
+      <c r="H156" s="15" t="s">
         <v>116</v>
       </c>
       <c r="I156" s="11" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="157" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="157" ht="20.1" customHeight="1" spans="3:9">
       <c r="C157" s="13">
         <v>31003</v>
       </c>
@@ -6065,14 +6616,14 @@
       <c r="G157" s="14">
         <v>0</v>
       </c>
-      <c r="H157" s="16" t="s">
+      <c r="H157" s="15" t="s">
         <v>92</v>
       </c>
       <c r="I157" s="11" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="158" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="158" ht="20.1" customHeight="1" spans="3:9">
       <c r="C158" s="13">
         <v>31004</v>
       </c>
@@ -6086,14 +6637,14 @@
       <c r="G158" s="14">
         <v>0</v>
       </c>
-      <c r="H158" s="16" t="s">
+      <c r="H158" s="15" t="s">
         <v>121</v>
       </c>
       <c r="I158" s="11" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="159" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="159" ht="20.1" customHeight="1" spans="3:9">
       <c r="C159" s="13">
         <v>31005</v>
       </c>
@@ -6107,14 +6658,14 @@
       <c r="G159" s="14">
         <v>0</v>
       </c>
-      <c r="H159" s="16" t="s">
+      <c r="H159" s="15" t="s">
         <v>94</v>
       </c>
       <c r="I159" s="11" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="160" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="160" ht="20.1" customHeight="1" spans="3:9">
       <c r="C160" s="13">
         <v>31006</v>
       </c>
@@ -6128,14 +6679,14 @@
       <c r="G160" s="14">
         <v>0</v>
       </c>
-      <c r="H160" s="16" t="s">
+      <c r="H160" s="15" t="s">
         <v>93</v>
       </c>
       <c r="I160" s="11" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="161" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="161" ht="20.1" customHeight="1" spans="3:9">
       <c r="C161" s="13">
         <v>31007</v>
       </c>
@@ -6149,14 +6700,14 @@
       <c r="G161" s="14">
         <v>0</v>
       </c>
-      <c r="H161" s="16" t="s">
-        <v>142</v>
+      <c r="H161" s="15" t="s">
+        <v>144</v>
       </c>
       <c r="I161" s="11" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="162" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="162" ht="20.1" customHeight="1" spans="3:9">
       <c r="C162" s="13">
         <v>32001</v>
       </c>
@@ -6168,16 +6719,16 @@
         <v>1</v>
       </c>
       <c r="G162" s="14" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="H162" s="14" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="I162" s="11" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="163" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="163" ht="20.1" customHeight="1" spans="3:9">
       <c r="C163" s="13">
         <v>32002</v>
       </c>
@@ -6189,16 +6740,16 @@
         <v>1</v>
       </c>
       <c r="G163" s="14" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="H163" s="14" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="I163" s="11" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="164" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="164" ht="20.1" customHeight="1" spans="3:9">
       <c r="C164" s="13">
         <v>32003</v>
       </c>
@@ -6210,16 +6761,16 @@
         <v>1</v>
       </c>
       <c r="G164" s="14" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="H164" s="14" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="I164" s="11" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="165" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="165" ht="20.1" customHeight="1" spans="3:9">
       <c r="C165" s="13">
         <v>32004</v>
       </c>
@@ -6231,16 +6782,16 @@
         <v>1</v>
       </c>
       <c r="G165" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="H165" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="I165" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="H165" s="14" t="s">
-        <v>177</v>
-      </c>
-      <c r="I165" s="11" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="166" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="166" ht="20.1" customHeight="1" spans="3:9">
       <c r="C166" s="13">
         <v>32005</v>
       </c>
@@ -6252,16 +6803,16 @@
         <v>1</v>
       </c>
       <c r="G166" s="14" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="H166" s="14" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="I166" s="11" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="167" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="167" ht="20.1" customHeight="1" spans="3:9">
       <c r="C167" s="13">
         <v>32006</v>
       </c>
@@ -6273,16 +6824,16 @@
         <v>1</v>
       </c>
       <c r="G167" s="14" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="H167" s="14" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="I167" s="11" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="168" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="168" ht="20.1" customHeight="1" spans="3:9">
       <c r="C168" s="13">
         <v>32007</v>
       </c>
@@ -6294,16 +6845,16 @@
         <v>1</v>
       </c>
       <c r="G168" s="14" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="H168" s="14" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="I168" s="11" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="169" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="169" ht="20.1" customHeight="1" spans="3:9">
       <c r="C169" s="13">
         <v>32008</v>
       </c>
@@ -6315,16 +6866,16 @@
         <v>1</v>
       </c>
       <c r="G169" s="14" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="H169" s="14" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="I169" s="11" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="170" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="170" ht="20.1" customHeight="1" spans="3:9">
       <c r="C170" s="13">
         <v>33001</v>
       </c>
@@ -6333,15 +6884,15 @@
       </c>
       <c r="E170" s="13"/>
       <c r="F170" s="13" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="G170" s="14"/>
       <c r="H170" s="14"/>
       <c r="I170" s="11" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="171" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="171" ht="20.1" customHeight="1" spans="3:9">
       <c r="C171" s="13">
         <v>33002</v>
       </c>
@@ -6350,15 +6901,15 @@
       </c>
       <c r="E171" s="13"/>
       <c r="F171" s="13" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="G171" s="14"/>
       <c r="H171" s="14"/>
       <c r="I171" s="11" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="172" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="172" ht="20.1" customHeight="1" spans="3:9">
       <c r="C172" s="13">
         <v>33003</v>
       </c>
@@ -6367,15 +6918,15 @@
       </c>
       <c r="E172" s="13"/>
       <c r="F172" s="13" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="G172" s="14"/>
       <c r="H172" s="14"/>
       <c r="I172" s="11" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="173" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="173" ht="20.1" customHeight="1" spans="3:9">
       <c r="C173" s="13">
         <v>33004</v>
       </c>
@@ -6384,15 +6935,15 @@
       </c>
       <c r="E173" s="13"/>
       <c r="F173" s="13" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="G173" s="14"/>
       <c r="H173" s="14"/>
       <c r="I173" s="11" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="174" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="174" ht="20.1" customHeight="1" spans="3:9">
       <c r="C174" s="13">
         <v>33005</v>
       </c>
@@ -6401,15 +6952,15 @@
       </c>
       <c r="E174" s="13"/>
       <c r="F174" s="13" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="G174" s="14"/>
       <c r="H174" s="14"/>
       <c r="I174" s="11" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="175" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="175" ht="20.1" customHeight="1" spans="3:9">
       <c r="C175" s="13">
         <v>33006</v>
       </c>
@@ -6418,15 +6969,15 @@
       </c>
       <c r="E175" s="13"/>
       <c r="F175" s="13" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="G175" s="14"/>
       <c r="H175" s="14"/>
       <c r="I175" s="11" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="176" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="176" ht="20.1" customHeight="1" spans="3:9">
       <c r="C176" s="13">
         <v>33007</v>
       </c>
@@ -6435,15 +6986,15 @@
       </c>
       <c r="E176" s="13"/>
       <c r="F176" s="13" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="G176" s="14"/>
       <c r="H176" s="14"/>
       <c r="I176" s="11" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="177" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="177" ht="20.1" customHeight="1" spans="3:9">
       <c r="C177" s="13">
         <v>33008</v>
       </c>
@@ -6452,15 +7003,15 @@
       </c>
       <c r="E177" s="13"/>
       <c r="F177" s="13" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="G177" s="14"/>
       <c r="H177" s="14"/>
       <c r="I177" s="11" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="178" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="178" ht="20.1" customHeight="1" spans="3:9">
       <c r="C178" s="13">
         <v>33009</v>
       </c>
@@ -6469,15 +7020,15 @@
       </c>
       <c r="E178" s="13"/>
       <c r="F178" s="13" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="G178" s="14"/>
       <c r="H178" s="14"/>
       <c r="I178" s="11" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="179" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="179" ht="20.1" customHeight="1" spans="3:9">
       <c r="C179" s="13">
         <v>33010</v>
       </c>
@@ -6486,15 +7037,15 @@
       </c>
       <c r="E179" s="13"/>
       <c r="F179" s="13" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="G179" s="14"/>
       <c r="H179" s="14"/>
       <c r="I179" s="11" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="180" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="180" ht="20.1" customHeight="1" spans="3:9">
       <c r="C180" s="13">
         <v>33011</v>
       </c>
@@ -6503,15 +7054,15 @@
       </c>
       <c r="E180" s="13"/>
       <c r="F180" s="13" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="G180" s="14"/>
       <c r="H180" s="14"/>
       <c r="I180" s="11" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="181" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="181" ht="20.1" customHeight="1" spans="3:9">
       <c r="C181" s="13">
         <v>33012</v>
       </c>
@@ -6520,15 +7071,15 @@
       </c>
       <c r="E181" s="13"/>
       <c r="F181" s="13" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="G181" s="14"/>
       <c r="H181" s="14"/>
       <c r="I181" s="11" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="182" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="182" ht="20.1" customHeight="1" spans="3:9">
       <c r="C182" s="13">
         <v>33013</v>
       </c>
@@ -6537,15 +7088,15 @@
       </c>
       <c r="E182" s="13"/>
       <c r="F182" s="13" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="G182" s="14"/>
       <c r="H182" s="14"/>
       <c r="I182" s="11" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="183" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="183" ht="20.1" customHeight="1" spans="3:9">
       <c r="C183" s="13">
         <v>33014</v>
       </c>
@@ -6554,15 +7105,15 @@
       </c>
       <c r="E183" s="13"/>
       <c r="F183" s="13" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="G183" s="14"/>
       <c r="H183" s="14"/>
       <c r="I183" s="11" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="184" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="184" ht="20.1" customHeight="1" spans="3:9">
       <c r="C184" s="13">
         <v>33015</v>
       </c>
@@ -6571,15 +7122,15 @@
       </c>
       <c r="E184" s="13"/>
       <c r="F184" s="13" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="G184" s="14"/>
       <c r="H184" s="14"/>
       <c r="I184" s="11" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="185" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="185" ht="20.1" customHeight="1" spans="3:9">
       <c r="C185" s="13">
         <v>33016</v>
       </c>
@@ -6588,15 +7139,15 @@
       </c>
       <c r="E185" s="13"/>
       <c r="F185" s="13" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="G185" s="14"/>
       <c r="H185" s="14"/>
       <c r="I185" s="11" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="186" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="186" ht="20.1" customHeight="1" spans="3:9">
       <c r="C186" s="13">
         <v>33017</v>
       </c>
@@ -6605,15 +7156,15 @@
       </c>
       <c r="E186" s="13"/>
       <c r="F186" s="13" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="G186" s="14"/>
       <c r="H186" s="14"/>
       <c r="I186" s="11" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="187" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="187" ht="20.1" customHeight="1" spans="3:9">
       <c r="C187" s="13">
         <v>33018</v>
       </c>
@@ -6622,15 +7173,15 @@
       </c>
       <c r="E187" s="13"/>
       <c r="F187" s="13" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="G187" s="14"/>
       <c r="H187" s="14"/>
       <c r="I187" s="11" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="188" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="188" ht="20.1" customHeight="1" spans="3:9">
       <c r="C188" s="13">
         <v>33019</v>
       </c>
@@ -6639,15 +7190,15 @@
       </c>
       <c r="E188" s="13"/>
       <c r="F188" s="13" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="G188" s="14"/>
       <c r="H188" s="14"/>
       <c r="I188" s="11" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="189" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="189" ht="20.1" customHeight="1" spans="3:9">
       <c r="C189" s="13">
         <v>33020</v>
       </c>
@@ -6656,15 +7207,15 @@
       </c>
       <c r="E189" s="13"/>
       <c r="F189" s="13" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="G189" s="14"/>
       <c r="H189" s="14"/>
       <c r="I189" s="11" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="190" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="190" ht="20.1" customHeight="1" spans="3:9">
       <c r="C190" s="13">
         <v>34001</v>
       </c>
@@ -6676,16 +7227,16 @@
         <v>12</v>
       </c>
       <c r="G190" s="14" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="H190" s="14" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="I190" s="11" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="191" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="191" ht="20.1" customHeight="1" spans="3:9">
       <c r="C191" s="13">
         <v>34002</v>
       </c>
@@ -6697,16 +7248,16 @@
         <v>15</v>
       </c>
       <c r="G191" s="14" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="H191" s="14" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="I191" s="11" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="192" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="192" ht="20.1" customHeight="1" spans="3:9">
       <c r="C192" s="13">
         <v>35001</v>
       </c>
@@ -6718,12 +7269,12 @@
         <v>6</v>
       </c>
       <c r="G192" s="14" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="H192" s="14"/>
       <c r="I192" s="11"/>
     </row>
-    <row r="193" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="193" ht="20.1" customHeight="1" spans="3:9">
       <c r="C193" s="13">
         <v>35002</v>
       </c>
@@ -6735,12 +7286,12 @@
         <v>30</v>
       </c>
       <c r="G193" s="14" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="H193" s="14"/>
       <c r="I193" s="11"/>
     </row>
-    <row r="194" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="194" ht="20.1" customHeight="1" spans="3:9">
       <c r="C194" s="13">
         <v>35003</v>
       </c>
@@ -6752,12 +7303,12 @@
         <v>50</v>
       </c>
       <c r="G194" s="14" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="H194" s="14"/>
       <c r="I194" s="11"/>
     </row>
-    <row r="195" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="195" ht="20.1" customHeight="1" spans="3:9">
       <c r="C195" s="13">
         <v>35004</v>
       </c>
@@ -6769,12 +7320,12 @@
         <v>98</v>
       </c>
       <c r="G195" s="14" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="H195" s="14"/>
       <c r="I195" s="11"/>
     </row>
-    <row r="196" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="196" ht="20.1" customHeight="1" spans="3:9">
       <c r="C196" s="13">
         <v>35005</v>
       </c>
@@ -6786,12 +7337,12 @@
         <v>198</v>
       </c>
       <c r="G196" s="14" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="H196" s="14"/>
       <c r="I196" s="11"/>
     </row>
-    <row r="197" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="197" ht="20.1" customHeight="1" spans="3:9">
       <c r="C197" s="13">
         <v>35006</v>
       </c>
@@ -6803,12 +7354,12 @@
         <v>298</v>
       </c>
       <c r="G197" s="14" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="H197" s="14"/>
       <c r="I197" s="11"/>
     </row>
-    <row r="198" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="198" ht="20.1" customHeight="1" spans="3:9">
       <c r="C198" s="13">
         <v>35007</v>
       </c>
@@ -6820,12 +7371,12 @@
         <v>488</v>
       </c>
       <c r="G198" s="14" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="H198" s="14"/>
       <c r="I198" s="11"/>
     </row>
-    <row r="199" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="199" ht="20.1" customHeight="1" spans="3:9">
       <c r="C199" s="13">
         <v>35008</v>
       </c>
@@ -6837,31 +7388,31 @@
         <v>648</v>
       </c>
       <c r="G199" s="14" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="H199" s="14"/>
       <c r="I199" s="11"/>
     </row>
-    <row r="200" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="201" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="202" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="203" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="204" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="205" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="206" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="207" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="208" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="209" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="210" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="211" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="212" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="200" ht="20.1" customHeight="1"/>
+    <row r="201" ht="20.1" customHeight="1"/>
+    <row r="202" ht="20.1" customHeight="1"/>
+    <row r="203" ht="20.1" customHeight="1"/>
+    <row r="204" ht="20.1" customHeight="1"/>
+    <row r="205" ht="20.1" customHeight="1"/>
+    <row r="206" ht="20.1" customHeight="1"/>
+    <row r="207" ht="20.1" customHeight="1"/>
+    <row r="208" ht="20.1" customHeight="1"/>
+    <row r="209" ht="20.1" customHeight="1"/>
+    <row r="210" ht="20.1" customHeight="1"/>
+    <row r="211" ht="20.1" customHeight="1"/>
+    <row r="212" ht="20.1" customHeight="1"/>
   </sheetData>
-  <phoneticPr fontId="10" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <legacyDrawing r:id="rId1"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>